--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81CA501-14E7-447C-9BAE-D8B8FF49ECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6261E2-45FF-4443-AA19-0460A8AFF5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4486,7 +4486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="A1:Z509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,7 +4615,7 @@
       <c r="W2" s="2"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="W3" s="2"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="W8" s="2"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="W18" s="2"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="W23" s="2"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -5612,7 +5612,7 @@
       <c r="W24" s="2"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="W29" s="2"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="W30" s="2"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="W32" s="2"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6018,7 +6018,7 @@
       <c r="W33" s="2"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="W37" s="2"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="W49" s="2"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="W51" s="2"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="W53" s="2"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="W54" s="2"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="W63" s="2"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="W66" s="2"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="W67" s="2"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="W68" s="2"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="W70" s="2"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="W71" s="2"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>96</v>
       </c>
@@ -7939,7 +7939,7 @@
       <c r="W77" s="2"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>136</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="W91" s="2"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>160</v>
       </c>
@@ -8694,7 +8694,7 @@
       <c r="W92" s="2"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>160</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="W93" s="2"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
@@ -8790,7 +8790,7 @@
       <c r="W94" s="2"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>160</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="W95" s="2"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>160</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="W96" s="2"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>160</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="W97" s="2"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>160</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="W98" s="2"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="W101" s="2"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -9542,7 +9542,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>112</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -9833,7 +9833,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -9880,7 +9880,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -9974,7 +9974,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10067,7 +10067,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10118,7 +10118,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>158</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>158</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>158</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>158</v>
       </c>
@@ -10373,7 +10373,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>158</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -10467,7 +10467,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>158</v>
       </c>
@@ -10713,7 +10713,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>16</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>16</v>
       </c>
@@ -10819,7 +10819,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>16</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>16</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>38</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>40</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>40</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>156</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>156</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>156</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>46</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>50</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>50</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>50</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>50</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>54</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>58</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>60</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>60</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>60</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>140</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>126</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>126</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>126</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>126</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>126</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>62</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>122</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>120</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>120</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>120</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>186</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>76</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>44</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>68</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>188</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>72</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>72</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>72</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>72</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>78</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>64</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>82</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>86</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>80</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>90</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>84</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>150</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>100</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>98</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>108</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>104</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>124</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>124</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>124</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>94</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>134</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>192</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>114</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>128</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>110</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>182</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>184</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>184</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>138</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>130</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>56</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>22</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>144</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>142</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>146</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>146</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>74</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>154</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>154</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>154</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>154</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>154</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>154</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>154</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>162</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>164</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>166</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>166</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>170</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>170</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>170</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>172</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>168</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>118</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>118</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>118</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>118</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>118</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>24</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>176</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>176</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>176</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>106</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>180</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>190</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>178</v>
       </c>
@@ -23426,7 +23426,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>152</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>194</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>196</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>198</v>
       </c>
@@ -23737,7 +23737,7 @@
       <c r="W506" s="2"/>
       <c r="Y506" s="3"/>
     </row>
-    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
         <v>30</v>
       </c>
@@ -23797,7 +23797,7 @@
       <c r="W508" s="2"/>
       <c r="Y508" s="3"/>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6" t="s">
         <v>200</v>
       </c>
@@ -23839,9 +23839,7 @@
   </sheetData>
   <autoFilter ref="A1:P509" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="14">
       <filters>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6261E2-45FF-4443-AA19-0460A8AFF5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8AC25-226C-4DD4-A564-923BD858545F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="langInfo_100LC" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
+    <sheet name="langInfo_100LC" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$509</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">langInfo_100LC!$A$1:$S$101</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">langInfo_100LC!$A$1:$S$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5801" uniqueCount="1373">
   <si>
     <t>iso639_3</t>
   </si>
@@ -3967,9 +3968,6 @@
     <t>path-ortho</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/kore.axt</t>
-  </si>
-  <si>
     <t>http://speech.ilsp.gr/iplr/downloads.htm</t>
   </si>
   <si>
@@ -3979,15 +3977,9 @@
     <t>online</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/aey.txt</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/alamblak.pdf</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/amele.pdf</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/standard-chinese-beijing.pdf</t>
   </si>
   <si>
@@ -4004,6 +3996,174 @@
   </si>
   <si>
     <t>theNorthWindAndTheSun/arn-narrow.txt</t>
+  </si>
+  <si>
+    <t>aey.txt</t>
+  </si>
+  <si>
+    <t>aey-orthographic.txt</t>
+  </si>
+  <si>
+    <t>amele.pdf</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/cmn-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/cmn.txt</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Die_Sonne_und_der_Wind</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/ell.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/ell-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/hau-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/hau.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/hin.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kor.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/heb.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kat-ortho.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kat-broad.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kat-narrow.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/mya-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/mya.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/pes.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/spa-narrow.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/spa-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/spa-broad.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/tha.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/tha-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/tur.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/tur-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/heb-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/arn-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/cmn_hani_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/ger_latn_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/ger_latn_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/gre_grek_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/eng_latn_uk_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/eng_latn_uk_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/baq_latn_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/baq_latn_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/tha_thai_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/heb_hebr_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/ind_latn_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/geo_geor_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/bur_mymr_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/spa_latn_la_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/spa_latn_la_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/tur_latn_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/cmn-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/deu-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/ell-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/eng-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/eus-ortho.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/heb-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/ind-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/kat-ortho.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/mya-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/spa-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/tha-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/tur-orthographic.txt</t>
   </si>
 </sst>
 </file>
@@ -4484,15 +4644,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z509"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H137" sqref="A1:Z509"/>
+      <selection pane="bottomLeft" activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="9" customWidth="1"/>
@@ -4615,7 +4776,7 @@
       <c r="W2" s="2"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4664,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>331</v>
@@ -4896,7 +5057,7 @@
       <c r="W8" s="2"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -4910,10 +5071,13 @@
         <v>218</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1313</v>
+        <v>1319</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>1318</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>328</v>
@@ -5378,7 +5542,7 @@
         <v>218</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>5</v>
@@ -5592,7 +5756,7 @@
       <c r="W23" s="2"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -5612,7 +5776,7 @@
       <c r="W24" s="2"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -5828,7 +5992,7 @@
       <c r="W29" s="2"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -5839,7 +6003,7 @@
         <v>226</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>218</v>
@@ -5848,10 +6012,10 @@
         <v>753</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>753</v>
+        <v>1344</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>752</v>
@@ -5877,7 +6041,7 @@
       <c r="W30" s="2"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -5888,7 +6052,7 @@
         <v>226</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>218</v>
@@ -5897,10 +6061,10 @@
         <v>753</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>753</v>
+        <v>1344</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>752</v>
@@ -6214,7 +6378,7 @@
       <c r="W37" s="2"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6768,7 +6932,7 @@
       <c r="W49" s="2"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -6838,7 +7002,7 @@
       <c r="W51" s="2"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +7071,7 @@
       <c r="W53" s="2"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -6927,7 +7091,7 @@
       <c r="W54" s="2"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7340,7 +7504,7 @@
       <c r="W63" s="2"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7459,7 +7623,7 @@
       <c r="W66" s="2"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -7479,7 +7643,7 @@
       <c r="W67" s="2"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -7591,7 +7755,7 @@
       <c r="W70" s="2"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -7605,12 +7769,14 @@
         <v>218</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I71" s="6"/>
+        <v>1320</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>1321</v>
+      </c>
       <c r="J71" s="13" t="s">
         <v>208</v>
       </c>
@@ -8740,12 +8906,12 @@
       <c r="W93" s="2"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>226</v>
@@ -8758,13 +8924,13 @@
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="9" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>208</v>
+        <v>1322</v>
       </c>
       <c r="K94" s="12">
         <v>44386</v>
@@ -8790,12 +8956,12 @@
       <c r="W94" s="2"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>226</v>
@@ -8808,13 +8974,13 @@
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="9" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>208</v>
+        <v>1322</v>
       </c>
       <c r="K95" s="12">
         <v>44386</v>
@@ -8981,7 +9147,7 @@
       <c r="W98" s="2"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9096,7 +9262,7 @@
       <c r="W101" s="2"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9451,7 +9617,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -9466,6 +9632,12 @@
       </c>
       <c r="G110" s="8" t="s">
         <v>754</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>1323</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>755</v>
@@ -9709,10 +9881,10 @@
         <v>218</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K115" s="12">
         <v>44439</v>
@@ -10467,7 +10639,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -10665,7 +10837,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>158</v>
       </c>
@@ -10713,7 +10885,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>16</v>
       </c>
@@ -10724,7 +10896,7 @@
         <v>226</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>218</v>
@@ -10766,7 +10938,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>16</v>
       </c>
@@ -10777,7 +10949,7 @@
         <v>226</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>218</v>
@@ -11176,7 +11348,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>38</v>
       </c>
@@ -12145,7 +12317,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -12276,7 +12448,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -12287,7 +12459,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -12298,7 +12470,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -12309,7 +12481,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -12599,7 +12771,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>46</v>
       </c>
@@ -12617,6 +12789,12 @@
       </c>
       <c r="G186" s="8" t="s">
         <v>739</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>1326</v>
       </c>
       <c r="J186" s="9" t="s">
         <v>740</v>
@@ -12712,7 +12890,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
@@ -12727,6 +12905,12 @@
       </c>
       <c r="G189" s="8" t="s">
         <v>751</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>1329</v>
       </c>
       <c r="J189" s="9" t="s">
         <v>750</v>
@@ -12763,6 +12947,9 @@
       <c r="G190" s="8" t="s">
         <v>745</v>
       </c>
+      <c r="I190" s="9" t="s">
+        <v>1327</v>
+      </c>
       <c r="J190" s="9" t="s">
         <v>741</v>
       </c>
@@ -12899,7 +13086,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13308,7 +13495,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>54</v>
       </c>
@@ -13359,7 +13546,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>58</v>
       </c>
@@ -13370,7 +13557,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>60</v>
       </c>
@@ -13845,7 +14032,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>140</v>
       </c>
@@ -14171,7 +14358,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>122</v>
       </c>
@@ -14182,7 +14369,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -14193,7 +14380,7 @@
         <v>226</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>218</v>
@@ -14201,6 +14388,12 @@
       <c r="G230" s="8" t="s">
         <v>737</v>
       </c>
+      <c r="H230" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I230" s="9" t="s">
+        <v>1331</v>
+      </c>
       <c r="J230" s="9" t="s">
         <v>738</v>
       </c>
@@ -14217,7 +14410,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>120</v>
       </c>
@@ -14228,13 +14421,19 @@
         <v>226</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G231" s="8" t="s">
         <v>737</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>1332</v>
       </c>
       <c r="J231" s="9" t="s">
         <v>738</v>
@@ -14492,7 +14691,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>186</v>
       </c>
@@ -14546,7 +14745,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>76</v>
       </c>
@@ -14686,7 +14885,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>44</v>
       </c>
@@ -14740,7 +14939,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>68</v>
       </c>
@@ -14826,7 +15025,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>188</v>
       </c>
@@ -14888,11 +15087,8 @@
       <c r="G251" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="H251" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="I251" s="6" t="s">
-        <v>1307</v>
+      <c r="I251" s="9" t="s">
+        <v>1328</v>
       </c>
       <c r="J251" s="13" t="s">
         <v>747</v>
@@ -15102,7 +15298,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>78</v>
       </c>
@@ -15153,7 +15349,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>64</v>
       </c>
@@ -15604,7 +15800,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>82</v>
       </c>
@@ -15855,7 +16051,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>86</v>
       </c>
@@ -16106,7 +16302,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>80</v>
       </c>
@@ -16117,7 +16313,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>90</v>
       </c>
@@ -16603,7 +16799,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>84</v>
       </c>
@@ -16817,7 +17013,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>150</v>
       </c>
@@ -16948,7 +17144,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>100</v>
       </c>
@@ -16959,7 +17155,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>98</v>
       </c>
@@ -16970,7 +17166,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>108</v>
       </c>
@@ -17181,7 +17377,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>104</v>
       </c>
@@ -17224,7 +17420,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>124</v>
       </c>
@@ -17239,6 +17435,12 @@
       </c>
       <c r="G319" s="8" t="s">
         <v>735</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I319" s="9" t="s">
+        <v>1334</v>
       </c>
       <c r="J319" s="13" t="s">
         <v>736</v>
@@ -17336,7 +17538,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>94</v>
       </c>
@@ -17347,7 +17549,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>134</v>
       </c>
@@ -17393,7 +17595,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>192</v>
       </c>
@@ -18564,7 +18766,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>114</v>
       </c>
@@ -18747,7 +18949,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>128</v>
       </c>
@@ -18801,7 +19003,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>110</v>
       </c>
@@ -18935,7 +19137,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>182</v>
       </c>
@@ -19112,6 +19314,9 @@
       <c r="G371" s="8" t="s">
         <v>761</v>
       </c>
+      <c r="I371" s="9" t="s">
+        <v>1335</v>
+      </c>
       <c r="J371" s="9" t="s">
         <v>760</v>
       </c>
@@ -19682,7 +19887,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>138</v>
       </c>
@@ -19693,7 +19898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>130</v>
       </c>
@@ -19705,7 +19910,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>56</v>
       </c>
@@ -19717,7 +19922,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>22</v>
       </c>
@@ -19729,7 +19934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>144</v>
       </c>
@@ -19891,7 +20096,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>142</v>
       </c>
@@ -20445,7 +20650,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -20457,7 +20662,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -20869,7 +21074,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>74</v>
       </c>
@@ -20919,7 +21124,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -20938,7 +21143,12 @@
       <c r="G424" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="H424" s="6"/>
+      <c r="H424" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I424" s="9" t="s">
+        <v>1336</v>
+      </c>
       <c r="J424" s="13" t="s">
         <v>756</v>
       </c>
@@ -20958,7 +21168,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>154</v>
       </c>
@@ -20977,7 +21187,12 @@
       <c r="G425" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="H425" s="6"/>
+      <c r="H425" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I425" s="9" t="s">
+        <v>1338</v>
+      </c>
       <c r="J425" s="13" t="s">
         <v>756</v>
       </c>
@@ -21569,7 +21784,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>162</v>
       </c>
@@ -22050,7 +22265,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>170</v>
       </c>
@@ -22065,6 +22280,12 @@
       </c>
       <c r="G453" s="8" t="s">
         <v>749</v>
+      </c>
+      <c r="H453" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I453" s="9" t="s">
+        <v>1339</v>
       </c>
       <c r="J453" s="9" t="s">
         <v>746</v>
@@ -22162,7 +22383,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>172</v>
       </c>
@@ -22324,7 +22545,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>168</v>
       </c>
@@ -22444,7 +22665,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>118</v>
       </c>
@@ -22462,6 +22683,12 @@
       </c>
       <c r="G465" s="8" t="s">
         <v>759</v>
+      </c>
+      <c r="H465" s="9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I465" s="9" t="s">
+        <v>1341</v>
       </c>
       <c r="J465" s="13" t="s">
         <v>758</v>
@@ -22852,7 +23079,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>24</v>
       </c>
@@ -23244,7 +23471,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>106</v>
       </c>
@@ -23256,7 +23483,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>180</v>
       </c>
@@ -23370,7 +23597,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>190</v>
       </c>
@@ -23414,7 +23641,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>178</v>
       </c>
@@ -23426,7 +23653,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>152</v>
       </c>
@@ -23437,7 +23664,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>194</v>
       </c>
@@ -23576,7 +23803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>196</v>
       </c>
@@ -23737,7 +23964,7 @@
       <c r="W506" s="2"/>
       <c r="Y506" s="3"/>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
         <v>30</v>
       </c>
@@ -23838,8 +24065,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P509" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters blank="1"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="full text"/>
+        <filter val="full text (the north wind and the sun)"/>
+        <filter val="full text, word list"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="14">
       <filters>
@@ -23867,6 +24103,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C2734-B933-4C84-90BB-81AC6BC51564}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D031536-AC86-450E-8B25-7F340394AA63}">
   <dimension ref="A1:S101"/>
   <sheetViews>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8AC25-226C-4DD4-A564-923BD858545F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1E09F-6402-4564-A71A-F4560EB4FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5801" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5817" uniqueCount="1373">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4646,7 +4646,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B514" sqref="B514"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9:I465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24104,19 +24104,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C2734-B933-4C84-90BB-81AC6BC51564}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -24126,8 +24127,11 @@
       <c r="C1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="9" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -24137,8 +24141,11 @@
       <c r="C2" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
@@ -24148,8 +24155,11 @@
       <c r="C3" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>112</v>
       </c>
@@ -24159,8 +24169,11 @@
       <c r="C4" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>158</v>
       </c>
@@ -24170,8 +24183,11 @@
       <c r="C5" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>158</v>
       </c>
@@ -24181,8 +24197,11 @@
       <c r="C6" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -24192,8 +24211,11 @@
       <c r="C7" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -24203,8 +24225,11 @@
       <c r="C8" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
@@ -24214,8 +24239,11 @@
       <c r="C9" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -24225,8 +24253,11 @@
       <c r="C10" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>120</v>
       </c>
@@ -24236,8 +24267,11 @@
       <c r="C11" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>124</v>
       </c>
@@ -24247,8 +24281,11 @@
       <c r="C12" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>154</v>
       </c>
@@ -24258,8 +24295,11 @@
       <c r="C13" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
@@ -24269,8 +24309,11 @@
       <c r="C14" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>170</v>
       </c>
@@ -24280,8 +24323,11 @@
       <c r="C15" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>118</v>
       </c>
@@ -24290,6 +24336,9 @@
       </c>
       <c r="C16" t="s">
         <v>1360</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1341</v>
       </c>
     </row>
   </sheetData>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1E09F-6402-4564-A71A-F4560EB4FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFAC73-0F99-4CDC-976D-DC5D7A7F65A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5817" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5939" uniqueCount="1407">
   <si>
     <t>iso639_3</t>
   </si>
@@ -3977,9 +3977,6 @@
     <t>online</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/alamblak.pdf</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/standard-chinese-beijing.pdf</t>
   </si>
   <si>
@@ -4164,6 +4161,111 @@
   </si>
   <si>
     <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/tur-orthographic.txt</t>
+  </si>
+  <si>
+    <t>alamblak.pdf</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun\pes-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun\kor-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun\hin-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/cmn.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/deu-broad.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/deu-narrow.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/ell.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/eng-broad.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/eng-narrow.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/eus-broad.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/eus-narrow.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/heb.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/ind.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/kat-broad.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/mya.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/spa-broad.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/spa-narrow.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/tha.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/tur.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/hin.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/kor.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/pes.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/hin-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/word-list/hin_deva_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/kor-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/word-list/kor_hang_narrow_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/pes-orthographic.txt</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/word-list/per_arab_broad.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/word-list/per_arab_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/word-list/gre_grek_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/masterThesis/data/word-list/hin_deva_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:\Users\debor\masterThesis\data\word-list\heb_hebr_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:\Users\debor\masterThesis\data\word-list\ind_latn_narrow.tsv</t>
+  </si>
+  <si>
+    <t>C:\Users\debor\masterThesis\data\word-list\tur_latn_narrow_filtered.tsv</t>
   </si>
 </sst>
 </file>
@@ -4646,7 +4748,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9:I465"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4878,7 @@
       <c r="W2" s="2"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5057,7 +5159,7 @@
       <c r="W8" s="2"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5071,13 +5173,13 @@
         <v>218</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>328</v>
@@ -5542,7 +5644,7 @@
         <v>218</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1310</v>
+        <v>1372</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>5</v>
@@ -6012,10 +6114,10 @@
         <v>753</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>752</v>
@@ -6061,10 +6163,10 @@
         <v>753</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>752</v>
@@ -7769,13 +7871,13 @@
         <v>218</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H71" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>1320</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>1321</v>
       </c>
       <c r="J71" s="13" t="s">
         <v>208</v>
@@ -8924,13 +9026,13 @@
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>1314</v>
-      </c>
       <c r="J94" s="9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K94" s="12">
         <v>44386</v>
@@ -8974,13 +9076,13 @@
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K95" s="12">
         <v>44386</v>
@@ -9634,10 +9736,10 @@
         <v>754</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>755</v>
@@ -12791,10 +12893,10 @@
         <v>739</v>
       </c>
       <c r="H186" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I186" s="9" t="s">
         <v>1325</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>1326</v>
       </c>
       <c r="J186" s="9" t="s">
         <v>740</v>
@@ -12907,10 +13009,10 @@
         <v>751</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="J189" s="9" t="s">
         <v>750</v>
@@ -12928,7 +13030,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>50</v>
       </c>
@@ -12947,8 +13049,11 @@
       <c r="G190" s="8" t="s">
         <v>745</v>
       </c>
+      <c r="H190" s="9" t="s">
+        <v>1375</v>
+      </c>
       <c r="I190" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>741</v>
@@ -14389,10 +14494,10 @@
         <v>737</v>
       </c>
       <c r="H230" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I230" s="9" t="s">
         <v>1330</v>
-      </c>
-      <c r="I230" s="9" t="s">
-        <v>1331</v>
       </c>
       <c r="J230" s="9" t="s">
         <v>738</v>
@@ -14430,10 +14535,10 @@
         <v>737</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I231" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J231" s="9" t="s">
         <v>738</v>
@@ -15071,7 +15176,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>72</v>
       </c>
@@ -15087,8 +15192,11 @@
       <c r="G251" s="8" t="s">
         <v>748</v>
       </c>
+      <c r="H251" s="9" t="s">
+        <v>1374</v>
+      </c>
       <c r="I251" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J251" s="13" t="s">
         <v>747</v>
@@ -17437,10 +17545,10 @@
         <v>735</v>
       </c>
       <c r="H319" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I319" s="9" t="s">
         <v>1333</v>
-      </c>
-      <c r="I319" s="9" t="s">
-        <v>1334</v>
       </c>
       <c r="J319" s="13" t="s">
         <v>736</v>
@@ -19298,7 +19406,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>184</v>
       </c>
@@ -19314,8 +19422,11 @@
       <c r="G371" s="8" t="s">
         <v>761</v>
       </c>
+      <c r="H371" s="9" t="s">
+        <v>1373</v>
+      </c>
       <c r="I371" s="9" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J371" s="9" t="s">
         <v>760</v>
@@ -21144,10 +21255,10 @@
         <v>757</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I424" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J424" s="13" t="s">
         <v>756</v>
@@ -21188,10 +21299,10 @@
         <v>757</v>
       </c>
       <c r="H425" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I425" s="9" t="s">
         <v>1337</v>
-      </c>
-      <c r="I425" s="9" t="s">
-        <v>1338</v>
       </c>
       <c r="J425" s="13" t="s">
         <v>756</v>
@@ -22282,10 +22393,10 @@
         <v>749</v>
       </c>
       <c r="H453" s="9" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I453" s="9" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J453" s="9" t="s">
         <v>746</v>
@@ -22685,10 +22796,10 @@
         <v>759</v>
       </c>
       <c r="H465" s="9" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J465" s="13" t="s">
         <v>758</v>
@@ -24067,12 +24178,10 @@
   <autoFilter ref="A1:P509" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="full text"/>
         <filter val="full text (the north wind and the sun)"/>
-        <filter val="full text, word list"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="7">
+    <filterColumn colId="8">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -24104,245 +24213,662 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C2734-B933-4C84-90BB-81AC6BC51564}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="70.140625" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C7" t="s">
         <v>1347</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>1348</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D8" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="C5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C15" t="s">
         <v>1350</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="C7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C26" t="s">
         <v>1352</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D26" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C27" t="s">
         <v>1359</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="C15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1341</v>
-      </c>
+      <c r="C28" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFAC73-0F99-4CDC-976D-DC5D7A7F65A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9631F66-CED1-4C7F-AF92-65FDEDBCBAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5939" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5970" uniqueCount="1429">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4091,12 +4091,6 @@
     <t>C:/Users/debor/wikipron/data/scrape/tsv/gre_grek_broad_filtered.tsv</t>
   </si>
   <si>
-    <t>C:/Users/debor/wikipron/data/scrape/tsv/eng_latn_uk_broad_filtered.tsv</t>
-  </si>
-  <si>
-    <t>C:/Users/debor/wikipron/data/scrape/tsv/eng_latn_uk_narrow.tsv</t>
-  </si>
-  <si>
     <t>C:/Users/debor/wikipron/data/scrape/tsv/baq_latn_broad.tsv</t>
   </si>
   <si>
@@ -4266,6 +4260,78 @@
   </si>
   <si>
     <t>C:\Users\debor\masterThesis\data\word-list\tur_latn_narrow_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/eng_latn_us_broad_filtered.tsv</t>
+  </si>
+  <si>
+    <t>C:/Users/debor/wikipron/data/scrape/tsv/eng_latn_us_narrow.tsv</t>
+  </si>
+  <si>
+    <t>133\,686</t>
+  </si>
+  <si>
+    <t>34\,145</t>
+  </si>
+  <si>
+    <t>10\,984</t>
+  </si>
+  <si>
+    <t>10\,547</t>
+  </si>
+  <si>
+    <t>57\,230</t>
+  </si>
+  <si>
+    <t>1\,633</t>
+  </si>
+  <si>
+    <t>1\,742</t>
+  </si>
+  <si>
+    <t>1\,439</t>
+  </si>
+  <si>
+    <t>9\,563</t>
+  </si>
+  <si>
+    <t>10\,812</t>
+  </si>
+  <si>
+    <t>1\,555</t>
+  </si>
+  <si>
+    <t>2\,637</t>
+  </si>
+  <si>
+    <t>15\,123</t>
+  </si>
+  <si>
+    <t>4\,631</t>
+  </si>
+  <si>
+    <t>52\,190</t>
+  </si>
+  <si>
+    <t>60\,677</t>
+  </si>
+  <si>
+    <t>15\,050</t>
+  </si>
+  <si>
+    <t>1\,812</t>
+  </si>
+  <si>
+    <t>1\,789</t>
+  </si>
+  <si>
+    <t>14\,141</t>
+  </si>
+  <si>
+    <t>1\,922</t>
+  </si>
+  <si>
+    <t>6\,128</t>
   </si>
 </sst>
 </file>
@@ -4748,7 +4814,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
+      <selection pane="bottomLeft" activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,7 +5710,7 @@
         <v>218</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>5</v>
@@ -10773,6 +10839,9 @@
       <c r="L131" s="11">
         <v>1</v>
       </c>
+      <c r="M131" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="N131" s="6" t="s">
         <v>159</v>
       </c>
@@ -10971,6 +11040,9 @@
       <c r="L135" s="11">
         <v>1</v>
       </c>
+      <c r="M135" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="N135" s="6" t="s">
         <v>159</v>
       </c>
@@ -13050,7 +13122,7 @@
         <v>745</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I190" s="9" t="s">
         <v>1326</v>
@@ -15193,7 +15265,7 @@
         <v>748</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>1327</v>
@@ -19423,7 +19495,7 @@
         <v>761</v>
       </c>
       <c r="H371" s="9" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I371" s="9" t="s">
         <v>1334</v>
@@ -24215,8 +24287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C2734-B933-4C84-90BB-81AC6BC51564}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24226,35 +24298,38 @@
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C1" t="s">
         <v>1344</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C2" t="s">
         <v>1345</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
@@ -24262,19 +24337,22 @@
       <c r="F2" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C3" t="s">
         <v>1346</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -24282,19 +24360,22 @@
       <c r="F3" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C4" t="s">
         <v>1345</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
@@ -24302,19 +24383,22 @@
       <c r="F4" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C5" t="s">
         <v>1346</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E5" t="s">
         <v>219</v>
@@ -24322,53 +24406,62 @@
       <c r="F5" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C6" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C7" t="s">
         <v>1347</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C8" t="s">
-        <v>1348</v>
+        <v>1405</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
@@ -24376,19 +24469,22 @@
       <c r="F8" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C9" t="s">
-        <v>1349</v>
+        <v>1406</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E9" t="s">
         <v>243</v>
@@ -24396,19 +24492,22 @@
       <c r="F9" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C10" t="s">
-        <v>1349</v>
+        <v>1406</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
@@ -24416,19 +24515,22 @@
       <c r="F10" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C11" t="s">
-        <v>1348</v>
+        <v>1405</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E11" t="s">
         <v>243</v>
@@ -24436,19 +24538,22 @@
       <c r="F11" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C12" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E12" t="s">
         <v>219</v>
@@ -24456,19 +24561,22 @@
       <c r="F12" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C13" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E13" t="s">
         <v>243</v>
@@ -24476,19 +24584,22 @@
       <c r="F13" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C14" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -24496,19 +24607,22 @@
       <c r="F14" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C15" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E15" t="s">
         <v>243</v>
@@ -24516,22 +24630,28 @@
       <c r="F15" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C16" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -24539,16 +24659,19 @@
         <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C17" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="G17">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -24556,16 +24679,19 @@
         <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C18" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -24573,16 +24699,19 @@
         <v>60</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C19" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -24590,19 +24719,22 @@
         <v>120</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C20" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E20" t="s">
         <v>219</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -24610,19 +24742,22 @@
         <v>124</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C21" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E21" t="s">
         <v>219</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -24630,19 +24765,22 @@
         <v>154</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C22" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -24650,19 +24788,22 @@
         <v>154</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C23" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -24670,19 +24811,22 @@
         <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C24" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E24" t="s">
         <v>219</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -24690,19 +24834,22 @@
         <v>154</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C25" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -24710,16 +24857,19 @@
         <v>170</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C26" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -24727,16 +24877,19 @@
         <v>118</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C27" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -24744,16 +24897,19 @@
         <v>118</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C28" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -24761,19 +24917,21 @@
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C29" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" t="s">
+        <v>1415</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
@@ -24783,19 +24941,21 @@
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C30" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" t="s">
+        <v>1416</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
@@ -24805,19 +24965,21 @@
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C31" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" t="s">
+        <v>1426</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
@@ -24827,19 +24989,21 @@
         <v>184</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C32" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" t="s">
+        <v>1428</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
@@ -24849,19 +25013,21 @@
         <v>184</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C33" t="s">
         <v>1399</v>
       </c>
-      <c r="C33" t="s">
-        <v>1401</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" t="s">
+        <v>1427</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
       <c r="J33" s="6"/>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9631F66-CED1-4C7F-AF92-65FDEDBCBAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC0FBA8-CD43-42E5-A25B-221E1E3D2083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5970" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="1430">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4332,6 +4332,9 @@
   </si>
   <si>
     <t>6\,128</t>
+  </si>
+  <si>
+    <t>unk</t>
   </si>
 </sst>
 </file>
@@ -4812,9 +4815,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z509"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M136" sqref="M136"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,6 +4957,9 @@
       <c r="C3" s="9" t="s">
         <v>325</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="E3" s="10">
         <v>20</v>
       </c>
@@ -4998,6 +5004,9 @@
       <c r="C4" s="9" t="s">
         <v>331</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="E4" s="10">
         <v>300000</v>
       </c>
@@ -5235,6 +5244,9 @@
       <c r="C9" s="9" t="s">
         <v>325</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>218</v>
       </c>
@@ -5705,6 +5717,9 @@
       </c>
       <c r="C19" s="9" t="s">
         <v>325</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>218</v>
@@ -6173,6 +6188,9 @@
       <c r="D30" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E30" s="10">
+        <v>79</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>218</v>
       </c>
@@ -6222,6 +6240,9 @@
       <c r="D31" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E31" s="10">
+        <v>79</v>
+      </c>
       <c r="F31" s="9" t="s">
         <v>218</v>
       </c>
@@ -6307,7 +6328,7 @@
       <c r="W32" s="2"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6316,6 +6337,9 @@
       </c>
       <c r="C33" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>218</v>
@@ -7831,7 +7855,7 @@
       <c r="W68" s="2"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
@@ -7840,6 +7864,9 @@
       </c>
       <c r="C69" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>218</v>
@@ -7932,6 +7959,12 @@
       </c>
       <c r="C71" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E71" s="10">
+        <v>552</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>218</v>
@@ -8982,7 +9015,7 @@
       <c r="W91" s="2"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>160</v>
       </c>
@@ -9028,7 +9061,7 @@
       <c r="W92" s="2"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>160</v>
       </c>
@@ -9087,6 +9120,9 @@
       <c r="D94" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E94" s="10">
+        <v>108</v>
+      </c>
       <c r="F94" s="9" t="s">
         <v>218</v>
       </c>
@@ -9136,6 +9172,9 @@
       </c>
       <c r="D95" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="E95" s="10">
+        <v>108</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>218</v>
@@ -9738,7 +9777,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -9795,6 +9834,12 @@
       <c r="C110" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D110" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E110" s="10">
+        <v>114</v>
+      </c>
       <c r="F110" s="9" t="s">
         <v>218</v>
       </c>
@@ -10042,6 +10087,9 @@
       <c r="C115" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="D115" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="E115" s="10">
         <v>217664</v>
       </c>
@@ -10079,7 +10127,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -10126,7 +10174,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -10173,7 +10221,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -10220,7 +10268,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
@@ -10267,7 +10315,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -10324,6 +10372,9 @@
       <c r="C121" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="D121" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="E121" s="10">
         <v>41000</v>
       </c>
@@ -10713,7 +10764,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>158</v>
       </c>
@@ -10760,7 +10811,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -10820,6 +10871,9 @@
       <c r="D131" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E131" s="10">
+        <v>113</v>
+      </c>
       <c r="F131" s="9" t="s">
         <v>218</v>
       </c>
@@ -11021,6 +11075,9 @@
       <c r="D135" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E135" s="10">
+        <v>113</v>
+      </c>
       <c r="F135" s="9" t="s">
         <v>218</v>
       </c>
@@ -11072,6 +11129,9 @@
       <c r="D136" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E136" s="10">
+        <v>99</v>
+      </c>
       <c r="F136" s="9" t="s">
         <v>218</v>
       </c>
@@ -11125,6 +11185,9 @@
       <c r="D137" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E137" s="10">
+        <v>99</v>
+      </c>
       <c r="F137" s="9" t="s">
         <v>218</v>
       </c>
@@ -11613,7 +11676,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
@@ -12958,6 +13021,9 @@
       <c r="D186" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E186" s="10">
+        <v>169</v>
+      </c>
       <c r="F186" s="9" t="s">
         <v>218</v>
       </c>
@@ -13074,6 +13140,12 @@
       <c r="C189" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D189" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E189" s="10">
+        <v>90</v>
+      </c>
       <c r="F189" s="9" t="s">
         <v>218</v>
       </c>
@@ -13115,6 +13187,9 @@
       <c r="D190" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E190" s="10">
+        <v>129</v>
+      </c>
       <c r="F190" s="9" t="s">
         <v>218</v>
       </c>
@@ -13744,6 +13819,12 @@
       <c r="C208" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D208" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E208" s="10">
+        <v>139</v>
+      </c>
       <c r="F208" s="9" t="s">
         <v>218</v>
       </c>
@@ -14220,7 +14301,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>126</v>
       </c>
@@ -14229,6 +14310,9 @@
       </c>
       <c r="C221" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>218</v>
@@ -14559,6 +14643,9 @@
       <c r="D230" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E230" s="10">
+        <v>107</v>
+      </c>
       <c r="F230" s="9" t="s">
         <v>218</v>
       </c>
@@ -14600,6 +14687,9 @@
       <c r="D231" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E231" s="10">
+        <v>107</v>
+      </c>
       <c r="F231" s="9" t="s">
         <v>218</v>
       </c>
@@ -15213,7 +15303,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -15222,6 +15312,9 @@
       </c>
       <c r="C250" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>218</v>
@@ -15258,6 +15351,12 @@
       <c r="C251" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D251" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E251" s="10">
+        <v>64</v>
+      </c>
       <c r="F251" s="9" t="s">
         <v>218</v>
       </c>
@@ -15296,6 +15395,9 @@
       <c r="C252" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="D252" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="E252" s="10">
         <v>10000</v>
       </c>
@@ -17568,7 +17670,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -17577,6 +17679,9 @@
       </c>
       <c r="C318" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F318" s="9" t="s">
         <v>218</v>
@@ -17610,6 +17715,12 @@
       <c r="C319" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D319" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E319" s="10">
+        <v>42</v>
+      </c>
       <c r="F319" s="9" t="s">
         <v>218</v>
       </c>
@@ -19328,7 +19439,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>184</v>
       </c>
@@ -19337,6 +19448,9 @@
       </c>
       <c r="C367" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>218</v>
@@ -19488,6 +19602,12 @@
       <c r="C371" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D371" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E371" s="10">
+        <v>91</v>
+      </c>
       <c r="F371" s="9" t="s">
         <v>218</v>
       </c>
@@ -20330,7 +20450,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>146</v>
       </c>
@@ -21269,7 +21389,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -21320,6 +21440,9 @@
       <c r="D424" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="E424" s="10">
+        <v>97</v>
+      </c>
       <c r="F424" s="9" t="s">
         <v>218</v>
       </c>
@@ -21364,6 +21487,9 @@
       <c r="D425" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E425" s="10">
+        <v>97</v>
+      </c>
       <c r="F425" s="9" t="s">
         <v>218</v>
       </c>
@@ -22298,7 +22424,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>164</v>
       </c>
@@ -22307,6 +22433,9 @@
       </c>
       <c r="C449" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F449" s="9" t="s">
         <v>218</v>
@@ -22413,7 +22542,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>170</v>
       </c>
@@ -22422,6 +22551,9 @@
       </c>
       <c r="C452" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F452" s="9" t="s">
         <v>218</v>
@@ -22458,6 +22590,12 @@
       <c r="C453" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="D453" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E453" s="10">
+        <v>21</v>
+      </c>
       <c r="F453" s="9" t="s">
         <v>218</v>
       </c>
@@ -22810,7 +22948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>118</v>
       </c>
@@ -22861,6 +22999,9 @@
       <c r="D465" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="E465" s="10">
+        <v>65</v>
+      </c>
       <c r="F465" s="9" t="s">
         <v>218</v>
       </c>
@@ -24061,7 +24202,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>198</v>
       </c>
@@ -24070,6 +24211,9 @@
       </c>
       <c r="C505" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="D505" s="9" t="s">
+        <v>1429</v>
       </c>
       <c r="F505" s="9" t="s">
         <v>218</v>
@@ -24252,11 +24396,6 @@
       <filters>
         <filter val="full text (the north wind and the sun)"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
     <filterColumn colId="14">
       <filters>
@@ -24287,7 +24426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C2734-B933-4C84-90BB-81AC6BC51564}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC0FBA8-CD43-42E5-A25B-221E1E3D2083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA621DC2-BF5E-41F2-8130-F5D1840B906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
     <sheet name="langInfo_100LC" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$509</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabelle2!$A$1:$B$101</definedName>
     <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">langInfo_100LC!$A$1:$S$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="1430">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4341,7 +4343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4363,6 +4365,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4372,7 +4380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4380,12 +4388,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4404,6 +4427,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4815,32 +4841,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z509"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="13.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="7"/>
+    <col min="8" max="8" width="13.109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="49" style="9" customWidth="1"/>
     <col min="10" max="10" width="16" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="11" max="11" width="16.6640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="9"/>
+    <col min="16" max="16" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4924,7 @@
       <c r="W1" s="2"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>332</v>
       </c>
@@ -4947,7 +4973,7 @@
       <c r="W2" s="2"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4994,7 +5020,7 @@
       <c r="W3" s="2"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5038,7 +5064,7 @@
       <c r="W4" s="2"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>336</v>
       </c>
@@ -5087,7 +5113,7 @@
       <c r="W5" s="2"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>336</v>
       </c>
@@ -5136,7 +5162,7 @@
       <c r="W6" s="2"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>299</v>
       </c>
@@ -5185,7 +5211,7 @@
       <c r="W7" s="2"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>299</v>
       </c>
@@ -5234,7 +5260,7 @@
       <c r="W8" s="2"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5280,7 +5306,7 @@
       <c r="W9" s="2"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>342</v>
       </c>
@@ -5329,7 +5355,7 @@
       <c r="W10" s="2"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>344</v>
       </c>
@@ -5378,7 +5404,7 @@
       <c r="W11" s="2"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>344</v>
       </c>
@@ -5418,7 +5444,7 @@
       <c r="W12" s="2"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>344</v>
       </c>
@@ -5467,7 +5493,7 @@
       <c r="W13" s="2"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
@@ -5514,7 +5540,7 @@
       <c r="W14" s="2"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>344</v>
       </c>
@@ -5561,7 +5587,7 @@
       <c r="W15" s="2"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>344</v>
       </c>
@@ -5610,7 +5636,7 @@
       <c r="W16" s="2"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>345</v>
       </c>
@@ -5659,7 +5685,7 @@
       <c r="W17" s="2"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>348</v>
       </c>
@@ -5708,7 +5734,7 @@
       <c r="W18" s="2"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5742,7 +5768,7 @@
       <c r="W19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>350</v>
       </c>
@@ -5791,7 +5817,7 @@
       <c r="W20" s="2"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>350</v>
       </c>
@@ -5841,7 +5867,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>352</v>
       </c>
@@ -5890,7 +5916,7 @@
       <c r="W22" s="2"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>354</v>
       </c>
@@ -5939,7 +5965,7 @@
       <c r="W23" s="2"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -5959,7 +5985,7 @@
       <c r="W24" s="2"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -5979,7 +6005,7 @@
       <c r="W25" s="2"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>356</v>
       </c>
@@ -6028,7 +6054,7 @@
       <c r="W26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>357</v>
       </c>
@@ -6077,7 +6103,7 @@
       <c r="W27" s="2"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>362</v>
       </c>
@@ -6126,7 +6152,7 @@
       <c r="W28" s="2"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>364</v>
       </c>
@@ -6175,9 +6201,9 @@
       <c r="W29" s="2"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>330</v>
@@ -6189,22 +6215,22 @@
         <v>219</v>
       </c>
       <c r="E30" s="10">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>1343</v>
+        <v>732</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>1303</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="K30" s="12">
         <v>44419</v>
@@ -6212,8 +6238,11 @@
       <c r="L30" s="11">
         <v>1</v>
       </c>
+      <c r="M30" s="9" t="s">
+        <v>734</v>
+      </c>
       <c r="N30" s="6" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>324</v>
@@ -6227,9 +6256,9 @@
       <c r="W30" s="2"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>330</v>
@@ -6241,22 +6270,22 @@
         <v>243</v>
       </c>
       <c r="E31" s="10">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>1343</v>
+        <v>732</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>1303</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="K31" s="12">
         <v>44419</v>
@@ -6264,8 +6293,11 @@
       <c r="L31" s="11">
         <v>1</v>
       </c>
+      <c r="M31" s="9" t="s">
+        <v>734</v>
+      </c>
       <c r="N31" s="6" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>324</v>
@@ -6279,7 +6311,7 @@
       <c r="W31" s="2"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>366</v>
       </c>
@@ -6328,9 +6360,9 @@
       <c r="W32" s="2"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>207</v>
@@ -6353,14 +6385,11 @@
       <c r="K33" s="12">
         <v>44386</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="N33" s="6" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>324</v>
@@ -6374,7 +6403,7 @@
       <c r="W33" s="2"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -6423,7 +6452,7 @@
       <c r="W34" s="2"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>368</v>
       </c>
@@ -6472,7 +6501,7 @@
       <c r="W35" s="2"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>370</v>
       </c>
@@ -6521,7 +6550,7 @@
       <c r="W36" s="2"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>370</v>
       </c>
@@ -6570,7 +6599,7 @@
       <c r="W37" s="2"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6591,7 +6620,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>370</v>
       </c>
@@ -6640,7 +6669,7 @@
       <c r="W39" s="2"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>372</v>
       </c>
@@ -6689,7 +6718,7 @@
       <c r="W40" s="2"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>372</v>
       </c>
@@ -6738,7 +6767,7 @@
       <c r="W41" s="2"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>374</v>
       </c>
@@ -6787,7 +6816,7 @@
       <c r="W42" s="2"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>376</v>
       </c>
@@ -6836,7 +6865,7 @@
       <c r="W43" s="2"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>378</v>
       </c>
@@ -6885,7 +6914,7 @@
       <c r="W44" s="2"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>380</v>
       </c>
@@ -6934,7 +6963,7 @@
       <c r="W45" s="2"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>382</v>
       </c>
@@ -6977,7 +7006,7 @@
       <c r="W46" s="2"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>382</v>
       </c>
@@ -7026,7 +7055,7 @@
       <c r="W47" s="2"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>382</v>
       </c>
@@ -7075,7 +7104,7 @@
       <c r="W48" s="2"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>383</v>
       </c>
@@ -7124,7 +7153,7 @@
       <c r="W49" s="2"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7145,7 +7174,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>295</v>
       </c>
@@ -7194,7 +7223,7 @@
       <c r="W51" s="2"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7214,7 +7243,7 @@
       <c r="W52" s="2"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>295</v>
       </c>
@@ -7263,7 +7292,7 @@
       <c r="W53" s="2"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7283,7 +7312,7 @@
       <c r="W54" s="2"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7303,7 +7332,7 @@
       <c r="W55" s="2"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>295</v>
       </c>
@@ -7352,7 +7381,7 @@
       <c r="W56" s="2"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>386</v>
       </c>
@@ -7401,7 +7430,7 @@
       <c r="W57" s="2"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>388</v>
       </c>
@@ -7450,7 +7479,7 @@
       <c r="W58" s="2"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>390</v>
       </c>
@@ -7499,7 +7528,7 @@
       <c r="W59" s="2"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>722</v>
       </c>
@@ -7548,7 +7577,7 @@
       <c r="W60" s="2"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>722</v>
       </c>
@@ -7597,7 +7626,7 @@
       <c r="W61" s="2"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>392</v>
       </c>
@@ -7647,7 +7676,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>394</v>
       </c>
@@ -7696,7 +7725,7 @@
       <c r="W63" s="2"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7716,7 +7745,7 @@
       <c r="W64" s="2"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>397</v>
       </c>
@@ -7766,7 +7795,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>399</v>
       </c>
@@ -7815,7 +7844,7 @@
       <c r="W66" s="2"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -7835,7 +7864,7 @@
       <c r="W67" s="2"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -7855,12 +7884,12 @@
       <c r="W68" s="2"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>226</v>
@@ -7868,26 +7897,32 @@
       <c r="D69" s="9" t="s">
         <v>1429</v>
       </c>
+      <c r="E69" s="10">
+        <v>42</v>
+      </c>
       <c r="F69" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>206</v>
+        <v>735</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>1333</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>208</v>
+        <v>736</v>
       </c>
       <c r="K69" s="12">
-        <v>44386</v>
+        <v>44419</v>
       </c>
       <c r="L69" s="11">
         <v>1</v>
       </c>
-      <c r="M69" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="N69" s="6" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O69" s="9" t="s">
         <v>324</v>
@@ -7901,7 +7936,7 @@
       <c r="W69" s="2"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>401</v>
       </c>
@@ -7950,12 +7985,12 @@
       <c r="W70" s="2"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>226</v>
@@ -7963,20 +7998,11 @@
       <c r="D71" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="E71" s="10">
-        <v>552</v>
-      </c>
       <c r="F71" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>1320</v>
+        <v>206</v>
       </c>
       <c r="J71" s="13" t="s">
         <v>208</v>
@@ -7988,10 +8014,10 @@
         <v>1</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="O71" s="9" t="s">
         <v>324</v>
@@ -8005,7 +8031,7 @@
       <c r="W71" s="2"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>96</v>
       </c>
@@ -8054,7 +8080,7 @@
       <c r="W72" s="2"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>401</v>
       </c>
@@ -8103,7 +8129,7 @@
       <c r="W73" s="2"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>403</v>
       </c>
@@ -8152,7 +8178,7 @@
       <c r="W74" s="2"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>406</v>
       </c>
@@ -8202,7 +8228,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>321</v>
       </c>
@@ -8254,7 +8280,7 @@
       <c r="W76" s="2"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>321</v>
       </c>
@@ -8306,7 +8332,7 @@
       <c r="W77" s="2"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -8356,7 +8382,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>136</v>
       </c>
@@ -8407,7 +8433,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -8460,7 +8486,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>321</v>
       </c>
@@ -8513,7 +8539,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>321</v>
       </c>
@@ -8566,7 +8592,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>321</v>
       </c>
@@ -8619,7 +8645,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>408</v>
       </c>
@@ -8669,7 +8695,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>408</v>
       </c>
@@ -8719,7 +8745,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>409</v>
       </c>
@@ -8768,7 +8794,7 @@
       <c r="W86" s="2"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>411</v>
       </c>
@@ -8818,7 +8844,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>413</v>
       </c>
@@ -8867,7 +8893,7 @@
       <c r="W88" s="2"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>413</v>
       </c>
@@ -8916,7 +8942,7 @@
       <c r="W89" s="2"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>415</v>
       </c>
@@ -8966,7 +8992,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>418</v>
       </c>
@@ -9015,9 +9041,9 @@
       <c r="W91" s="2"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>207</v>
@@ -9044,10 +9070,10 @@
         <v>1</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O92" s="9" t="s">
         <v>324</v>
@@ -9061,9 +9087,9 @@
       <c r="W92" s="2"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>207</v>
@@ -9090,10 +9116,10 @@
         <v>1</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O93" s="9" t="s">
         <v>324</v>
@@ -9107,34 +9133,27 @@
       <c r="W93" s="2"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="10">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>1313</v>
+      <c r="G94" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>1321</v>
+        <v>208</v>
       </c>
       <c r="K94" s="12">
         <v>44386</v>
@@ -9143,10 +9162,10 @@
         <v>1</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O94" s="9" t="s">
         <v>324</v>
@@ -9160,34 +9179,27 @@
       <c r="W94" s="2"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E95" s="10">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>1311</v>
+      <c r="G95" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>1321</v>
+        <v>208</v>
       </c>
       <c r="K95" s="12">
         <v>44386</v>
@@ -9196,10 +9208,10 @@
         <v>1</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O95" s="9" t="s">
         <v>324</v>
@@ -9213,7 +9225,7 @@
       <c r="W95" s="2"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>160</v>
       </c>
@@ -9260,7 +9272,7 @@
       <c r="W96" s="2"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>160</v>
       </c>
@@ -9307,7 +9319,7 @@
       <c r="W97" s="2"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>160</v>
       </c>
@@ -9354,7 +9366,7 @@
       <c r="W98" s="2"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9375,7 +9387,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>421</v>
       </c>
@@ -9422,7 +9434,7 @@
       <c r="W100" s="2"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>723</v>
       </c>
@@ -9469,7 +9481,7 @@
       <c r="W101" s="2"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9489,7 +9501,7 @@
       <c r="W102" s="2"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>723</v>
       </c>
@@ -9529,7 +9541,7 @@
       <c r="W103" s="2"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>425</v>
       </c>
@@ -9578,7 +9590,7 @@
       <c r="W104" s="2"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>427</v>
       </c>
@@ -9628,7 +9640,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>429</v>
       </c>
@@ -9677,7 +9689,7 @@
       <c r="W106" s="2"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>431</v>
       </c>
@@ -9727,7 +9739,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>431</v>
       </c>
@@ -9777,9 +9789,9 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>207</v>
@@ -9788,7 +9800,7 @@
         <v>226</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>218</v>
@@ -9806,10 +9818,10 @@
         <v>1</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="O109" s="9" t="s">
         <v>324</v>
@@ -9824,36 +9836,27 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E110" s="10">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>1322</v>
+        <v>763</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="K110" s="12">
         <v>44420</v>
@@ -9861,8 +9864,11 @@
       <c r="L110" s="11">
         <v>1</v>
       </c>
+      <c r="M110" s="9" t="s">
+        <v>764</v>
+      </c>
       <c r="N110" s="6" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="O110" s="9" t="s">
         <v>324</v>
@@ -9877,7 +9883,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -9927,7 +9933,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -9977,7 +9983,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
@@ -10027,7 +10033,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>725</v>
       </c>
@@ -10077,7 +10083,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>112</v>
       </c>
@@ -10127,36 +10133,36 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>206</v>
+        <v>763</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>208</v>
+        <v>762</v>
       </c>
       <c r="K116" s="12">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="L116" s="11">
         <v>1</v>
       </c>
-      <c r="M116" s="6" t="s">
-        <v>205</v>
+      <c r="M116" s="9" t="s">
+        <v>764</v>
       </c>
       <c r="N116" s="6" t="s">
         <v>159</v>
@@ -10174,36 +10180,43 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="E117" s="10">
+        <v>113</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G117" s="8" t="s">
-        <v>206</v>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>765</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>208</v>
+        <v>767</v>
       </c>
       <c r="K117" s="12">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="L117" s="11">
         <v>1</v>
       </c>
-      <c r="M117" s="6" t="s">
-        <v>205</v>
+      <c r="M117" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="N117" s="6" t="s">
         <v>159</v>
@@ -10221,36 +10234,43 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>222</v>
+        <v>243</v>
+      </c>
+      <c r="E118" s="10">
+        <v>113</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G118" s="8" t="s">
-        <v>206</v>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>766</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>208</v>
+        <v>767</v>
       </c>
       <c r="K118" s="12">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="L118" s="11">
         <v>1</v>
       </c>
-      <c r="M118" s="6" t="s">
-        <v>205</v>
+      <c r="M118" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="N118" s="6" t="s">
         <v>159</v>
@@ -10268,9 +10288,9 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>207</v>
@@ -10279,7 +10299,7 @@
         <v>226</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>218</v>
@@ -10296,11 +10316,11 @@
       <c r="L119" s="11">
         <v>1</v>
       </c>
-      <c r="M119" s="6" t="s">
-        <v>211</v>
+      <c r="M119" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O119" s="9" t="s">
         <v>324</v>
@@ -10315,39 +10335,45 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="E120" s="10">
+        <v>107</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>206</v>
+        <v>737</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>1330</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>208</v>
+        <v>738</v>
       </c>
       <c r="K120" s="12">
-        <v>44386</v>
+        <v>44419</v>
       </c>
       <c r="L120" s="11">
         <v>1</v>
       </c>
-      <c r="M120" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="N120" s="6" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="O120" s="9" t="s">
         <v>324</v>
@@ -10362,7 +10388,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10410,7 +10436,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>725</v>
       </c>
@@ -10458,7 +10484,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10509,7 +10535,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10560,7 +10586,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>158</v>
       </c>
@@ -10611,7 +10637,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>158</v>
       </c>
@@ -10662,7 +10688,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>158</v>
       </c>
@@ -10713,7 +10739,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>158</v>
       </c>
@@ -10764,9 +10790,9 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>330</v>
@@ -10775,28 +10801,34 @@
         <v>226</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>219</v>
+        <v>243</v>
+      </c>
+      <c r="E129" s="10">
+        <v>107</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>763</v>
+        <v>737</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>1331</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="K129" s="12">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="L129" s="11">
         <v>1</v>
       </c>
-      <c r="M129" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="N129" s="6" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="O129" s="9" t="s">
         <v>324</v>
@@ -10811,39 +10843,39 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>763</v>
+        <v>206</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>762</v>
+        <v>208</v>
       </c>
       <c r="K130" s="12">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="L130" s="11">
         <v>1</v>
       </c>
-      <c r="M130" s="9" t="s">
-        <v>764</v>
+      <c r="M130" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O130" s="9" t="s">
         <v>324</v>
@@ -10858,46 +10890,39 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" s="10">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="9" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>765</v>
+      <c r="G131" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>767</v>
+        <v>208</v>
       </c>
       <c r="K131" s="12">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="L131" s="11">
         <v>1</v>
       </c>
-      <c r="M131" s="9" t="s">
-        <v>212</v>
+      <c r="M131" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O131" s="9" t="s">
         <v>324</v>
@@ -10912,7 +10937,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>433</v>
       </c>
@@ -10962,7 +10987,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>435</v>
       </c>
@@ -11012,7 +11037,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>437</v>
       </c>
@@ -11062,9 +11087,9 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>293</v>
@@ -11073,35 +11098,35 @@
         <v>226</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E135" s="10">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="9" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>766</v>
+        <v>1313</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>767</v>
+        <v>1321</v>
       </c>
       <c r="K135" s="12">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="L135" s="11">
         <v>1</v>
       </c>
-      <c r="M135" s="9" t="s">
-        <v>212</v>
+      <c r="M135" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O135" s="9" t="s">
         <v>324</v>
@@ -11116,48 +11141,46 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E136" s="10">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G136" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>1301</v>
+      <c r="G136" s="8"/>
+      <c r="H136" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>1311</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>733</v>
+        <v>1321</v>
       </c>
       <c r="K136" s="12">
-        <v>44419</v>
+        <v>44386</v>
       </c>
       <c r="L136" s="11">
         <v>1</v>
       </c>
-      <c r="M136" s="9" t="s">
-        <v>734</v>
+      <c r="M136" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="O136" s="9" t="s">
         <v>324</v>
@@ -11172,12 +11195,12 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>226</v>
@@ -11186,22 +11209,22 @@
         <v>243</v>
       </c>
       <c r="E137" s="10">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>1302</v>
+        <v>739</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>1325</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="K137" s="12">
         <v>44419</v>
@@ -11209,11 +11232,8 @@
       <c r="L137" s="11">
         <v>1</v>
       </c>
-      <c r="M137" s="9" t="s">
-        <v>734</v>
-      </c>
       <c r="N137" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="O137" s="9" t="s">
         <v>324</v>
@@ -11228,7 +11248,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>16</v>
       </c>
@@ -11276,7 +11296,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>439</v>
       </c>
@@ -11326,7 +11346,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>439</v>
       </c>
@@ -11376,7 +11396,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>441</v>
       </c>
@@ -11426,7 +11446,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>441</v>
       </c>
@@ -11466,7 +11486,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>443</v>
       </c>
@@ -11506,7 +11526,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>443</v>
       </c>
@@ -11546,7 +11566,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>16</v>
       </c>
@@ -11585,7 +11605,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>38</v>
       </c>
@@ -11596,7 +11616,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>40</v>
       </c>
@@ -11636,7 +11656,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>40</v>
       </c>
@@ -11676,9 +11696,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>207</v>
@@ -11687,34 +11707,40 @@
         <v>226</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>220</v>
+        <v>243</v>
+      </c>
+      <c r="E149" s="10">
+        <v>129</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>206</v>
+        <v>745</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>1326</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>208</v>
+        <v>741</v>
       </c>
       <c r="K149" s="12">
-        <v>44386</v>
+        <v>44419</v>
       </c>
       <c r="L149" s="11">
         <v>1</v>
       </c>
-      <c r="M149" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="N149" s="6" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="O149" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>156</v>
       </c>
@@ -11754,7 +11780,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>156</v>
       </c>
@@ -11794,7 +11820,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>445</v>
       </c>
@@ -11834,7 +11860,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>445</v>
       </c>
@@ -11874,7 +11900,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>447</v>
       </c>
@@ -11914,7 +11940,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>449</v>
       </c>
@@ -11954,7 +11980,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>451</v>
       </c>
@@ -11994,7 +12020,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>451</v>
       </c>
@@ -12034,7 +12060,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>453</v>
       </c>
@@ -12074,7 +12100,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>456</v>
       </c>
@@ -12114,7 +12140,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>458</v>
       </c>
@@ -12154,7 +12180,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>458</v>
       </c>
@@ -12194,7 +12220,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>318</v>
       </c>
@@ -12234,7 +12260,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>318</v>
       </c>
@@ -12274,7 +12300,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>318</v>
       </c>
@@ -12314,7 +12340,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>318</v>
       </c>
@@ -12354,7 +12380,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>156</v>
       </c>
@@ -12394,7 +12420,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
@@ -12434,7 +12460,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>48</v>
       </c>
@@ -12474,7 +12500,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>461</v>
       </c>
@@ -12514,7 +12540,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>463</v>
       </c>
@@ -12554,7 +12580,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -12565,7 +12591,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>297</v>
       </c>
@@ -12605,7 +12631,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>297</v>
       </c>
@@ -12645,7 +12671,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>465</v>
       </c>
@@ -12685,7 +12711,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -12696,7 +12722,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -12707,7 +12733,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -12718,7 +12744,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -12729,7 +12755,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>315</v>
       </c>
@@ -12762,7 +12788,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>315</v>
       </c>
@@ -12804,7 +12830,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>315</v>
       </c>
@@ -12846,7 +12872,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>315</v>
       </c>
@@ -12888,7 +12914,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>315</v>
       </c>
@@ -12930,7 +12956,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>467</v>
       </c>
@@ -12969,7 +12995,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>469</v>
       </c>
@@ -13008,36 +13034,33 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>243</v>
+        <v>1429</v>
       </c>
       <c r="E186" s="10">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F186" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G186" s="8" t="s">
-        <v>739</v>
-      </c>
       <c r="H186" s="9" t="s">
-        <v>1324</v>
+        <v>743</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>1325</v>
+        <v>744</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K186" s="12">
         <v>44419</v>
@@ -13046,13 +13069,13 @@
         <v>1</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O186" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>469</v>
       </c>
@@ -13091,7 +13114,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>471</v>
       </c>
@@ -13130,9 +13153,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>207</v>
@@ -13143,40 +13166,34 @@
       <c r="D189" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="E189" s="10">
-        <v>90</v>
-      </c>
       <c r="F189" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>1342</v>
-      </c>
-      <c r="I189" s="9" t="s">
-        <v>1328</v>
-      </c>
-      <c r="J189" s="9" t="s">
-        <v>750</v>
+        <v>206</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="K189" s="12">
-        <v>44419</v>
+        <v>44386</v>
       </c>
       <c r="L189" s="11">
         <v>1</v>
       </c>
+      <c r="M189" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="N189" s="6" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="O189" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>207</v>
@@ -13185,40 +13202,34 @@
         <v>226</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E190" s="10">
-        <v>129</v>
+        <v>1429</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="H190" s="9" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I190" s="9" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J190" s="9" t="s">
-        <v>741</v>
+        <v>206</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="K190" s="12">
-        <v>44419</v>
+        <v>44386</v>
       </c>
       <c r="L190" s="11">
         <v>1</v>
       </c>
+      <c r="M190" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="N190" s="6" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="O190" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>50</v>
       </c>
@@ -13258,7 +13269,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>50</v>
       </c>
@@ -13298,7 +13309,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>50</v>
       </c>
@@ -13338,7 +13349,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13349,7 +13360,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>317</v>
       </c>
@@ -13389,7 +13400,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>317</v>
       </c>
@@ -13429,7 +13440,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>317</v>
       </c>
@@ -13469,7 +13480,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>300</v>
       </c>
@@ -13507,7 +13518,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>300</v>
       </c>
@@ -13547,7 +13558,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>300</v>
       </c>
@@ -13587,7 +13598,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>300</v>
       </c>
@@ -13627,7 +13638,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>473</v>
       </c>
@@ -13667,7 +13678,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>475</v>
       </c>
@@ -13707,7 +13718,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>477</v>
       </c>
@@ -13747,7 +13758,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>54</v>
       </c>
@@ -13758,7 +13769,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>482</v>
       </c>
@@ -13798,7 +13809,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>58</v>
       </c>
@@ -13809,12 +13820,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>226</v>
@@ -13823,34 +13834,37 @@
         <v>1429</v>
       </c>
       <c r="E208" s="10">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="F208" s="9" t="s">
         <v>218</v>
       </c>
+      <c r="G208" s="8" t="s">
+        <v>748</v>
+      </c>
       <c r="H208" s="9" t="s">
-        <v>743</v>
+        <v>1372</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="J208" s="9" t="s">
-        <v>742</v>
+        <v>1327</v>
+      </c>
+      <c r="J208" s="13" t="s">
+        <v>747</v>
       </c>
       <c r="K208" s="12">
-        <v>44419</v>
+        <v>44386</v>
       </c>
       <c r="L208" s="11">
         <v>1</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O208" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>482</v>
       </c>
@@ -13890,7 +13904,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>60</v>
       </c>
@@ -13930,7 +13944,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>484</v>
       </c>
@@ -13970,7 +13984,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>484</v>
       </c>
@@ -14010,7 +14024,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>486</v>
       </c>
@@ -14050,7 +14064,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>488</v>
       </c>
@@ -14090,7 +14104,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>301</v>
       </c>
@@ -14130,7 +14144,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>301</v>
       </c>
@@ -14170,7 +14184,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>60</v>
       </c>
@@ -14210,7 +14224,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>491</v>
       </c>
@@ -14250,7 +14264,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>493</v>
       </c>
@@ -14290,7 +14304,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>140</v>
       </c>
@@ -14301,9 +14315,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>207</v>
@@ -14330,16 +14344,16 @@
         <v>1</v>
       </c>
       <c r="M221" s="6" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="O221" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>126</v>
       </c>
@@ -14379,7 +14393,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>126</v>
       </c>
@@ -14419,7 +14433,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>126</v>
       </c>
@@ -14459,7 +14473,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>126</v>
       </c>
@@ -14499,7 +14513,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>62</v>
       </c>
@@ -14539,7 +14553,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>495</v>
       </c>
@@ -14579,7 +14593,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>497</v>
       </c>
@@ -14619,7 +14633,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>122</v>
       </c>
@@ -14630,9 +14644,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>330</v>
@@ -14641,42 +14655,45 @@
         <v>226</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>219</v>
+        <v>1429</v>
       </c>
       <c r="E230" s="10">
-        <v>107</v>
+        <v>552</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>737</v>
+        <v>1310</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J230" s="9" t="s">
-        <v>738</v>
+        <v>1320</v>
+      </c>
+      <c r="J230" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="K230" s="12">
-        <v>44419</v>
+        <v>44386</v>
       </c>
       <c r="L230" s="11">
         <v>1</v>
       </c>
+      <c r="M230" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="N230" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="O230" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>330</v>
@@ -14685,25 +14702,25 @@
         <v>226</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E231" s="10">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I231" s="9" t="s">
-        <v>1331</v>
+        <v>1343</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>1314</v>
       </c>
       <c r="J231" s="9" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="K231" s="12">
         <v>44419</v>
@@ -14712,13 +14729,13 @@
         <v>1</v>
       </c>
       <c r="N231" s="6" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="O231" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>120</v>
       </c>
@@ -14758,7 +14775,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>499</v>
       </c>
@@ -14798,7 +14815,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>501</v>
       </c>
@@ -14838,7 +14855,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>503</v>
       </c>
@@ -14878,7 +14895,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>505</v>
       </c>
@@ -14918,7 +14935,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>120</v>
       </c>
@@ -14958,7 +14975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>186</v>
       </c>
@@ -14969,7 +14986,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>507</v>
       </c>
@@ -15012,7 +15029,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>76</v>
       </c>
@@ -15023,7 +15040,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>507</v>
       </c>
@@ -15066,7 +15083,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>507</v>
       </c>
@@ -15109,7 +15126,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>507</v>
       </c>
@@ -15152,7 +15169,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>44</v>
       </c>
@@ -15163,7 +15180,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>507</v>
       </c>
@@ -15206,7 +15223,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>68</v>
       </c>
@@ -15217,7 +15234,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>507</v>
       </c>
@@ -15260,7 +15277,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>302</v>
       </c>
@@ -15292,7 +15309,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>188</v>
       </c>
@@ -15303,47 +15320,53 @@
         <v>324</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1429</v>
+        <v>243</v>
+      </c>
+      <c r="E250" s="10">
+        <v>79</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="J250" s="13" t="s">
-        <v>208</v>
+        <v>753</v>
+      </c>
+      <c r="H250" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J250" s="9" t="s">
+        <v>752</v>
       </c>
       <c r="K250" s="12">
-        <v>44386</v>
+        <v>44419</v>
       </c>
       <c r="L250" s="11">
         <v>1</v>
       </c>
-      <c r="M250" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="N250" s="6" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O250" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>207</v>
@@ -15352,25 +15375,16 @@
         <v>226</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E251" s="10">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="H251" s="9" t="s">
-        <v>1372</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>1327</v>
-      </c>
-      <c r="J251" s="13" t="s">
-        <v>747</v>
+        <v>206</v>
+      </c>
+      <c r="J251" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="K251" s="12">
         <v>44386</v>
@@ -15378,14 +15392,17 @@
       <c r="L251" s="11">
         <v>1</v>
       </c>
+      <c r="M251" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="N251" s="6" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="O251" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>72</v>
       </c>
@@ -15420,7 +15437,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>72</v>
       </c>
@@ -15460,7 +15477,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>302</v>
       </c>
@@ -15500,7 +15517,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>72</v>
       </c>
@@ -15540,7 +15557,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>302</v>
       </c>
@@ -15580,7 +15597,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>78</v>
       </c>
@@ -15591,7 +15608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>511</v>
       </c>
@@ -15631,7 +15648,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>64</v>
       </c>
@@ -15642,7 +15659,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>513</v>
       </c>
@@ -15682,7 +15699,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>515</v>
       </c>
@@ -15722,7 +15739,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>517</v>
       </c>
@@ -15762,7 +15779,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>517</v>
       </c>
@@ -15802,7 +15819,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>519</v>
       </c>
@@ -15842,7 +15859,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>521</v>
       </c>
@@ -15882,7 +15899,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>523</v>
       </c>
@@ -15922,7 +15939,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>525</v>
       </c>
@@ -15962,7 +15979,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>527</v>
       </c>
@@ -16002,7 +16019,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>529</v>
       </c>
@@ -16042,7 +16059,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>529</v>
       </c>
@@ -16082,7 +16099,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>82</v>
       </c>
@@ -16093,7 +16110,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>531</v>
       </c>
@@ -16133,7 +16150,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>534</v>
       </c>
@@ -16173,7 +16190,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>534</v>
       </c>
@@ -16213,7 +16230,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>536</v>
       </c>
@@ -16253,7 +16270,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>538</v>
       </c>
@@ -16293,7 +16310,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>540</v>
       </c>
@@ -16333,7 +16350,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>86</v>
       </c>
@@ -16344,7 +16361,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>540</v>
       </c>
@@ -16384,7 +16401,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>543</v>
       </c>
@@ -16424,7 +16441,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>545</v>
       </c>
@@ -16464,7 +16481,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>547</v>
       </c>
@@ -16504,7 +16521,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>549</v>
       </c>
@@ -16544,7 +16561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>549</v>
       </c>
@@ -16584,7 +16601,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>80</v>
       </c>
@@ -16595,7 +16612,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>90</v>
       </c>
@@ -16606,7 +16623,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>727</v>
       </c>
@@ -16646,7 +16663,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>551</v>
       </c>
@@ -16686,7 +16703,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>319</v>
       </c>
@@ -16721,7 +16738,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>319</v>
       </c>
@@ -16761,7 +16778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>319</v>
       </c>
@@ -16801,7 +16818,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>553</v>
       </c>
@@ -16841,7 +16858,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>556</v>
       </c>
@@ -16881,7 +16898,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>558</v>
       </c>
@@ -16921,7 +16938,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>558</v>
       </c>
@@ -16961,7 +16978,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>726</v>
       </c>
@@ -17001,7 +17018,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>726</v>
       </c>
@@ -17041,7 +17058,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>726</v>
       </c>
@@ -17081,7 +17098,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>84</v>
       </c>
@@ -17092,7 +17109,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>726</v>
       </c>
@@ -17132,7 +17149,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>559</v>
       </c>
@@ -17172,7 +17189,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>561</v>
       </c>
@@ -17215,7 +17232,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>564</v>
       </c>
@@ -17255,7 +17272,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>566</v>
       </c>
@@ -17295,7 +17312,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>150</v>
       </c>
@@ -17306,7 +17323,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>568</v>
       </c>
@@ -17346,7 +17363,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>568</v>
       </c>
@@ -17386,7 +17403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>570</v>
       </c>
@@ -17426,7 +17443,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>100</v>
       </c>
@@ -17437,7 +17454,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>98</v>
       </c>
@@ -17448,7 +17465,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>108</v>
       </c>
@@ -17459,7 +17476,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>572</v>
       </c>
@@ -17499,7 +17516,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>572</v>
       </c>
@@ -17539,7 +17556,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>574</v>
       </c>
@@ -17579,7 +17596,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>576</v>
       </c>
@@ -17619,7 +17636,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>578</v>
       </c>
@@ -17659,7 +17676,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>104</v>
       </c>
@@ -17670,9 +17687,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>207</v>
@@ -17683,34 +17700,43 @@
       <c r="D318" s="9" t="s">
         <v>1429</v>
       </c>
+      <c r="E318" s="10">
+        <v>114</v>
+      </c>
       <c r="F318" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="J318" s="13" t="s">
-        <v>208</v>
+        <v>754</v>
+      </c>
+      <c r="H318" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I318" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J318" s="9" t="s">
+        <v>755</v>
       </c>
       <c r="K318" s="12">
-        <v>44386</v>
-      </c>
-      <c r="L318" s="6">
+        <v>44420</v>
+      </c>
+      <c r="L318" s="11">
         <v>1</v>
       </c>
       <c r="N318" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O318" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="C319" s="9" t="s">
         <v>226</v>
@@ -17719,22 +17745,22 @@
         <v>1429</v>
       </c>
       <c r="E319" s="10">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="H319" s="9" t="s">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J319" s="13" t="s">
-        <v>736</v>
+        <v>1328</v>
+      </c>
+      <c r="J319" s="9" t="s">
+        <v>750</v>
       </c>
       <c r="K319" s="12">
         <v>44419</v>
@@ -17743,13 +17769,13 @@
         <v>1</v>
       </c>
       <c r="N319" s="6" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="O319" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>124</v>
       </c>
@@ -17789,7 +17815,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>124</v>
       </c>
@@ -17829,7 +17855,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>94</v>
       </c>
@@ -17840,7 +17866,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>134</v>
       </c>
@@ -17851,7 +17877,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>316</v>
       </c>
@@ -17886,7 +17912,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>192</v>
       </c>
@@ -17897,7 +17923,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>316</v>
       </c>
@@ -17937,7 +17963,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>316</v>
       </c>
@@ -17977,7 +18003,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>316</v>
       </c>
@@ -18017,7 +18043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>580</v>
       </c>
@@ -18057,7 +18083,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>582</v>
       </c>
@@ -18097,7 +18123,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>582</v>
       </c>
@@ -18137,7 +18163,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>584</v>
       </c>
@@ -18177,7 +18203,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>584</v>
       </c>
@@ -18217,7 +18243,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>584</v>
       </c>
@@ -18257,7 +18283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>586</v>
       </c>
@@ -18297,7 +18323,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>588</v>
       </c>
@@ -18337,7 +18363,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>589</v>
       </c>
@@ -18377,7 +18403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>591</v>
       </c>
@@ -18417,7 +18443,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>593</v>
       </c>
@@ -18457,7 +18483,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>593</v>
       </c>
@@ -18497,7 +18523,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>595</v>
       </c>
@@ -18537,7 +18563,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>597</v>
       </c>
@@ -18577,7 +18603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>599</v>
       </c>
@@ -18617,7 +18643,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>601</v>
       </c>
@@ -18657,7 +18683,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>603</v>
       </c>
@@ -18697,7 +18723,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>605</v>
       </c>
@@ -18737,7 +18763,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>607</v>
       </c>
@@ -18777,7 +18803,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>609</v>
       </c>
@@ -18817,7 +18843,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>611</v>
       </c>
@@ -18857,7 +18883,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>613</v>
       </c>
@@ -18897,7 +18923,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>616</v>
       </c>
@@ -18937,7 +18963,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>618</v>
       </c>
@@ -18977,7 +19003,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>620</v>
       </c>
@@ -19017,7 +19043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>622</v>
       </c>
@@ -19057,7 +19083,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>114</v>
       </c>
@@ -19068,7 +19094,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>623</v>
       </c>
@@ -19111,7 +19137,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>623</v>
       </c>
@@ -19154,7 +19180,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>623</v>
       </c>
@@ -19197,7 +19223,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>623</v>
       </c>
@@ -19240,7 +19266,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>128</v>
       </c>
@@ -19251,7 +19277,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>623</v>
       </c>
@@ -19294,7 +19320,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>110</v>
       </c>
@@ -19305,7 +19331,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>623</v>
       </c>
@@ -19348,7 +19374,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>627</v>
       </c>
@@ -19388,7 +19414,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>629</v>
       </c>
@@ -19428,7 +19454,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>182</v>
       </c>
@@ -19439,9 +19465,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B367" s="9" t="s">
         <v>207</v>
@@ -19450,7 +19476,7 @@
         <v>226</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>1429</v>
+        <v>219</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>218</v>
@@ -19458,7 +19484,7 @@
       <c r="G367" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J367" s="9" t="s">
+      <c r="J367" s="13" t="s">
         <v>208</v>
       </c>
       <c r="K367" s="12">
@@ -19467,17 +19493,14 @@
       <c r="L367" s="11">
         <v>1</v>
       </c>
-      <c r="M367" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="N367" s="6" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="O367" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>631</v>
       </c>
@@ -19517,7 +19540,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>313</v>
       </c>
@@ -19552,7 +19575,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>313</v>
       </c>
@@ -19592,9 +19615,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>207</v>
@@ -19603,40 +19626,34 @@
         <v>226</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E371" s="10">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="F371" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G371" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="H371" s="9" t="s">
-        <v>1371</v>
-      </c>
-      <c r="I371" s="9" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J371" s="9" t="s">
-        <v>760</v>
+        <v>206</v>
+      </c>
+      <c r="J371" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="K371" s="12">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="L371" s="11">
         <v>1</v>
       </c>
+      <c r="M371" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="N371" s="6" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O371" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>313</v>
       </c>
@@ -19676,7 +19693,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>313</v>
       </c>
@@ -19716,7 +19733,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>634</v>
       </c>
@@ -19756,7 +19773,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>636</v>
       </c>
@@ -19796,7 +19813,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>638</v>
       </c>
@@ -19836,7 +19853,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>638</v>
       </c>
@@ -19876,7 +19893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>640</v>
       </c>
@@ -19916,7 +19933,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>642</v>
       </c>
@@ -19956,7 +19973,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>642</v>
       </c>
@@ -19996,7 +20013,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>644</v>
       </c>
@@ -20036,7 +20053,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>644</v>
       </c>
@@ -20076,7 +20093,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>646</v>
       </c>
@@ -20116,7 +20133,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>311</v>
       </c>
@@ -20151,7 +20168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>311</v>
       </c>
@@ -20190,7 +20207,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>138</v>
       </c>
@@ -20201,7 +20218,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>130</v>
       </c>
@@ -20213,7 +20230,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>56</v>
       </c>
@@ -20225,7 +20242,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>22</v>
       </c>
@@ -20237,7 +20254,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>144</v>
       </c>
@@ -20249,7 +20266,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>648</v>
       </c>
@@ -20288,7 +20305,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>724</v>
       </c>
@@ -20327,7 +20344,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>724</v>
       </c>
@@ -20366,7 +20383,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>303</v>
       </c>
@@ -20399,7 +20416,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>142</v>
       </c>
@@ -20411,7 +20428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>303</v>
       </c>
@@ -20450,9 +20467,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B397" s="9" t="s">
         <v>207</v>
@@ -20461,31 +20478,43 @@
         <v>226</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>219</v>
+        <v>243</v>
+      </c>
+      <c r="E397" s="10">
+        <v>97</v>
       </c>
       <c r="F397" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G397" s="8" t="s">
-        <v>206</v>
+      <c r="G397" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H397" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I397" s="9" t="s">
+        <v>1335</v>
       </c>
       <c r="J397" s="13" t="s">
-        <v>208</v>
+        <v>756</v>
       </c>
       <c r="K397" s="12">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="L397" s="11">
         <v>1</v>
       </c>
+      <c r="M397" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="N397" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O397" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>146</v>
       </c>
@@ -20524,7 +20553,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>303</v>
       </c>
@@ -20563,7 +20592,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>651</v>
       </c>
@@ -20602,7 +20631,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>721</v>
       </c>
@@ -20641,7 +20670,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>721</v>
       </c>
@@ -20680,7 +20709,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>655</v>
       </c>
@@ -20719,7 +20748,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>657</v>
       </c>
@@ -20758,7 +20787,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>659</v>
       </c>
@@ -20797,7 +20826,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>661</v>
       </c>
@@ -20836,7 +20865,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>661</v>
       </c>
@@ -20875,7 +20904,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>662</v>
       </c>
@@ -20914,7 +20943,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>665</v>
       </c>
@@ -20953,7 +20982,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -20965,7 +20994,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -20977,7 +21006,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>668</v>
       </c>
@@ -21017,7 +21046,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>668</v>
       </c>
@@ -21057,7 +21086,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>669</v>
       </c>
@@ -21097,7 +21126,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>669</v>
       </c>
@@ -21137,7 +21166,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>671</v>
       </c>
@@ -21177,7 +21206,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>673</v>
       </c>
@@ -21217,7 +21246,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>674</v>
       </c>
@@ -21257,7 +21286,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>676</v>
       </c>
@@ -21297,7 +21326,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>678</v>
       </c>
@@ -21337,7 +21366,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>680</v>
       </c>
@@ -21377,7 +21406,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>74</v>
       </c>
@@ -21389,7 +21418,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -21400,19 +21429,28 @@
         <v>226</v>
       </c>
       <c r="D423" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="E423" s="10">
+        <v>97</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G423" s="8" t="s">
-        <v>206</v>
+      <c r="G423" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H423" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I423" s="9" t="s">
+        <v>1337</v>
       </c>
       <c r="J423" s="13" t="s">
-        <v>208</v>
+        <v>756</v>
       </c>
       <c r="K423" s="12">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="L423" s="11">
         <v>1</v>
@@ -21427,9 +21465,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B424" s="9" t="s">
         <v>207</v>
@@ -21438,45 +21476,36 @@
         <v>226</v>
       </c>
       <c r="D424" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E424" s="10">
-        <v>97</v>
+        <v>1429</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G424" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="H424" s="6" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I424" s="9" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J424" s="13" t="s">
-        <v>756</v>
+      <c r="G424" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J424" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="K424" s="12">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="L424" s="11">
         <v>1</v>
       </c>
       <c r="M424" s="6" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="N424" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O424" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B425" s="9" t="s">
         <v>207</v>
@@ -21485,43 +21514,34 @@
         <v>226</v>
       </c>
       <c r="D425" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E425" s="10">
-        <v>97</v>
+        <v>1429</v>
       </c>
       <c r="F425" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G425" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="H425" s="6" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I425" s="9" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J425" s="13" t="s">
-        <v>756</v>
+      <c r="G425" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J425" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="K425" s="12">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="L425" s="11">
         <v>1</v>
       </c>
       <c r="M425" s="6" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="N425" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O425" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>154</v>
       </c>
@@ -21564,7 +21584,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>154</v>
       </c>
@@ -21607,7 +21627,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>154</v>
       </c>
@@ -21650,7 +21670,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>682</v>
       </c>
@@ -21690,7 +21710,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>154</v>
       </c>
@@ -21733,7 +21753,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>154</v>
       </c>
@@ -21776,7 +21796,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>154</v>
       </c>
@@ -21819,7 +21839,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>24</v>
       </c>
@@ -21859,7 +21879,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>24</v>
       </c>
@@ -21899,7 +21919,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>686</v>
       </c>
@@ -21939,7 +21959,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>688</v>
       </c>
@@ -21979,7 +21999,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>690</v>
       </c>
@@ -22019,7 +22039,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>176</v>
       </c>
@@ -22054,7 +22074,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>694</v>
       </c>
@@ -22093,7 +22113,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>162</v>
       </c>
@@ -22104,7 +22124,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>694</v>
       </c>
@@ -22144,7 +22164,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>696</v>
       </c>
@@ -22184,7 +22204,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>700</v>
       </c>
@@ -22224,7 +22244,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>702</v>
       </c>
@@ -22264,7 +22284,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>704</v>
       </c>
@@ -22304,7 +22324,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>705</v>
       </c>
@@ -22344,7 +22364,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>707</v>
       </c>
@@ -22384,7 +22404,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>709</v>
       </c>
@@ -22424,9 +22444,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>207</v>
@@ -22437,14 +22457,23 @@
       <c r="D449" s="9" t="s">
         <v>1429</v>
       </c>
+      <c r="E449" s="10">
+        <v>21</v>
+      </c>
       <c r="F449" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G449" s="8" t="s">
-        <v>206</v>
+        <v>749</v>
+      </c>
+      <c r="H449" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I449" s="9" t="s">
+        <v>1338</v>
       </c>
       <c r="J449" s="9" t="s">
-        <v>208</v>
+        <v>746</v>
       </c>
       <c r="K449" s="12">
         <v>44386</v>
@@ -22452,17 +22481,14 @@
       <c r="L449" s="11">
         <v>1</v>
       </c>
-      <c r="M449" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="N449" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O449" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>166</v>
       </c>
@@ -22502,7 +22528,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>166</v>
       </c>
@@ -22542,9 +22568,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B452" s="9" t="s">
         <v>207</v>
@@ -22553,7 +22579,7 @@
         <v>226</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>1429</v>
+        <v>219</v>
       </c>
       <c r="F452" s="9" t="s">
         <v>218</v>
@@ -22561,7 +22587,7 @@
       <c r="G452" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J452" s="9" t="s">
+      <c r="J452" s="13" t="s">
         <v>208</v>
       </c>
       <c r="K452" s="12">
@@ -22571,18 +22597,18 @@
         <v>1</v>
       </c>
       <c r="M452" s="6" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="N452" s="6" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="O452" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B453" s="9" t="s">
         <v>207</v>
@@ -22591,25 +22617,25 @@
         <v>226</v>
       </c>
       <c r="D453" s="9" t="s">
-        <v>1429</v>
+        <v>219</v>
       </c>
       <c r="E453" s="10">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F453" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G453" s="8" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="H453" s="9" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="I453" s="9" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J453" s="9" t="s">
-        <v>746</v>
+        <v>1340</v>
+      </c>
+      <c r="J453" s="13" t="s">
+        <v>758</v>
       </c>
       <c r="K453" s="12">
         <v>44386</v>
@@ -22617,14 +22643,17 @@
       <c r="L453" s="11">
         <v>1</v>
       </c>
+      <c r="M453" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="N453" s="6" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="O453" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>709</v>
       </c>
@@ -22664,7 +22693,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>170</v>
       </c>
@@ -22704,7 +22733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>172</v>
       </c>
@@ -22715,7 +22744,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>711</v>
       </c>
@@ -22755,7 +22784,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>713</v>
       </c>
@@ -22795,7 +22824,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>310</v>
       </c>
@@ -22827,7 +22856,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>715</v>
       </c>
@@ -22866,7 +22895,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>168</v>
       </c>
@@ -22877,7 +22906,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>717</v>
       </c>
@@ -22916,7 +22945,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B463" s="9" t="s">
         <v>207</v>
       </c>
@@ -22948,9 +22977,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="B464" s="9" t="s">
         <v>207</v>
@@ -22959,7 +22988,7 @@
         <v>226</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>219</v>
+        <v>1429</v>
       </c>
       <c r="F464" s="9" t="s">
         <v>218</v>
@@ -22967,7 +22996,7 @@
       <c r="G464" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J464" s="13" t="s">
+      <c r="J464" s="9" t="s">
         <v>208</v>
       </c>
       <c r="K464" s="12">
@@ -22977,18 +23006,18 @@
         <v>1</v>
       </c>
       <c r="M464" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N464" s="6" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="O464" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>207</v>
@@ -22997,43 +23026,40 @@
         <v>226</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>219</v>
+        <v>1429</v>
       </c>
       <c r="E465" s="10">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F465" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G465" s="8" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H465" s="9" t="s">
-        <v>1341</v>
+        <v>1371</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>1340</v>
-      </c>
-      <c r="J465" s="13" t="s">
-        <v>758</v>
+        <v>1334</v>
+      </c>
+      <c r="J465" s="9" t="s">
+        <v>760</v>
       </c>
       <c r="K465" s="12">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="L465" s="11">
         <v>1</v>
       </c>
-      <c r="M465" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="N465" s="6" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="O465" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>118</v>
       </c>
@@ -23073,7 +23099,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>118</v>
       </c>
@@ -23113,7 +23139,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B468" s="9" t="s">
         <v>207</v>
       </c>
@@ -23142,7 +23168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B469" s="9" t="s">
         <v>207</v>
       </c>
@@ -23177,7 +23203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B470" s="9" t="s">
         <v>207</v>
       </c>
@@ -23206,7 +23232,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B471" s="9" t="s">
         <v>207</v>
       </c>
@@ -23235,7 +23261,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>118</v>
       </c>
@@ -23275,7 +23301,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B473" s="9" t="s">
         <v>207</v>
       </c>
@@ -23307,7 +23333,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B474" s="9" t="s">
         <v>207</v>
       </c>
@@ -23339,7 +23365,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B475" s="9" t="s">
         <v>207</v>
       </c>
@@ -23368,7 +23394,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>317</v>
       </c>
@@ -23403,7 +23429,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>24</v>
       </c>
@@ -23415,7 +23441,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -23457,7 +23483,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -23499,7 +23525,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -23541,7 +23567,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B481" s="9" t="s">
         <v>207</v>
       </c>
@@ -23573,7 +23599,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
         <v>176</v>
       </c>
@@ -23615,7 +23641,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>176</v>
       </c>
@@ -23657,7 +23683,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
         <v>176</v>
       </c>
@@ -23699,7 +23725,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B485" s="9" t="s">
         <v>207</v>
       </c>
@@ -23731,7 +23757,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B486" s="9" t="s">
         <v>207</v>
       </c>
@@ -23763,7 +23789,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B487" s="9" t="s">
         <v>207</v>
       </c>
@@ -23795,7 +23821,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
         <v>106</v>
       </c>
@@ -23807,7 +23833,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>180</v>
       </c>
@@ -23819,7 +23845,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B490" s="9" t="s">
         <v>207</v>
       </c>
@@ -23851,7 +23877,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B491" s="9" t="s">
         <v>207</v>
       </c>
@@ -23886,7 +23912,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B492" s="9" t="s">
         <v>207</v>
       </c>
@@ -23921,7 +23947,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
         <v>190</v>
       </c>
@@ -23933,7 +23959,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B494" s="9" t="s">
         <v>207</v>
       </c>
@@ -23965,7 +23991,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>178</v>
       </c>
@@ -23977,7 +24003,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>152</v>
       </c>
@@ -23988,7 +24014,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
         <v>194</v>
       </c>
@@ -23999,7 +24025,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B498" s="9" t="s">
         <v>207</v>
       </c>
@@ -24031,7 +24057,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B499" s="9" t="s">
         <v>207</v>
       </c>
@@ -24063,7 +24089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B500" s="9" t="s">
         <v>207</v>
       </c>
@@ -24095,7 +24121,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="501" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B501" s="9" t="s">
         <v>207</v>
       </c>
@@ -24127,7 +24153,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
         <v>196</v>
       </c>
@@ -24138,7 +24164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B503" s="9" t="s">
         <v>207</v>
       </c>
@@ -24170,7 +24196,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B504" s="9" t="s">
         <v>207</v>
       </c>
@@ -24202,7 +24228,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A505" s="6" t="s">
         <v>198</v>
       </c>
@@ -24248,7 +24274,7 @@
       <c r="W505" s="2"/>
       <c r="Y505" s="3"/>
     </row>
-    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B506" s="9" t="s">
         <v>207</v>
       </c>
@@ -24291,7 +24317,7 @@
       <c r="W506" s="2"/>
       <c r="Y506" s="3"/>
     </row>
-    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="6" t="s">
         <v>30</v>
       </c>
@@ -24311,7 +24337,7 @@
       <c r="W507" s="2"/>
       <c r="Y507" s="3"/>
     </row>
-    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="6" t="s">
         <v>704</v>
       </c>
@@ -24351,7 +24377,7 @@
       <c r="W508" s="2"/>
       <c r="Y508" s="3"/>
     </row>
-    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="6" t="s">
         <v>200</v>
       </c>
@@ -24402,20 +24428,20 @@
         <filter val="true"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P509">
-      <sortCondition ref="A1:A509"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:P505">
+      <sortCondition ref="N1:N509"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J397" r:id="rId1" xr:uid="{543B9880-E8EE-4410-B642-1F6AF526FA22}"/>
-    <hyperlink ref="J33" r:id="rId2" xr:uid="{DAF041DD-78D7-4397-9B3E-1E425AA7688D}"/>
-    <hyperlink ref="J221" r:id="rId3" xr:uid="{9837D1BE-CB84-4425-8372-8CAFB8E3DF6D}"/>
-    <hyperlink ref="J71" r:id="rId4" xr:uid="{677724BA-E30E-451D-8B2D-54A5026736C3}"/>
-    <hyperlink ref="J318" r:id="rId5" xr:uid="{A89B952A-224D-425B-9031-D477FF7B26C7}"/>
-    <hyperlink ref="J250" r:id="rId6" xr:uid="{3F611200-01DA-4BF3-9081-8A2A4ECC18FA}"/>
-    <hyperlink ref="J69" r:id="rId7" xr:uid="{47C72BA1-715D-4594-9D0B-230913BA15B3}"/>
-    <hyperlink ref="J423" r:id="rId8" xr:uid="{38CF60FD-F1C6-478B-A3B2-B11785F769CA}"/>
-    <hyperlink ref="J464" r:id="rId9" xr:uid="{DD1688FC-77D3-4405-B00A-85530BD47DBB}"/>
+    <hyperlink ref="J367" r:id="rId1" xr:uid="{543B9880-E8EE-4410-B642-1F6AF526FA22}"/>
+    <hyperlink ref="J71" r:id="rId2" xr:uid="{DAF041DD-78D7-4397-9B3E-1E425AA7688D}"/>
+    <hyperlink ref="J189" r:id="rId3" xr:uid="{9837D1BE-CB84-4425-8372-8CAFB8E3DF6D}"/>
+    <hyperlink ref="J230" r:id="rId4" xr:uid="{677724BA-E30E-451D-8B2D-54A5026736C3}"/>
+    <hyperlink ref="J33" r:id="rId5" xr:uid="{A89B952A-224D-425B-9031-D477FF7B26C7}"/>
+    <hyperlink ref="J190" r:id="rId6" xr:uid="{3F611200-01DA-4BF3-9081-8A2A4ECC18FA}"/>
+    <hyperlink ref="J221" r:id="rId7" xr:uid="{47C72BA1-715D-4594-9D0B-230913BA15B3}"/>
+    <hyperlink ref="J371" r:id="rId8" xr:uid="{38CF60FD-F1C6-478B-A3B2-B11785F769CA}"/>
+    <hyperlink ref="J452" r:id="rId9" xr:uid="{DD1688FC-77D3-4405-B00A-85530BD47DBB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -24430,14 +24456,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="70.109375" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -24457,7 +24483,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -24480,7 +24506,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
@@ -24503,7 +24529,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
@@ -24526,7 +24552,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -24549,7 +24575,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -24569,7 +24595,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -24589,7 +24615,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
@@ -24612,7 +24638,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -24635,7 +24661,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -24658,7 +24684,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
@@ -24681,7 +24707,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -24704,7 +24730,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -24727,7 +24753,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -24750,7 +24776,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -24773,7 +24799,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -24793,7 +24819,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -24813,7 +24839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -24833,7 +24859,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -24853,7 +24879,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
@@ -24876,7 +24902,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
@@ -24899,7 +24925,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
@@ -24922,7 +24948,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
@@ -24945,7 +24971,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
@@ -24968,7 +24994,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
@@ -24991,7 +25017,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -25011,7 +25037,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
@@ -25031,7 +25057,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -25051,7 +25077,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -25075,7 +25101,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -25099,7 +25125,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
@@ -25123,7 +25149,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
@@ -25147,7 +25173,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
@@ -25181,34 +25207,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D031536-AC86-450E-8B25-7F340394AA63}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A101" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>768</v>
       </c>
@@ -25267,7 +25293,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -25326,7 +25352,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -25385,7 +25411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -25444,7 +25470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -25503,7 +25529,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -25562,7 +25588,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -25621,7 +25647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -25680,7 +25706,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -25739,7 +25765,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -25798,7 +25824,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -25857,7 +25883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -25916,7 +25942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -25975,7 +26001,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -26034,7 +26060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -26093,7 +26119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -26152,7 +26178,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
@@ -26211,7 +26237,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -26270,7 +26296,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -26329,7 +26355,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -26388,7 +26414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -26447,7 +26473,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
@@ -26506,7 +26532,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>158</v>
       </c>
@@ -26565,7 +26591,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -26624,7 +26650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -26683,7 +26709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -26742,7 +26768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
@@ -26801,7 +26827,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -26860,7 +26886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -26919,7 +26945,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -26978,7 +27004,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -27037,7 +27063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -27096,7 +27122,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -27155,7 +27181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -27214,7 +27240,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -27273,7 +27299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -27332,7 +27358,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -27391,7 +27417,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
@@ -27450,7 +27476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -27509,7 +27535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -27568,7 +27594,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>126</v>
       </c>
@@ -27627,7 +27653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
@@ -27686,7 +27712,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
@@ -27745,7 +27771,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -27804,7 +27830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
@@ -27863,7 +27889,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -27922,7 +27948,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -27981,7 +28007,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
@@ -28040,7 +28066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
@@ -28099,7 +28125,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -28158,7 +28184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
@@ -28217,7 +28243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -28276,7 +28302,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -28335,7 +28361,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
@@ -28394,7 +28420,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
@@ -28453,7 +28479,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
@@ -28512,7 +28538,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>84</v>
       </c>
@@ -28571,7 +28597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>150</v>
       </c>
@@ -28630,7 +28656,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -28689,7 +28715,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -28748,7 +28774,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>108</v>
       </c>
@@ -28807,7 +28833,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
@@ -28866,7 +28892,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -28925,7 +28951,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
@@ -28984,7 +29010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
@@ -29043,7 +29069,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>192</v>
       </c>
@@ -29102,7 +29128,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>114</v>
       </c>
@@ -29161,7 +29187,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -29220,7 +29246,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -29279,7 +29305,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>182</v>
       </c>
@@ -29338,7 +29364,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>184</v>
       </c>
@@ -29397,7 +29423,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -29456,7 +29482,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -29515,7 +29541,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
@@ -29574,7 +29600,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -29633,7 +29659,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -29692,7 +29718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -29751,7 +29777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -29810,7 +29836,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -29869,7 +29895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>116</v>
       </c>
@@ -29928,7 +29954,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>74</v>
       </c>
@@ -29987,7 +30013,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>154</v>
       </c>
@@ -30046,7 +30072,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>162</v>
       </c>
@@ -30105,7 +30131,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>164</v>
       </c>
@@ -30164,7 +30190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>166</v>
       </c>
@@ -30223,7 +30249,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -30282,7 +30308,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>172</v>
       </c>
@@ -30341,7 +30367,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
@@ -30400,7 +30426,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
@@ -30459,7 +30485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>24</v>
       </c>
@@ -30518,7 +30544,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
@@ -30577,7 +30603,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
@@ -30636,7 +30662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>180</v>
       </c>
@@ -30695,7 +30721,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -30754,7 +30780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -30813,7 +30839,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>152</v>
       </c>
@@ -30872,7 +30898,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -30931,7 +30957,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>196</v>
       </c>
@@ -30990,7 +31016,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>198</v>
       </c>
@@ -31049,7 +31075,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>30</v>
       </c>
@@ -31108,7 +31134,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
@@ -31172,6 +31198,642 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185A4B97-72D3-4508-AB08-662CEDF4EEC7}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14"/>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
+      <c r="B57" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="14"/>
+      <c r="B64" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
+      <c r="B65" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="14"/>
+      <c r="B68" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="14"/>
+      <c r="B70" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
+      <c r="B71" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
+      <c r="B75" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="14"/>
+      <c r="B76" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="14"/>
+      <c r="B78" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="14"/>
+      <c r="B79" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="14"/>
+      <c r="B80" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
+      <c r="B81" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+      <c r="B82" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
+      <c r="B83" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B101" xr:uid="{185A4B97-72D3-4508-AB08-662CEDF4EEC7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+      <sortCondition ref="B1:B101"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075B0401-12BE-4382-AFF4-D3F9649CCEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26604BB6-D06E-4F45-8BAD-39A5A6ACDE74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11543" yWindow="518" windowWidth="16875" windowHeight="10522" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4513,8 +4513,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -4922,33 +4922,33 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z520"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.1328125" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="13.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" style="9" customWidth="1"/>
     <col min="9" max="9" width="49" style="9" customWidth="1"/>
     <col min="10" max="10" width="16" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="11" max="11" width="16.73046875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.3984375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="23.3984375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.1328125" style="9"/>
+    <col min="16" max="16" width="9.1328125" style="6"/>
     <col min="17" max="17" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="W1" s="2"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>332</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="W2" s="2"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="W3" s="2"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="W4" s="2"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>336</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="W5" s="2"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>336</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="W6" s="2"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>299</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="W7" s="2"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>299</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="W8" s="2"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="W9" s="2"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>342</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="W10" s="2"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>344</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="W11" s="2"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>344</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="W12" s="2"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>344</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="W13" s="2"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="W14" s="2"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>344</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="W15" s="2"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>344</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="W16" s="2"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>345</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="W17" s="2"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>1432</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="W18" s="2"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="W19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>348</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="W20" s="2"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>350</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>350</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="W22" s="2"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>352</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="W23" s="2"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="W24" s="2"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="W25" s="2"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>354</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="W26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>356</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="W27" s="2"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>357</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="W28" s="2"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>362</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="W29" s="2"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="W30" s="2"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="W31" s="2"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="W32" s="2"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -6488,7 +6488,7 @@
       <c r="W33" s="2"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>364</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="W34" s="2"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>366</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="W35" s="2"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>368</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="W36" s="2"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>370</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="W37" s="2"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>370</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="W39" s="2"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>370</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="W40" s="2"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>372</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="W41" s="2"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>372</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="W42" s="2"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>374</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="W43" s="2"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>376</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="W44" s="2"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>378</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="W45" s="2"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
         <v>382</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="W46" s="2"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
         <v>380</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="W47" s="2"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
         <v>382</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="W48" s="2"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
         <v>382</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="W49" s="2"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7259,7 +7259,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>1434</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="W51" s="2"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="W52" s="2"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
         <v>383</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="W53" s="2"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="W54" s="2"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7416,7 +7416,7 @@
       <c r="W55" s="2"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>295</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="W56" s="2"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
         <v>295</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="W57" s="2"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
         <v>295</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="W58" s="2"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
         <v>386</v>
       </c>
@@ -7612,7 +7612,7 @@
       <c r="W59" s="2"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
         <v>388</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="W60" s="2"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
         <v>390</v>
       </c>
@@ -7710,7 +7710,7 @@
       <c r="W61" s="2"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>722</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
         <v>722</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="W63" s="2"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="W64" s="2"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
         <v>392</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
         <v>394</v>
       </c>
@@ -7928,7 +7928,7 @@
       <c r="W66" s="2"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="W67" s="2"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="W68" s="2"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="6" t="s">
         <v>124</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="W69" s="2"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8071,7 +8071,7 @@
       <c r="W70" s="2"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
         <v>36</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="W71" s="2"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>397</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="W72" s="2"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
         <v>399</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="W73" s="2"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
         <v>401</v>
       </c>
@@ -8264,7 +8264,7 @@
       <c r="W74" s="2"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
         <v>401</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="6" t="s">
         <v>403</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="W76" s="2"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="W77" s="2"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -8466,7 +8466,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="6" t="s">
         <v>406</v>
       </c>
@@ -8517,7 +8517,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
         <v>321</v>
       </c>
@@ -8623,7 +8623,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
         <v>321</v>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
         <v>321</v>
       </c>
@@ -8729,7 +8729,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
         <v>321</v>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="6" t="s">
         <v>321</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="6" t="s">
         <v>408</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="W86" s="2"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
         <v>408</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -8983,7 +8983,7 @@
       <c r="W88" s="2"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="W89" s="2"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="6" t="s">
         <v>1437</v>
       </c>
@@ -9130,7 +9130,7 @@
       <c r="W91" s="2"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A92" s="6" t="s">
         <v>158</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="W92" s="2"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A93" s="6" t="s">
         <v>158</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="W93" s="2"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A94" s="6" t="s">
         <v>158</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="W94" s="2"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
         <v>158</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="W95" s="2"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="6" t="s">
         <v>409</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="W96" s="2"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="6" t="s">
         <v>411</v>
       </c>
@@ -9412,7 +9412,7 @@
       <c r="W97" s="2"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="6" t="s">
         <v>413</v>
       </c>
@@ -9461,7 +9461,7 @@
       <c r="W98" s="2"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9482,7 +9482,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="6" t="s">
         <v>413</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="W100" s="2"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="6" t="s">
         <v>415</v>
       </c>
@@ -9580,7 +9580,7 @@
       <c r="W101" s="2"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="W102" s="2"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="6" t="s">
         <v>723</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="W103" s="2"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="6" t="s">
         <v>418</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="W104" s="2"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="6" t="s">
         <v>421</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="6" t="s">
         <v>723</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="W106" s="2"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A109" s="6" t="s">
         <v>158</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A110" s="6" t="s">
         <v>158</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10034,7 +10034,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10084,7 +10084,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10187,7 +10187,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10240,7 +10240,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -10341,7 +10341,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -10395,7 +10395,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A119" s="6" t="s">
         <v>156</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A120" s="6" t="s">
         <v>120</v>
       </c>
@@ -10495,7 +10495,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="6" t="s">
         <v>425</v>
       </c>
@@ -10757,7 +10757,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="6" t="s">
         <v>427</v>
       </c>
@@ -10807,7 +10807,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="6" t="s">
         <v>1440</v>
       </c>
@@ -10856,7 +10856,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="6" t="s">
         <v>16</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A129" s="6" t="s">
         <v>120</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A130" s="6" t="s">
         <v>160</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A131" s="6" t="s">
         <v>160</v>
       </c>
@@ -11053,7 +11053,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -11153,7 +11153,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="6" t="s">
         <v>431</v>
       </c>
@@ -11203,7 +11203,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A135" s="6" t="s">
         <v>160</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A136" s="6" t="s">
         <v>160</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A137" s="6" t="s">
         <v>46</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="6" t="s">
         <v>431</v>
       </c>
@@ -11414,7 +11414,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
         <v>725</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="6" t="s">
         <v>725</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="6" t="s">
         <v>40</v>
       </c>
@@ -11563,7 +11563,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="6" t="s">
         <v>156</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="6" t="s">
         <v>38</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="6" t="s">
         <v>433</v>
       </c>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="Q147" s="2"/>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="6" t="s">
         <v>435</v>
       </c>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="Q148" s="2"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A149" s="6" t="s">
         <v>50</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="6" t="s">
         <v>437</v>
       </c>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="Q150" s="2"/>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="6" t="s">
         <v>439</v>
       </c>
@@ -11958,7 +11958,7 @@
       </c>
       <c r="Q151" s="2"/>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="6" t="s">
         <v>439</v>
       </c>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="6" t="s">
         <v>441</v>
       </c>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="Q153" s="2"/>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="6" t="s">
         <v>441</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="6" t="s">
         <v>443</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="6" t="s">
         <v>443</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="6" t="s">
         <v>445</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="6" t="s">
         <v>445</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="6" t="s">
         <v>447</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="6" t="s">
         <v>449</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="6" t="s">
         <v>451</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="6" t="s">
         <v>451</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="6" t="s">
         <v>453</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="6" t="s">
         <v>456</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="6" t="s">
         <v>1441</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="6" t="s">
         <v>458</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="6" t="s">
         <v>458</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="6" t="s">
         <v>318</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="6" t="s">
         <v>318</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="6" t="s">
         <v>318</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="6" t="s">
         <v>318</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="6" t="s">
         <v>48</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="6" t="s">
         <v>48</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="6" t="s">
         <v>315</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="6" t="s">
         <v>50</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="6" t="s">
         <v>50</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="6" t="s">
         <v>461</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="6" t="s">
         <v>463</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="6" t="s">
         <v>297</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
         <v>60</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="6" t="s">
         <v>297</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="6" t="s">
         <v>465</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A189" s="6" t="s">
         <v>126</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A190" s="6" t="s">
         <v>72</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="6" t="s">
         <v>315</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="6" t="s">
         <v>315</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="6" t="s">
         <v>315</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="6" t="s">
         <v>315</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="6" t="s">
         <v>467</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="6" t="s">
         <v>469</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="6" t="s">
         <v>300</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="6" t="s">
         <v>469</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="6" t="s">
         <v>471</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="6" t="s">
         <v>60</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="6" t="s">
         <v>60</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="6" t="s">
         <v>317</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="6" t="s">
         <v>317</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="6" t="s">
         <v>54</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="6" t="s">
         <v>317</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="6" t="s">
         <v>58</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A208" s="6" t="s">
         <v>72</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="6" t="s">
         <v>300</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="6" t="s">
         <v>300</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="6" t="s">
         <v>300</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="6" t="s">
         <v>473</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="6" t="s">
         <v>475</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="6" t="s">
         <v>477</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="6" t="s">
         <v>126</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="6" t="s">
         <v>62</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="6" t="s">
         <v>140</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A221" s="6" t="s">
         <v>96</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="6" t="s">
         <v>122</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="6" t="s">
         <v>482</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="6" t="s">
         <v>482</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="6" t="s">
         <v>484</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="6" t="s">
         <v>484</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A229" s="6" t="s">
         <v>96</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A230" s="6" t="s">
         <v>102</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="6" t="s">
         <v>486</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="6" t="s">
         <v>488</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="6" t="s">
         <v>301</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="6" t="s">
         <v>301</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="6" t="s">
         <v>491</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="6" t="s">
         <v>493</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="6" t="s">
         <v>186</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="6" t="s">
         <v>495</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="6" t="s">
         <v>76</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="6" t="s">
         <v>497</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="6" t="s">
         <v>72</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="6" t="s">
         <v>72</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="6" t="s">
         <v>44</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="6" t="s">
         <v>68</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="6" t="s">
         <v>499</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="6" t="s">
         <v>1442</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="6" t="s">
         <v>188</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A249" s="6" t="s">
         <v>102</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A250" s="6" t="s">
         <v>112</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="6" t="s">
         <v>501</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="6" t="s">
         <v>503</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="6" t="s">
         <v>505</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="6" t="s">
         <v>507</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="6" t="s">
         <v>507</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="6" t="s">
         <v>78</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="6" t="s">
         <v>507</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="6" t="s">
         <v>64</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="6" t="s">
         <v>507</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="6" t="s">
         <v>507</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="6" t="s">
         <v>507</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="6" t="s">
         <v>302</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6" t="s">
         <v>302</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6" t="s">
         <v>302</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6" t="s">
         <v>511</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6" t="s">
         <v>513</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6" t="s">
         <v>515</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="6" t="s">
         <v>517</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="6" t="s">
         <v>517</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="6" t="s">
         <v>82</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="6" t="s">
         <v>519</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6" t="s">
         <v>521</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6" t="s">
         <v>523</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6" t="s">
         <v>525</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6" t="s">
         <v>527</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6" t="s">
         <v>529</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="6" t="s">
         <v>86</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6" t="s">
         <v>529</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6" t="s">
         <v>531</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6" t="s">
         <v>534</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6" t="s">
         <v>534</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6" t="s">
         <v>536</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6" t="s">
         <v>538</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="6" t="s">
         <v>80</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="6" t="s">
         <v>90</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="6" t="s">
         <v>540</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6" t="s">
         <v>540</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="6" t="s">
         <v>543</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="6" t="s">
         <v>545</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="6" t="s">
         <v>547</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="6" t="s">
         <v>549</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="6" t="s">
         <v>549</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="6" t="s">
         <v>727</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="6" t="s">
         <v>551</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="6" t="s">
         <v>319</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="6" t="s">
         <v>319</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="6" t="s">
         <v>84</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="6" t="s">
         <v>553</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="6" t="s">
         <v>556</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="6" t="s">
         <v>558</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="6" t="s">
         <v>558</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="6" t="s">
         <v>726</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="6" t="s">
         <v>150</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="6" t="s">
         <v>726</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="6" t="s">
         <v>726</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="6" t="s">
         <v>726</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="6" t="s">
         <v>100</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="6" t="s">
         <v>98</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="6" t="s">
         <v>108</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="6" t="s">
         <v>559</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="6" t="s">
         <v>124</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="6" t="s">
         <v>561</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="6" t="s">
         <v>564</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="6" t="s">
         <v>104</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A317" s="6" t="s">
         <v>112</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A318" s="6" t="s">
         <v>48</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="6" t="s">
         <v>566</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="6" t="s">
         <v>568</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="6" t="s">
         <v>94</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="6" t="s">
         <v>134</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="6" t="s">
         <v>316</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="6" t="s">
         <v>192</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="6" t="s">
         <v>568</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="6" t="s">
         <v>570</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="6" t="s">
         <v>572</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="6" t="s">
         <v>572</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="6" t="s">
         <v>574</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="6" t="s">
         <v>576</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="6" t="s">
         <v>1443</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="6" t="s">
         <v>578</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="6" t="s">
         <v>316</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="6" t="s">
         <v>316</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="6" t="s">
         <v>316</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="6" t="s">
         <v>580</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="6" t="s">
         <v>582</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="6" t="s">
         <v>582</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="6" t="s">
         <v>584</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="6" t="s">
         <v>584</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="6" t="s">
         <v>584</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="6" t="s">
         <v>586</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="6" t="s">
         <v>588</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="6" t="s">
         <v>589</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="6" t="s">
         <v>591</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="6" t="s">
         <v>593</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="6" t="s">
         <v>593</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="6" t="s">
         <v>595</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="6" t="s">
         <v>597</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="6" t="s">
         <v>599</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="6" t="s">
         <v>601</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="6" t="s">
         <v>603</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="6" t="s">
         <v>605</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="6" t="s">
         <v>114</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="6" t="s">
         <v>607</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="6" t="s">
         <v>609</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="6" t="s">
         <v>611</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="6" t="s">
         <v>613</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="6" t="s">
         <v>128</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="6" t="s">
         <v>616</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="6" t="s">
         <v>110</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="6" t="s">
         <v>618</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="6" t="s">
         <v>620</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="6" t="s">
         <v>622</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="6" t="s">
         <v>182</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A366" s="6" t="s">
         <v>146</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="6" t="s">
         <v>623</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="6" t="s">
         <v>313</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="6" t="s">
         <v>623</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A370" s="6" t="s">
         <v>154</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="6" t="s">
         <v>623</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="6" t="s">
         <v>623</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="6" t="s">
         <v>623</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="6" t="s">
         <v>623</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="6" t="s">
         <v>627</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="6" t="s">
         <v>629</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="6" t="s">
         <v>631</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="6" t="s">
         <v>1444</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="6" t="s">
         <v>313</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="6" t="s">
         <v>313</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="6" t="s">
         <v>313</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="6" t="s">
         <v>634</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="383" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="6" t="s">
         <v>311</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="6" t="s">
         <v>146</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="6" t="s">
         <v>138</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="6" t="s">
         <v>130</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="6" t="s">
         <v>56</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="6" t="s">
         <v>22</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="6" t="s">
         <v>144</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="6" t="s">
         <v>636</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="6" t="s">
         <v>638</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="6" t="s">
         <v>638</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="6" t="s">
         <v>640</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="6" t="s">
         <v>142</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="6" t="s">
         <v>642</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A396" s="6" t="s">
         <v>154</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="6" t="s">
         <v>642</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="6" t="s">
         <v>644</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="6" t="s">
         <v>644</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="6" t="s">
         <v>646</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="6" t="s">
         <v>311</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="402" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="6" t="s">
         <v>648</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="6" t="s">
         <v>724</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="6" t="s">
         <v>724</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="6" t="s">
         <v>303</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="6" t="s">
         <v>303</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="6" t="s">
         <v>303</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="6" t="s">
         <v>651</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="6" t="s">
         <v>148</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="6" t="s">
         <v>116</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="6" t="s">
         <v>154</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="6" t="s">
         <v>154</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="6" t="s">
         <v>721</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="6" t="s">
         <v>721</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="6" t="s">
         <v>655</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="6" t="s">
         <v>657</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="6" t="s">
         <v>74</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A423" s="6" t="s">
         <v>164</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A424" s="6" t="s">
         <v>170</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="6" t="s">
         <v>659</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="6" t="s">
         <v>661</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="6" t="s">
         <v>661</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="6" t="s">
         <v>662</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="6" t="s">
         <v>665</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="6" t="s">
         <v>668</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="6" t="s">
         <v>668</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="6" t="s">
         <v>669</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="433" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="6" t="s">
         <v>669</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="434" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="6" t="s">
         <v>671</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="6" t="s">
         <v>166</v>
       </c>
@@ -22213,7 +22213,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" s="6" t="s">
         <v>166</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="437" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" s="6" t="s">
         <v>176</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="6" t="s">
         <v>170</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" s="6" t="s">
         <v>162</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="440" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="6" t="s">
         <v>673</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="441" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="6" t="s">
         <v>674</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="442" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="6" t="s">
         <v>676</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="443" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="6" t="s">
         <v>678</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="6" t="s">
         <v>118</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" s="6" t="s">
         <v>118</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" s="6" t="s">
         <v>118</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="447" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="6" t="s">
         <v>680</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A448" s="6" t="s">
         <v>170</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="449" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="6" t="s">
         <v>682</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="6" t="s">
         <v>24</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A451" s="6" t="s">
         <v>118</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A452" s="6" t="s">
         <v>118</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="6" t="s">
         <v>24</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="6" t="s">
         <v>686</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="6" t="s">
         <v>172</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" s="6" t="s">
         <v>688</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="6" t="s">
         <v>690</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="6" t="s">
         <v>310</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="6" t="s">
         <v>1445</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="6" t="s">
         <v>168</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="461" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="6" t="s">
         <v>1445</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B462" s="9" t="s">
         <v>207</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A463" s="6" t="s">
         <v>184</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A464" s="6" t="s">
         <v>184</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" s="6" t="s">
         <v>176</v>
       </c>
@@ -23338,7 +23338,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" s="6" t="s">
         <v>176</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B467" s="9" t="s">
         <v>207</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B468" s="9" t="s">
         <v>207</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B469" s="9" t="s">
         <v>207</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="470" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B470" s="9" t="s">
         <v>207</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" s="6" t="s">
         <v>176</v>
       </c>
@@ -23550,7 +23550,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="472" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B472" s="9" t="s">
         <v>207</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B473" s="9" t="s">
         <v>207</v>
       </c>
@@ -23614,7 +23614,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B474" s="9" t="s">
         <v>207</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" s="6" t="s">
         <v>317</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="6" t="s">
         <v>24</v>
       </c>
@@ -23690,7 +23690,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B480" s="9" t="s">
         <v>207</v>
       </c>
@@ -23857,7 +23857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="6" t="s">
         <v>694</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" s="6" t="s">
         <v>694</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="6" t="s">
         <v>696</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B484" s="9" t="s">
         <v>207</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B485" s="9" t="s">
         <v>207</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B486" s="9" t="s">
         <v>207</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" s="6" t="s">
         <v>106</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" s="6" t="s">
         <v>180</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B489" s="9" t="s">
         <v>207</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B490" s="9" t="s">
         <v>207</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B491" s="9" t="s">
         <v>207</v>
       </c>
@@ -24198,7 +24198,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" s="6" t="s">
         <v>190</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B493" s="9" t="s">
         <v>207</v>
       </c>
@@ -24242,7 +24242,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" s="6" t="s">
         <v>178</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="6" t="s">
         <v>152</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" s="6" t="s">
         <v>194</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B497" s="9" t="s">
         <v>207</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B498" s="9" t="s">
         <v>207</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B499" s="9" t="s">
         <v>207</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B500" s="9" t="s">
         <v>207</v>
       </c>
@@ -24404,7 +24404,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="6" t="s">
         <v>196</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B502" s="9" t="s">
         <v>207</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B503" s="9" t="s">
         <v>207</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A504" s="6" t="s">
         <v>198</v>
       </c>
@@ -24525,7 +24525,7 @@
       <c r="W504" s="2"/>
       <c r="Y504" s="3"/>
     </row>
-    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B505" s="9" t="s">
         <v>207</v>
       </c>
@@ -24568,7 +24568,7 @@
       <c r="W505" s="2"/>
       <c r="Y505" s="3"/>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" s="6" t="s">
         <v>30</v>
       </c>
@@ -24588,7 +24588,7 @@
       <c r="W506" s="2"/>
       <c r="Y506" s="3"/>
     </row>
-    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" s="6" t="s">
         <v>704</v>
       </c>
@@ -24628,7 +24628,7 @@
       <c r="W507" s="2"/>
       <c r="Y507" s="3"/>
     </row>
-    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" s="6" t="s">
         <v>700</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" s="6" t="s">
         <v>702</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" s="6" t="s">
         <v>704</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" s="6" t="s">
         <v>705</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="512" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" s="6" t="s">
         <v>707</v>
       </c>
@@ -24828,7 +24828,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="513" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" s="6" t="s">
         <v>709</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="514" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="6" t="s">
         <v>709</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="515" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="6" t="s">
         <v>711</v>
       </c>
@@ -24948,7 +24948,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="516" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" s="6" t="s">
         <v>1446</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="517" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="6" t="s">
         <v>713</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="518" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" s="6" t="s">
         <v>715</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="6" t="s">
         <v>200</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="520" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" s="6" t="s">
         <v>717</v>
       </c>
@@ -25151,6 +25151,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q520" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="full text (the north wind and the sun)"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="14">
       <filters>
         <filter val="true"/>
@@ -25185,14 +25190,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.3984375" customWidth="1"/>
+    <col min="3" max="3" width="70.1328125" customWidth="1"/>
+    <col min="4" max="4" width="70.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -25212,7 +25217,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -25235,7 +25240,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
@@ -25258,7 +25263,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
@@ -25281,7 +25286,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -25304,7 +25309,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -25324,7 +25329,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -25344,7 +25349,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
@@ -25367,7 +25372,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -25390,7 +25395,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -25413,7 +25418,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
@@ -25436,7 +25441,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -25459,7 +25464,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -25482,7 +25487,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -25505,7 +25510,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -25528,7 +25533,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -25548,7 +25553,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -25568,7 +25573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -25588,7 +25593,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -25608,7 +25613,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
@@ -25631,7 +25636,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
@@ -25654,7 +25659,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
@@ -25677,7 +25682,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
@@ -25700,7 +25705,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
@@ -25723,7 +25728,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
@@ -25746,7 +25751,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -25766,7 +25771,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
@@ -25786,7 +25791,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -25806,7 +25811,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -25830,7 +25835,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -25854,7 +25859,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
@@ -25878,7 +25883,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
@@ -25902,7 +25907,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
@@ -25936,34 +25941,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D031536-AC86-450E-8B25-7F340394AA63}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>768</v>
       </c>
@@ -26022,7 +26027,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -26081,7 +26086,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -26140,7 +26145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -26199,7 +26204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -26258,7 +26263,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -26317,7 +26322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -26376,7 +26381,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -26435,7 +26440,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -26494,7 +26499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -26553,7 +26558,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>124</v>
       </c>
@@ -26612,7 +26617,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -26671,7 +26676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -26730,7 +26735,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -26789,7 +26794,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -26848,7 +26853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -26907,7 +26912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -26966,7 +26971,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -27025,7 +27030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -27084,7 +27089,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -27143,7 +27148,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>158</v>
       </c>
@@ -27202,7 +27207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -27261,7 +27266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -27320,7 +27325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>156</v>
       </c>
@@ -27379,7 +27384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
@@ -27438,7 +27443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>160</v>
       </c>
@@ -27497,7 +27502,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -27556,7 +27561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -27615,7 +27620,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -27674,7 +27679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -27733,7 +27738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
@@ -27792,7 +27797,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -27851,7 +27856,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -27910,7 +27915,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
@@ -27969,7 +27974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>60</v>
       </c>
@@ -28028,7 +28033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>126</v>
       </c>
@@ -28087,7 +28092,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -28146,7 +28151,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>122</v>
       </c>
@@ -28205,7 +28210,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -28264,7 +28269,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
@@ -28323,7 +28328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>68</v>
       </c>
@@ -28382,7 +28387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
@@ -28441,7 +28446,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>72</v>
       </c>
@@ -28500,7 +28505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>74</v>
       </c>
@@ -28559,7 +28564,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>76</v>
       </c>
@@ -28618,7 +28623,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>78</v>
       </c>
@@ -28677,7 +28682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>80</v>
       </c>
@@ -28736,7 +28741,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>82</v>
       </c>
@@ -28795,7 +28800,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
@@ -28854,7 +28859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>86</v>
       </c>
@@ -28913,7 +28918,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -28972,7 +28977,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>90</v>
       </c>
@@ -29031,7 +29036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -29090,7 +29095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -29149,7 +29154,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>98</v>
       </c>
@@ -29208,7 +29213,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>100</v>
       </c>
@@ -29267,7 +29272,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
@@ -29326,7 +29331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -29385,7 +29390,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
@@ -29444,7 +29449,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>108</v>
       </c>
@@ -29503,7 +29508,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>92</v>
       </c>
@@ -29562,7 +29567,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -29621,7 +29626,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -29680,7 +29685,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>48</v>
       </c>
@@ -29739,7 +29744,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -29798,7 +29803,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>178</v>
       </c>
@@ -29857,7 +29862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>116</v>
       </c>
@@ -29916,7 +29921,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -29975,7 +29980,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>130</v>
       </c>
@@ -30034,7 +30039,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>132</v>
       </c>
@@ -30093,7 +30098,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>134</v>
       </c>
@@ -30152,7 +30157,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>136</v>
       </c>
@@ -30211,7 +30216,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>138</v>
       </c>
@@ -30270,7 +30275,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>140</v>
       </c>
@@ -30329,7 +30334,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>142</v>
       </c>
@@ -30388,7 +30393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -30447,7 +30452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>146</v>
       </c>
@@ -30506,7 +30511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>150</v>
       </c>
@@ -30565,7 +30570,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -30624,7 +30629,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>152</v>
       </c>
@@ -30683,7 +30688,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>154</v>
       </c>
@@ -30742,7 +30747,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>162</v>
       </c>
@@ -30801,7 +30806,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>164</v>
       </c>
@@ -30860,7 +30865,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>166</v>
       </c>
@@ -30919,7 +30924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>168</v>
       </c>
@@ -30978,7 +30983,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -31037,7 +31042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>172</v>
       </c>
@@ -31096,7 +31101,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>174</v>
       </c>
@@ -31155,7 +31160,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
@@ -31214,7 +31219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>176</v>
       </c>
@@ -31273,7 +31278,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>180</v>
       </c>
@@ -31332,7 +31337,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>182</v>
       </c>
@@ -31391,7 +31396,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>186</v>
       </c>
@@ -31450,7 +31455,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>184</v>
       </c>
@@ -31509,7 +31514,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>188</v>
       </c>
@@ -31568,7 +31573,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>192</v>
       </c>
@@ -31627,7 +31632,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>190</v>
       </c>
@@ -31686,7 +31691,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>194</v>
       </c>
@@ -31745,7 +31750,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>196</v>
       </c>
@@ -31804,7 +31809,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>198</v>
       </c>
@@ -31863,7 +31868,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
@@ -31938,45 +31943,45 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14"/>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -31984,19 +31989,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14" t="s">
         <v>124</v>
       </c>
@@ -32004,31 +32009,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="14" t="s">
         <v>96</v>
       </c>
@@ -32036,91 +32041,91 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="14"/>
       <c r="B21" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="14" t="s">
         <v>158</v>
       </c>
@@ -32128,49 +32133,49 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="14" t="s">
         <v>156</v>
       </c>
@@ -32178,25 +32183,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="14" t="s">
         <v>120</v>
       </c>
@@ -32204,7 +32209,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="14" t="s">
         <v>160</v>
       </c>
@@ -32212,13 +32217,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
@@ -32226,13 +32231,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
@@ -32240,7 +32245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="14" t="s">
         <v>48</v>
       </c>
@@ -32248,7 +32253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="14" t="s">
         <v>50</v>
       </c>
@@ -32256,25 +32261,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="14"/>
       <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
@@ -32282,37 +32287,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="14"/>
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="14"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="14"/>
       <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="14"/>
       <c r="B58" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="14" t="s">
         <v>126</v>
       </c>
@@ -32320,25 +32325,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="14"/>
       <c r="B60" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="14"/>
       <c r="B61" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="14"/>
       <c r="B62" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="14" t="s">
         <v>72</v>
       </c>
@@ -32346,37 +32351,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="14"/>
       <c r="B64" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="14"/>
       <c r="B65" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="14"/>
       <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="14"/>
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="14"/>
       <c r="B68" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -32384,49 +32389,49 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="14"/>
       <c r="B70" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="14"/>
       <c r="B71" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="14"/>
       <c r="B72" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="14"/>
       <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="14"/>
       <c r="B74" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="14"/>
       <c r="B75" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="14" t="s">
         <v>184</v>
       </c>
@@ -32434,123 +32439,123 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="14"/>
       <c r="B80" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="14"/>
       <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="14"/>
       <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B84" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B85" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B86" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B87" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B88" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B89" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B90" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B91" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B92" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B93" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B95" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>200</v>
       </c>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3E04FE-0A3E-4F33-8648-350677892A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498027B2-BFC5-4F74-9800-54CA4A7DDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4971,8 +4971,8 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,7 +5111,7 @@
       <c r="X2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="X3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="X8" s="2"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="X23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="X24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="X31" s="2"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="X37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="X49" s="2"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="X51" s="2"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="X54" s="2"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="X63" s="2"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="X66" s="2"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="X76" s="2"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="X77" s="2"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9580,7 +9580,7 @@
       <c r="X98" s="2"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9699,7 +9699,7 @@
       <c r="X101" s="2"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9903,7 +9903,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9958,7 +9958,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -10126,7 +10126,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10181,7 +10181,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10343,7 +10343,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10649,7 +10649,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10705,7 +10705,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10761,7 +10761,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10817,7 +10817,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11395,7 +11395,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>38</v>
       </c>
@@ -11738,7 +11738,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="S145"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
@@ -12992,7 +12992,7 @@
       <c r="R170"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -13131,7 +13131,7 @@
       <c r="R174"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -13144,7 +13144,7 @@
       <c r="R175"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -13157,7 +13157,7 @@
       <c r="R176"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -13170,7 +13170,7 @@
       <c r="R177"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -13316,7 +13316,7 @@
       <c r="R181"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="R185"/>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13620,7 +13620,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>50</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="R193"/>
       <c r="S193"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -14110,7 +14110,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>54</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="R201"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
@@ -14220,7 +14220,7 @@
       <c r="R204"/>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14309,7 +14309,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>60</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>140</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14714,7 +14714,7 @@
       </c>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>62</v>
       </c>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>122</v>
       </c>
@@ -15078,7 +15078,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -15606,7 +15606,7 @@
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>186</v>
       </c>
@@ -15661,7 +15661,7 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>76</v>
       </c>
@@ -15716,7 +15716,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>44</v>
       </c>
@@ -15729,7 +15729,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>188</v>
       </c>
@@ -15755,7 +15755,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>72</v>
       </c>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -16280,7 +16280,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>78</v>
       </c>
@@ -16338,7 +16338,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>64</v>
       </c>
@@ -16814,7 +16814,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>82</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>86</v>
       </c>
@@ -17344,7 +17344,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>80</v>
       </c>
@@ -17357,7 +17357,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>90</v>
       </c>
@@ -17869,7 +17869,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>84</v>
       </c>
@@ -18092,7 +18092,7 @@
       <c r="R303"/>
       <c r="S303"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>150</v>
       </c>
@@ -18231,7 +18231,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>100</v>
       </c>
@@ -18244,7 +18244,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>98</v>
       </c>
@@ -18257,7 +18257,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>108</v>
       </c>
@@ -18312,7 +18312,7 @@
       <c r="R311"/>
       <c r="S311"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>104</v>
       </c>
@@ -18325,7 +18325,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -18459,7 +18459,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18677,7 +18677,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>94</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>134</v>
       </c>
@@ -18740,7 +18740,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>192</v>
       </c>
@@ -19974,7 +19974,7 @@
       <c r="R353"/>
       <c r="S353"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>114</v>
       </c>
@@ -20155,7 +20155,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>128</v>
       </c>
@@ -20210,7 +20210,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>110</v>
       </c>
@@ -20349,7 +20349,7 @@
       <c r="R364"/>
       <c r="S364"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>182</v>
       </c>
@@ -21131,7 +21131,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>138</v>
       </c>
@@ -21144,7 +21144,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>130</v>
       </c>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>22</v>
       </c>
@@ -21212,7 +21212,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>144</v>
       </c>
@@ -21226,7 +21226,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>142</v>
       </c>
@@ -21240,7 +21240,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>146</v>
       </c>
@@ -22066,7 +22066,7 @@
       <c r="R409"/>
       <c r="S409"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -22080,7 +22080,7 @@
       <c r="R410"/>
       <c r="S410"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -22094,7 +22094,7 @@
       <c r="R411"/>
       <c r="S411"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>74</v>
       </c>
@@ -22108,7 +22108,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -22158,7 +22158,7 @@
       </c>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -22208,7 +22208,7 @@
       </c>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -22258,7 +22258,7 @@
       </c>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22522,7 +22522,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -23131,7 +23131,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>162</v>
       </c>
@@ -23221,7 +23221,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>166</v>
       </c>
@@ -23268,7 +23268,7 @@
       </c>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>166</v>
       </c>
@@ -23483,7 +23483,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23661,7 +23661,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>172</v>
       </c>
@@ -23758,7 +23758,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>168</v>
       </c>
@@ -23771,7 +23771,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23902,7 +23902,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>118</v>
       </c>
@@ -24324,7 +24324,7 @@
       <c r="R465"/>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>24</v>
       </c>
@@ -24338,7 +24338,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24517,7 +24517,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24702,7 +24702,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -24751,7 +24751,7 @@
       </c>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -24800,7 +24800,7 @@
       </c>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -24849,7 +24849,7 @@
       </c>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -25206,7 +25206,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>106</v>
       </c>
@@ -25220,7 +25220,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>180</v>
       </c>
@@ -25342,7 +25342,7 @@
       <c r="R493"/>
       <c r="S493"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>190</v>
       </c>
@@ -25390,7 +25390,7 @@
       <c r="R495"/>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>178</v>
       </c>
@@ -25404,7 +25404,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>152</v>
       </c>
@@ -25417,7 +25417,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>194</v>
       </c>
@@ -25566,7 +25566,7 @@
       <c r="R502"/>
       <c r="S502"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>196</v>
       </c>
@@ -25736,7 +25736,7 @@
       <c r="X507" s="2"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6" t="s">
         <v>30</v>
       </c>
@@ -26257,7 +26257,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>200</v>
       </c>
@@ -26346,6 +26346,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S522" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="full text (the north wind and the sun)"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="15">
       <filters>
         <filter val="true"/>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498027B2-BFC5-4F74-9800-54CA4A7DDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C426F-81A0-44EB-BE6F-38EB4B79840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="1471">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4971,8 +4971,8 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,7 +5111,7 @@
       <c r="X2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5131,12 +5131,6 @@
         <v>1464</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="K3" s="9" t="s">
         <v>329</v>
       </c>
@@ -5161,7 +5155,7 @@
       <c r="X3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5398,7 @@
       <c r="X8" s="2"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5886,7 +5880,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6111,7 @@
       <c r="X23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6137,7 +6131,7 @@
       <c r="X24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6463,7 +6457,7 @@
       <c r="X31" s="2"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +6753,7 @@
       <c r="X37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -7313,7 +7307,7 @@
       <c r="X49" s="2"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7382,7 +7376,7 @@
       <c r="X51" s="2"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7451,7 +7445,7 @@
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7471,7 +7465,7 @@
       <c r="X54" s="2"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7884,7 +7878,7 @@
       <c r="X63" s="2"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -8003,7 +7997,7 @@
       <c r="X66" s="2"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -8023,7 +8017,7 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -8089,7 +8083,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8447,7 +8441,7 @@
       <c r="X76" s="2"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8501,7 +8495,7 @@
       <c r="X77" s="2"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -9024,7 +9018,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9076,7 +9070,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9128,7 +9122,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9580,7 +9574,7 @@
       <c r="X98" s="2"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9699,7 +9693,7 @@
       <c r="X101" s="2"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9903,7 +9897,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9958,7 +9952,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -10126,7 +10120,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10181,7 +10175,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10234,7 +10228,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10287,7 +10281,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10343,7 +10337,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10649,7 +10643,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10705,7 +10699,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10761,7 +10755,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10817,7 +10811,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -11242,7 +11236,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11395,7 +11389,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -11718,7 +11712,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>38</v>
       </c>
@@ -11738,7 +11732,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11785,7 +11779,7 @@
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11832,7 +11826,7 @@
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11879,7 +11873,7 @@
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11926,7 +11920,7 @@
       </c>
       <c r="S145"/>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
@@ -12992,7 +12986,7 @@
       <c r="R170"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -13131,7 +13125,7 @@
       <c r="R174"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -13144,7 +13138,7 @@
       <c r="R175"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -13157,7 +13151,7 @@
       <c r="R176"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -13170,7 +13164,7 @@
       <c r="R177"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -13316,7 +13310,7 @@
       <c r="R181"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13489,7 +13483,7 @@
       <c r="R185"/>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13620,7 +13614,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>50</v>
       </c>
@@ -13849,7 +13843,7 @@
       <c r="R193"/>
       <c r="S193"/>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -14110,7 +14104,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>54</v>
       </c>
@@ -14123,7 +14117,7 @@
       <c r="R201"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
@@ -14220,7 +14214,7 @@
       <c r="R204"/>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14309,7 +14303,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>60</v>
       </c>
@@ -14654,7 +14648,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>140</v>
       </c>
@@ -14667,7 +14661,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14714,7 +14708,7 @@
       </c>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14761,7 +14755,7 @@
       </c>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14808,7 +14802,7 @@
       </c>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14902,7 +14896,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>62</v>
       </c>
@@ -14949,7 +14943,7 @@
       </c>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>122</v>
       </c>
@@ -15078,7 +15072,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -15125,7 +15119,7 @@
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -15606,7 +15600,7 @@
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>186</v>
       </c>
@@ -15661,7 +15655,7 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>76</v>
       </c>
@@ -15716,7 +15710,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>44</v>
       </c>
@@ -15729,7 +15723,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -15742,7 +15736,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>188</v>
       </c>
@@ -15755,7 +15749,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15797,7 +15791,7 @@
       </c>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>72</v>
       </c>
@@ -15928,7 +15922,7 @@
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -16280,7 +16274,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>78</v>
       </c>
@@ -16338,7 +16332,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>64</v>
       </c>
@@ -16814,7 +16808,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>82</v>
       </c>
@@ -17079,7 +17073,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>86</v>
       </c>
@@ -17344,7 +17338,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>80</v>
       </c>
@@ -17357,7 +17351,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>90</v>
       </c>
@@ -17869,7 +17863,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>84</v>
       </c>
@@ -18092,7 +18086,7 @@
       <c r="R303"/>
       <c r="S303"/>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>150</v>
       </c>
@@ -18231,7 +18225,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>100</v>
       </c>
@@ -18244,7 +18238,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>98</v>
       </c>
@@ -18257,7 +18251,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>108</v>
       </c>
@@ -18312,7 +18306,7 @@
       <c r="R311"/>
       <c r="S311"/>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>104</v>
       </c>
@@ -18325,7 +18319,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -18459,7 +18453,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18677,7 +18671,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>94</v>
       </c>
@@ -18690,7 +18684,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>134</v>
       </c>
@@ -18740,7 +18734,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>192</v>
       </c>
@@ -19974,7 +19968,7 @@
       <c r="R353"/>
       <c r="S353"/>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>114</v>
       </c>
@@ -20155,7 +20149,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>128</v>
       </c>
@@ -20210,7 +20204,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>110</v>
       </c>
@@ -20349,7 +20343,7 @@
       <c r="R364"/>
       <c r="S364"/>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>182</v>
       </c>
@@ -21131,7 +21125,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>138</v>
       </c>
@@ -21144,7 +21138,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>130</v>
       </c>
@@ -21198,7 +21192,7 @@
       </c>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>22</v>
       </c>
@@ -21212,7 +21206,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>144</v>
       </c>
@@ -21226,7 +21220,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>142</v>
       </c>
@@ -21240,7 +21234,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>146</v>
       </c>
@@ -22066,7 +22060,7 @@
       <c r="R409"/>
       <c r="S409"/>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -22080,7 +22074,7 @@
       <c r="R410"/>
       <c r="S410"/>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -22094,7 +22088,7 @@
       <c r="R411"/>
       <c r="S411"/>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>74</v>
       </c>
@@ -22108,7 +22102,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -22158,7 +22152,7 @@
       </c>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -22208,7 +22202,7 @@
       </c>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -22258,7 +22252,7 @@
       </c>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22308,7 +22302,7 @@
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22522,7 +22516,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -23131,7 +23125,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>162</v>
       </c>
@@ -23221,7 +23215,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>166</v>
       </c>
@@ -23268,7 +23262,7 @@
       </c>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>166</v>
       </c>
@@ -23483,7 +23477,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23661,7 +23655,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>172</v>
       </c>
@@ -23758,7 +23752,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>168</v>
       </c>
@@ -23771,7 +23765,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23902,7 +23896,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -24109,7 +24103,7 @@
       </c>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>118</v>
       </c>
@@ -24324,7 +24318,7 @@
       <c r="R465"/>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>24</v>
       </c>
@@ -24338,7 +24332,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24517,7 +24511,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24702,7 +24696,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -24751,7 +24745,7 @@
       </c>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -24800,7 +24794,7 @@
       </c>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -24849,7 +24843,7 @@
       </c>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -25206,7 +25200,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>106</v>
       </c>
@@ -25220,7 +25214,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>180</v>
       </c>
@@ -25342,7 +25336,7 @@
       <c r="R493"/>
       <c r="S493"/>
     </row>
-    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>190</v>
       </c>
@@ -25390,7 +25384,7 @@
       <c r="R495"/>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>178</v>
       </c>
@@ -25404,7 +25398,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>152</v>
       </c>
@@ -25417,7 +25411,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>194</v>
       </c>
@@ -25566,7 +25560,7 @@
       <c r="R502"/>
       <c r="S502"/>
     </row>
-    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>196</v>
       </c>
@@ -25736,7 +25730,7 @@
       <c r="X507" s="2"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="6" t="s">
         <v>30</v>
       </c>
@@ -26257,7 +26251,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>200</v>
       </c>
@@ -26346,11 +26340,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S522" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="full text (the north wind and the sun)"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="15">
       <filters>
         <filter val="true"/>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C426F-81A0-44EB-BE6F-38EB4B79840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAA4F1-C256-4615-B885-5FC461A7D4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6427" uniqueCount="1471">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4018,9 +4018,6 @@
     <t>theNorthWindAndTheSun/heb.txt</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/kat-ortho.txt</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/kat-broad.txt</t>
   </si>
   <si>
@@ -4459,7 +4456,10 @@
     <t>theNorthWindAndTheSun/rus.txt</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/qvi.txt</t>
+    <t>theNorthWindAndTheSun\rus-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kat-orthographic.txt</t>
   </si>
 </sst>
 </file>
@@ -4971,8 +4971,8 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5014,7 +5014,7 @@
         <v>290</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>217</v>
@@ -5050,10 +5050,10 @@
         <v>719</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -5122,13 +5122,13 @@
         <v>325</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E3" s="10">
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" s="9" t="s">
@@ -5166,13 +5166,13 @@
         <v>331</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E4" s="10">
         <v>300000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>326</v>
@@ -5409,13 +5409,13 @@
         <v>325</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E9" s="10">
         <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>218</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>293</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>323</v>
@@ -5870,7 +5870,7 @@
         <v>334</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -5891,13 +5891,13 @@
         <v>325</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>5</v>
@@ -6364,7 +6364,7 @@
         <v>79</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>218</v>
@@ -6373,7 +6373,7 @@
         <v>753</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>1308</v>
@@ -6419,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>218</v>
@@ -6428,7 +6428,7 @@
         <v>753</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>1309</v>
@@ -6474,7 +6474,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>218</v>
@@ -6501,7 +6501,7 @@
         <v>338</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -6522,7 +6522,7 @@
         <v>226</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>218</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>293</v>
@@ -7357,16 +7357,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>1429</v>
       </c>
-      <c r="P51" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>1430</v>
-      </c>
       <c r="R51" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -8048,7 +8048,7 @@
         <v>226</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>218</v>
@@ -8100,7 +8100,7 @@
         <v>133686</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>218</v>
@@ -8127,7 +8127,7 @@
         <v>396</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -8148,13 +8148,13 @@
         <v>226</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E71" s="10">
         <v>552</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>218</v>
@@ -8458,7 +8458,7 @@
         <v>152</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>218</v>
@@ -8485,7 +8485,7 @@
         <v>405</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
@@ -8512,7 +8512,7 @@
         <v>193</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>218</v>
@@ -8539,7 +8539,7 @@
         <v>334</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -9035,7 +9035,7 @@
         <v>35486</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>218</v>
@@ -9060,7 +9060,7 @@
         <v>334</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -9087,7 +9087,7 @@
         <v>34145</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>218</v>
@@ -9112,7 +9112,7 @@
         <v>334</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -9139,7 +9139,7 @@
         <v>10984</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>218</v>
@@ -9164,7 +9164,7 @@
         <v>334</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>293</v>
@@ -9204,16 +9204,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q91" t="s">
         <v>1432</v>
       </c>
-      <c r="P91" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>1433</v>
-      </c>
       <c r="R91" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -9332,7 +9332,7 @@
         <v>108</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>218</v>
@@ -9388,7 +9388,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>218</v>
@@ -9914,7 +9914,7 @@
         <v>10626</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>218</v>
@@ -9941,7 +9941,7 @@
         <v>455</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -9969,7 +9969,7 @@
         <v>10547</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>218</v>
@@ -9996,7 +9996,7 @@
         <v>455</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -10068,13 +10068,13 @@
         <v>226</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E110" s="10">
         <v>114</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>218</v>
@@ -10107,10 +10107,10 @@
         <v>455</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -10137,7 +10137,7 @@
         <v>408</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>218</v>
@@ -10164,7 +10164,7 @@
         <v>455</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -10186,13 +10186,13 @@
         <v>291</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E112" s="10">
         <v>217664</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>218</v>
@@ -10239,13 +10239,13 @@
         <v>291</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E113" s="10">
         <v>41000</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>218</v>
@@ -10270,7 +10270,7 @@
         <v>324</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -10298,7 +10298,7 @@
         <v>61173</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>218</v>
@@ -10326,7 +10326,7 @@
         <v>334</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -10354,7 +10354,7 @@
         <v>60422</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>218</v>
@@ -10382,7 +10382,7 @@
         <v>334</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -10660,7 +10660,7 @@
         <v>1284</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>218</v>
@@ -10688,7 +10688,7 @@
         <v>334</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -10716,7 +10716,7 @@
         <v>58072</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>218</v>
@@ -10744,7 +10744,7 @@
         <v>334</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -10772,7 +10772,7 @@
         <v>57230</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>218</v>
@@ -10800,7 +10800,7 @@
         <v>334</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -10828,7 +10828,7 @@
         <v>1633</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>218</v>
@@ -10856,7 +10856,7 @@
         <v>334</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>293</v>
@@ -10996,16 +10996,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P127" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q127" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="P127" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q127" s="6" t="s">
-        <v>1442</v>
-      </c>
       <c r="R127" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -11133,17 +11133,17 @@
         <v>113</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>765</v>
@@ -11193,17 +11193,17 @@
         <v>113</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>765</v>
@@ -11253,7 +11253,7 @@
         <v>1742</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>218</v>
@@ -11278,7 +11278,7 @@
         <v>334</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -11406,7 +11406,7 @@
         <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>218</v>
@@ -11431,7 +11431,7 @@
         <v>334</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -11459,7 +11459,7 @@
         <v>99</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>218</v>
@@ -11468,10 +11468,10 @@
         <v>732</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>733</v>
@@ -11492,7 +11492,7 @@
         <v>324</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="S136" s="15"/>
       <c r="T136" s="2"/>
@@ -11520,7 +11520,7 @@
         <v>99</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>218</v>
@@ -11529,10 +11529,10 @@
         <v>732</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>733</v>
@@ -11553,7 +11553,7 @@
         <v>324</v>
       </c>
       <c r="R137" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="S137" s="15"/>
       <c r="T137" s="2"/>
@@ -11749,7 +11749,7 @@
         <v>69015</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>218</v>
@@ -11775,7 +11775,7 @@
         <v>334</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S142" s="2"/>
     </row>
@@ -11796,7 +11796,7 @@
         <v>69008</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>218</v>
@@ -11822,7 +11822,7 @@
         <v>334</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S143"/>
     </row>
@@ -11843,7 +11843,7 @@
         <v>57029</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>218</v>
@@ -11869,7 +11869,7 @@
         <v>334</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S144"/>
     </row>
@@ -11890,7 +11890,7 @@
         <v>56911</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>218</v>
@@ -11916,7 +11916,7 @@
         <v>334</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S145"/>
     </row>
@@ -11937,7 +11937,7 @@
         <v>194</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>218</v>
@@ -11963,7 +11963,7 @@
         <v>334</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S146"/>
     </row>
@@ -12064,7 +12064,7 @@
         <v>226</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G149" s="9" t="s">
         <v>218</v>
@@ -12073,10 +12073,10 @@
         <v>206</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>208</v>
@@ -12097,7 +12097,7 @@
         <v>324</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -12736,7 +12736,7 @@
     </row>
     <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>293</v>
@@ -12763,16 +12763,16 @@
         <v>0</v>
       </c>
       <c r="O165" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P165" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q165" s="6" t="s">
         <v>1443</v>
       </c>
-      <c r="P165" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q165" s="6" t="s">
-        <v>1444</v>
-      </c>
       <c r="R165" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S165"/>
     </row>
@@ -13229,7 +13229,7 @@
         <v>169</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>218</v>
@@ -13272,13 +13272,13 @@
         <v>226</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E181" s="10">
         <v>90</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>218</v>
@@ -13287,7 +13287,7 @@
         <v>751</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J181" s="9" t="s">
         <v>1322</v>
@@ -13327,7 +13327,7 @@
         <v>11296</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>218</v>
@@ -13353,7 +13353,7 @@
         <v>460</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S182"/>
     </row>
@@ -13500,7 +13500,7 @@
         <v>10812</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>218</v>
@@ -13526,7 +13526,7 @@
         <v>460</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S186"/>
     </row>
@@ -13631,7 +13631,7 @@
         <v>9563</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>218</v>
@@ -13657,7 +13657,7 @@
         <v>460</v>
       </c>
       <c r="R189" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S189"/>
     </row>
@@ -13678,7 +13678,7 @@
         <v>129</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>218</v>
@@ -13687,7 +13687,7 @@
         <v>745</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>1320</v>
@@ -13708,7 +13708,7 @@
         <v>324</v>
       </c>
       <c r="R190" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -14231,7 +14231,7 @@
         <v>1555</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>218</v>
@@ -14257,7 +14257,7 @@
         <v>334</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S205"/>
     </row>
@@ -14320,7 +14320,7 @@
         <v>2637</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>218</v>
@@ -14346,7 +14346,7 @@
         <v>334</v>
       </c>
       <c r="R207" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S207"/>
     </row>
@@ -14361,13 +14361,13 @@
         <v>226</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E208" s="10">
         <v>139</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>218</v>
@@ -14678,7 +14678,7 @@
         <v>19930</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>218</v>
@@ -14704,7 +14704,7 @@
         <v>480</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S216"/>
     </row>
@@ -14725,7 +14725,7 @@
         <v>19689</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>218</v>
@@ -14751,7 +14751,7 @@
         <v>480</v>
       </c>
       <c r="R217" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S217"/>
     </row>
@@ -14772,7 +14772,7 @@
         <v>5268</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>218</v>
@@ -14798,7 +14798,7 @@
         <v>481</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S218"/>
     </row>
@@ -14819,7 +14819,7 @@
         <v>4765</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>218</v>
@@ -14845,7 +14845,7 @@
         <v>481</v>
       </c>
       <c r="R219" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S219"/>
     </row>
@@ -14860,7 +14860,7 @@
         <v>226</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>218</v>
@@ -14869,10 +14869,10 @@
         <v>206</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K220" s="13" t="s">
         <v>208</v>
@@ -14893,7 +14893,7 @@
         <v>324</v>
       </c>
       <c r="R220" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
@@ -14913,7 +14913,7 @@
         <v>173</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>218</v>
@@ -14939,7 +14939,7 @@
         <v>334</v>
       </c>
       <c r="R221" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S221"/>
     </row>
@@ -14960,7 +14960,7 @@
         <v>100</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G222" s="9" t="s">
         <v>218</v>
@@ -14984,7 +14984,7 @@
         <v>123</v>
       </c>
       <c r="R222" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S222"/>
     </row>
@@ -15089,7 +15089,7 @@
         <v>15124</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>218</v>
@@ -15115,7 +15115,7 @@
         <v>121</v>
       </c>
       <c r="R225" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S225"/>
     </row>
@@ -15136,7 +15136,7 @@
         <v>15123</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>218</v>
@@ -15162,7 +15162,7 @@
         <v>121</v>
       </c>
       <c r="R226" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S226"/>
     </row>
@@ -15267,7 +15267,7 @@
         <v>107</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>218</v>
@@ -15276,10 +15276,10 @@
         <v>737</v>
       </c>
       <c r="I229" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J229" s="9" t="s">
         <v>1323</v>
-      </c>
-      <c r="J229" s="9" t="s">
-        <v>1324</v>
       </c>
       <c r="K229" s="9" t="s">
         <v>738</v>
@@ -15316,7 +15316,7 @@
         <v>107</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>218</v>
@@ -15325,10 +15325,10 @@
         <v>737</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>1323</v>
+        <v>1470</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K230" s="9" t="s">
         <v>738</v>
@@ -15760,13 +15760,13 @@
         <v>291</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E244" s="10">
         <v>10000</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>218</v>
@@ -15787,7 +15787,7 @@
         <v>324</v>
       </c>
       <c r="R244" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S244"/>
     </row>
@@ -15808,7 +15808,7 @@
         <v>16402</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>218</v>
@@ -15834,7 +15834,7 @@
         <v>479</v>
       </c>
       <c r="R245" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S245"/>
     </row>
@@ -15882,7 +15882,7 @@
     </row>
     <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>293</v>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="P247" s="9" t="s">
         <v>323</v>
@@ -15918,7 +15918,7 @@
         <v>334</v>
       </c>
       <c r="R247" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S247"/>
     </row>
@@ -15939,7 +15939,7 @@
         <v>14141</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>218</v>
@@ -15965,7 +15965,7 @@
         <v>479</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S248"/>
     </row>
@@ -15980,7 +15980,7 @@
         <v>226</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>218</v>
@@ -16020,13 +16020,13 @@
         <v>226</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E250" s="10">
         <v>64</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>218</v>
@@ -16035,7 +16035,7 @@
         <v>748</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="J250" s="9" t="s">
         <v>1321</v>
@@ -18336,7 +18336,7 @@
         <v>4636</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>218</v>
@@ -18362,7 +18362,7 @@
         <v>385</v>
       </c>
       <c r="R313" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S313"/>
     </row>
@@ -18470,7 +18470,7 @@
         <v>4631</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>218</v>
@@ -18496,7 +18496,7 @@
         <v>385</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S316"/>
     </row>
@@ -18511,7 +18511,7 @@
         <v>226</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G317" s="9" t="s">
         <v>218</v>
@@ -18548,13 +18548,13 @@
         <v>226</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E318" s="10">
         <v>42</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>218</v>
@@ -18563,10 +18563,10 @@
         <v>735</v>
       </c>
       <c r="I318" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J318" s="9" t="s">
         <v>1326</v>
-      </c>
-      <c r="J318" s="9" t="s">
-        <v>1327</v>
       </c>
       <c r="K318" s="13" t="s">
         <v>736</v>
@@ -18584,7 +18584,7 @@
         <v>324</v>
       </c>
       <c r="R318" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -19001,7 +19001,7 @@
     </row>
     <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>293</v>
@@ -19028,10 +19028,10 @@
         <v>0</v>
       </c>
       <c r="N331" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="O331" s="6" t="s">
         <v>1449</v>
-      </c>
-      <c r="O331" s="6" t="s">
-        <v>1450</v>
       </c>
       <c r="P331" s="9" t="s">
         <v>323</v>
@@ -19040,7 +19040,7 @@
         <v>334</v>
       </c>
       <c r="R331" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S331"/>
     </row>
@@ -20367,7 +20367,7 @@
         <v>226</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G366" s="9" t="s">
         <v>218</v>
@@ -20534,13 +20534,13 @@
         <v>226</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E370" s="10">
         <v>91</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>218</v>
@@ -20549,10 +20549,10 @@
         <v>761</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J370" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K370" s="9" t="s">
         <v>760</v>
@@ -20880,7 +20880,7 @@
     </row>
     <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>293</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="O378" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="P378" s="9" t="s">
         <v>323</v>
@@ -20916,7 +20916,7 @@
         <v>334</v>
       </c>
       <c r="R378" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S378"/>
     </row>
@@ -21152,44 +21152,19 @@
       <c r="R385"/>
       <c r="S385"/>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C386" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D386" s="9" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E386" s="10">
-        <v>87</v>
-      </c>
-      <c r="F386" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G386" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="H386" s="8"/>
-      <c r="J386" s="9" t="s">
-        <v>1470</v>
-      </c>
-      <c r="L386" s="12">
-        <v>44490</v>
-      </c>
-      <c r="M386" s="11">
-        <v>0</v>
-      </c>
+      <c r="L386" s="12"/>
       <c r="O386" s="6" t="s">
         <v>57</v>
       </c>
       <c r="P386" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="R386" s="15" t="s">
-        <v>1456</v>
-      </c>
+      <c r="R386" s="15"/>
       <c r="S386"/>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
@@ -21251,7 +21226,7 @@
         <v>402586</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>218</v>
@@ -21276,7 +21251,7 @@
         <v>341</v>
       </c>
       <c r="R390" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S390"/>
     </row>
@@ -21459,20 +21434,22 @@
         <v>226</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E395" s="10">
         <v>93</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I395" s="6"/>
+      <c r="I395" s="9" t="s">
+        <v>1469</v>
+      </c>
       <c r="J395" s="9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="K395" s="6"/>
       <c r="L395" s="12"/>
@@ -21487,7 +21464,7 @@
         <v>341</v>
       </c>
       <c r="R395" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S395"/>
     </row>
@@ -22119,7 +22096,7 @@
         <v>60805</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>218</v>
@@ -22148,7 +22125,7 @@
         <v>334</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S413"/>
     </row>
@@ -22169,7 +22146,7 @@
         <v>60677</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>218</v>
@@ -22198,7 +22175,7 @@
         <v>334</v>
       </c>
       <c r="R414" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S414"/>
     </row>
@@ -22219,7 +22196,7 @@
         <v>52190</v>
       </c>
       <c r="F415" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G415" s="6" t="s">
         <v>218</v>
@@ -22248,7 +22225,7 @@
         <v>334</v>
       </c>
       <c r="R415" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S415"/>
     </row>
@@ -22269,7 +22246,7 @@
         <v>48718</v>
       </c>
       <c r="F416" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G416" s="6" t="s">
         <v>218</v>
@@ -22298,7 +22275,7 @@
         <v>334</v>
       </c>
       <c r="R416" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S416"/>
     </row>
@@ -22319,7 +22296,7 @@
         <v>48649</v>
       </c>
       <c r="F417" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G417" s="6" t="s">
         <v>218</v>
@@ -22348,7 +22325,7 @@
         <v>334</v>
       </c>
       <c r="R417" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S417"/>
     </row>
@@ -22533,7 +22510,7 @@
         <v>41854</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G422" s="6" t="s">
         <v>218</v>
@@ -22562,7 +22539,7 @@
         <v>334</v>
       </c>
       <c r="R422" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S422"/>
     </row>
@@ -22623,7 +22600,7 @@
         <v>97</v>
       </c>
       <c r="F424" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G424" s="9" t="s">
         <v>218</v>
@@ -22632,10 +22609,10 @@
         <v>757</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J424" s="9" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K424" s="13" t="s">
         <v>756</v>
@@ -22675,7 +22652,7 @@
         <v>97</v>
       </c>
       <c r="F425" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G425" s="9" t="s">
         <v>218</v>
@@ -22684,10 +22661,10 @@
         <v>757</v>
       </c>
       <c r="I425" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J425" s="9" t="s">
         <v>1330</v>
-      </c>
-      <c r="J425" s="9" t="s">
-        <v>1331</v>
       </c>
       <c r="K425" s="13" t="s">
         <v>756</v>
@@ -23149,7 +23126,7 @@
         <v>226</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G437" s="9" t="s">
         <v>218</v>
@@ -23232,7 +23209,7 @@
         <v>3321</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G439" s="6" t="s">
         <v>218</v>
@@ -23258,7 +23235,7 @@
         <v>334</v>
       </c>
       <c r="R439" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S439"/>
     </row>
@@ -23279,7 +23256,7 @@
         <v>1915</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G440" s="6" t="s">
         <v>218</v>
@@ -23305,7 +23282,7 @@
         <v>334</v>
       </c>
       <c r="R440" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S440"/>
     </row>
@@ -23494,7 +23471,7 @@
         <v>15050</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G445" s="6" t="s">
         <v>218</v>
@@ -23520,7 +23497,7 @@
         <v>171</v>
       </c>
       <c r="R445" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S445"/>
     </row>
@@ -23535,7 +23512,7 @@
         <v>226</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G446" s="9" t="s">
         <v>218</v>
@@ -23575,13 +23552,13 @@
         <v>226</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E447" s="10">
         <v>21</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G447" s="9" t="s">
         <v>218</v>
@@ -23590,10 +23567,10 @@
         <v>749</v>
       </c>
       <c r="I447" s="9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J447" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K447" s="9" t="s">
         <v>746</v>
@@ -23782,7 +23759,7 @@
         <v>1789</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G453" s="6" t="s">
         <v>218</v>
@@ -23808,7 +23785,7 @@
         <v>334</v>
       </c>
       <c r="R453" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S453"/>
     </row>
@@ -23913,7 +23890,7 @@
         <v>2043</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G456" s="6" t="s">
         <v>218</v>
@@ -23939,7 +23916,7 @@
         <v>334</v>
       </c>
       <c r="R456" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S456"/>
     </row>
@@ -24063,7 +24040,7 @@
     </row>
     <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>293</v>
@@ -24090,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="O460" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="P460" s="9" t="s">
         <v>323</v>
@@ -24099,7 +24076,7 @@
         <v>171</v>
       </c>
       <c r="R460" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S460"/>
     </row>
@@ -24120,7 +24097,7 @@
         <v>1812</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G461" s="6" t="s">
         <v>218</v>
@@ -24146,13 +24123,13 @@
         <v>334</v>
       </c>
       <c r="R461" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S461"/>
     </row>
     <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>293</v>
@@ -24179,7 +24156,7 @@
         <v>0</v>
       </c>
       <c r="O462" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="P462" s="9" t="s">
         <v>323</v>
@@ -24188,7 +24165,7 @@
         <v>171</v>
       </c>
       <c r="R462" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S462"/>
     </row>
@@ -24283,7 +24260,7 @@
         <v>65</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G465" s="9" t="s">
         <v>218</v>
@@ -24292,10 +24269,10 @@
         <v>759</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J465" s="9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="K465" s="13" t="s">
         <v>758</v>
@@ -24349,7 +24326,7 @@
         <v>15240</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G467" s="6" t="s">
         <v>218</v>
@@ -24377,7 +24354,7 @@
         <v>334</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S467"/>
     </row>
@@ -24528,7 +24505,7 @@
         <v>15240</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G472" s="6" t="s">
         <v>218</v>
@@ -24556,7 +24533,7 @@
         <v>334</v>
       </c>
       <c r="R472" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S472"/>
     </row>
@@ -24713,7 +24690,7 @@
         <v>15237</v>
       </c>
       <c r="F477" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G477" s="6" t="s">
         <v>218</v>
@@ -24741,7 +24718,7 @@
         <v>334</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S477"/>
     </row>
@@ -24762,7 +24739,7 @@
         <v>14537</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G478" s="6" t="s">
         <v>218</v>
@@ -24790,7 +24767,7 @@
         <v>334</v>
       </c>
       <c r="R478" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S478"/>
     </row>
@@ -24811,7 +24788,7 @@
         <v>15239</v>
       </c>
       <c r="F479" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G479" s="6" t="s">
         <v>218</v>
@@ -24839,7 +24816,7 @@
         <v>334</v>
       </c>
       <c r="R479" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S479"/>
     </row>
@@ -24860,7 +24837,7 @@
         <v>15236</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G480" s="6" t="s">
         <v>218</v>
@@ -24888,7 +24865,7 @@
         <v>334</v>
       </c>
       <c r="R480" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S480"/>
     </row>
@@ -24903,23 +24880,23 @@
         <v>226</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E481" s="10">
         <v>117</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G481" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I481" s="6"/>
       <c r="J481" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="K481" s="6"/>
       <c r="L481" s="12"/>
@@ -24936,7 +24913,7 @@
         <v>334</v>
       </c>
       <c r="R481" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -25652,7 +25629,7 @@
         <v>226</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G506" s="9" t="s">
         <v>218</v>
@@ -26128,7 +26105,7 @@
     </row>
     <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B518" s="9" t="s">
         <v>293</v>
@@ -26155,7 +26132,7 @@
         <v>0</v>
       </c>
       <c r="O518" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="P518" s="9" t="s">
         <v>323</v>
@@ -26164,7 +26141,7 @@
         <v>341</v>
       </c>
       <c r="R518" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S518"/>
     </row>
@@ -26268,7 +26245,7 @@
         <v>1677</v>
       </c>
       <c r="F521" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G521" s="6" t="s">
         <v>218</v>
@@ -26293,7 +26270,7 @@
         <v>334</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S521"/>
     </row>
@@ -26386,19 +26363,19 @@
         <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -26406,13 +26383,13 @@
         <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
@@ -26421,7 +26398,7 @@
         <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -26429,13 +26406,13 @@
         <v>160</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -26444,7 +26421,7 @@
         <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -26452,13 +26429,13 @@
         <v>160</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
@@ -26467,7 +26444,7 @@
         <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -26475,13 +26452,13 @@
         <v>160</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E5" t="s">
         <v>219</v>
@@ -26490,7 +26467,7 @@
         <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -26498,13 +26475,13 @@
         <v>112</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>243</v>
@@ -26518,19 +26495,19 @@
         <v>112</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C7" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -26538,13 +26515,13 @@
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
@@ -26553,7 +26530,7 @@
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -26561,13 +26538,13 @@
         <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E9" t="s">
         <v>243</v>
@@ -26576,7 +26553,7 @@
         <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -26584,13 +26561,13 @@
         <v>158</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
@@ -26599,7 +26576,7 @@
         <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -26607,13 +26584,13 @@
         <v>158</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E11" t="s">
         <v>243</v>
@@ -26622,7 +26599,7 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -26630,13 +26607,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C12" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E12" t="s">
         <v>219</v>
@@ -26645,7 +26622,7 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -26653,13 +26630,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E13" t="s">
         <v>243</v>
@@ -26676,13 +26653,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -26699,13 +26676,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C15" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E15" t="s">
         <v>243</v>
@@ -26714,7 +26691,7 @@
         <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -26722,19 +26699,19 @@
         <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -26742,13 +26719,13 @@
         <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C17" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>243</v>
@@ -26762,19 +26739,19 @@
         <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -26782,19 +26759,19 @@
         <v>60</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C19" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -26802,13 +26779,13 @@
         <v>120</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E20" t="s">
         <v>219</v>
@@ -26817,7 +26794,7 @@
         <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -26825,13 +26802,13 @@
         <v>124</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C21" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E21" t="s">
         <v>219</v>
@@ -26840,7 +26817,7 @@
         <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -26848,13 +26825,13 @@
         <v>154</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C22" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
@@ -26863,7 +26840,7 @@
         <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -26871,13 +26848,13 @@
         <v>154</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C23" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
@@ -26886,7 +26863,7 @@
         <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -26894,13 +26871,13 @@
         <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C24" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E24" t="s">
         <v>219</v>
@@ -26909,7 +26886,7 @@
         <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -26917,13 +26894,13 @@
         <v>154</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C25" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
@@ -26932,7 +26909,7 @@
         <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -26940,19 +26917,19 @@
         <v>170</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C26" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -26960,19 +26937,19 @@
         <v>118</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -26980,19 +26957,19 @@
         <v>118</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C28" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -27000,20 +26977,20 @@
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C29" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
@@ -27024,20 +27001,20 @@
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C30" t="s">
         <v>1387</v>
       </c>
-      <c r="C30" t="s">
-        <v>1388</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
@@ -27048,20 +27025,20 @@
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C31" t="s">
         <v>1389</v>
       </c>
-      <c r="C31" t="s">
-        <v>1390</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
@@ -27072,20 +27049,20 @@
         <v>184</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C32" t="s">
         <v>1391</v>
       </c>
-      <c r="C32" t="s">
-        <v>1392</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -27096,20 +27073,20 @@
         <v>184</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C33" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C426F-81A0-44EB-BE6F-38EB4B79840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADDEC6-AB59-44B8-B1DB-09805AC40995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="1472">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4423,9 +4423,6 @@
     <t>theNorthWindAndTheSun/vietnamese-hanoi.pdf</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/vie-hanoi.txt.txt</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/jpn.txt</t>
   </si>
   <si>
@@ -4460,6 +4457,12 @@
   </si>
   <si>
     <t>theNorthWindAndTheSun/qvi.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/vie_latn_hanoi_orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/vie-hanoi.txt</t>
   </si>
 </sst>
 </file>
@@ -4561,8 +4564,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -4971,33 +4974,33 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J489" sqref="J489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.1328125" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="10.59765625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" style="9" customWidth="1"/>
     <col min="10" max="10" width="49" style="9" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="12" max="12" width="16.73046875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.3984375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.3984375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.1328125" style="9"/>
+    <col min="17" max="17" width="9.1328125" style="6"/>
     <col min="18" max="18" width="46" style="16" customWidth="1"/>
-    <col min="19" max="19" width="53.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="53.73046875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>290</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>217</v>
@@ -5053,7 +5056,7 @@
         <v>1425</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -5062,7 +5065,7 @@
       <c r="X1" s="2"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>332</v>
       </c>
@@ -5111,7 +5114,7 @@
       <c r="X2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" s="9" t="s">
@@ -5155,7 +5158,7 @@
       <c r="X3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>300000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>326</v>
@@ -5202,7 +5205,7 @@
       <c r="X4" s="2"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>336</v>
       </c>
@@ -5251,7 +5254,7 @@
       <c r="X5" s="2"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>336</v>
       </c>
@@ -5300,7 +5303,7 @@
       <c r="X6" s="2"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>299</v>
       </c>
@@ -5349,7 +5352,7 @@
       <c r="X7" s="2"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>299</v>
       </c>
@@ -5398,7 +5401,7 @@
       <c r="X8" s="2"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>218</v>
@@ -5453,7 +5456,7 @@
       <c r="X9" s="2"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>342</v>
       </c>
@@ -5502,7 +5505,7 @@
       <c r="X10" s="2"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>344</v>
       </c>
@@ -5551,7 +5554,7 @@
       <c r="X11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>344</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="X12" s="2"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>344</v>
       </c>
@@ -5640,7 +5643,7 @@
       <c r="X13" s="2"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
@@ -5687,7 +5690,7 @@
       <c r="X14" s="2"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>344</v>
       </c>
@@ -5734,7 +5737,7 @@
       <c r="X15" s="2"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>344</v>
       </c>
@@ -5783,7 +5786,7 @@
       <c r="X16" s="2"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>345</v>
       </c>
@@ -5832,7 +5835,7 @@
       <c r="X17" s="2"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>1426</v>
       </c>
@@ -5880,7 +5883,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5914,7 +5917,7 @@
       <c r="X19" s="2"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>348</v>
       </c>
@@ -5963,7 +5966,7 @@
       <c r="X20" s="2"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>350</v>
       </c>
@@ -6013,7 +6016,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>350</v>
       </c>
@@ -6062,7 +6065,7 @@
       <c r="X22" s="2"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>352</v>
       </c>
@@ -6111,7 +6114,7 @@
       <c r="X23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6131,7 +6134,7 @@
       <c r="X24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6151,7 +6154,7 @@
       <c r="X25" s="2"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>354</v>
       </c>
@@ -6200,7 +6203,7 @@
       <c r="X26" s="2"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>356</v>
       </c>
@@ -6249,7 +6252,7 @@
       <c r="X27" s="2"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>357</v>
       </c>
@@ -6298,7 +6301,7 @@
       <c r="X28" s="2"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>362</v>
       </c>
@@ -6347,7 +6350,7 @@
       <c r="X29" s="2"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>218</v>
@@ -6402,7 +6405,7 @@
       <c r="X30" s="2"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>218</v>
@@ -6457,7 +6460,7 @@
       <c r="X31" s="2"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>218</v>
@@ -6511,7 +6514,7 @@
       <c r="X32" s="2"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6557,7 +6560,7 @@
       <c r="X33" s="2"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>364</v>
       </c>
@@ -6606,7 +6609,7 @@
       <c r="X34" s="2"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>366</v>
       </c>
@@ -6655,7 +6658,7 @@
       <c r="X35" s="2"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>368</v>
       </c>
@@ -6704,7 +6707,7 @@
       <c r="X36" s="2"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>370</v>
       </c>
@@ -6753,7 +6756,7 @@
       <c r="X37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6774,7 +6777,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>370</v>
       </c>
@@ -6823,7 +6826,7 @@
       <c r="X39" s="2"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>370</v>
       </c>
@@ -6872,7 +6875,7 @@
       <c r="X40" s="2"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>372</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="X41" s="2"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>372</v>
       </c>
@@ -6970,7 +6973,7 @@
       <c r="X42" s="2"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>374</v>
       </c>
@@ -7019,7 +7022,7 @@
       <c r="X43" s="2"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>376</v>
       </c>
@@ -7068,7 +7071,7 @@
       <c r="X44" s="2"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>378</v>
       </c>
@@ -7117,7 +7120,7 @@
       <c r="X45" s="2"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
         <v>382</v>
       </c>
@@ -7160,7 +7163,7 @@
       <c r="X46" s="2"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
         <v>380</v>
       </c>
@@ -7209,7 +7212,7 @@
       <c r="X47" s="2"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
         <v>382</v>
       </c>
@@ -7258,7 +7261,7 @@
       <c r="X48" s="2"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
         <v>382</v>
       </c>
@@ -7307,7 +7310,7 @@
       <c r="X49" s="2"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7328,7 +7331,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>1428</v>
       </c>
@@ -7376,7 +7379,7 @@
       <c r="X51" s="2"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7396,7 +7399,7 @@
       <c r="X52" s="2"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
         <v>383</v>
       </c>
@@ -7445,7 +7448,7 @@
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7465,7 +7468,7 @@
       <c r="X54" s="2"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7485,7 +7488,7 @@
       <c r="X55" s="2"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>295</v>
       </c>
@@ -7534,7 +7537,7 @@
       <c r="X56" s="2"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
         <v>295</v>
       </c>
@@ -7583,7 +7586,7 @@
       <c r="X57" s="2"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
         <v>295</v>
       </c>
@@ -7632,7 +7635,7 @@
       <c r="X58" s="2"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
         <v>386</v>
       </c>
@@ -7681,7 +7684,7 @@
       <c r="X59" s="2"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
         <v>388</v>
       </c>
@@ -7730,7 +7733,7 @@
       <c r="X60" s="2"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
         <v>390</v>
       </c>
@@ -7779,7 +7782,7 @@
       <c r="X61" s="2"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>722</v>
       </c>
@@ -7829,7 +7832,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
         <v>722</v>
       </c>
@@ -7878,7 +7881,7 @@
       <c r="X63" s="2"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7898,7 +7901,7 @@
       <c r="X64" s="2"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
         <v>392</v>
       </c>
@@ -7948,7 +7951,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
         <v>394</v>
       </c>
@@ -7997,7 +8000,7 @@
       <c r="X66" s="2"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -8017,7 +8020,7 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -8037,7 +8040,7 @@
       <c r="X68" s="2"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
@@ -8083,7 +8086,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8100,7 +8103,7 @@
         <v>133686</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>218</v>
@@ -8137,7 +8140,7 @@
       <c r="X70" s="2"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>552</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>218</v>
@@ -8195,7 +8198,7 @@
       <c r="X71" s="2"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>397</v>
       </c>
@@ -8244,7 +8247,7 @@
       <c r="X72" s="2"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
         <v>399</v>
       </c>
@@ -8293,7 +8296,7 @@
       <c r="X73" s="2"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
         <v>401</v>
       </c>
@@ -8342,7 +8345,7 @@
       <c r="X74" s="2"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
         <v>401</v>
       </c>
@@ -8392,7 +8395,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="6" t="s">
         <v>403</v>
       </c>
@@ -8441,7 +8444,7 @@
       <c r="X76" s="2"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>152</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>218</v>
@@ -8495,7 +8498,7 @@
       <c r="X77" s="2"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>193</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>218</v>
@@ -8550,7 +8553,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="6" t="s">
         <v>406</v>
       </c>
@@ -8601,7 +8604,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -8654,7 +8657,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
         <v>321</v>
       </c>
@@ -8707,7 +8710,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
         <v>321</v>
       </c>
@@ -8760,7 +8763,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
         <v>321</v>
       </c>
@@ -8813,7 +8816,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
         <v>321</v>
       </c>
@@ -8866,7 +8869,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="6" t="s">
         <v>321</v>
       </c>
@@ -8919,7 +8922,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="6" t="s">
         <v>408</v>
       </c>
@@ -8968,7 +8971,7 @@
       <c r="X86" s="2"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
         <v>408</v>
       </c>
@@ -9018,7 +9021,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>35486</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>218</v>
@@ -9070,7 +9073,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>34145</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>218</v>
@@ -9122,7 +9125,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>10984</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>218</v>
@@ -9175,7 +9178,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="6" t="s">
         <v>1431</v>
       </c>
@@ -9223,7 +9226,7 @@
       <c r="X91" s="2"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="6" t="s">
         <v>160</v>
       </c>
@@ -9269,7 +9272,7 @@
       <c r="X92" s="2"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="6" t="s">
         <v>160</v>
       </c>
@@ -9315,7 +9318,7 @@
       <c r="X93" s="2"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>108</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>218</v>
@@ -9371,7 +9374,7 @@
       <c r="X94" s="2"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
         <v>160</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>218</v>
@@ -9427,7 +9430,7 @@
       <c r="X95" s="2"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="6" t="s">
         <v>409</v>
       </c>
@@ -9476,7 +9479,7 @@
       <c r="X96" s="2"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="6" t="s">
         <v>411</v>
       </c>
@@ -9525,7 +9528,7 @@
       <c r="X97" s="2"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="6" t="s">
         <v>413</v>
       </c>
@@ -9574,7 +9577,7 @@
       <c r="X98" s="2"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9595,7 +9598,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="6" t="s">
         <v>413</v>
       </c>
@@ -9644,7 +9647,7 @@
       <c r="X100" s="2"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="6" t="s">
         <v>415</v>
       </c>
@@ -9693,7 +9696,7 @@
       <c r="X101" s="2"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9713,7 +9716,7 @@
       <c r="X102" s="2"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="6" t="s">
         <v>723</v>
       </c>
@@ -9753,7 +9756,7 @@
       <c r="X103" s="2"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="6" t="s">
         <v>418</v>
       </c>
@@ -9802,7 +9805,7 @@
       <c r="X104" s="2"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="6" t="s">
         <v>421</v>
       </c>
@@ -9850,7 +9853,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="6" t="s">
         <v>723</v>
       </c>
@@ -9897,7 +9900,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9914,7 +9917,7 @@
         <v>10626</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>218</v>
@@ -9952,7 +9955,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>10547</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>218</v>
@@ -10007,7 +10010,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -10057,7 +10060,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>114</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>218</v>
@@ -10110,7 +10113,7 @@
         <v>1456</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -10120,7 +10123,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10137,7 +10140,7 @@
         <v>408</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>218</v>
@@ -10175,7 +10178,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10192,7 +10195,7 @@
         <v>217664</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>218</v>
@@ -10228,7 +10231,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>41000</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>218</v>
@@ -10281,7 +10284,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>61173</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>218</v>
@@ -10337,7 +10340,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>60422</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>218</v>
@@ -10393,7 +10396,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -10443,7 +10446,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -10493,7 +10496,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -10543,7 +10546,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
@@ -10593,7 +10596,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -10643,7 +10646,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>1284</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>218</v>
@@ -10699,7 +10702,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>58072</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>218</v>
@@ -10755,7 +10758,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>57230</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>218</v>
@@ -10811,7 +10814,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>1633</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>218</v>
@@ -10867,7 +10870,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="6" t="s">
         <v>425</v>
       </c>
@@ -10917,7 +10920,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="6" t="s">
         <v>427</v>
       </c>
@@ -10967,7 +10970,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="6" t="s">
         <v>1434</v>
       </c>
@@ -11016,7 +11019,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A128" s="6" t="s">
         <v>158</v>
       </c>
@@ -11066,7 +11069,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A129" s="6" t="s">
         <v>158</v>
       </c>
@@ -11116,7 +11119,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -11133,17 +11136,17 @@
         <v>113</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>765</v>
@@ -11176,7 +11179,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -11193,17 +11196,17 @@
         <v>113</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>765</v>
@@ -11236,7 +11239,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11253,7 +11256,7 @@
         <v>1742</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>218</v>
@@ -11289,7 +11292,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -11339,7 +11342,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="6" t="s">
         <v>431</v>
       </c>
@@ -11389,7 +11392,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>218</v>
@@ -11442,7 +11445,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A136" s="6" t="s">
         <v>16</v>
       </c>
@@ -11459,7 +11462,7 @@
         <v>99</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>218</v>
@@ -11503,7 +11506,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A137" s="6" t="s">
         <v>16</v>
       </c>
@@ -11520,7 +11523,7 @@
         <v>99</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>218</v>
@@ -11564,7 +11567,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="6" t="s">
         <v>431</v>
       </c>
@@ -11614,7 +11617,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
         <v>725</v>
       </c>
@@ -11664,7 +11667,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="6" t="s">
         <v>725</v>
       </c>
@@ -11712,7 +11715,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A141" s="6" t="s">
         <v>38</v>
       </c>
@@ -11732,7 +11735,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11749,7 +11752,7 @@
         <v>69015</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>218</v>
@@ -11779,7 +11782,7 @@
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>69008</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>218</v>
@@ -11826,7 +11829,7 @@
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11843,7 +11846,7 @@
         <v>57029</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>218</v>
@@ -11873,7 +11876,7 @@
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>56911</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>218</v>
@@ -11920,7 +11923,7 @@
       </c>
       <c r="S145"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>194</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>218</v>
@@ -11967,7 +11970,7 @@
       </c>
       <c r="S146"/>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="6" t="s">
         <v>433</v>
       </c>
@@ -12010,7 +12013,7 @@
       <c r="R147" s="2"/>
       <c r="S147"/>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="6" t="s">
         <v>435</v>
       </c>
@@ -12053,7 +12056,7 @@
       <c r="R148" s="2"/>
       <c r="S148"/>
     </row>
-    <row r="149" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
@@ -12100,7 +12103,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="6" t="s">
         <v>437</v>
       </c>
@@ -12143,7 +12146,7 @@
       <c r="R150" s="2"/>
       <c r="S150"/>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="6" t="s">
         <v>439</v>
       </c>
@@ -12186,7 +12189,7 @@
       <c r="R151" s="2"/>
       <c r="S151"/>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="6" t="s">
         <v>439</v>
       </c>
@@ -12229,7 +12232,7 @@
       <c r="R152" s="2"/>
       <c r="S152"/>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="6" t="s">
         <v>441</v>
       </c>
@@ -12272,7 +12275,7 @@
       <c r="R153" s="2"/>
       <c r="S153"/>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="6" t="s">
         <v>441</v>
       </c>
@@ -12314,7 +12317,7 @@
       <c r="R154"/>
       <c r="S154"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="6" t="s">
         <v>443</v>
       </c>
@@ -12356,7 +12359,7 @@
       <c r="R155"/>
       <c r="S155"/>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="6" t="s">
         <v>443</v>
       </c>
@@ -12398,7 +12401,7 @@
       <c r="R156"/>
       <c r="S156"/>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="6" t="s">
         <v>445</v>
       </c>
@@ -12440,7 +12443,7 @@
       <c r="R157"/>
       <c r="S157"/>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="6" t="s">
         <v>445</v>
       </c>
@@ -12482,7 +12485,7 @@
       <c r="R158"/>
       <c r="S158"/>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="6" t="s">
         <v>447</v>
       </c>
@@ -12524,7 +12527,7 @@
       <c r="R159"/>
       <c r="S159"/>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="6" t="s">
         <v>449</v>
       </c>
@@ -12566,7 +12569,7 @@
       <c r="R160"/>
       <c r="S160"/>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="6" t="s">
         <v>451</v>
       </c>
@@ -12608,7 +12611,7 @@
       <c r="R161"/>
       <c r="S161"/>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="6" t="s">
         <v>451</v>
       </c>
@@ -12650,7 +12653,7 @@
       <c r="R162"/>
       <c r="S162"/>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="6" t="s">
         <v>453</v>
       </c>
@@ -12692,7 +12695,7 @@
       <c r="R163"/>
       <c r="S163"/>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="6" t="s">
         <v>456</v>
       </c>
@@ -12734,7 +12737,7 @@
       <c r="R164"/>
       <c r="S164"/>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="6" t="s">
         <v>1435</v>
       </c>
@@ -12776,7 +12779,7 @@
       </c>
       <c r="S165"/>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="6" t="s">
         <v>458</v>
       </c>
@@ -12818,7 +12821,7 @@
       <c r="R166"/>
       <c r="S166"/>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="6" t="s">
         <v>458</v>
       </c>
@@ -12860,7 +12863,7 @@
       <c r="R167"/>
       <c r="S167"/>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="6" t="s">
         <v>318</v>
       </c>
@@ -12902,7 +12905,7 @@
       <c r="R168"/>
       <c r="S168"/>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="6" t="s">
         <v>318</v>
       </c>
@@ -12944,7 +12947,7 @@
       <c r="R169"/>
       <c r="S169"/>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="6" t="s">
         <v>318</v>
       </c>
@@ -12986,7 +12989,7 @@
       <c r="R170"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -12999,7 +13002,7 @@
       <c r="R171"/>
       <c r="S171"/>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="6" t="s">
         <v>318</v>
       </c>
@@ -13041,7 +13044,7 @@
       <c r="R172"/>
       <c r="S172"/>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="6" t="s">
         <v>48</v>
       </c>
@@ -13083,7 +13086,7 @@
       <c r="R173"/>
       <c r="S173"/>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="6" t="s">
         <v>48</v>
       </c>
@@ -13125,7 +13128,7 @@
       <c r="R174"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -13138,7 +13141,7 @@
       <c r="R175"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -13151,7 +13154,7 @@
       <c r="R176"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -13164,7 +13167,7 @@
       <c r="R177"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -13177,7 +13180,7 @@
       <c r="R178"/>
       <c r="S178"/>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="6" t="s">
         <v>315</v>
       </c>
@@ -13212,7 +13215,7 @@
       <c r="R179"/>
       <c r="S179"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -13229,7 +13232,7 @@
         <v>169</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>218</v>
@@ -13261,7 +13264,7 @@
       <c r="R180" s="2"/>
       <c r="S180"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A181" s="6" t="s">
         <v>48</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>90</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>218</v>
@@ -13310,7 +13313,7 @@
       <c r="R181"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13327,7 +13330,7 @@
         <v>11296</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>218</v>
@@ -13357,7 +13360,7 @@
       </c>
       <c r="S182"/>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="6" t="s">
         <v>461</v>
       </c>
@@ -13399,7 +13402,7 @@
       <c r="R183"/>
       <c r="S183"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="6" t="s">
         <v>463</v>
       </c>
@@ -13441,7 +13444,7 @@
       <c r="R184"/>
       <c r="S184"/>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="6" t="s">
         <v>297</v>
       </c>
@@ -13483,7 +13486,7 @@
       <c r="R185"/>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>10812</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>218</v>
@@ -13530,7 +13533,7 @@
       </c>
       <c r="S186"/>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="6" t="s">
         <v>297</v>
       </c>
@@ -13572,7 +13575,7 @@
       <c r="R187"/>
       <c r="S187"/>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="6" t="s">
         <v>465</v>
       </c>
@@ -13614,7 +13617,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A189" s="6" t="s">
         <v>50</v>
       </c>
@@ -13631,7 +13634,7 @@
         <v>9563</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>218</v>
@@ -13661,7 +13664,7 @@
       </c>
       <c r="S189"/>
     </row>
-    <row r="190" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A190" s="6" t="s">
         <v>50</v>
       </c>
@@ -13678,7 +13681,7 @@
         <v>129</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>218</v>
@@ -13711,7 +13714,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="6" t="s">
         <v>315</v>
       </c>
@@ -13755,7 +13758,7 @@
       <c r="R191"/>
       <c r="S191"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="6" t="s">
         <v>315</v>
       </c>
@@ -13799,7 +13802,7 @@
       <c r="R192"/>
       <c r="S192"/>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="6" t="s">
         <v>315</v>
       </c>
@@ -13843,7 +13846,7 @@
       <c r="R193"/>
       <c r="S193"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13856,7 +13859,7 @@
       <c r="R194"/>
       <c r="S194"/>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="6" t="s">
         <v>315</v>
       </c>
@@ -13900,7 +13903,7 @@
       <c r="R195"/>
       <c r="S195"/>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="6" t="s">
         <v>467</v>
       </c>
@@ -13941,7 +13944,7 @@
       <c r="R196"/>
       <c r="S196"/>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="6" t="s">
         <v>469</v>
       </c>
@@ -13982,7 +13985,7 @@
       <c r="R197"/>
       <c r="S197"/>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="6" t="s">
         <v>300</v>
       </c>
@@ -14022,7 +14025,7 @@
       <c r="R198"/>
       <c r="S198"/>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="6" t="s">
         <v>469</v>
       </c>
@@ -14063,7 +14066,7 @@
       <c r="R199"/>
       <c r="S199"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="6" t="s">
         <v>471</v>
       </c>
@@ -14104,7 +14107,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A201" s="6" t="s">
         <v>54</v>
       </c>
@@ -14117,7 +14120,7 @@
       <c r="R201"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
@@ -14130,7 +14133,7 @@
       <c r="R202"/>
       <c r="S202"/>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="6" t="s">
         <v>317</v>
       </c>
@@ -14172,7 +14175,7 @@
       <c r="R203"/>
       <c r="S203"/>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="6" t="s">
         <v>317</v>
       </c>
@@ -14214,7 +14217,7 @@
       <c r="R204"/>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>1555</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>218</v>
@@ -14261,7 +14264,7 @@
       </c>
       <c r="S205"/>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="6" t="s">
         <v>317</v>
       </c>
@@ -14303,7 +14306,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A207" s="6" t="s">
         <v>60</v>
       </c>
@@ -14320,7 +14323,7 @@
         <v>2637</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>218</v>
@@ -14350,7 +14353,7 @@
       </c>
       <c r="S207"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A208" s="6" t="s">
         <v>60</v>
       </c>
@@ -14367,7 +14370,7 @@
         <v>139</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>218</v>
@@ -14396,7 +14399,7 @@
       <c r="R208"/>
       <c r="S208"/>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="6" t="s">
         <v>300</v>
       </c>
@@ -14438,7 +14441,7 @@
       <c r="R209"/>
       <c r="S209"/>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="6" t="s">
         <v>300</v>
       </c>
@@ -14480,7 +14483,7 @@
       <c r="R210"/>
       <c r="S210"/>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="6" t="s">
         <v>300</v>
       </c>
@@ -14522,7 +14525,7 @@
       <c r="R211"/>
       <c r="S211"/>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="6" t="s">
         <v>473</v>
       </c>
@@ -14564,7 +14567,7 @@
       <c r="R212"/>
       <c r="S212"/>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="6" t="s">
         <v>475</v>
       </c>
@@ -14606,7 +14609,7 @@
       <c r="R213"/>
       <c r="S213"/>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="6" t="s">
         <v>477</v>
       </c>
@@ -14648,7 +14651,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A215" s="6" t="s">
         <v>140</v>
       </c>
@@ -14661,7 +14664,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14678,7 +14681,7 @@
         <v>19930</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>218</v>
@@ -14708,7 +14711,7 @@
       </c>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14725,7 +14728,7 @@
         <v>19689</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>218</v>
@@ -14755,7 +14758,7 @@
       </c>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>5268</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>218</v>
@@ -14802,7 +14805,7 @@
       </c>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14819,7 +14822,7 @@
         <v>4765</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>218</v>
@@ -14849,7 +14852,7 @@
       </c>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A220" s="6" t="s">
         <v>126</v>
       </c>
@@ -14869,10 +14872,10 @@
         <v>206</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K220" s="13" t="s">
         <v>208</v>
@@ -14896,7 +14899,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A221" s="6" t="s">
         <v>62</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>173</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>218</v>
@@ -14943,7 +14946,7 @@
       </c>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A222" s="6" t="s">
         <v>122</v>
       </c>
@@ -14960,7 +14963,7 @@
         <v>100</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G222" s="9" t="s">
         <v>218</v>
@@ -14988,7 +14991,7 @@
       </c>
       <c r="S222"/>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="6" t="s">
         <v>482</v>
       </c>
@@ -15030,7 +15033,7 @@
       <c r="R223"/>
       <c r="S223"/>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="6" t="s">
         <v>482</v>
       </c>
@@ -15072,7 +15075,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -15089,7 +15092,7 @@
         <v>15124</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>218</v>
@@ -15119,7 +15122,7 @@
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -15136,7 +15139,7 @@
         <v>15123</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>218</v>
@@ -15166,7 +15169,7 @@
       </c>
       <c r="S226"/>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="6" t="s">
         <v>484</v>
       </c>
@@ -15208,7 +15211,7 @@
       <c r="R227"/>
       <c r="S227"/>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="6" t="s">
         <v>484</v>
       </c>
@@ -15250,7 +15253,7 @@
       <c r="R228"/>
       <c r="S228"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A229" s="6" t="s">
         <v>120</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>107</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>218</v>
@@ -15299,7 +15302,7 @@
       <c r="R229" s="2"/>
       <c r="S229"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -15316,7 +15319,7 @@
         <v>107</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>218</v>
@@ -15348,7 +15351,7 @@
       <c r="R230" s="2"/>
       <c r="S230"/>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="6" t="s">
         <v>486</v>
       </c>
@@ -15390,7 +15393,7 @@
       <c r="R231"/>
       <c r="S231"/>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="6" t="s">
         <v>488</v>
       </c>
@@ -15432,7 +15435,7 @@
       <c r="R232"/>
       <c r="S232"/>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="6" t="s">
         <v>301</v>
       </c>
@@ -15474,7 +15477,7 @@
       <c r="R233"/>
       <c r="S233"/>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="6" t="s">
         <v>301</v>
       </c>
@@ -15516,7 +15519,7 @@
       <c r="R234"/>
       <c r="S234"/>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="6" t="s">
         <v>491</v>
       </c>
@@ -15558,7 +15561,7 @@
       <c r="R235"/>
       <c r="S235"/>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="6" t="s">
         <v>493</v>
       </c>
@@ -15600,7 +15603,7 @@
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A237" s="6" t="s">
         <v>186</v>
       </c>
@@ -15613,7 +15616,7 @@
       <c r="R237"/>
       <c r="S237"/>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="6" t="s">
         <v>495</v>
       </c>
@@ -15655,7 +15658,7 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A239" s="6" t="s">
         <v>76</v>
       </c>
@@ -15668,7 +15671,7 @@
       <c r="R239"/>
       <c r="S239"/>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="6" t="s">
         <v>497</v>
       </c>
@@ -15710,7 +15713,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A241" s="6" t="s">
         <v>44</v>
       </c>
@@ -15723,7 +15726,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -15736,7 +15739,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A243" s="6" t="s">
         <v>188</v>
       </c>
@@ -15749,7 +15752,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15766,7 +15769,7 @@
         <v>10000</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>218</v>
@@ -15791,7 +15794,7 @@
       </c>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A245" s="6" t="s">
         <v>72</v>
       </c>
@@ -15808,7 +15811,7 @@
         <v>16402</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>218</v>
@@ -15838,7 +15841,7 @@
       </c>
       <c r="S245"/>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="6" t="s">
         <v>499</v>
       </c>
@@ -15880,7 +15883,7 @@
       <c r="R246"/>
       <c r="S246"/>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="6" t="s">
         <v>1436</v>
       </c>
@@ -15922,7 +15925,7 @@
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -15939,7 +15942,7 @@
         <v>14141</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>218</v>
@@ -15969,7 +15972,7 @@
       </c>
       <c r="S248"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A249" s="6" t="s">
         <v>72</v>
       </c>
@@ -16009,7 +16012,7 @@
       <c r="R249"/>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -16026,7 +16029,7 @@
         <v>64</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>218</v>
@@ -16058,7 +16061,7 @@
       <c r="R250"/>
       <c r="S250"/>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="6" t="s">
         <v>501</v>
       </c>
@@ -16100,7 +16103,7 @@
       <c r="R251"/>
       <c r="S251"/>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="6" t="s">
         <v>503</v>
       </c>
@@ -16142,7 +16145,7 @@
       <c r="R252"/>
       <c r="S252"/>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="6" t="s">
         <v>505</v>
       </c>
@@ -16184,7 +16187,7 @@
       <c r="R253"/>
       <c r="S253"/>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="6" t="s">
         <v>507</v>
       </c>
@@ -16229,7 +16232,7 @@
       <c r="R254"/>
       <c r="S254"/>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="6" t="s">
         <v>507</v>
       </c>
@@ -16274,7 +16277,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A256" s="6" t="s">
         <v>78</v>
       </c>
@@ -16287,7 +16290,7 @@
       <c r="R256"/>
       <c r="S256"/>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="6" t="s">
         <v>507</v>
       </c>
@@ -16332,7 +16335,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A258" s="6" t="s">
         <v>64</v>
       </c>
@@ -16345,7 +16348,7 @@
       <c r="R258"/>
       <c r="S258"/>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="6" t="s">
         <v>507</v>
       </c>
@@ -16390,7 +16393,7 @@
       <c r="R259"/>
       <c r="S259"/>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="6" t="s">
         <v>507</v>
       </c>
@@ -16435,7 +16438,7 @@
       <c r="R260"/>
       <c r="S260"/>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="6" t="s">
         <v>507</v>
       </c>
@@ -16480,7 +16483,7 @@
       <c r="R261"/>
       <c r="S261"/>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="6" t="s">
         <v>302</v>
       </c>
@@ -16514,7 +16517,7 @@
       <c r="R262"/>
       <c r="S262"/>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6" t="s">
         <v>302</v>
       </c>
@@ -16556,7 +16559,7 @@
       <c r="R263"/>
       <c r="S263"/>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6" t="s">
         <v>302</v>
       </c>
@@ -16598,7 +16601,7 @@
       <c r="R264"/>
       <c r="S264"/>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6" t="s">
         <v>511</v>
       </c>
@@ -16640,7 +16643,7 @@
       <c r="R265"/>
       <c r="S265"/>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6" t="s">
         <v>513</v>
       </c>
@@ -16682,7 +16685,7 @@
       <c r="R266"/>
       <c r="S266"/>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6" t="s">
         <v>515</v>
       </c>
@@ -16724,7 +16727,7 @@
       <c r="R267"/>
       <c r="S267"/>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="6" t="s">
         <v>517</v>
       </c>
@@ -16766,7 +16769,7 @@
       <c r="R268"/>
       <c r="S268"/>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="6" t="s">
         <v>517</v>
       </c>
@@ -16808,7 +16811,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A270" s="6" t="s">
         <v>82</v>
       </c>
@@ -16821,7 +16824,7 @@
       <c r="R270"/>
       <c r="S270"/>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="6" t="s">
         <v>519</v>
       </c>
@@ -16863,7 +16866,7 @@
       <c r="R271"/>
       <c r="S271"/>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6" t="s">
         <v>521</v>
       </c>
@@ -16905,7 +16908,7 @@
       <c r="R272"/>
       <c r="S272"/>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6" t="s">
         <v>523</v>
       </c>
@@ -16947,7 +16950,7 @@
       <c r="R273"/>
       <c r="S273"/>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6" t="s">
         <v>525</v>
       </c>
@@ -16989,7 +16992,7 @@
       <c r="R274"/>
       <c r="S274"/>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6" t="s">
         <v>527</v>
       </c>
@@ -17031,7 +17034,7 @@
       <c r="R275"/>
       <c r="S275"/>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6" t="s">
         <v>529</v>
       </c>
@@ -17073,7 +17076,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A277" s="6" t="s">
         <v>86</v>
       </c>
@@ -17086,7 +17089,7 @@
       <c r="R277"/>
       <c r="S277"/>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6" t="s">
         <v>529</v>
       </c>
@@ -17128,7 +17131,7 @@
       <c r="R278"/>
       <c r="S278"/>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6" t="s">
         <v>531</v>
       </c>
@@ -17170,7 +17173,7 @@
       <c r="R279"/>
       <c r="S279"/>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6" t="s">
         <v>534</v>
       </c>
@@ -17212,7 +17215,7 @@
       <c r="R280"/>
       <c r="S280"/>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6" t="s">
         <v>534</v>
       </c>
@@ -17254,7 +17257,7 @@
       <c r="R281"/>
       <c r="S281"/>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6" t="s">
         <v>536</v>
       </c>
@@ -17296,7 +17299,7 @@
       <c r="R282"/>
       <c r="S282"/>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6" t="s">
         <v>538</v>
       </c>
@@ -17338,7 +17341,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A284" s="6" t="s">
         <v>80</v>
       </c>
@@ -17351,7 +17354,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A285" s="6" t="s">
         <v>90</v>
       </c>
@@ -17364,7 +17367,7 @@
       <c r="R285"/>
       <c r="S285"/>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="6" t="s">
         <v>540</v>
       </c>
@@ -17406,7 +17409,7 @@
       <c r="R286"/>
       <c r="S286"/>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6" t="s">
         <v>540</v>
       </c>
@@ -17448,7 +17451,7 @@
       <c r="R287"/>
       <c r="S287"/>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="6" t="s">
         <v>543</v>
       </c>
@@ -17490,7 +17493,7 @@
       <c r="R288"/>
       <c r="S288"/>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="6" t="s">
         <v>545</v>
       </c>
@@ -17532,7 +17535,7 @@
       <c r="R289"/>
       <c r="S289"/>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="6" t="s">
         <v>547</v>
       </c>
@@ -17574,7 +17577,7 @@
       <c r="R290"/>
       <c r="S290"/>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="6" t="s">
         <v>549</v>
       </c>
@@ -17616,7 +17619,7 @@
       <c r="R291"/>
       <c r="S291"/>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="6" t="s">
         <v>549</v>
       </c>
@@ -17658,7 +17661,7 @@
       <c r="R292"/>
       <c r="S292"/>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="6" t="s">
         <v>727</v>
       </c>
@@ -17700,7 +17703,7 @@
       <c r="R293"/>
       <c r="S293"/>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="6" t="s">
         <v>551</v>
       </c>
@@ -17742,7 +17745,7 @@
       <c r="R294"/>
       <c r="S294"/>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="6" t="s">
         <v>319</v>
       </c>
@@ -17779,7 +17782,7 @@
       <c r="R295"/>
       <c r="S295"/>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="6" t="s">
         <v>319</v>
       </c>
@@ -17821,7 +17824,7 @@
       <c r="R296"/>
       <c r="S296"/>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -17863,7 +17866,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A298" s="6" t="s">
         <v>84</v>
       </c>
@@ -17876,7 +17879,7 @@
       <c r="R298"/>
       <c r="S298"/>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="6" t="s">
         <v>553</v>
       </c>
@@ -17918,7 +17921,7 @@
       <c r="R299"/>
       <c r="S299"/>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="6" t="s">
         <v>556</v>
       </c>
@@ -17960,7 +17963,7 @@
       <c r="R300"/>
       <c r="S300"/>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="6" t="s">
         <v>558</v>
       </c>
@@ -18002,7 +18005,7 @@
       <c r="R301"/>
       <c r="S301"/>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="6" t="s">
         <v>558</v>
       </c>
@@ -18044,7 +18047,7 @@
       <c r="R302"/>
       <c r="S302"/>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="6" t="s">
         <v>726</v>
       </c>
@@ -18086,7 +18089,7 @@
       <c r="R303"/>
       <c r="S303"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A304" s="6" t="s">
         <v>150</v>
       </c>
@@ -18099,7 +18102,7 @@
       <c r="R304"/>
       <c r="S304"/>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="6" t="s">
         <v>726</v>
       </c>
@@ -18141,7 +18144,7 @@
       <c r="R305"/>
       <c r="S305"/>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="6" t="s">
         <v>726</v>
       </c>
@@ -18183,7 +18186,7 @@
       <c r="R306"/>
       <c r="S306"/>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="6" t="s">
         <v>726</v>
       </c>
@@ -18225,7 +18228,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A308" s="6" t="s">
         <v>100</v>
       </c>
@@ -18238,7 +18241,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A309" s="6" t="s">
         <v>98</v>
       </c>
@@ -18251,7 +18254,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A310" s="6" t="s">
         <v>108</v>
       </c>
@@ -18264,7 +18267,7 @@
       <c r="R310"/>
       <c r="S310"/>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="6" t="s">
         <v>559</v>
       </c>
@@ -18306,7 +18309,7 @@
       <c r="R311"/>
       <c r="S311"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A312" s="6" t="s">
         <v>104</v>
       </c>
@@ -18319,7 +18322,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -18336,7 +18339,7 @@
         <v>4636</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>218</v>
@@ -18366,7 +18369,7 @@
       </c>
       <c r="S313"/>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="6" t="s">
         <v>561</v>
       </c>
@@ -18411,7 +18414,7 @@
       <c r="R314"/>
       <c r="S314"/>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="6" t="s">
         <v>564</v>
       </c>
@@ -18453,7 +18456,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18470,7 +18473,7 @@
         <v>4631</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>218</v>
@@ -18500,7 +18503,7 @@
       </c>
       <c r="S316"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A317" s="6" t="s">
         <v>124</v>
       </c>
@@ -18537,7 +18540,7 @@
       <c r="R317" s="2"/>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -18554,7 +18557,7 @@
         <v>42</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>218</v>
@@ -18587,7 +18590,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="6" t="s">
         <v>566</v>
       </c>
@@ -18629,7 +18632,7 @@
       <c r="R319"/>
       <c r="S319"/>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="6" t="s">
         <v>568</v>
       </c>
@@ -18671,7 +18674,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A321" s="6" t="s">
         <v>94</v>
       </c>
@@ -18684,7 +18687,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A322" s="6" t="s">
         <v>134</v>
       </c>
@@ -18697,7 +18700,7 @@
       <c r="R322"/>
       <c r="S322"/>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="6" t="s">
         <v>316</v>
       </c>
@@ -18734,7 +18737,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A324" s="6" t="s">
         <v>192</v>
       </c>
@@ -18747,7 +18750,7 @@
       <c r="R324"/>
       <c r="S324"/>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="6" t="s">
         <v>568</v>
       </c>
@@ -18789,7 +18792,7 @@
       <c r="R325"/>
       <c r="S325"/>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="6" t="s">
         <v>570</v>
       </c>
@@ -18831,7 +18834,7 @@
       <c r="R326"/>
       <c r="S326"/>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="6" t="s">
         <v>572</v>
       </c>
@@ -18873,7 +18876,7 @@
       <c r="R327"/>
       <c r="S327"/>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="6" t="s">
         <v>572</v>
       </c>
@@ -18915,7 +18918,7 @@
       <c r="R328"/>
       <c r="S328"/>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="6" t="s">
         <v>574</v>
       </c>
@@ -18957,7 +18960,7 @@
       <c r="R329"/>
       <c r="S329"/>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="6" t="s">
         <v>576</v>
       </c>
@@ -18999,7 +19002,7 @@
       <c r="R330"/>
       <c r="S330"/>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="6" t="s">
         <v>1437</v>
       </c>
@@ -19044,7 +19047,7 @@
       </c>
       <c r="S331"/>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="6" t="s">
         <v>578</v>
       </c>
@@ -19086,7 +19089,7 @@
       <c r="R332"/>
       <c r="S332"/>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="6" t="s">
         <v>316</v>
       </c>
@@ -19128,7 +19131,7 @@
       <c r="R333"/>
       <c r="S333"/>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="6" t="s">
         <v>316</v>
       </c>
@@ -19170,7 +19173,7 @@
       <c r="R334"/>
       <c r="S334"/>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="6" t="s">
         <v>316</v>
       </c>
@@ -19212,7 +19215,7 @@
       <c r="R335"/>
       <c r="S335"/>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="6" t="s">
         <v>580</v>
       </c>
@@ -19254,7 +19257,7 @@
       <c r="R336"/>
       <c r="S336"/>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="6" t="s">
         <v>582</v>
       </c>
@@ -19296,7 +19299,7 @@
       <c r="R337"/>
       <c r="S337"/>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="6" t="s">
         <v>582</v>
       </c>
@@ -19338,7 +19341,7 @@
       <c r="R338"/>
       <c r="S338"/>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="6" t="s">
         <v>584</v>
       </c>
@@ -19380,7 +19383,7 @@
       <c r="R339"/>
       <c r="S339"/>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="6" t="s">
         <v>584</v>
       </c>
@@ -19422,7 +19425,7 @@
       <c r="R340"/>
       <c r="S340"/>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="6" t="s">
         <v>584</v>
       </c>
@@ -19464,7 +19467,7 @@
       <c r="R341"/>
       <c r="S341"/>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="6" t="s">
         <v>586</v>
       </c>
@@ -19506,7 +19509,7 @@
       <c r="R342"/>
       <c r="S342"/>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="6" t="s">
         <v>588</v>
       </c>
@@ -19548,7 +19551,7 @@
       <c r="R343"/>
       <c r="S343"/>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="6" t="s">
         <v>589</v>
       </c>
@@ -19590,7 +19593,7 @@
       <c r="R344"/>
       <c r="S344"/>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="6" t="s">
         <v>591</v>
       </c>
@@ -19632,7 +19635,7 @@
       <c r="R345"/>
       <c r="S345"/>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="6" t="s">
         <v>593</v>
       </c>
@@ -19674,7 +19677,7 @@
       <c r="R346"/>
       <c r="S346"/>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="6" t="s">
         <v>593</v>
       </c>
@@ -19716,7 +19719,7 @@
       <c r="R347"/>
       <c r="S347"/>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="6" t="s">
         <v>595</v>
       </c>
@@ -19758,7 +19761,7 @@
       <c r="R348"/>
       <c r="S348"/>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="6" t="s">
         <v>597</v>
       </c>
@@ -19800,7 +19803,7 @@
       <c r="R349"/>
       <c r="S349"/>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="6" t="s">
         <v>599</v>
       </c>
@@ -19842,7 +19845,7 @@
       <c r="R350"/>
       <c r="S350"/>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="6" t="s">
         <v>601</v>
       </c>
@@ -19884,7 +19887,7 @@
       <c r="R351"/>
       <c r="S351"/>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="6" t="s">
         <v>603</v>
       </c>
@@ -19926,7 +19929,7 @@
       <c r="R352"/>
       <c r="S352"/>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="6" t="s">
         <v>605</v>
       </c>
@@ -19968,7 +19971,7 @@
       <c r="R353"/>
       <c r="S353"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A354" s="6" t="s">
         <v>114</v>
       </c>
@@ -19981,7 +19984,7 @@
       <c r="R354"/>
       <c r="S354"/>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="6" t="s">
         <v>607</v>
       </c>
@@ -20023,7 +20026,7 @@
       <c r="R355"/>
       <c r="S355"/>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="6" t="s">
         <v>609</v>
       </c>
@@ -20065,7 +20068,7 @@
       <c r="R356"/>
       <c r="S356"/>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="6" t="s">
         <v>611</v>
       </c>
@@ -20107,7 +20110,7 @@
       <c r="R357"/>
       <c r="S357"/>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="6" t="s">
         <v>613</v>
       </c>
@@ -20149,7 +20152,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A359" s="6" t="s">
         <v>128</v>
       </c>
@@ -20162,7 +20165,7 @@
       <c r="R359"/>
       <c r="S359"/>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="6" t="s">
         <v>616</v>
       </c>
@@ -20204,7 +20207,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A361" s="6" t="s">
         <v>110</v>
       </c>
@@ -20217,7 +20220,7 @@
       <c r="R361"/>
       <c r="S361"/>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="6" t="s">
         <v>618</v>
       </c>
@@ -20259,7 +20262,7 @@
       <c r="R362"/>
       <c r="S362"/>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="6" t="s">
         <v>620</v>
       </c>
@@ -20301,7 +20304,7 @@
       <c r="R363"/>
       <c r="S363"/>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="6" t="s">
         <v>622</v>
       </c>
@@ -20343,7 +20346,7 @@
       <c r="R364"/>
       <c r="S364"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A365" s="6" t="s">
         <v>182</v>
       </c>
@@ -20356,7 +20359,7 @@
       <c r="R365"/>
       <c r="S365"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A366" s="6" t="s">
         <v>184</v>
       </c>
@@ -20396,7 +20399,7 @@
       <c r="R366"/>
       <c r="S366"/>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="6" t="s">
         <v>623</v>
       </c>
@@ -20441,7 +20444,7 @@
       <c r="R367"/>
       <c r="S367"/>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="6" t="s">
         <v>313</v>
       </c>
@@ -20478,7 +20481,7 @@
       <c r="R368"/>
       <c r="S368"/>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="6" t="s">
         <v>623</v>
       </c>
@@ -20523,7 +20526,7 @@
       <c r="R369"/>
       <c r="S369"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A370" s="6" t="s">
         <v>184</v>
       </c>
@@ -20540,7 +20543,7 @@
         <v>91</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>218</v>
@@ -20572,7 +20575,7 @@
       <c r="R370"/>
       <c r="S370"/>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="6" t="s">
         <v>623</v>
       </c>
@@ -20617,7 +20620,7 @@
       <c r="R371"/>
       <c r="S371"/>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="6" t="s">
         <v>623</v>
       </c>
@@ -20662,7 +20665,7 @@
       <c r="R372"/>
       <c r="S372"/>
     </row>
-    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="6" t="s">
         <v>623</v>
       </c>
@@ -20707,7 +20710,7 @@
       <c r="R373"/>
       <c r="S373"/>
     </row>
-    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="6" t="s">
         <v>623</v>
       </c>
@@ -20752,7 +20755,7 @@
       <c r="R374"/>
       <c r="S374"/>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="6" t="s">
         <v>627</v>
       </c>
@@ -20794,7 +20797,7 @@
       <c r="R375"/>
       <c r="S375"/>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="6" t="s">
         <v>629</v>
       </c>
@@ -20836,7 +20839,7 @@
       <c r="R376"/>
       <c r="S376"/>
     </row>
-    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="6" t="s">
         <v>631</v>
       </c>
@@ -20878,7 +20881,7 @@
       <c r="R377"/>
       <c r="S377"/>
     </row>
-    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="6" t="s">
         <v>1438</v>
       </c>
@@ -20920,7 +20923,7 @@
       </c>
       <c r="S378"/>
     </row>
-    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="6" t="s">
         <v>313</v>
       </c>
@@ -20962,7 +20965,7 @@
       <c r="R379"/>
       <c r="S379"/>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="6" t="s">
         <v>313</v>
       </c>
@@ -21004,7 +21007,7 @@
       <c r="R380"/>
       <c r="S380"/>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="6" t="s">
         <v>313</v>
       </c>
@@ -21046,7 +21049,7 @@
       <c r="R381"/>
       <c r="S381"/>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="6" t="s">
         <v>634</v>
       </c>
@@ -21088,7 +21091,7 @@
       <c r="R382"/>
       <c r="S382"/>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="6" t="s">
         <v>311</v>
       </c>
@@ -21125,7 +21128,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A384" s="6" t="s">
         <v>138</v>
       </c>
@@ -21138,7 +21141,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A385" s="6" t="s">
         <v>130</v>
       </c>
@@ -21152,7 +21155,7 @@
       <c r="R385"/>
       <c r="S385"/>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A386" s="6" t="s">
         <v>56</v>
       </c>
@@ -21166,14 +21169,14 @@
         <v>87</v>
       </c>
       <c r="F386" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G386" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H386" s="8"/>
       <c r="J386" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="L386" s="12">
         <v>44490</v>
@@ -21192,7 +21195,7 @@
       </c>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A387" s="6" t="s">
         <v>22</v>
       </c>
@@ -21206,7 +21209,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A388" s="6" t="s">
         <v>144</v>
       </c>
@@ -21220,7 +21223,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A389" s="6" t="s">
         <v>142</v>
       </c>
@@ -21234,7 +21237,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A390" s="6" t="s">
         <v>146</v>
       </c>
@@ -21251,7 +21254,7 @@
         <v>402586</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>218</v>
@@ -21280,7 +21283,7 @@
       </c>
       <c r="S390"/>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="6" t="s">
         <v>636</v>
       </c>
@@ -21322,7 +21325,7 @@
       <c r="R391"/>
       <c r="S391"/>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="6" t="s">
         <v>638</v>
       </c>
@@ -21364,7 +21367,7 @@
       <c r="R392"/>
       <c r="S392"/>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="6" t="s">
         <v>638</v>
       </c>
@@ -21406,7 +21409,7 @@
       <c r="R393"/>
       <c r="S393"/>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="6" t="s">
         <v>640</v>
       </c>
@@ -21448,7 +21451,7 @@
       <c r="R394"/>
       <c r="S394"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A395" s="6" t="s">
         <v>146</v>
       </c>
@@ -21465,14 +21468,14 @@
         <v>93</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>218</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="K395" s="6"/>
       <c r="L395" s="12"/>
@@ -21491,7 +21494,7 @@
       </c>
       <c r="S395"/>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="6" t="s">
         <v>642</v>
       </c>
@@ -21533,7 +21536,7 @@
       <c r="R396"/>
       <c r="S396"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A397" s="6" t="s">
         <v>146</v>
       </c>
@@ -21570,7 +21573,7 @@
       <c r="R397"/>
       <c r="S397"/>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="6" t="s">
         <v>642</v>
       </c>
@@ -21612,7 +21615,7 @@
       <c r="R398"/>
       <c r="S398"/>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="6" t="s">
         <v>644</v>
       </c>
@@ -21654,7 +21657,7 @@
       <c r="R399"/>
       <c r="S399"/>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="6" t="s">
         <v>644</v>
       </c>
@@ -21696,7 +21699,7 @@
       <c r="R400"/>
       <c r="S400"/>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="6" t="s">
         <v>646</v>
       </c>
@@ -21738,7 +21741,7 @@
       <c r="R401"/>
       <c r="S401"/>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="6" t="s">
         <v>311</v>
       </c>
@@ -21779,7 +21782,7 @@
       <c r="R402"/>
       <c r="S402"/>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="6" t="s">
         <v>648</v>
       </c>
@@ -21820,7 +21823,7 @@
       <c r="R403"/>
       <c r="S403"/>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="6" t="s">
         <v>724</v>
       </c>
@@ -21861,7 +21864,7 @@
       <c r="R404"/>
       <c r="S404"/>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="6" t="s">
         <v>724</v>
       </c>
@@ -21902,7 +21905,7 @@
       <c r="R405"/>
       <c r="S405"/>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="6" t="s">
         <v>303</v>
       </c>
@@ -21937,7 +21940,7 @@
       <c r="R406"/>
       <c r="S406"/>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="6" t="s">
         <v>303</v>
       </c>
@@ -21978,7 +21981,7 @@
       <c r="R407"/>
       <c r="S407"/>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="6" t="s">
         <v>303</v>
       </c>
@@ -22019,7 +22022,7 @@
       <c r="R408"/>
       <c r="S408"/>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="6" t="s">
         <v>651</v>
       </c>
@@ -22060,7 +22063,7 @@
       <c r="R409"/>
       <c r="S409"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -22074,7 +22077,7 @@
       <c r="R410"/>
       <c r="S410"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -22088,7 +22091,7 @@
       <c r="R411"/>
       <c r="S411"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A412" s="6" t="s">
         <v>74</v>
       </c>
@@ -22102,7 +22105,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -22119,7 +22122,7 @@
         <v>60805</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>218</v>
@@ -22152,7 +22155,7 @@
       </c>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -22169,7 +22172,7 @@
         <v>60677</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>218</v>
@@ -22202,7 +22205,7 @@
       </c>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -22219,7 +22222,7 @@
         <v>52190</v>
       </c>
       <c r="F415" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G415" s="6" t="s">
         <v>218</v>
@@ -22252,7 +22255,7 @@
       </c>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22269,7 +22272,7 @@
         <v>48718</v>
       </c>
       <c r="F416" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G416" s="6" t="s">
         <v>218</v>
@@ -22302,7 +22305,7 @@
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22319,7 +22322,7 @@
         <v>48649</v>
       </c>
       <c r="F417" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G417" s="6" t="s">
         <v>218</v>
@@ -22352,7 +22355,7 @@
       </c>
       <c r="S417"/>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="6" t="s">
         <v>721</v>
       </c>
@@ -22393,7 +22396,7 @@
       <c r="R418"/>
       <c r="S418"/>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="6" t="s">
         <v>721</v>
       </c>
@@ -22434,7 +22437,7 @@
       <c r="R419"/>
       <c r="S419"/>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="6" t="s">
         <v>655</v>
       </c>
@@ -22475,7 +22478,7 @@
       <c r="R420"/>
       <c r="S420"/>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="6" t="s">
         <v>657</v>
       </c>
@@ -22516,7 +22519,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -22533,7 +22536,7 @@
         <v>41854</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G422" s="6" t="s">
         <v>218</v>
@@ -22566,7 +22569,7 @@
       </c>
       <c r="S422"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -22606,7 +22609,7 @@
       <c r="R423"/>
       <c r="S423"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -22623,7 +22626,7 @@
         <v>97</v>
       </c>
       <c r="F424" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G424" s="9" t="s">
         <v>218</v>
@@ -22658,7 +22661,7 @@
       <c r="R424"/>
       <c r="S424"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A425" s="6" t="s">
         <v>154</v>
       </c>
@@ -22675,7 +22678,7 @@
         <v>97</v>
       </c>
       <c r="F425" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G425" s="9" t="s">
         <v>218</v>
@@ -22710,7 +22713,7 @@
       <c r="R425"/>
       <c r="S425"/>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="6" t="s">
         <v>659</v>
       </c>
@@ -22751,7 +22754,7 @@
       <c r="R426"/>
       <c r="S426"/>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="6" t="s">
         <v>661</v>
       </c>
@@ -22792,7 +22795,7 @@
       <c r="R427"/>
       <c r="S427"/>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="6" t="s">
         <v>661</v>
       </c>
@@ -22833,7 +22836,7 @@
       <c r="R428"/>
       <c r="S428"/>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="6" t="s">
         <v>662</v>
       </c>
@@ -22874,7 +22877,7 @@
       <c r="R429"/>
       <c r="S429"/>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="6" t="s">
         <v>665</v>
       </c>
@@ -22915,7 +22918,7 @@
       <c r="R430"/>
       <c r="S430"/>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="6" t="s">
         <v>668</v>
       </c>
@@ -22957,7 +22960,7 @@
       <c r="R431"/>
       <c r="S431"/>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="6" t="s">
         <v>668</v>
       </c>
@@ -22999,7 +23002,7 @@
       <c r="R432"/>
       <c r="S432"/>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="6" t="s">
         <v>669</v>
       </c>
@@ -23041,7 +23044,7 @@
       <c r="R433"/>
       <c r="S433"/>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="6" t="s">
         <v>669</v>
       </c>
@@ -23083,7 +23086,7 @@
       <c r="R434"/>
       <c r="S434"/>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="6" t="s">
         <v>671</v>
       </c>
@@ -23125,7 +23128,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A436" s="6" t="s">
         <v>162</v>
       </c>
@@ -23138,7 +23141,7 @@
       <c r="R436"/>
       <c r="S436"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A437" s="6" t="s">
         <v>164</v>
       </c>
@@ -23178,7 +23181,7 @@
       <c r="R437"/>
       <c r="S437"/>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="6" t="s">
         <v>176</v>
       </c>
@@ -23215,7 +23218,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A439" s="6" t="s">
         <v>166</v>
       </c>
@@ -23232,7 +23235,7 @@
         <v>3321</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G439" s="6" t="s">
         <v>218</v>
@@ -23262,7 +23265,7 @@
       </c>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A440" s="6" t="s">
         <v>166</v>
       </c>
@@ -23279,7 +23282,7 @@
         <v>1915</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G440" s="6" t="s">
         <v>218</v>
@@ -23309,7 +23312,7 @@
       </c>
       <c r="S440"/>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="6" t="s">
         <v>673</v>
       </c>
@@ -23351,7 +23354,7 @@
       <c r="R441"/>
       <c r="S441"/>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="6" t="s">
         <v>674</v>
       </c>
@@ -23393,7 +23396,7 @@
       <c r="R442"/>
       <c r="S442"/>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="6" t="s">
         <v>676</v>
       </c>
@@ -23435,7 +23438,7 @@
       <c r="R443"/>
       <c r="S443"/>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="6" t="s">
         <v>678</v>
       </c>
@@ -23477,7 +23480,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23494,7 +23497,7 @@
         <v>15050</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G445" s="6" t="s">
         <v>218</v>
@@ -23524,7 +23527,7 @@
       </c>
       <c r="S445"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A446" s="6" t="s">
         <v>170</v>
       </c>
@@ -23564,7 +23567,7 @@
       <c r="R446"/>
       <c r="S446"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A447" s="6" t="s">
         <v>170</v>
       </c>
@@ -23581,7 +23584,7 @@
         <v>21</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G447" s="9" t="s">
         <v>218</v>
@@ -23613,7 +23616,7 @@
       <c r="R447"/>
       <c r="S447"/>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" s="6" t="s">
         <v>680</v>
       </c>
@@ -23655,7 +23658,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A449" s="6" t="s">
         <v>172</v>
       </c>
@@ -23668,7 +23671,7 @@
       <c r="R449"/>
       <c r="S449"/>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="6" t="s">
         <v>682</v>
       </c>
@@ -23710,7 +23713,7 @@
       <c r="R450"/>
       <c r="S450"/>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" s="6" t="s">
         <v>24</v>
       </c>
@@ -23752,7 +23755,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A452" s="6" t="s">
         <v>168</v>
       </c>
@@ -23765,7 +23768,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23782,7 +23785,7 @@
         <v>1789</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G453" s="6" t="s">
         <v>218</v>
@@ -23812,7 +23815,7 @@
       </c>
       <c r="S453"/>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="6" t="s">
         <v>24</v>
       </c>
@@ -23854,7 +23857,7 @@
       <c r="R454"/>
       <c r="S454"/>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="6" t="s">
         <v>686</v>
       </c>
@@ -23896,7 +23899,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -23913,7 +23916,7 @@
         <v>2043</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G456" s="6" t="s">
         <v>218</v>
@@ -23943,7 +23946,7 @@
       </c>
       <c r="S456"/>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="6" t="s">
         <v>688</v>
       </c>
@@ -23985,7 +23988,7 @@
       <c r="R457"/>
       <c r="S457"/>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="6" t="s">
         <v>690</v>
       </c>
@@ -24027,7 +24030,7 @@
       <c r="R458"/>
       <c r="S458"/>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="6" t="s">
         <v>310</v>
       </c>
@@ -24061,7 +24064,7 @@
       <c r="R459"/>
       <c r="S459"/>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="6" t="s">
         <v>1439</v>
       </c>
@@ -24103,7 +24106,7 @@
       </c>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A461" s="6" t="s">
         <v>118</v>
       </c>
@@ -24120,7 +24123,7 @@
         <v>1812</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G461" s="6" t="s">
         <v>218</v>
@@ -24150,7 +24153,7 @@
       </c>
       <c r="S461"/>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" s="6" t="s">
         <v>1439</v>
       </c>
@@ -24192,7 +24195,7 @@
       </c>
       <c r="S462"/>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B463" s="9" t="s">
         <v>207</v>
       </c>
@@ -24226,7 +24229,7 @@
       <c r="R463"/>
       <c r="S463"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A464" s="6" t="s">
         <v>118</v>
       </c>
@@ -24266,7 +24269,7 @@
       <c r="R464"/>
       <c r="S464"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A465" s="6" t="s">
         <v>118</v>
       </c>
@@ -24283,7 +24286,7 @@
         <v>65</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G465" s="9" t="s">
         <v>218</v>
@@ -24318,7 +24321,7 @@
       <c r="R465"/>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A466" s="6" t="s">
         <v>24</v>
       </c>
@@ -24332,7 +24335,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24349,7 +24352,7 @@
         <v>15240</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G467" s="6" t="s">
         <v>218</v>
@@ -24381,7 +24384,7 @@
       </c>
       <c r="S467"/>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B468" s="9" t="s">
         <v>207</v>
       </c>
@@ -24412,7 +24415,7 @@
       <c r="R468"/>
       <c r="S468"/>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B469" s="9" t="s">
         <v>207</v>
       </c>
@@ -24449,7 +24452,7 @@
       <c r="R469"/>
       <c r="S469"/>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B470" s="9" t="s">
         <v>207</v>
       </c>
@@ -24480,7 +24483,7 @@
       <c r="R470"/>
       <c r="S470"/>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B471" s="9" t="s">
         <v>207</v>
       </c>
@@ -24511,7 +24514,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24528,7 +24531,7 @@
         <v>15240</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G472" s="6" t="s">
         <v>218</v>
@@ -24560,7 +24563,7 @@
       </c>
       <c r="S472"/>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B473" s="9" t="s">
         <v>207</v>
       </c>
@@ -24594,7 +24597,7 @@
       <c r="R473"/>
       <c r="S473"/>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B474" s="9" t="s">
         <v>207</v>
       </c>
@@ -24628,7 +24631,7 @@
       <c r="R474"/>
       <c r="S474"/>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B475" s="9" t="s">
         <v>207</v>
       </c>
@@ -24659,7 +24662,7 @@
       <c r="R475"/>
       <c r="S475"/>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="6" t="s">
         <v>317</v>
       </c>
@@ -24696,7 +24699,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -24713,7 +24716,7 @@
         <v>15237</v>
       </c>
       <c r="F477" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G477" s="6" t="s">
         <v>218</v>
@@ -24745,7 +24748,7 @@
       </c>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -24762,7 +24765,7 @@
         <v>14537</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G478" s="6" t="s">
         <v>218</v>
@@ -24794,7 +24797,7 @@
       </c>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -24811,7 +24814,7 @@
         <v>15239</v>
       </c>
       <c r="F479" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G479" s="6" t="s">
         <v>218</v>
@@ -24843,7 +24846,7 @@
       </c>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -24860,7 +24863,7 @@
         <v>15236</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G480" s="6" t="s">
         <v>218</v>
@@ -24892,7 +24895,7 @@
       </c>
       <c r="S480"/>
     </row>
-    <row r="481" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A481" s="6" t="s">
         <v>176</v>
       </c>
@@ -24909,7 +24912,7 @@
         <v>117</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G481" s="6" t="s">
         <v>218</v>
@@ -24917,9 +24920,11 @@
       <c r="H481" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="I481" s="6"/>
+      <c r="I481" s="9" t="s">
+        <v>1470</v>
+      </c>
       <c r="J481" s="9" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="K481" s="6"/>
       <c r="L481" s="12"/>
@@ -24939,7 +24944,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B482" s="9" t="s">
         <v>207</v>
       </c>
@@ -24973,7 +24978,7 @@
       <c r="R482"/>
       <c r="S482"/>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="6" t="s">
         <v>694</v>
       </c>
@@ -25014,7 +25019,7 @@
       <c r="R483"/>
       <c r="S483"/>
     </row>
-    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" s="6" t="s">
         <v>694</v>
       </c>
@@ -25056,7 +25061,7 @@
       <c r="R484"/>
       <c r="S484"/>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" s="6" t="s">
         <v>696</v>
       </c>
@@ -25098,7 +25103,7 @@
       <c r="R485"/>
       <c r="S485"/>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B486" s="9" t="s">
         <v>207</v>
       </c>
@@ -25132,7 +25137,7 @@
       <c r="R486"/>
       <c r="S486"/>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B487" s="9" t="s">
         <v>207</v>
       </c>
@@ -25166,7 +25171,7 @@
       <c r="R487"/>
       <c r="S487"/>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B488" s="9" t="s">
         <v>207</v>
       </c>
@@ -25200,7 +25205,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A489" s="6" t="s">
         <v>106</v>
       </c>
@@ -25214,7 +25219,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A490" s="6" t="s">
         <v>180</v>
       </c>
@@ -25228,7 +25233,7 @@
       <c r="R490"/>
       <c r="S490"/>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B491" s="9" t="s">
         <v>207</v>
       </c>
@@ -25262,7 +25267,7 @@
       <c r="R491"/>
       <c r="S491"/>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B492" s="9" t="s">
         <v>207</v>
       </c>
@@ -25299,7 +25304,7 @@
       <c r="R492"/>
       <c r="S492"/>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B493" s="9" t="s">
         <v>207</v>
       </c>
@@ -25336,7 +25341,7 @@
       <c r="R493"/>
       <c r="S493"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A494" s="6" t="s">
         <v>190</v>
       </c>
@@ -25350,7 +25355,7 @@
       <c r="R494"/>
       <c r="S494"/>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B495" s="9" t="s">
         <v>207</v>
       </c>
@@ -25384,7 +25389,7 @@
       <c r="R495"/>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A496" s="6" t="s">
         <v>178</v>
       </c>
@@ -25398,7 +25403,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A497" s="6" t="s">
         <v>152</v>
       </c>
@@ -25411,7 +25416,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A498" s="6" t="s">
         <v>194</v>
       </c>
@@ -25424,7 +25429,7 @@
       <c r="R498"/>
       <c r="S498"/>
     </row>
-    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B499" s="9" t="s">
         <v>207</v>
       </c>
@@ -25458,7 +25463,7 @@
       <c r="R499"/>
       <c r="S499"/>
     </row>
-    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B500" s="9" t="s">
         <v>207</v>
       </c>
@@ -25492,7 +25497,7 @@
       <c r="R500"/>
       <c r="S500"/>
     </row>
-    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B501" s="9" t="s">
         <v>207</v>
       </c>
@@ -25526,7 +25531,7 @@
       <c r="R501"/>
       <c r="S501"/>
     </row>
-    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B502" s="9" t="s">
         <v>207</v>
       </c>
@@ -25560,7 +25565,7 @@
       <c r="R502"/>
       <c r="S502"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A503" s="6" t="s">
         <v>196</v>
       </c>
@@ -25573,7 +25578,7 @@
       <c r="R503"/>
       <c r="S503"/>
     </row>
-    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B504" s="9" t="s">
         <v>207</v>
       </c>
@@ -25607,7 +25612,7 @@
       <c r="R504"/>
       <c r="S504"/>
     </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B505" s="9" t="s">
         <v>207</v>
       </c>
@@ -25641,7 +25646,7 @@
       <c r="R505"/>
       <c r="S505"/>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A506" s="6" t="s">
         <v>198</v>
       </c>
@@ -25687,7 +25692,7 @@
       <c r="X506" s="2"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="B507" s="9" t="s">
         <v>207</v>
       </c>
@@ -25730,7 +25735,7 @@
       <c r="X507" s="2"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A508" s="6" t="s">
         <v>30</v>
       </c>
@@ -25750,7 +25755,7 @@
       <c r="X508" s="2"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" s="6" t="s">
         <v>704</v>
       </c>
@@ -25790,7 +25795,7 @@
       <c r="X509" s="2"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" s="6" t="s">
         <v>700</v>
       </c>
@@ -25832,7 +25837,7 @@
       <c r="R510"/>
       <c r="S510"/>
     </row>
-    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" s="6" t="s">
         <v>702</v>
       </c>
@@ -25874,7 +25879,7 @@
       <c r="R511"/>
       <c r="S511"/>
     </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" s="6" t="s">
         <v>704</v>
       </c>
@@ -25916,7 +25921,7 @@
       <c r="R512"/>
       <c r="S512"/>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" s="6" t="s">
         <v>705</v>
       </c>
@@ -25958,7 +25963,7 @@
       <c r="R513"/>
       <c r="S513"/>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="6" t="s">
         <v>707</v>
       </c>
@@ -26000,7 +26005,7 @@
       <c r="R514"/>
       <c r="S514"/>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="6" t="s">
         <v>709</v>
       </c>
@@ -26042,7 +26047,7 @@
       <c r="R515"/>
       <c r="S515"/>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" s="6" t="s">
         <v>709</v>
       </c>
@@ -26084,7 +26089,7 @@
       <c r="R516"/>
       <c r="S516"/>
     </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="6" t="s">
         <v>711</v>
       </c>
@@ -26126,7 +26131,7 @@
       <c r="R517"/>
       <c r="S517"/>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" s="6" t="s">
         <v>1440</v>
       </c>
@@ -26168,7 +26173,7 @@
       </c>
       <c r="S518"/>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="6" t="s">
         <v>713</v>
       </c>
@@ -26210,7 +26215,7 @@
       <c r="R519"/>
       <c r="S519"/>
     </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" s="6" t="s">
         <v>715</v>
       </c>
@@ -26251,7 +26256,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A521" s="6" t="s">
         <v>200</v>
       </c>
@@ -26268,7 +26273,7 @@
         <v>1677</v>
       </c>
       <c r="F521" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G521" s="6" t="s">
         <v>218</v>
@@ -26297,7 +26302,7 @@
       </c>
       <c r="S521"/>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" s="6" t="s">
         <v>717</v>
       </c>
@@ -26374,14 +26379,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.3984375" customWidth="1"/>
+    <col min="3" max="3" width="70.1328125" customWidth="1"/>
+    <col min="4" max="4" width="70.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -26401,7 +26406,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -26424,7 +26429,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
@@ -26447,7 +26452,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
@@ -26470,7 +26475,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -26493,7 +26498,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -26513,7 +26518,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -26533,7 +26538,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
@@ -26556,7 +26561,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -26579,7 +26584,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -26602,7 +26607,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
@@ -26625,7 +26630,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -26648,7 +26653,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -26671,7 +26676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -26694,7 +26699,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -26717,7 +26722,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -26737,7 +26742,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -26757,7 +26762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -26777,7 +26782,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -26797,7 +26802,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
@@ -26820,7 +26825,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
@@ -26843,7 +26848,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
@@ -26866,7 +26871,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
@@ -26889,7 +26894,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
@@ -26912,7 +26917,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
@@ -26935,7 +26940,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -26955,7 +26960,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
@@ -26975,7 +26980,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -26995,7 +27000,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -27019,7 +27024,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -27043,7 +27048,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
@@ -27067,7 +27072,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
@@ -27091,7 +27096,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
@@ -27129,30 +27134,30 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>766</v>
       </c>
@@ -27211,7 +27216,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -27270,7 +27275,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -27329,7 +27334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -27388,7 +27393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -27447,7 +27452,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -27506,7 +27511,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -27565,7 +27570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -27624,7 +27629,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -27683,7 +27688,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -27742,7 +27747,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -27801,7 +27806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -27860,7 +27865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -27919,7 +27924,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -27978,7 +27983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -28037,7 +28042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -28096,7 +28101,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
@@ -28155,7 +28160,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -28214,7 +28219,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -28273,7 +28278,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -28332,7 +28337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -28391,7 +28396,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
@@ -28450,7 +28455,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>158</v>
       </c>
@@ -28509,7 +28514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -28568,7 +28573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -28627,7 +28632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -28686,7 +28691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
@@ -28745,7 +28750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -28804,7 +28809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -28863,7 +28868,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -28922,7 +28927,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -28981,7 +28986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -29040,7 +29045,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -29099,7 +29104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -29158,7 +29163,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -29217,7 +29222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -29276,7 +29281,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -29335,7 +29340,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
@@ -29394,7 +29399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -29453,7 +29458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -29512,7 +29517,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>126</v>
       </c>
@@ -29571,7 +29576,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
@@ -29630,7 +29635,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
@@ -29689,7 +29694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -29748,7 +29753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
@@ -29807,7 +29812,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -29866,7 +29871,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -29925,7 +29930,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
@@ -29984,7 +29989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
@@ -30043,7 +30048,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -30102,7 +30107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
@@ -30161,7 +30166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -30220,7 +30225,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -30279,7 +30284,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
@@ -30338,7 +30343,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
@@ -30397,7 +30402,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
@@ -30456,7 +30461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>84</v>
       </c>
@@ -30515,7 +30520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>150</v>
       </c>
@@ -30574,7 +30579,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -30633,7 +30638,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -30692,7 +30697,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>108</v>
       </c>
@@ -30751,7 +30756,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
@@ -30810,7 +30815,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -30869,7 +30874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
@@ -30928,7 +30933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
@@ -30987,7 +30992,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>192</v>
       </c>
@@ -31046,7 +31051,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>114</v>
       </c>
@@ -31105,7 +31110,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -31164,7 +31169,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -31223,7 +31228,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>182</v>
       </c>
@@ -31282,7 +31287,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>184</v>
       </c>
@@ -31341,7 +31346,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -31400,7 +31405,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -31459,7 +31464,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
@@ -31518,7 +31523,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -31577,7 +31582,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -31636,7 +31641,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -31695,7 +31700,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -31754,7 +31759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -31813,7 +31818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>116</v>
       </c>
@@ -31872,7 +31877,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>74</v>
       </c>
@@ -31931,7 +31936,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>154</v>
       </c>
@@ -31990,7 +31995,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>162</v>
       </c>
@@ -32049,7 +32054,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>164</v>
       </c>
@@ -32108,7 +32113,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>166</v>
       </c>
@@ -32167,7 +32172,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -32226,7 +32231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>172</v>
       </c>
@@ -32285,7 +32290,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
@@ -32344,7 +32349,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
@@ -32403,7 +32408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>24</v>
       </c>
@@ -32462,7 +32467,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
@@ -32521,7 +32526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
@@ -32580,7 +32585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>180</v>
       </c>
@@ -32639,7 +32644,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -32698,7 +32703,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -32757,7 +32762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>152</v>
       </c>
@@ -32816,7 +32821,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -32875,7 +32880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>196</v>
       </c>
@@ -32934,7 +32939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>198</v>
       </c>
@@ -32993,7 +32998,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>30</v>
       </c>
@@ -33052,7 +33057,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
@@ -33127,45 +33132,45 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14"/>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -33173,19 +33178,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14" t="s">
         <v>124</v>
       </c>
@@ -33193,31 +33198,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="14" t="s">
         <v>96</v>
       </c>
@@ -33225,91 +33230,91 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="14"/>
       <c r="B21" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="14" t="s">
         <v>158</v>
       </c>
@@ -33317,49 +33322,49 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="14" t="s">
         <v>156</v>
       </c>
@@ -33367,25 +33372,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="14" t="s">
         <v>120</v>
       </c>
@@ -33393,7 +33398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="14" t="s">
         <v>160</v>
       </c>
@@ -33401,13 +33406,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
@@ -33415,13 +33420,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
@@ -33429,7 +33434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="14" t="s">
         <v>48</v>
       </c>
@@ -33437,7 +33442,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="14" t="s">
         <v>50</v>
       </c>
@@ -33445,25 +33450,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="14"/>
       <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
@@ -33471,37 +33476,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="14"/>
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="14"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="14"/>
       <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="14"/>
       <c r="B58" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="14" t="s">
         <v>126</v>
       </c>
@@ -33509,25 +33514,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="14"/>
       <c r="B60" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="14"/>
       <c r="B61" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="14"/>
       <c r="B62" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="14" t="s">
         <v>72</v>
       </c>
@@ -33535,37 +33540,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="14"/>
       <c r="B64" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="14"/>
       <c r="B65" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="14"/>
       <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="14"/>
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="14"/>
       <c r="B68" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -33573,49 +33578,49 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="14"/>
       <c r="B70" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="14"/>
       <c r="B71" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="14"/>
       <c r="B72" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="14"/>
       <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="14"/>
       <c r="B74" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="14"/>
       <c r="B75" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="14" t="s">
         <v>184</v>
       </c>
@@ -33623,123 +33628,123 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="14"/>
       <c r="B80" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="14"/>
       <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="14"/>
       <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B84" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B85" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B86" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B87" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B88" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B89" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B90" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B91" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B92" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B93" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B95" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>200</v>
       </c>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADDEC6-AB59-44B8-B1DB-09805AC40995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458196D-2FA9-4488-BC28-F940875FAC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3979,15 +3979,6 @@
     <t>theNorthWindAndTheSun/arn-narrow.txt</t>
   </si>
   <si>
-    <t>aey.txt</t>
-  </si>
-  <si>
-    <t>aey-orthographic.txt</t>
-  </si>
-  <si>
-    <t>amele.pdf</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/cmn-orthographic.txt</t>
   </si>
   <si>
@@ -4463,6 +4454,15 @@
   </si>
   <si>
     <t>theNorthWindAndTheSun/vie-hanoi.txt</t>
+  </si>
+  <si>
+    <t>other_data/amele.pdf</t>
+  </si>
+  <si>
+    <t>other_data/aey-orthographic.txt</t>
+  </si>
+  <si>
+    <t>other_data/aey.txt</t>
   </si>
 </sst>
 </file>
@@ -4974,33 +4974,33 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J489" sqref="J489"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.59765625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
     <col min="10" max="10" width="49" style="9" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.73046875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.3984375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.3984375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.1328125" style="9"/>
-    <col min="17" max="17" width="9.1328125" style="6"/>
+    <col min="12" max="12" width="16.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="9"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
     <col min="18" max="18" width="46" style="16" customWidth="1"/>
-    <col min="19" max="19" width="53.73046875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="53.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>290</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>217</v>
@@ -5053,10 +5053,10 @@
         <v>719</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -5065,7 +5065,7 @@
       <c r="X1" s="2"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>332</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="X2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5125,13 +5125,13 @@
         <v>325</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="10">
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" s="9" t="s">
@@ -5158,7 +5158,7 @@
       <c r="X3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5169,13 +5169,13 @@
         <v>331</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E4" s="10">
         <v>300000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>326</v>
@@ -5205,7 +5205,7 @@
       <c r="X4" s="2"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>336</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="X5" s="2"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>336</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="X6" s="2"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>299</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="X7" s="2"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>299</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="X8" s="2"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5412,25 +5412,25 @@
         <v>325</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E9" s="10">
         <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1311</v>
+        <v>1470</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1310</v>
+        <v>1471</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>328</v>
@@ -5456,7 +5456,7 @@
       <c r="X9" s="2"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>342</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="X10" s="2"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>344</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="X11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>344</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="X12" s="2"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>344</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="X13" s="2"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="X14" s="2"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>344</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="X15" s="2"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>344</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="X16" s="2"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>345</v>
       </c>
@@ -5835,9 +5835,9 @@
       <c r="X17" s="2"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>293</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>323</v>
@@ -5873,7 +5873,7 @@
         <v>334</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -5883,7 +5883,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5894,13 +5894,13 @@
         <v>325</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>5</v>
@@ -5917,7 +5917,7 @@
       <c r="X19" s="2"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>348</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="X20" s="2"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>350</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>350</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="X22" s="2"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>352</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="X23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="X24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="X25" s="2"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>354</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="X26" s="2"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>356</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="X27" s="2"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>357</v>
       </c>
@@ -6301,7 +6301,7 @@
       <c r="X28" s="2"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>362</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="X29" s="2"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>218</v>
@@ -6376,7 +6376,7 @@
         <v>753</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>1308</v>
@@ -6405,7 +6405,7 @@
       <c r="X30" s="2"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>218</v>
@@ -6431,7 +6431,7 @@
         <v>753</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>1309</v>
@@ -6460,7 +6460,7 @@
       <c r="X31" s="2"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>218</v>
@@ -6504,7 +6504,7 @@
         <v>338</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -6514,7 +6514,7 @@
       <c r="X32" s="2"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>226</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>218</v>
@@ -6560,7 +6560,7 @@
       <c r="X33" s="2"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>364</v>
       </c>
@@ -6609,7 +6609,7 @@
       <c r="X34" s="2"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>366</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="X35" s="2"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>368</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="X36" s="2"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>370</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="X37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>370</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="X39" s="2"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>370</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="X40" s="2"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>372</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="X41" s="2"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>372</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="X42" s="2"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>374</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="X43" s="2"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>376</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="X44" s="2"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>378</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="X45" s="2"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>382</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="X46" s="2"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>380</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="X47" s="2"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>382</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="X48" s="2"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>382</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="X49" s="2"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7331,9 +7331,9 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>293</v>
@@ -7360,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -7379,7 +7379,7 @@
       <c r="X51" s="2"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="X52" s="2"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>383</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="X54" s="2"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="X55" s="2"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>295</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="X56" s="2"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>295</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="X57" s="2"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>295</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="X58" s="2"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>386</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="X59" s="2"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>388</v>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="X60" s="2"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>390</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="X61" s="2"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>722</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>722</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="X63" s="2"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="X64" s="2"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>392</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>394</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="X66" s="2"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="X68" s="2"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>226</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>218</v>
@@ -8086,7 +8086,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>133686</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>218</v>
@@ -8130,7 +8130,7 @@
         <v>396</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -8140,7 +8140,7 @@
       <c r="X70" s="2"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -8151,13 +8151,13 @@
         <v>226</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E71" s="10">
         <v>552</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>218</v>
@@ -8166,10 +8166,10 @@
         <v>1304</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>208</v>
@@ -8198,7 +8198,7 @@
       <c r="X71" s="2"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>397</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="X72" s="2"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>399</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="X73" s="2"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>401</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="X74" s="2"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>401</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>403</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="X76" s="2"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>152</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>218</v>
@@ -8488,7 +8488,7 @@
         <v>405</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
@@ -8498,7 +8498,7 @@
       <c r="X77" s="2"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>193</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>218</v>
@@ -8542,7 +8542,7 @@
         <v>334</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -8553,7 +8553,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>406</v>
       </c>
@@ -8604,7 +8604,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>321</v>
       </c>
@@ -8710,7 +8710,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>321</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>321</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>321</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>321</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>408</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="X86" s="2"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>408</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>35486</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>218</v>
@@ -9063,7 +9063,7 @@
         <v>334</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -9073,7 +9073,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>34145</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>218</v>
@@ -9115,7 +9115,7 @@
         <v>334</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -9125,7 +9125,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>10984</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>218</v>
@@ -9167,7 +9167,7 @@
         <v>334</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -9178,9 +9178,9 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>293</v>
@@ -9207,16 +9207,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="P91" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q91" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -9226,7 +9226,7 @@
       <c r="X91" s="2"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>160</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="X92" s="2"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>160</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="X93" s="2"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>108</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>218</v>
@@ -9348,7 +9348,7 @@
         <v>1307</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="L94" s="12">
         <v>44386</v>
@@ -9374,7 +9374,7 @@
       <c r="X94" s="2"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>160</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>218</v>
@@ -9404,7 +9404,7 @@
         <v>1305</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="L95" s="12">
         <v>44386</v>
@@ -9430,7 +9430,7 @@
       <c r="X95" s="2"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>409</v>
       </c>
@@ -9479,7 +9479,7 @@
       <c r="X96" s="2"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>411</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="X97" s="2"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>413</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="X98" s="2"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9598,7 +9598,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>413</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="X100" s="2"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>415</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="X101" s="2"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9716,7 +9716,7 @@
       <c r="X102" s="2"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>723</v>
       </c>
@@ -9756,7 +9756,7 @@
       <c r="X103" s="2"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>418</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="X104" s="2"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>421</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>723</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>10626</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>218</v>
@@ -9944,7 +9944,7 @@
         <v>455</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -9955,7 +9955,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>10547</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>218</v>
@@ -9999,7 +9999,7 @@
         <v>455</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -10010,7 +10010,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -10060,7 +10060,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -10071,13 +10071,13 @@
         <v>226</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E110" s="10">
         <v>114</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>218</v>
@@ -10086,10 +10086,10 @@
         <v>754</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>755</v>
@@ -10110,10 +10110,10 @@
         <v>455</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -10123,7 +10123,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>408</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>218</v>
@@ -10167,7 +10167,7 @@
         <v>455</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -10178,7 +10178,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10189,13 +10189,13 @@
         <v>291</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E112" s="10">
         <v>217664</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>218</v>
@@ -10231,7 +10231,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10242,13 +10242,13 @@
         <v>291</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E113" s="10">
         <v>41000</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>218</v>
@@ -10273,7 +10273,7 @@
         <v>324</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -10284,7 +10284,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>61173</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>218</v>
@@ -10329,7 +10329,7 @@
         <v>334</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -10340,7 +10340,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>60422</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>218</v>
@@ -10385,7 +10385,7 @@
         <v>334</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -10396,7 +10396,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1284</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>218</v>
@@ -10691,7 +10691,7 @@
         <v>334</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -10702,7 +10702,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>58072</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>218</v>
@@ -10747,7 +10747,7 @@
         <v>334</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -10758,7 +10758,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>57230</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>218</v>
@@ -10803,7 +10803,7 @@
         <v>334</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -10814,7 +10814,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>1633</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>218</v>
@@ -10859,7 +10859,7 @@
         <v>334</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -10870,7 +10870,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>425</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>427</v>
       </c>
@@ -10970,9 +10970,9 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>293</v>
@@ -10999,16 +10999,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="P127" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q127" s="6" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -11019,7 +11019,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>158</v>
       </c>
@@ -11069,7 +11069,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>158</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -11136,17 +11136,17 @@
         <v>113</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>765</v>
@@ -11179,7 +11179,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -11196,17 +11196,17 @@
         <v>113</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>765</v>
@@ -11239,7 +11239,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>1742</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>218</v>
@@ -11281,7 +11281,7 @@
         <v>334</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -11292,7 +11292,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>431</v>
       </c>
@@ -11392,7 +11392,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>218</v>
@@ -11434,7 +11434,7 @@
         <v>334</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -11445,7 +11445,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>16</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>99</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>218</v>
@@ -11471,10 +11471,10 @@
         <v>732</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>733</v>
@@ -11495,7 +11495,7 @@
         <v>324</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="S136" s="15"/>
       <c r="T136" s="2"/>
@@ -11506,7 +11506,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>16</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>99</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>218</v>
@@ -11532,10 +11532,10 @@
         <v>732</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>733</v>
@@ -11556,7 +11556,7 @@
         <v>324</v>
       </c>
       <c r="R137" s="15" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="S137" s="15"/>
       <c r="T137" s="2"/>
@@ -11567,7 +11567,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>431</v>
       </c>
@@ -11617,7 +11617,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>725</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>725</v>
       </c>
@@ -11715,7 +11715,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>38</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>69015</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>218</v>
@@ -11778,11 +11778,11 @@
         <v>334</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>69008</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>218</v>
@@ -11825,11 +11825,11 @@
         <v>334</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>57029</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>218</v>
@@ -11872,11 +11872,11 @@
         <v>334</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>56911</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>218</v>
@@ -11919,11 +11919,11 @@
         <v>334</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S145"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>194</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>218</v>
@@ -11966,11 +11966,11 @@
         <v>334</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S146"/>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>433</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="R147" s="2"/>
       <c r="S147"/>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>435</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="R148" s="2"/>
       <c r="S148"/>
     </row>
-    <row r="149" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
@@ -12076,10 +12076,10 @@
         <v>206</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>208</v>
@@ -12100,10 +12100,10 @@
         <v>324</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>437</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="R150" s="2"/>
       <c r="S150"/>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>439</v>
       </c>
@@ -12189,7 +12189,7 @@
       <c r="R151" s="2"/>
       <c r="S151"/>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>439</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="R152" s="2"/>
       <c r="S152"/>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>441</v>
       </c>
@@ -12275,7 +12275,7 @@
       <c r="R153" s="2"/>
       <c r="S153"/>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>441</v>
       </c>
@@ -12317,7 +12317,7 @@
       <c r="R154"/>
       <c r="S154"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>443</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="R155"/>
       <c r="S155"/>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>443</v>
       </c>
@@ -12401,7 +12401,7 @@
       <c r="R156"/>
       <c r="S156"/>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>445</v>
       </c>
@@ -12443,7 +12443,7 @@
       <c r="R157"/>
       <c r="S157"/>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>445</v>
       </c>
@@ -12485,7 +12485,7 @@
       <c r="R158"/>
       <c r="S158"/>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>447</v>
       </c>
@@ -12527,7 +12527,7 @@
       <c r="R159"/>
       <c r="S159"/>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>449</v>
       </c>
@@ -12569,7 +12569,7 @@
       <c r="R160"/>
       <c r="S160"/>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>451</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="R161"/>
       <c r="S161"/>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>451</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="R162"/>
       <c r="S162"/>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>453</v>
       </c>
@@ -12695,7 +12695,7 @@
       <c r="R163"/>
       <c r="S163"/>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>456</v>
       </c>
@@ -12737,9 +12737,9 @@
       <c r="R164"/>
       <c r="S164"/>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>293</v>
@@ -12766,20 +12766,20 @@
         <v>0</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="P165" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="R165" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S165"/>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>458</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="R166"/>
       <c r="S166"/>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>458</v>
       </c>
@@ -12863,7 +12863,7 @@
       <c r="R167"/>
       <c r="S167"/>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>318</v>
       </c>
@@ -12905,7 +12905,7 @@
       <c r="R168"/>
       <c r="S168"/>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>318</v>
       </c>
@@ -12947,7 +12947,7 @@
       <c r="R169"/>
       <c r="S169"/>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>318</v>
       </c>
@@ -12989,7 +12989,7 @@
       <c r="R170"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="R171"/>
       <c r="S171"/>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>318</v>
       </c>
@@ -13044,7 +13044,7 @@
       <c r="R172"/>
       <c r="S172"/>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>48</v>
       </c>
@@ -13086,7 +13086,7 @@
       <c r="R173"/>
       <c r="S173"/>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>48</v>
       </c>
@@ -13128,7 +13128,7 @@
       <c r="R174"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -13141,7 +13141,7 @@
       <c r="R175"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -13154,7 +13154,7 @@
       <c r="R176"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -13167,7 +13167,7 @@
       <c r="R177"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -13180,7 +13180,7 @@
       <c r="R178"/>
       <c r="S178"/>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>315</v>
       </c>
@@ -13215,7 +13215,7 @@
       <c r="R179"/>
       <c r="S179"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>169</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>218</v>
@@ -13241,10 +13241,10 @@
         <v>739</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="K180" s="9" t="s">
         <v>740</v>
@@ -13264,7 +13264,7 @@
       <c r="R180" s="2"/>
       <c r="S180"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>48</v>
       </c>
@@ -13275,13 +13275,13 @@
         <v>226</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E181" s="10">
         <v>90</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>218</v>
@@ -13290,10 +13290,10 @@
         <v>751</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="K181" s="9" t="s">
         <v>750</v>
@@ -13313,7 +13313,7 @@
       <c r="R181"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>11296</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>218</v>
@@ -13356,11 +13356,11 @@
         <v>460</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S182"/>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>461</v>
       </c>
@@ -13402,7 +13402,7 @@
       <c r="R183"/>
       <c r="S183"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>463</v>
       </c>
@@ -13444,7 +13444,7 @@
       <c r="R184"/>
       <c r="S184"/>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>297</v>
       </c>
@@ -13486,7 +13486,7 @@
       <c r="R185"/>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>10812</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>218</v>
@@ -13529,11 +13529,11 @@
         <v>460</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S186"/>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>297</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="R187"/>
       <c r="S187"/>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>465</v>
       </c>
@@ -13617,7 +13617,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>50</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>9563</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>218</v>
@@ -13660,11 +13660,11 @@
         <v>460</v>
       </c>
       <c r="R189" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S189"/>
     </row>
-    <row r="190" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>50</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>129</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>218</v>
@@ -13690,10 +13690,10 @@
         <v>745</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="K190" s="9" t="s">
         <v>741</v>
@@ -13711,10 +13711,10 @@
         <v>324</v>
       </c>
       <c r="R190" s="15" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>315</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="R191"/>
       <c r="S191"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>315</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="R192"/>
       <c r="S192"/>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>315</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="R193"/>
       <c r="S193"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13859,7 +13859,7 @@
       <c r="R194"/>
       <c r="S194"/>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>315</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="R195"/>
       <c r="S195"/>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>467</v>
       </c>
@@ -13944,7 +13944,7 @@
       <c r="R196"/>
       <c r="S196"/>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>469</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="R197"/>
       <c r="S197"/>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>300</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="R198"/>
       <c r="S198"/>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>469</v>
       </c>
@@ -14066,7 +14066,7 @@
       <c r="R199"/>
       <c r="S199"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>471</v>
       </c>
@@ -14107,7 +14107,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>54</v>
       </c>
@@ -14120,7 +14120,7 @@
       <c r="R201"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="R202"/>
       <c r="S202"/>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>317</v>
       </c>
@@ -14175,7 +14175,7 @@
       <c r="R203"/>
       <c r="S203"/>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>317</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="R204"/>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1555</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>218</v>
@@ -14260,11 +14260,11 @@
         <v>334</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S205"/>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>317</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>60</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>2637</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>218</v>
@@ -14349,11 +14349,11 @@
         <v>334</v>
       </c>
       <c r="R207" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S207"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>60</v>
       </c>
@@ -14364,13 +14364,13 @@
         <v>226</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E208" s="10">
         <v>139</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>218</v>
@@ -14399,7 +14399,7 @@
       <c r="R208"/>
       <c r="S208"/>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>300</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="R209"/>
       <c r="S209"/>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>300</v>
       </c>
@@ -14483,7 +14483,7 @@
       <c r="R210"/>
       <c r="S210"/>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>300</v>
       </c>
@@ -14525,7 +14525,7 @@
       <c r="R211"/>
       <c r="S211"/>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>473</v>
       </c>
@@ -14567,7 +14567,7 @@
       <c r="R212"/>
       <c r="S212"/>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>475</v>
       </c>
@@ -14609,7 +14609,7 @@
       <c r="R213"/>
       <c r="S213"/>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>477</v>
       </c>
@@ -14651,7 +14651,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>140</v>
       </c>
@@ -14664,7 +14664,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>19930</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>218</v>
@@ -14707,11 +14707,11 @@
         <v>480</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>19689</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>218</v>
@@ -14754,11 +14754,11 @@
         <v>480</v>
       </c>
       <c r="R217" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>5268</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>218</v>
@@ -14801,11 +14801,11 @@
         <v>481</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>4765</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>218</v>
@@ -14848,11 +14848,11 @@
         <v>481</v>
       </c>
       <c r="R219" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>126</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>226</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>218</v>
@@ -14872,10 +14872,10 @@
         <v>206</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="K220" s="13" t="s">
         <v>208</v>
@@ -14896,10 +14896,10 @@
         <v>324</v>
       </c>
       <c r="R220" s="15" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>62</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>173</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>218</v>
@@ -14942,11 +14942,11 @@
         <v>334</v>
       </c>
       <c r="R221" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>122</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>100</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G222" s="9" t="s">
         <v>218</v>
@@ -14987,11 +14987,11 @@
         <v>123</v>
       </c>
       <c r="R222" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S222"/>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>482</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="R223"/>
       <c r="S223"/>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>482</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>15124</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>218</v>
@@ -15118,11 +15118,11 @@
         <v>121</v>
       </c>
       <c r="R225" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>15123</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>218</v>
@@ -15165,11 +15165,11 @@
         <v>121</v>
       </c>
       <c r="R226" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S226"/>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>484</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="R227"/>
       <c r="S227"/>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>484</v>
       </c>
@@ -15253,7 +15253,7 @@
       <c r="R228"/>
       <c r="S228"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>120</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>107</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>218</v>
@@ -15279,10 +15279,10 @@
         <v>737</v>
       </c>
       <c r="I229" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="K229" s="9" t="s">
         <v>738</v>
@@ -15302,7 +15302,7 @@
       <c r="R229" s="2"/>
       <c r="S229"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>107</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>218</v>
@@ -15328,10 +15328,10 @@
         <v>737</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="K230" s="9" t="s">
         <v>738</v>
@@ -15351,7 +15351,7 @@
       <c r="R230" s="2"/>
       <c r="S230"/>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>486</v>
       </c>
@@ -15393,7 +15393,7 @@
       <c r="R231"/>
       <c r="S231"/>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>488</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="R232"/>
       <c r="S232"/>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>301</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="R233"/>
       <c r="S233"/>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>301</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="R234"/>
       <c r="S234"/>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>491</v>
       </c>
@@ -15561,7 +15561,7 @@
       <c r="R235"/>
       <c r="S235"/>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>493</v>
       </c>
@@ -15603,7 +15603,7 @@
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>186</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="R237"/>
       <c r="S237"/>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>495</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>76</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="R239"/>
       <c r="S239"/>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>497</v>
       </c>
@@ -15713,7 +15713,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>44</v>
       </c>
@@ -15726,7 +15726,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -15739,7 +15739,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>188</v>
       </c>
@@ -15752,7 +15752,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15763,13 +15763,13 @@
         <v>291</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E244" s="10">
         <v>10000</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>218</v>
@@ -15790,11 +15790,11 @@
         <v>324</v>
       </c>
       <c r="R244" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>72</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>16402</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>218</v>
@@ -15837,11 +15837,11 @@
         <v>479</v>
       </c>
       <c r="R245" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S245"/>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>499</v>
       </c>
@@ -15883,9 +15883,9 @@
       <c r="R246"/>
       <c r="S246"/>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>293</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="P247" s="9" t="s">
         <v>323</v>
@@ -15921,11 +15921,11 @@
         <v>334</v>
       </c>
       <c r="R247" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>14141</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>218</v>
@@ -15968,11 +15968,11 @@
         <v>479</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S248"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>72</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>226</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>218</v>
@@ -16012,7 +16012,7 @@
       <c r="R249"/>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -16023,13 +16023,13 @@
         <v>226</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E250" s="10">
         <v>64</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>218</v>
@@ -16038,10 +16038,10 @@
         <v>748</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="K250" s="13" t="s">
         <v>747</v>
@@ -16061,7 +16061,7 @@
       <c r="R250"/>
       <c r="S250"/>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>501</v>
       </c>
@@ -16103,7 +16103,7 @@
       <c r="R251"/>
       <c r="S251"/>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>503</v>
       </c>
@@ -16145,7 +16145,7 @@
       <c r="R252"/>
       <c r="S252"/>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>505</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="R253"/>
       <c r="S253"/>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>507</v>
       </c>
@@ -16232,7 +16232,7 @@
       <c r="R254"/>
       <c r="S254"/>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>507</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>78</v>
       </c>
@@ -16290,7 +16290,7 @@
       <c r="R256"/>
       <c r="S256"/>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>507</v>
       </c>
@@ -16335,7 +16335,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>64</v>
       </c>
@@ -16348,7 +16348,7 @@
       <c r="R258"/>
       <c r="S258"/>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>507</v>
       </c>
@@ -16393,7 +16393,7 @@
       <c r="R259"/>
       <c r="S259"/>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>507</v>
       </c>
@@ -16438,7 +16438,7 @@
       <c r="R260"/>
       <c r="S260"/>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>507</v>
       </c>
@@ -16483,7 +16483,7 @@
       <c r="R261"/>
       <c r="S261"/>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>302</v>
       </c>
@@ -16517,7 +16517,7 @@
       <c r="R262"/>
       <c r="S262"/>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>302</v>
       </c>
@@ -16559,7 +16559,7 @@
       <c r="R263"/>
       <c r="S263"/>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>302</v>
       </c>
@@ -16601,7 +16601,7 @@
       <c r="R264"/>
       <c r="S264"/>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>511</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="R265"/>
       <c r="S265"/>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>513</v>
       </c>
@@ -16685,7 +16685,7 @@
       <c r="R266"/>
       <c r="S266"/>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>515</v>
       </c>
@@ -16727,7 +16727,7 @@
       <c r="R267"/>
       <c r="S267"/>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>517</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="R268"/>
       <c r="S268"/>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>517</v>
       </c>
@@ -16811,7 +16811,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>82</v>
       </c>
@@ -16824,7 +16824,7 @@
       <c r="R270"/>
       <c r="S270"/>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>519</v>
       </c>
@@ -16866,7 +16866,7 @@
       <c r="R271"/>
       <c r="S271"/>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>521</v>
       </c>
@@ -16908,7 +16908,7 @@
       <c r="R272"/>
       <c r="S272"/>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>523</v>
       </c>
@@ -16950,7 +16950,7 @@
       <c r="R273"/>
       <c r="S273"/>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>525</v>
       </c>
@@ -16992,7 +16992,7 @@
       <c r="R274"/>
       <c r="S274"/>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>527</v>
       </c>
@@ -17034,7 +17034,7 @@
       <c r="R275"/>
       <c r="S275"/>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>529</v>
       </c>
@@ -17076,7 +17076,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>86</v>
       </c>
@@ -17089,7 +17089,7 @@
       <c r="R277"/>
       <c r="S277"/>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>529</v>
       </c>
@@ -17131,7 +17131,7 @@
       <c r="R278"/>
       <c r="S278"/>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>531</v>
       </c>
@@ -17173,7 +17173,7 @@
       <c r="R279"/>
       <c r="S279"/>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>534</v>
       </c>
@@ -17215,7 +17215,7 @@
       <c r="R280"/>
       <c r="S280"/>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>534</v>
       </c>
@@ -17257,7 +17257,7 @@
       <c r="R281"/>
       <c r="S281"/>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>536</v>
       </c>
@@ -17299,7 +17299,7 @@
       <c r="R282"/>
       <c r="S282"/>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>538</v>
       </c>
@@ -17341,7 +17341,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>80</v>
       </c>
@@ -17354,7 +17354,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>90</v>
       </c>
@@ -17367,7 +17367,7 @@
       <c r="R285"/>
       <c r="S285"/>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>540</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="R286"/>
       <c r="S286"/>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>540</v>
       </c>
@@ -17451,7 +17451,7 @@
       <c r="R287"/>
       <c r="S287"/>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>543</v>
       </c>
@@ -17493,7 +17493,7 @@
       <c r="R288"/>
       <c r="S288"/>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>545</v>
       </c>
@@ -17535,7 +17535,7 @@
       <c r="R289"/>
       <c r="S289"/>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>547</v>
       </c>
@@ -17577,7 +17577,7 @@
       <c r="R290"/>
       <c r="S290"/>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>549</v>
       </c>
@@ -17619,7 +17619,7 @@
       <c r="R291"/>
       <c r="S291"/>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>549</v>
       </c>
@@ -17661,7 +17661,7 @@
       <c r="R292"/>
       <c r="S292"/>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>727</v>
       </c>
@@ -17703,7 +17703,7 @@
       <c r="R293"/>
       <c r="S293"/>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>551</v>
       </c>
@@ -17745,7 +17745,7 @@
       <c r="R294"/>
       <c r="S294"/>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>319</v>
       </c>
@@ -17782,7 +17782,7 @@
       <c r="R295"/>
       <c r="S295"/>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>319</v>
       </c>
@@ -17824,7 +17824,7 @@
       <c r="R296"/>
       <c r="S296"/>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -17866,7 +17866,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>84</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="R298"/>
       <c r="S298"/>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>553</v>
       </c>
@@ -17921,7 +17921,7 @@
       <c r="R299"/>
       <c r="S299"/>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>556</v>
       </c>
@@ -17963,7 +17963,7 @@
       <c r="R300"/>
       <c r="S300"/>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>558</v>
       </c>
@@ -18005,7 +18005,7 @@
       <c r="R301"/>
       <c r="S301"/>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>558</v>
       </c>
@@ -18047,7 +18047,7 @@
       <c r="R302"/>
       <c r="S302"/>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>726</v>
       </c>
@@ -18089,7 +18089,7 @@
       <c r="R303"/>
       <c r="S303"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>150</v>
       </c>
@@ -18102,7 +18102,7 @@
       <c r="R304"/>
       <c r="S304"/>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>726</v>
       </c>
@@ -18144,7 +18144,7 @@
       <c r="R305"/>
       <c r="S305"/>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>726</v>
       </c>
@@ -18186,7 +18186,7 @@
       <c r="R306"/>
       <c r="S306"/>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>726</v>
       </c>
@@ -18228,7 +18228,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>100</v>
       </c>
@@ -18241,7 +18241,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>98</v>
       </c>
@@ -18254,7 +18254,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>108</v>
       </c>
@@ -18267,7 +18267,7 @@
       <c r="R310"/>
       <c r="S310"/>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>559</v>
       </c>
@@ -18309,7 +18309,7 @@
       <c r="R311"/>
       <c r="S311"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>104</v>
       </c>
@@ -18322,7 +18322,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>4636</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>218</v>
@@ -18365,11 +18365,11 @@
         <v>385</v>
       </c>
       <c r="R313" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S313"/>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>561</v>
       </c>
@@ -18414,7 +18414,7 @@
       <c r="R314"/>
       <c r="S314"/>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>564</v>
       </c>
@@ -18456,7 +18456,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>4631</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>218</v>
@@ -18499,11 +18499,11 @@
         <v>385</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S316"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>124</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>226</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G317" s="9" t="s">
         <v>218</v>
@@ -18540,7 +18540,7 @@
       <c r="R317" s="2"/>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -18551,13 +18551,13 @@
         <v>226</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E318" s="10">
         <v>42</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>218</v>
@@ -18566,10 +18566,10 @@
         <v>735</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="J318" s="9" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="K318" s="13" t="s">
         <v>736</v>
@@ -18587,10 +18587,10 @@
         <v>324</v>
       </c>
       <c r="R318" s="15" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>566</v>
       </c>
@@ -18632,7 +18632,7 @@
       <c r="R319"/>
       <c r="S319"/>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>568</v>
       </c>
@@ -18674,7 +18674,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>94</v>
       </c>
@@ -18687,7 +18687,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>134</v>
       </c>
@@ -18700,7 +18700,7 @@
       <c r="R322"/>
       <c r="S322"/>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>316</v>
       </c>
@@ -18737,7 +18737,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>192</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="R324"/>
       <c r="S324"/>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>568</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="R325"/>
       <c r="S325"/>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>570</v>
       </c>
@@ -18834,7 +18834,7 @@
       <c r="R326"/>
       <c r="S326"/>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>572</v>
       </c>
@@ -18876,7 +18876,7 @@
       <c r="R327"/>
       <c r="S327"/>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>572</v>
       </c>
@@ -18918,7 +18918,7 @@
       <c r="R328"/>
       <c r="S328"/>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>574</v>
       </c>
@@ -18960,7 +18960,7 @@
       <c r="R329"/>
       <c r="S329"/>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>576</v>
       </c>
@@ -19002,9 +19002,9 @@
       <c r="R330"/>
       <c r="S330"/>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>293</v>
@@ -19031,10 +19031,10 @@
         <v>0</v>
       </c>
       <c r="N331" s="6" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="O331" s="6" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="P331" s="9" t="s">
         <v>323</v>
@@ -19043,11 +19043,11 @@
         <v>334</v>
       </c>
       <c r="R331" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S331"/>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>578</v>
       </c>
@@ -19089,7 +19089,7 @@
       <c r="R332"/>
       <c r="S332"/>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>316</v>
       </c>
@@ -19131,7 +19131,7 @@
       <c r="R333"/>
       <c r="S333"/>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>316</v>
       </c>
@@ -19173,7 +19173,7 @@
       <c r="R334"/>
       <c r="S334"/>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>316</v>
       </c>
@@ -19215,7 +19215,7 @@
       <c r="R335"/>
       <c r="S335"/>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>580</v>
       </c>
@@ -19257,7 +19257,7 @@
       <c r="R336"/>
       <c r="S336"/>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>582</v>
       </c>
@@ -19299,7 +19299,7 @@
       <c r="R337"/>
       <c r="S337"/>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>582</v>
       </c>
@@ -19341,7 +19341,7 @@
       <c r="R338"/>
       <c r="S338"/>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>584</v>
       </c>
@@ -19383,7 +19383,7 @@
       <c r="R339"/>
       <c r="S339"/>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>584</v>
       </c>
@@ -19425,7 +19425,7 @@
       <c r="R340"/>
       <c r="S340"/>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>584</v>
       </c>
@@ -19467,7 +19467,7 @@
       <c r="R341"/>
       <c r="S341"/>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>586</v>
       </c>
@@ -19509,7 +19509,7 @@
       <c r="R342"/>
       <c r="S342"/>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>588</v>
       </c>
@@ -19551,7 +19551,7 @@
       <c r="R343"/>
       <c r="S343"/>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>589</v>
       </c>
@@ -19593,7 +19593,7 @@
       <c r="R344"/>
       <c r="S344"/>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>591</v>
       </c>
@@ -19635,7 +19635,7 @@
       <c r="R345"/>
       <c r="S345"/>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>593</v>
       </c>
@@ -19677,7 +19677,7 @@
       <c r="R346"/>
       <c r="S346"/>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>593</v>
       </c>
@@ -19719,7 +19719,7 @@
       <c r="R347"/>
       <c r="S347"/>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>595</v>
       </c>
@@ -19761,7 +19761,7 @@
       <c r="R348"/>
       <c r="S348"/>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>597</v>
       </c>
@@ -19803,7 +19803,7 @@
       <c r="R349"/>
       <c r="S349"/>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>599</v>
       </c>
@@ -19845,7 +19845,7 @@
       <c r="R350"/>
       <c r="S350"/>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>601</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="R351"/>
       <c r="S351"/>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>603</v>
       </c>
@@ -19929,7 +19929,7 @@
       <c r="R352"/>
       <c r="S352"/>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>605</v>
       </c>
@@ -19971,7 +19971,7 @@
       <c r="R353"/>
       <c r="S353"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>114</v>
       </c>
@@ -19984,7 +19984,7 @@
       <c r="R354"/>
       <c r="S354"/>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>607</v>
       </c>
@@ -20026,7 +20026,7 @@
       <c r="R355"/>
       <c r="S355"/>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>609</v>
       </c>
@@ -20068,7 +20068,7 @@
       <c r="R356"/>
       <c r="S356"/>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>611</v>
       </c>
@@ -20110,7 +20110,7 @@
       <c r="R357"/>
       <c r="S357"/>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>613</v>
       </c>
@@ -20152,7 +20152,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>128</v>
       </c>
@@ -20165,7 +20165,7 @@
       <c r="R359"/>
       <c r="S359"/>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>616</v>
       </c>
@@ -20207,7 +20207,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>110</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="R361"/>
       <c r="S361"/>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>618</v>
       </c>
@@ -20262,7 +20262,7 @@
       <c r="R362"/>
       <c r="S362"/>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>620</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="R363"/>
       <c r="S363"/>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>622</v>
       </c>
@@ -20346,7 +20346,7 @@
       <c r="R364"/>
       <c r="S364"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>182</v>
       </c>
@@ -20359,7 +20359,7 @@
       <c r="R365"/>
       <c r="S365"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>184</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>226</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G366" s="9" t="s">
         <v>218</v>
@@ -20399,7 +20399,7 @@
       <c r="R366"/>
       <c r="S366"/>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>623</v>
       </c>
@@ -20444,7 +20444,7 @@
       <c r="R367"/>
       <c r="S367"/>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>313</v>
       </c>
@@ -20481,7 +20481,7 @@
       <c r="R368"/>
       <c r="S368"/>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>623</v>
       </c>
@@ -20526,7 +20526,7 @@
       <c r="R369"/>
       <c r="S369"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>184</v>
       </c>
@@ -20537,13 +20537,13 @@
         <v>226</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E370" s="10">
         <v>91</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>218</v>
@@ -20552,10 +20552,10 @@
         <v>761</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="J370" s="9" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="K370" s="9" t="s">
         <v>760</v>
@@ -20575,7 +20575,7 @@
       <c r="R370"/>
       <c r="S370"/>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>623</v>
       </c>
@@ -20620,7 +20620,7 @@
       <c r="R371"/>
       <c r="S371"/>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>623</v>
       </c>
@@ -20665,7 +20665,7 @@
       <c r="R372"/>
       <c r="S372"/>
     </row>
-    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>623</v>
       </c>
@@ -20710,7 +20710,7 @@
       <c r="R373"/>
       <c r="S373"/>
     </row>
-    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>623</v>
       </c>
@@ -20755,7 +20755,7 @@
       <c r="R374"/>
       <c r="S374"/>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>627</v>
       </c>
@@ -20797,7 +20797,7 @@
       <c r="R375"/>
       <c r="S375"/>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>629</v>
       </c>
@@ -20839,7 +20839,7 @@
       <c r="R376"/>
       <c r="S376"/>
     </row>
-    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>631</v>
       </c>
@@ -20881,9 +20881,9 @@
       <c r="R377"/>
       <c r="S377"/>
     </row>
-    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>293</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="O378" s="6" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="P378" s="9" t="s">
         <v>323</v>
@@ -20919,11 +20919,11 @@
         <v>334</v>
       </c>
       <c r="R378" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S378"/>
     </row>
-    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>313</v>
       </c>
@@ -20965,7 +20965,7 @@
       <c r="R379"/>
       <c r="S379"/>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>313</v>
       </c>
@@ -21007,7 +21007,7 @@
       <c r="R380"/>
       <c r="S380"/>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>313</v>
       </c>
@@ -21049,7 +21049,7 @@
       <c r="R381"/>
       <c r="S381"/>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>634</v>
       </c>
@@ -21091,7 +21091,7 @@
       <c r="R382"/>
       <c r="S382"/>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>311</v>
       </c>
@@ -21128,7 +21128,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>138</v>
       </c>
@@ -21141,7 +21141,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>130</v>
       </c>
@@ -21155,7 +21155,7 @@
       <c r="R385"/>
       <c r="S385"/>
     </row>
-    <row r="386" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>56</v>
       </c>
@@ -21163,20 +21163,20 @@
         <v>226</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E386" s="10">
         <v>87</v>
       </c>
       <c r="F386" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G386" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H386" s="8"/>
       <c r="J386" s="9" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="L386" s="12">
         <v>44490</v>
@@ -21191,11 +21191,11 @@
         <v>324</v>
       </c>
       <c r="R386" s="15" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>22</v>
       </c>
@@ -21209,7 +21209,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>144</v>
       </c>
@@ -21223,7 +21223,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>142</v>
       </c>
@@ -21237,7 +21237,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>146</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>402586</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>218</v>
@@ -21279,11 +21279,11 @@
         <v>341</v>
       </c>
       <c r="R390" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S390"/>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>636</v>
       </c>
@@ -21325,7 +21325,7 @@
       <c r="R391"/>
       <c r="S391"/>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>638</v>
       </c>
@@ -21367,7 +21367,7 @@
       <c r="R392"/>
       <c r="S392"/>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>638</v>
       </c>
@@ -21409,7 +21409,7 @@
       <c r="R393"/>
       <c r="S393"/>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>640</v>
       </c>
@@ -21451,7 +21451,7 @@
       <c r="R394"/>
       <c r="S394"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>146</v>
       </c>
@@ -21462,20 +21462,20 @@
         <v>226</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E395" s="10">
         <v>93</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>218</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="9" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="K395" s="6"/>
       <c r="L395" s="12"/>
@@ -21490,11 +21490,11 @@
         <v>341</v>
       </c>
       <c r="R395" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S395"/>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>642</v>
       </c>
@@ -21536,7 +21536,7 @@
       <c r="R396"/>
       <c r="S396"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>146</v>
       </c>
@@ -21573,7 +21573,7 @@
       <c r="R397"/>
       <c r="S397"/>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>642</v>
       </c>
@@ -21615,7 +21615,7 @@
       <c r="R398"/>
       <c r="S398"/>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>644</v>
       </c>
@@ -21657,7 +21657,7 @@
       <c r="R399"/>
       <c r="S399"/>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>644</v>
       </c>
@@ -21699,7 +21699,7 @@
       <c r="R400"/>
       <c r="S400"/>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>646</v>
       </c>
@@ -21741,7 +21741,7 @@
       <c r="R401"/>
       <c r="S401"/>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>311</v>
       </c>
@@ -21782,7 +21782,7 @@
       <c r="R402"/>
       <c r="S402"/>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>648</v>
       </c>
@@ -21823,7 +21823,7 @@
       <c r="R403"/>
       <c r="S403"/>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>724</v>
       </c>
@@ -21864,7 +21864,7 @@
       <c r="R404"/>
       <c r="S404"/>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>724</v>
       </c>
@@ -21905,7 +21905,7 @@
       <c r="R405"/>
       <c r="S405"/>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>303</v>
       </c>
@@ -21940,7 +21940,7 @@
       <c r="R406"/>
       <c r="S406"/>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>303</v>
       </c>
@@ -21981,7 +21981,7 @@
       <c r="R407"/>
       <c r="S407"/>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>303</v>
       </c>
@@ -22022,7 +22022,7 @@
       <c r="R408"/>
       <c r="S408"/>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>651</v>
       </c>
@@ -22063,7 +22063,7 @@
       <c r="R409"/>
       <c r="S409"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -22077,7 +22077,7 @@
       <c r="R410"/>
       <c r="S410"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -22091,7 +22091,7 @@
       <c r="R411"/>
       <c r="S411"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>74</v>
       </c>
@@ -22105,7 +22105,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>60805</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>218</v>
@@ -22151,11 +22151,11 @@
         <v>334</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>60677</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>218</v>
@@ -22201,11 +22201,11 @@
         <v>334</v>
       </c>
       <c r="R414" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -22222,7 +22222,7 @@
         <v>52190</v>
       </c>
       <c r="F415" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G415" s="6" t="s">
         <v>218</v>
@@ -22251,11 +22251,11 @@
         <v>334</v>
       </c>
       <c r="R415" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>48718</v>
       </c>
       <c r="F416" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G416" s="6" t="s">
         <v>218</v>
@@ -22301,11 +22301,11 @@
         <v>334</v>
       </c>
       <c r="R416" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>48649</v>
       </c>
       <c r="F417" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G417" s="6" t="s">
         <v>218</v>
@@ -22351,11 +22351,11 @@
         <v>334</v>
       </c>
       <c r="R417" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S417"/>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>721</v>
       </c>
@@ -22396,7 +22396,7 @@
       <c r="R418"/>
       <c r="S418"/>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>721</v>
       </c>
@@ -22437,7 +22437,7 @@
       <c r="R419"/>
       <c r="S419"/>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>655</v>
       </c>
@@ -22478,7 +22478,7 @@
       <c r="R420"/>
       <c r="S420"/>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>657</v>
       </c>
@@ -22519,7 +22519,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>41854</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G422" s="6" t="s">
         <v>218</v>
@@ -22565,11 +22565,11 @@
         <v>334</v>
       </c>
       <c r="R422" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S422"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -22609,7 +22609,7 @@
       <c r="R423"/>
       <c r="S423"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>97</v>
       </c>
       <c r="F424" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G424" s="9" t="s">
         <v>218</v>
@@ -22635,10 +22635,10 @@
         <v>757</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="J424" s="9" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="K424" s="13" t="s">
         <v>756</v>
@@ -22661,7 +22661,7 @@
       <c r="R424"/>
       <c r="S424"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>154</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>97</v>
       </c>
       <c r="F425" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G425" s="9" t="s">
         <v>218</v>
@@ -22687,10 +22687,10 @@
         <v>757</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="J425" s="9" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K425" s="13" t="s">
         <v>756</v>
@@ -22713,7 +22713,7 @@
       <c r="R425"/>
       <c r="S425"/>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>659</v>
       </c>
@@ -22754,7 +22754,7 @@
       <c r="R426"/>
       <c r="S426"/>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>661</v>
       </c>
@@ -22795,7 +22795,7 @@
       <c r="R427"/>
       <c r="S427"/>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>661</v>
       </c>
@@ -22836,7 +22836,7 @@
       <c r="R428"/>
       <c r="S428"/>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>662</v>
       </c>
@@ -22877,7 +22877,7 @@
       <c r="R429"/>
       <c r="S429"/>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>665</v>
       </c>
@@ -22918,7 +22918,7 @@
       <c r="R430"/>
       <c r="S430"/>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>668</v>
       </c>
@@ -22960,7 +22960,7 @@
       <c r="R431"/>
       <c r="S431"/>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>668</v>
       </c>
@@ -23002,7 +23002,7 @@
       <c r="R432"/>
       <c r="S432"/>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
         <v>669</v>
       </c>
@@ -23044,7 +23044,7 @@
       <c r="R433"/>
       <c r="S433"/>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
         <v>669</v>
       </c>
@@ -23086,7 +23086,7 @@
       <c r="R434"/>
       <c r="S434"/>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
         <v>671</v>
       </c>
@@ -23128,7 +23128,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>162</v>
       </c>
@@ -23141,7 +23141,7 @@
       <c r="R436"/>
       <c r="S436"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
         <v>164</v>
       </c>
@@ -23152,7 +23152,7 @@
         <v>226</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G437" s="9" t="s">
         <v>218</v>
@@ -23181,7 +23181,7 @@
       <c r="R437"/>
       <c r="S437"/>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
         <v>176</v>
       </c>
@@ -23218,7 +23218,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>166</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>3321</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G439" s="6" t="s">
         <v>218</v>
@@ -23261,11 +23261,11 @@
         <v>334</v>
       </c>
       <c r="R439" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>166</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>1915</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G440" s="6" t="s">
         <v>218</v>
@@ -23308,11 +23308,11 @@
         <v>334</v>
       </c>
       <c r="R440" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S440"/>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>673</v>
       </c>
@@ -23354,7 +23354,7 @@
       <c r="R441"/>
       <c r="S441"/>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
         <v>674</v>
       </c>
@@ -23396,7 +23396,7 @@
       <c r="R442"/>
       <c r="S442"/>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
         <v>676</v>
       </c>
@@ -23438,7 +23438,7 @@
       <c r="R443"/>
       <c r="S443"/>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
         <v>678</v>
       </c>
@@ -23480,7 +23480,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>15050</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G445" s="6" t="s">
         <v>218</v>
@@ -23523,11 +23523,11 @@
         <v>171</v>
       </c>
       <c r="R445" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S445"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>170</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>226</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G446" s="9" t="s">
         <v>218</v>
@@ -23567,7 +23567,7 @@
       <c r="R446"/>
       <c r="S446"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>170</v>
       </c>
@@ -23578,13 +23578,13 @@
         <v>226</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E447" s="10">
         <v>21</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G447" s="9" t="s">
         <v>218</v>
@@ -23593,10 +23593,10 @@
         <v>749</v>
       </c>
       <c r="I447" s="9" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="J447" s="9" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="K447" s="9" t="s">
         <v>746</v>
@@ -23616,7 +23616,7 @@
       <c r="R447"/>
       <c r="S447"/>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>680</v>
       </c>
@@ -23658,7 +23658,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>172</v>
       </c>
@@ -23671,7 +23671,7 @@
       <c r="R449"/>
       <c r="S449"/>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>682</v>
       </c>
@@ -23713,7 +23713,7 @@
       <c r="R450"/>
       <c r="S450"/>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>24</v>
       </c>
@@ -23755,7 +23755,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>168</v>
       </c>
@@ -23768,7 +23768,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>1789</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G453" s="6" t="s">
         <v>218</v>
@@ -23811,11 +23811,11 @@
         <v>334</v>
       </c>
       <c r="R453" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S453"/>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>24</v>
       </c>
@@ -23857,7 +23857,7 @@
       <c r="R454"/>
       <c r="S454"/>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>686</v>
       </c>
@@ -23899,7 +23899,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>2043</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G456" s="6" t="s">
         <v>218</v>
@@ -23942,11 +23942,11 @@
         <v>334</v>
       </c>
       <c r="R456" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S456"/>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>688</v>
       </c>
@@ -23988,7 +23988,7 @@
       <c r="R457"/>
       <c r="S457"/>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>690</v>
       </c>
@@ -24030,7 +24030,7 @@
       <c r="R458"/>
       <c r="S458"/>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>310</v>
       </c>
@@ -24064,9 +24064,9 @@
       <c r="R459"/>
       <c r="S459"/>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>293</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="O460" s="6" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="P460" s="9" t="s">
         <v>323</v>
@@ -24102,11 +24102,11 @@
         <v>171</v>
       </c>
       <c r="R460" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>118</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>1812</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G461" s="6" t="s">
         <v>218</v>
@@ -24149,13 +24149,13 @@
         <v>334</v>
       </c>
       <c r="R461" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S461"/>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>293</v>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="O462" s="6" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="P462" s="9" t="s">
         <v>323</v>
@@ -24191,11 +24191,11 @@
         <v>171</v>
       </c>
       <c r="R462" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S462"/>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B463" s="9" t="s">
         <v>207</v>
       </c>
@@ -24229,7 +24229,7 @@
       <c r="R463"/>
       <c r="S463"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>118</v>
       </c>
@@ -24269,7 +24269,7 @@
       <c r="R464"/>
       <c r="S464"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>118</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>65</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G465" s="9" t="s">
         <v>218</v>
@@ -24295,10 +24295,10 @@
         <v>759</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="J465" s="9" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="K465" s="13" t="s">
         <v>758</v>
@@ -24321,7 +24321,7 @@
       <c r="R465"/>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>24</v>
       </c>
@@ -24335,7 +24335,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>15240</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G467" s="6" t="s">
         <v>218</v>
@@ -24380,11 +24380,11 @@
         <v>334</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S467"/>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="9" t="s">
         <v>207</v>
       </c>
@@ -24415,7 +24415,7 @@
       <c r="R468"/>
       <c r="S468"/>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B469" s="9" t="s">
         <v>207</v>
       </c>
@@ -24452,7 +24452,7 @@
       <c r="R469"/>
       <c r="S469"/>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B470" s="9" t="s">
         <v>207</v>
       </c>
@@ -24483,7 +24483,7 @@
       <c r="R470"/>
       <c r="S470"/>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B471" s="9" t="s">
         <v>207</v>
       </c>
@@ -24514,7 +24514,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>15240</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G472" s="6" t="s">
         <v>218</v>
@@ -24559,11 +24559,11 @@
         <v>334</v>
       </c>
       <c r="R472" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S472"/>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473" s="9" t="s">
         <v>207</v>
       </c>
@@ -24597,7 +24597,7 @@
       <c r="R473"/>
       <c r="S473"/>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B474" s="9" t="s">
         <v>207</v>
       </c>
@@ -24631,7 +24631,7 @@
       <c r="R474"/>
       <c r="S474"/>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475" s="9" t="s">
         <v>207</v>
       </c>
@@ -24662,7 +24662,7 @@
       <c r="R475"/>
       <c r="S475"/>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>317</v>
       </c>
@@ -24699,7 +24699,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>15237</v>
       </c>
       <c r="F477" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G477" s="6" t="s">
         <v>218</v>
@@ -24744,11 +24744,11 @@
         <v>334</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>14537</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G478" s="6" t="s">
         <v>218</v>
@@ -24793,11 +24793,11 @@
         <v>334</v>
       </c>
       <c r="R478" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>15239</v>
       </c>
       <c r="F479" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G479" s="6" t="s">
         <v>218</v>
@@ -24842,11 +24842,11 @@
         <v>334</v>
       </c>
       <c r="R479" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>15236</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G480" s="6" t="s">
         <v>218</v>
@@ -24891,11 +24891,11 @@
         <v>334</v>
       </c>
       <c r="R480" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S480"/>
     </row>
-    <row r="481" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>176</v>
       </c>
@@ -24906,25 +24906,25 @@
         <v>226</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E481" s="10">
         <v>117</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G481" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="I481" s="9" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="J481" s="9" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="K481" s="6"/>
       <c r="L481" s="12"/>
@@ -24941,10 +24941,10 @@
         <v>334</v>
       </c>
       <c r="R481" s="15" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B482" s="9" t="s">
         <v>207</v>
       </c>
@@ -24978,7 +24978,7 @@
       <c r="R482"/>
       <c r="S482"/>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>694</v>
       </c>
@@ -25019,7 +25019,7 @@
       <c r="R483"/>
       <c r="S483"/>
     </row>
-    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>694</v>
       </c>
@@ -25061,7 +25061,7 @@
       <c r="R484"/>
       <c r="S484"/>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>696</v>
       </c>
@@ -25103,7 +25103,7 @@
       <c r="R485"/>
       <c r="S485"/>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="9" t="s">
         <v>207</v>
       </c>
@@ -25137,7 +25137,7 @@
       <c r="R486"/>
       <c r="S486"/>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="9" t="s">
         <v>207</v>
       </c>
@@ -25171,7 +25171,7 @@
       <c r="R487"/>
       <c r="S487"/>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B488" s="9" t="s">
         <v>207</v>
       </c>
@@ -25205,7 +25205,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>106</v>
       </c>
@@ -25219,7 +25219,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>180</v>
       </c>
@@ -25233,7 +25233,7 @@
       <c r="R490"/>
       <c r="S490"/>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B491" s="9" t="s">
         <v>207</v>
       </c>
@@ -25267,7 +25267,7 @@
       <c r="R491"/>
       <c r="S491"/>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B492" s="9" t="s">
         <v>207</v>
       </c>
@@ -25304,7 +25304,7 @@
       <c r="R492"/>
       <c r="S492"/>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="9" t="s">
         <v>207</v>
       </c>
@@ -25341,7 +25341,7 @@
       <c r="R493"/>
       <c r="S493"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>190</v>
       </c>
@@ -25355,7 +25355,7 @@
       <c r="R494"/>
       <c r="S494"/>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="9" t="s">
         <v>207</v>
       </c>
@@ -25389,7 +25389,7 @@
       <c r="R495"/>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>178</v>
       </c>
@@ -25403,7 +25403,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>152</v>
       </c>
@@ -25416,7 +25416,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>194</v>
       </c>
@@ -25429,7 +25429,7 @@
       <c r="R498"/>
       <c r="S498"/>
     </row>
-    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B499" s="9" t="s">
         <v>207</v>
       </c>
@@ -25463,7 +25463,7 @@
       <c r="R499"/>
       <c r="S499"/>
     </row>
-    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B500" s="9" t="s">
         <v>207</v>
       </c>
@@ -25497,7 +25497,7 @@
       <c r="R500"/>
       <c r="S500"/>
     </row>
-    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B501" s="9" t="s">
         <v>207</v>
       </c>
@@ -25531,7 +25531,7 @@
       <c r="R501"/>
       <c r="S501"/>
     </row>
-    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B502" s="9" t="s">
         <v>207</v>
       </c>
@@ -25565,7 +25565,7 @@
       <c r="R502"/>
       <c r="S502"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>196</v>
       </c>
@@ -25578,7 +25578,7 @@
       <c r="R503"/>
       <c r="S503"/>
     </row>
-    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B504" s="9" t="s">
         <v>207</v>
       </c>
@@ -25612,7 +25612,7 @@
       <c r="R504"/>
       <c r="S504"/>
     </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B505" s="9" t="s">
         <v>207</v>
       </c>
@@ -25646,7 +25646,7 @@
       <c r="R505"/>
       <c r="S505"/>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="6" t="s">
         <v>198</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>226</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G506" s="9" t="s">
         <v>218</v>
@@ -25692,7 +25692,7 @@
       <c r="X506" s="2"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B507" s="9" t="s">
         <v>207</v>
       </c>
@@ -25735,7 +25735,7 @@
       <c r="X507" s="2"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="6" t="s">
         <v>30</v>
       </c>
@@ -25755,7 +25755,7 @@
       <c r="X508" s="2"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6" t="s">
         <v>704</v>
       </c>
@@ -25795,7 +25795,7 @@
       <c r="X509" s="2"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6" t="s">
         <v>700</v>
       </c>
@@ -25837,7 +25837,7 @@
       <c r="R510"/>
       <c r="S510"/>
     </row>
-    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6" t="s">
         <v>702</v>
       </c>
@@ -25879,7 +25879,7 @@
       <c r="R511"/>
       <c r="S511"/>
     </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6" t="s">
         <v>704</v>
       </c>
@@ -25921,7 +25921,7 @@
       <c r="R512"/>
       <c r="S512"/>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6" t="s">
         <v>705</v>
       </c>
@@ -25963,7 +25963,7 @@
       <c r="R513"/>
       <c r="S513"/>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6" t="s">
         <v>707</v>
       </c>
@@ -26005,7 +26005,7 @@
       <c r="R514"/>
       <c r="S514"/>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6" t="s">
         <v>709</v>
       </c>
@@ -26047,7 +26047,7 @@
       <c r="R515"/>
       <c r="S515"/>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6" t="s">
         <v>709</v>
       </c>
@@ -26089,7 +26089,7 @@
       <c r="R516"/>
       <c r="S516"/>
     </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6" t="s">
         <v>711</v>
       </c>
@@ -26131,9 +26131,9 @@
       <c r="R517"/>
       <c r="S517"/>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B518" s="9" t="s">
         <v>293</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="O518" s="6" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="P518" s="9" t="s">
         <v>323</v>
@@ -26169,11 +26169,11 @@
         <v>341</v>
       </c>
       <c r="R518" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S518"/>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6" t="s">
         <v>713</v>
       </c>
@@ -26215,7 +26215,7 @@
       <c r="R519"/>
       <c r="S519"/>
     </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6" t="s">
         <v>715</v>
       </c>
@@ -26256,7 +26256,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>200</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>1677</v>
       </c>
       <c r="F521" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G521" s="6" t="s">
         <v>218</v>
@@ -26298,11 +26298,11 @@
         <v>334</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="S521"/>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6" t="s">
         <v>717</v>
       </c>
@@ -26379,45 +26379,45 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.3984375" customWidth="1"/>
-    <col min="3" max="3" width="70.1328125" customWidth="1"/>
-    <col min="4" max="4" width="70.73046875" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
@@ -26426,21 +26426,21 @@
         <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -26449,21 +26449,21 @@
         <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C4" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
@@ -26472,21 +26472,21 @@
         <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E5" t="s">
         <v>219</v>
@@ -26495,21 +26495,21 @@
         <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>243</v>
@@ -26518,38 +26518,38 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C7" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C8" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
@@ -26558,21 +26558,21 @@
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C9" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E9" t="s">
         <v>243</v>
@@ -26581,21 +26581,21 @@
         <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
@@ -26604,21 +26604,21 @@
         <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C11" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E11" t="s">
         <v>243</v>
@@ -26627,21 +26627,21 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C12" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E12" t="s">
         <v>219</v>
@@ -26650,21 +26650,21 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C13" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E13" t="s">
         <v>243</v>
@@ -26676,18 +26676,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C14" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -26699,18 +26699,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C15" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E15" t="s">
         <v>243</v>
@@ -26719,41 +26719,41 @@
         <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C16" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C17" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>243</v>
@@ -26762,58 +26762,58 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C18" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C19" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C20" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E20" t="s">
         <v>219</v>
@@ -26822,21 +26822,21 @@
         <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C21" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E21" t="s">
         <v>219</v>
@@ -26845,21 +26845,21 @@
         <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C22" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
@@ -26868,21 +26868,21 @@
         <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C23" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
@@ -26891,21 +26891,21 @@
         <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C24" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E24" t="s">
         <v>219</v>
@@ -26914,21 +26914,21 @@
         <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C25" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
@@ -26937,184 +26937,184 @@
         <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C26" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C27" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C28" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C29" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C30" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C31" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C32" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C33" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -27134,30 +27134,30 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>766</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -27393,7 +27393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -27452,7 +27452,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -27570,7 +27570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -28337,7 +28337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
@@ -28455,7 +28455,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>158</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -28573,7 +28573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -28632,7 +28632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -28927,7 +28927,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -29104,7 +29104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -29281,7 +29281,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
@@ -29399,7 +29399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -29458,7 +29458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>126</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
@@ -29694,7 +29694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -29753,7 +29753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -29871,7 +29871,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
@@ -30048,7 +30048,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -30225,7 +30225,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -30284,7 +30284,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
@@ -30343,7 +30343,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
@@ -30402,7 +30402,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>84</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>150</v>
       </c>
@@ -30579,7 +30579,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>108</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -30874,7 +30874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
@@ -30933,7 +30933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>192</v>
       </c>
@@ -31051,7 +31051,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>114</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -31169,7 +31169,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>182</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>184</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -31405,7 +31405,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
@@ -31523,7 +31523,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -31641,7 +31641,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -31700,7 +31700,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -31759,7 +31759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>116</v>
       </c>
@@ -31877,7 +31877,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>74</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>154</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>162</v>
       </c>
@@ -32054,7 +32054,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>164</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>166</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>172</v>
       </c>
@@ -32290,7 +32290,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
@@ -32349,7 +32349,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>24</v>
       </c>
@@ -32467,7 +32467,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
@@ -32526,7 +32526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>180</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -32703,7 +32703,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -32762,7 +32762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>152</v>
       </c>
@@ -32821,7 +32821,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>196</v>
       </c>
@@ -32939,7 +32939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>198</v>
       </c>
@@ -32998,7 +32998,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>30</v>
       </c>
@@ -33057,7 +33057,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
@@ -33132,45 +33132,45 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -33178,19 +33178,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>124</v>
       </c>
@@ -33198,31 +33198,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>96</v>
       </c>
@@ -33230,91 +33230,91 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>158</v>
       </c>
@@ -33322,49 +33322,49 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>156</v>
       </c>
@@ -33372,25 +33372,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>120</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>160</v>
       </c>
@@ -33406,13 +33406,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
@@ -33420,13 +33420,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
@@ -33434,7 +33434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>48</v>
       </c>
@@ -33442,7 +33442,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>50</v>
       </c>
@@ -33450,25 +33450,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
@@ -33476,37 +33476,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>126</v>
       </c>
@@ -33514,25 +33514,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>72</v>
       </c>
@@ -33540,37 +33540,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -33578,49 +33578,49 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>184</v>
       </c>
@@ -33628,123 +33628,123 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>200</v>
       </c>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458196D-2FA9-4488-BC28-F940875FAC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A9FB2-8070-4B27-9D2A-71052F58363C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4009,9 +4009,6 @@
     <t>theNorthWindAndTheSun/heb.txt</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun/kat-ortho.txt</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/kat-broad.txt</t>
   </si>
   <si>
@@ -4463,6 +4460,9 @@
   </si>
   <si>
     <t>other_data/aey.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kat-orthographic.txt</t>
   </si>
 </sst>
 </file>
@@ -4564,8 +4564,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -4974,33 +4974,33 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="10.54296875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="9" customWidth="1"/>
     <col min="10" max="10" width="49" style="9" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="12" max="12" width="16.7265625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="9"/>
+    <col min="17" max="17" width="9.1796875" style="6"/>
     <col min="18" max="18" width="46" style="16" customWidth="1"/>
-    <col min="19" max="19" width="53.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="53.7265625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>290</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>217</v>
@@ -5053,10 +5053,10 @@
         <v>719</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -5065,7 +5065,7 @@
       <c r="X1" s="2"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>332</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="X2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5125,13 +5125,13 @@
         <v>325</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E3" s="10">
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" s="9" t="s">
@@ -5158,7 +5158,7 @@
       <c r="X3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5169,13 +5169,13 @@
         <v>331</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E4" s="10">
         <v>300000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>326</v>
@@ -5205,7 +5205,7 @@
       <c r="X4" s="2"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>336</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="X5" s="2"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>336</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="X6" s="2"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>299</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="X7" s="2"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>299</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="X8" s="2"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5412,25 +5412,25 @@
         <v>325</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E9" s="10">
         <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>1469</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>1470</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>1471</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>328</v>
@@ -5456,7 +5456,7 @@
       <c r="X9" s="2"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>342</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="X10" s="2"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>344</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="X11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>344</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="X12" s="2"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>344</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="X13" s="2"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="X14" s="2"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>344</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="X15" s="2"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>344</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="X16" s="2"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>345</v>
       </c>
@@ -5835,9 +5835,9 @@
       <c r="X17" s="2"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>293</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>323</v>
@@ -5873,7 +5873,7 @@
         <v>334</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -5883,7 +5883,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5894,13 +5894,13 @@
         <v>325</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>5</v>
@@ -5917,7 +5917,7 @@
       <c r="X19" s="2"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>348</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="X20" s="2"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>350</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>350</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="X22" s="2"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>352</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="X23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="X24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="X25" s="2"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>354</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="X26" s="2"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>356</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="X27" s="2"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>357</v>
       </c>
@@ -6301,7 +6301,7 @@
       <c r="X28" s="2"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>362</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="X29" s="2"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>218</v>
@@ -6376,7 +6376,7 @@
         <v>753</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>1308</v>
@@ -6405,7 +6405,7 @@
       <c r="X30" s="2"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>218</v>
@@ -6431,7 +6431,7 @@
         <v>753</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>1309</v>
@@ -6460,7 +6460,7 @@
       <c r="X31" s="2"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>218</v>
@@ -6504,7 +6504,7 @@
         <v>338</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -6514,7 +6514,7 @@
       <c r="X32" s="2"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>226</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>218</v>
@@ -6560,7 +6560,7 @@
       <c r="X33" s="2"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>364</v>
       </c>
@@ -6609,7 +6609,7 @@
       <c r="X34" s="2"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>366</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="X35" s="2"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>368</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="X36" s="2"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>370</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="X37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>370</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="X39" s="2"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>370</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="X40" s="2"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>372</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="X41" s="2"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>372</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="X42" s="2"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>374</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="X43" s="2"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>376</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="X44" s="2"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>378</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="X45" s="2"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>382</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="X46" s="2"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>380</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="X47" s="2"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>382</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="X48" s="2"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>382</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="X49" s="2"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7331,9 +7331,9 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>293</v>
@@ -7360,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="P51" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>1427</v>
-      </c>
       <c r="R51" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -7379,7 +7379,7 @@
       <c r="X51" s="2"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="X52" s="2"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>383</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="X54" s="2"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="X55" s="2"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>295</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="X56" s="2"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>295</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="X57" s="2"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>295</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="X58" s="2"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>386</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="X59" s="2"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>388</v>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="X60" s="2"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>390</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="X61" s="2"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>722</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>722</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="X63" s="2"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="X64" s="2"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>392</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>394</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="X66" s="2"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="X68" s="2"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>226</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>218</v>
@@ -8086,7 +8086,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>133686</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>218</v>
@@ -8130,7 +8130,7 @@
         <v>396</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -8140,7 +8140,7 @@
       <c r="X70" s="2"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -8151,13 +8151,13 @@
         <v>226</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E71" s="10">
         <v>552</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>218</v>
@@ -8198,7 +8198,7 @@
       <c r="X71" s="2"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>397</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="X72" s="2"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>399</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="X73" s="2"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>401</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="X74" s="2"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>401</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>403</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="X76" s="2"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>152</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>218</v>
@@ -8488,7 +8488,7 @@
         <v>405</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
@@ -8498,7 +8498,7 @@
       <c r="X77" s="2"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>193</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>218</v>
@@ -8542,7 +8542,7 @@
         <v>334</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -8553,7 +8553,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>406</v>
       </c>
@@ -8604,7 +8604,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>321</v>
       </c>
@@ -8710,7 +8710,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>321</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>321</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>321</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>321</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>408</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="X86" s="2"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>408</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>35486</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>218</v>
@@ -9063,7 +9063,7 @@
         <v>334</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -9073,7 +9073,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>34145</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>218</v>
@@ -9115,7 +9115,7 @@
         <v>334</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -9125,7 +9125,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>10984</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>218</v>
@@ -9167,7 +9167,7 @@
         <v>334</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -9178,9 +9178,9 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>293</v>
@@ -9207,16 +9207,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q91" t="s">
         <v>1429</v>
       </c>
-      <c r="P91" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>1430</v>
-      </c>
       <c r="R91" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -9226,7 +9226,7 @@
       <c r="X91" s="2"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>160</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="X92" s="2"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>160</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="X93" s="2"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>108</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>218</v>
@@ -9374,7 +9374,7 @@
       <c r="X94" s="2"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>160</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>218</v>
@@ -9430,7 +9430,7 @@
       <c r="X95" s="2"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>409</v>
       </c>
@@ -9479,7 +9479,7 @@
       <c r="X96" s="2"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>411</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="X97" s="2"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>413</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="X98" s="2"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9598,7 +9598,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>413</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="X100" s="2"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>415</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="X101" s="2"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
@@ -9716,7 +9716,7 @@
       <c r="X102" s="2"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>723</v>
       </c>
@@ -9756,7 +9756,7 @@
       <c r="X103" s="2"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>418</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="X104" s="2"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>421</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>723</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>10626</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>218</v>
@@ -9944,7 +9944,7 @@
         <v>455</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -9955,7 +9955,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>10547</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>218</v>
@@ -9999,7 +9999,7 @@
         <v>455</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -10010,7 +10010,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -10060,7 +10060,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -10071,13 +10071,13 @@
         <v>226</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E110" s="10">
         <v>114</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>218</v>
@@ -10110,10 +10110,10 @@
         <v>455</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -10123,7 +10123,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>408</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>218</v>
@@ -10167,7 +10167,7 @@
         <v>455</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -10178,7 +10178,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10189,13 +10189,13 @@
         <v>291</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E112" s="10">
         <v>217664</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>218</v>
@@ -10231,7 +10231,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10242,13 +10242,13 @@
         <v>291</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E113" s="10">
         <v>41000</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>218</v>
@@ -10273,7 +10273,7 @@
         <v>324</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -10284,7 +10284,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>61173</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>218</v>
@@ -10329,7 +10329,7 @@
         <v>334</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -10340,7 +10340,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>60422</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>218</v>
@@ -10385,7 +10385,7 @@
         <v>334</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -10396,7 +10396,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1284</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>218</v>
@@ -10691,7 +10691,7 @@
         <v>334</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -10702,7 +10702,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>58072</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>218</v>
@@ -10747,7 +10747,7 @@
         <v>334</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -10758,7 +10758,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>57230</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>218</v>
@@ -10803,7 +10803,7 @@
         <v>334</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -10814,7 +10814,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>1633</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>218</v>
@@ -10859,7 +10859,7 @@
         <v>334</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -10870,7 +10870,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>425</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>427</v>
       </c>
@@ -10970,9 +10970,9 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>293</v>
@@ -10999,16 +10999,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P127" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q127" s="6" t="s">
         <v>1438</v>
       </c>
-      <c r="P127" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q127" s="6" t="s">
-        <v>1439</v>
-      </c>
       <c r="R127" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -11019,7 +11019,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>158</v>
       </c>
@@ -11069,7 +11069,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>158</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -11136,17 +11136,17 @@
         <v>113</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>765</v>
@@ -11179,7 +11179,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -11196,17 +11196,17 @@
         <v>113</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>765</v>
@@ -11239,7 +11239,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>1742</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>218</v>
@@ -11281,7 +11281,7 @@
         <v>334</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -11292,7 +11292,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>429</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>431</v>
       </c>
@@ -11392,7 +11392,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>218</v>
@@ -11434,7 +11434,7 @@
         <v>334</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -11445,7 +11445,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>16</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>99</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>218</v>
@@ -11471,10 +11471,10 @@
         <v>732</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>733</v>
@@ -11495,7 +11495,7 @@
         <v>324</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="S136" s="15"/>
       <c r="T136" s="2"/>
@@ -11506,7 +11506,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>16</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>99</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>218</v>
@@ -11532,10 +11532,10 @@
         <v>732</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>733</v>
@@ -11556,7 +11556,7 @@
         <v>324</v>
       </c>
       <c r="R137" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="S137" s="15"/>
       <c r="T137" s="2"/>
@@ -11567,7 +11567,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>431</v>
       </c>
@@ -11617,7 +11617,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>725</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>725</v>
       </c>
@@ -11715,7 +11715,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>38</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>69015</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>218</v>
@@ -11778,11 +11778,11 @@
         <v>334</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>69008</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>218</v>
@@ -11825,11 +11825,11 @@
         <v>334</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>57029</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>218</v>
@@ -11872,11 +11872,11 @@
         <v>334</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>56911</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>218</v>
@@ -11919,11 +11919,11 @@
         <v>334</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S145"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>194</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>218</v>
@@ -11966,11 +11966,11 @@
         <v>334</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S146"/>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>433</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="R147" s="2"/>
       <c r="S147"/>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>435</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="R148" s="2"/>
       <c r="S148"/>
     </row>
-    <row r="149" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>226</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G149" s="9" t="s">
         <v>218</v>
@@ -12076,10 +12076,10 @@
         <v>206</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>208</v>
@@ -12100,10 +12100,10 @@
         <v>324</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>437</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="R150" s="2"/>
       <c r="S150"/>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>439</v>
       </c>
@@ -12189,7 +12189,7 @@
       <c r="R151" s="2"/>
       <c r="S151"/>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>439</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="R152" s="2"/>
       <c r="S152"/>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>441</v>
       </c>
@@ -12275,7 +12275,7 @@
       <c r="R153" s="2"/>
       <c r="S153"/>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>441</v>
       </c>
@@ -12317,7 +12317,7 @@
       <c r="R154"/>
       <c r="S154"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>443</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="R155"/>
       <c r="S155"/>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>443</v>
       </c>
@@ -12401,7 +12401,7 @@
       <c r="R156"/>
       <c r="S156"/>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>445</v>
       </c>
@@ -12443,7 +12443,7 @@
       <c r="R157"/>
       <c r="S157"/>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>445</v>
       </c>
@@ -12485,7 +12485,7 @@
       <c r="R158"/>
       <c r="S158"/>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>447</v>
       </c>
@@ -12527,7 +12527,7 @@
       <c r="R159"/>
       <c r="S159"/>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>449</v>
       </c>
@@ -12569,7 +12569,7 @@
       <c r="R160"/>
       <c r="S160"/>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>451</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="R161"/>
       <c r="S161"/>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>451</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="R162"/>
       <c r="S162"/>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>453</v>
       </c>
@@ -12695,7 +12695,7 @@
       <c r="R163"/>
       <c r="S163"/>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>456</v>
       </c>
@@ -12737,9 +12737,9 @@
       <c r="R164"/>
       <c r="S164"/>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>293</v>
@@ -12766,20 +12766,20 @@
         <v>0</v>
       </c>
       <c r="O165" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P165" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q165" s="6" t="s">
         <v>1440</v>
       </c>
-      <c r="P165" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q165" s="6" t="s">
-        <v>1441</v>
-      </c>
       <c r="R165" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S165"/>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>458</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="R166"/>
       <c r="S166"/>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>458</v>
       </c>
@@ -12863,7 +12863,7 @@
       <c r="R167"/>
       <c r="S167"/>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>318</v>
       </c>
@@ -12905,7 +12905,7 @@
       <c r="R168"/>
       <c r="S168"/>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>318</v>
       </c>
@@ -12947,7 +12947,7 @@
       <c r="R169"/>
       <c r="S169"/>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>318</v>
       </c>
@@ -12989,7 +12989,7 @@
       <c r="R170"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="R171"/>
       <c r="S171"/>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>318</v>
       </c>
@@ -13044,7 +13044,7 @@
       <c r="R172"/>
       <c r="S172"/>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>48</v>
       </c>
@@ -13086,7 +13086,7 @@
       <c r="R173"/>
       <c r="S173"/>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>48</v>
       </c>
@@ -13128,7 +13128,7 @@
       <c r="R174"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
@@ -13141,7 +13141,7 @@
       <c r="R175"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>132</v>
       </c>
@@ -13154,7 +13154,7 @@
       <c r="R176"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>66</v>
       </c>
@@ -13167,7 +13167,7 @@
       <c r="R177"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>34</v>
       </c>
@@ -13180,7 +13180,7 @@
       <c r="R178"/>
       <c r="S178"/>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>315</v>
       </c>
@@ -13215,7 +13215,7 @@
       <c r="R179"/>
       <c r="S179"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>169</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>218</v>
@@ -13264,7 +13264,7 @@
       <c r="R180" s="2"/>
       <c r="S180"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>48</v>
       </c>
@@ -13275,13 +13275,13 @@
         <v>226</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E181" s="10">
         <v>90</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>218</v>
@@ -13290,7 +13290,7 @@
         <v>751</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J181" s="9" t="s">
         <v>1319</v>
@@ -13313,7 +13313,7 @@
       <c r="R181"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>11296</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>218</v>
@@ -13356,11 +13356,11 @@
         <v>460</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S182"/>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>461</v>
       </c>
@@ -13402,7 +13402,7 @@
       <c r="R183"/>
       <c r="S183"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>463</v>
       </c>
@@ -13444,7 +13444,7 @@
       <c r="R184"/>
       <c r="S184"/>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>297</v>
       </c>
@@ -13486,7 +13486,7 @@
       <c r="R185"/>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>10812</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>218</v>
@@ -13529,11 +13529,11 @@
         <v>460</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S186"/>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>297</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="R187"/>
       <c r="S187"/>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>465</v>
       </c>
@@ -13617,7 +13617,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>50</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>9563</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>218</v>
@@ -13660,11 +13660,11 @@
         <v>460</v>
       </c>
       <c r="R189" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S189"/>
     </row>
-    <row r="190" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>50</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>129</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>218</v>
@@ -13690,7 +13690,7 @@
         <v>745</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>1317</v>
@@ -13711,10 +13711,10 @@
         <v>324</v>
       </c>
       <c r="R190" s="15" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>315</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="R191"/>
       <c r="S191"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>315</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="R192"/>
       <c r="S192"/>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>315</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="R193"/>
       <c r="S193"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>52</v>
       </c>
@@ -13859,7 +13859,7 @@
       <c r="R194"/>
       <c r="S194"/>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>315</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="R195"/>
       <c r="S195"/>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>467</v>
       </c>
@@ -13944,7 +13944,7 @@
       <c r="R196"/>
       <c r="S196"/>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>469</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="R197"/>
       <c r="S197"/>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>300</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="R198"/>
       <c r="S198"/>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>469</v>
       </c>
@@ -14066,7 +14066,7 @@
       <c r="R199"/>
       <c r="S199"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>471</v>
       </c>
@@ -14107,7 +14107,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>54</v>
       </c>
@@ -14120,7 +14120,7 @@
       <c r="R201"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="R202"/>
       <c r="S202"/>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>317</v>
       </c>
@@ -14175,7 +14175,7 @@
       <c r="R203"/>
       <c r="S203"/>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>317</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="R204"/>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1555</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>218</v>
@@ -14260,11 +14260,11 @@
         <v>334</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S205"/>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>317</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>60</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>2637</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>218</v>
@@ -14349,11 +14349,11 @@
         <v>334</v>
       </c>
       <c r="R207" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S207"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>60</v>
       </c>
@@ -14364,13 +14364,13 @@
         <v>226</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E208" s="10">
         <v>139</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>218</v>
@@ -14399,7 +14399,7 @@
       <c r="R208"/>
       <c r="S208"/>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>300</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="R209"/>
       <c r="S209"/>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>300</v>
       </c>
@@ -14483,7 +14483,7 @@
       <c r="R210"/>
       <c r="S210"/>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>300</v>
       </c>
@@ -14525,7 +14525,7 @@
       <c r="R211"/>
       <c r="S211"/>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>473</v>
       </c>
@@ -14567,7 +14567,7 @@
       <c r="R212"/>
       <c r="S212"/>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>475</v>
       </c>
@@ -14609,7 +14609,7 @@
       <c r="R213"/>
       <c r="S213"/>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>477</v>
       </c>
@@ -14651,7 +14651,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>140</v>
       </c>
@@ -14664,7 +14664,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>19930</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>218</v>
@@ -14707,11 +14707,11 @@
         <v>480</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>19689</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>218</v>
@@ -14754,11 +14754,11 @@
         <v>480</v>
       </c>
       <c r="R217" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>5268</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>218</v>
@@ -14801,11 +14801,11 @@
         <v>481</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>4765</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>218</v>
@@ -14848,11 +14848,11 @@
         <v>481</v>
       </c>
       <c r="R219" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>126</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>226</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>218</v>
@@ -14872,10 +14872,10 @@
         <v>206</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="K220" s="13" t="s">
         <v>208</v>
@@ -14896,10 +14896,10 @@
         <v>324</v>
       </c>
       <c r="R220" s="15" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>62</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>173</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>218</v>
@@ -14942,11 +14942,11 @@
         <v>334</v>
       </c>
       <c r="R221" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>122</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>100</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G222" s="9" t="s">
         <v>218</v>
@@ -14987,11 +14987,11 @@
         <v>123</v>
       </c>
       <c r="R222" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S222"/>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>482</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="R223"/>
       <c r="S223"/>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>482</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>15124</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>218</v>
@@ -15118,11 +15118,11 @@
         <v>121</v>
       </c>
       <c r="R225" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>15123</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>218</v>
@@ -15165,11 +15165,11 @@
         <v>121</v>
       </c>
       <c r="R226" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S226"/>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>484</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="R227"/>
       <c r="S227"/>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>484</v>
       </c>
@@ -15253,7 +15253,7 @@
       <c r="R228"/>
       <c r="S228"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>120</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>107</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>218</v>
@@ -15279,10 +15279,10 @@
         <v>737</v>
       </c>
       <c r="I229" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J229" s="9" t="s">
         <v>1320</v>
-      </c>
-      <c r="J229" s="9" t="s">
-        <v>1321</v>
       </c>
       <c r="K229" s="9" t="s">
         <v>738</v>
@@ -15302,7 +15302,7 @@
       <c r="R229" s="2"/>
       <c r="S229"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>107</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>218</v>
@@ -15328,10 +15328,10 @@
         <v>737</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>1320</v>
+        <v>1471</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K230" s="9" t="s">
         <v>738</v>
@@ -15351,7 +15351,7 @@
       <c r="R230" s="2"/>
       <c r="S230"/>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>486</v>
       </c>
@@ -15393,7 +15393,7 @@
       <c r="R231"/>
       <c r="S231"/>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>488</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="R232"/>
       <c r="S232"/>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>301</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="R233"/>
       <c r="S233"/>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>301</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="R234"/>
       <c r="S234"/>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>491</v>
       </c>
@@ -15561,7 +15561,7 @@
       <c r="R235"/>
       <c r="S235"/>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>493</v>
       </c>
@@ -15603,7 +15603,7 @@
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>186</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="R237"/>
       <c r="S237"/>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>495</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>76</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="R239"/>
       <c r="S239"/>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>497</v>
       </c>
@@ -15713,7 +15713,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>44</v>
       </c>
@@ -15726,7 +15726,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -15739,7 +15739,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>188</v>
       </c>
@@ -15752,7 +15752,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15763,13 +15763,13 @@
         <v>291</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E244" s="10">
         <v>10000</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>218</v>
@@ -15790,11 +15790,11 @@
         <v>324</v>
       </c>
       <c r="R244" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>72</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>16402</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>218</v>
@@ -15837,11 +15837,11 @@
         <v>479</v>
       </c>
       <c r="R245" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S245"/>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>499</v>
       </c>
@@ -15883,9 +15883,9 @@
       <c r="R246"/>
       <c r="S246"/>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>293</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="P247" s="9" t="s">
         <v>323</v>
@@ -15921,11 +15921,11 @@
         <v>334</v>
       </c>
       <c r="R247" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>14141</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>218</v>
@@ -15968,11 +15968,11 @@
         <v>479</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S248"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>72</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>226</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>218</v>
@@ -16012,7 +16012,7 @@
       <c r="R249"/>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -16023,13 +16023,13 @@
         <v>226</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E250" s="10">
         <v>64</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>218</v>
@@ -16038,7 +16038,7 @@
         <v>748</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="J250" s="9" t="s">
         <v>1318</v>
@@ -16061,7 +16061,7 @@
       <c r="R250"/>
       <c r="S250"/>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>501</v>
       </c>
@@ -16103,7 +16103,7 @@
       <c r="R251"/>
       <c r="S251"/>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>503</v>
       </c>
@@ -16145,7 +16145,7 @@
       <c r="R252"/>
       <c r="S252"/>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>505</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="R253"/>
       <c r="S253"/>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>507</v>
       </c>
@@ -16232,7 +16232,7 @@
       <c r="R254"/>
       <c r="S254"/>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>507</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>78</v>
       </c>
@@ -16290,7 +16290,7 @@
       <c r="R256"/>
       <c r="S256"/>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>507</v>
       </c>
@@ -16335,7 +16335,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>64</v>
       </c>
@@ -16348,7 +16348,7 @@
       <c r="R258"/>
       <c r="S258"/>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>507</v>
       </c>
@@ -16393,7 +16393,7 @@
       <c r="R259"/>
       <c r="S259"/>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>507</v>
       </c>
@@ -16438,7 +16438,7 @@
       <c r="R260"/>
       <c r="S260"/>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>507</v>
       </c>
@@ -16483,7 +16483,7 @@
       <c r="R261"/>
       <c r="S261"/>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>302</v>
       </c>
@@ -16517,7 +16517,7 @@
       <c r="R262"/>
       <c r="S262"/>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>302</v>
       </c>
@@ -16559,7 +16559,7 @@
       <c r="R263"/>
       <c r="S263"/>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>302</v>
       </c>
@@ -16601,7 +16601,7 @@
       <c r="R264"/>
       <c r="S264"/>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>511</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="R265"/>
       <c r="S265"/>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>513</v>
       </c>
@@ -16685,7 +16685,7 @@
       <c r="R266"/>
       <c r="S266"/>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>515</v>
       </c>
@@ -16727,7 +16727,7 @@
       <c r="R267"/>
       <c r="S267"/>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>517</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="R268"/>
       <c r="S268"/>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>517</v>
       </c>
@@ -16811,7 +16811,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>82</v>
       </c>
@@ -16824,7 +16824,7 @@
       <c r="R270"/>
       <c r="S270"/>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>519</v>
       </c>
@@ -16866,7 +16866,7 @@
       <c r="R271"/>
       <c r="S271"/>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>521</v>
       </c>
@@ -16908,7 +16908,7 @@
       <c r="R272"/>
       <c r="S272"/>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>523</v>
       </c>
@@ -16950,7 +16950,7 @@
       <c r="R273"/>
       <c r="S273"/>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>525</v>
       </c>
@@ -16992,7 +16992,7 @@
       <c r="R274"/>
       <c r="S274"/>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>527</v>
       </c>
@@ -17034,7 +17034,7 @@
       <c r="R275"/>
       <c r="S275"/>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>529</v>
       </c>
@@ -17076,7 +17076,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>86</v>
       </c>
@@ -17089,7 +17089,7 @@
       <c r="R277"/>
       <c r="S277"/>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>529</v>
       </c>
@@ -17131,7 +17131,7 @@
       <c r="R278"/>
       <c r="S278"/>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>531</v>
       </c>
@@ -17173,7 +17173,7 @@
       <c r="R279"/>
       <c r="S279"/>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>534</v>
       </c>
@@ -17215,7 +17215,7 @@
       <c r="R280"/>
       <c r="S280"/>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>534</v>
       </c>
@@ -17257,7 +17257,7 @@
       <c r="R281"/>
       <c r="S281"/>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>536</v>
       </c>
@@ -17299,7 +17299,7 @@
       <c r="R282"/>
       <c r="S282"/>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>538</v>
       </c>
@@ -17341,7 +17341,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>80</v>
       </c>
@@ -17354,7 +17354,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>90</v>
       </c>
@@ -17367,7 +17367,7 @@
       <c r="R285"/>
       <c r="S285"/>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>540</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="R286"/>
       <c r="S286"/>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>540</v>
       </c>
@@ -17451,7 +17451,7 @@
       <c r="R287"/>
       <c r="S287"/>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>543</v>
       </c>
@@ -17493,7 +17493,7 @@
       <c r="R288"/>
       <c r="S288"/>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>545</v>
       </c>
@@ -17535,7 +17535,7 @@
       <c r="R289"/>
       <c r="S289"/>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>547</v>
       </c>
@@ -17577,7 +17577,7 @@
       <c r="R290"/>
       <c r="S290"/>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>549</v>
       </c>
@@ -17619,7 +17619,7 @@
       <c r="R291"/>
       <c r="S291"/>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>549</v>
       </c>
@@ -17661,7 +17661,7 @@
       <c r="R292"/>
       <c r="S292"/>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>727</v>
       </c>
@@ -17703,7 +17703,7 @@
       <c r="R293"/>
       <c r="S293"/>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>551</v>
       </c>
@@ -17745,7 +17745,7 @@
       <c r="R294"/>
       <c r="S294"/>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>319</v>
       </c>
@@ -17782,7 +17782,7 @@
       <c r="R295"/>
       <c r="S295"/>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>319</v>
       </c>
@@ -17824,7 +17824,7 @@
       <c r="R296"/>
       <c r="S296"/>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -17866,7 +17866,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>84</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="R298"/>
       <c r="S298"/>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>553</v>
       </c>
@@ -17921,7 +17921,7 @@
       <c r="R299"/>
       <c r="S299"/>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>556</v>
       </c>
@@ -17963,7 +17963,7 @@
       <c r="R300"/>
       <c r="S300"/>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>558</v>
       </c>
@@ -18005,7 +18005,7 @@
       <c r="R301"/>
       <c r="S301"/>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>558</v>
       </c>
@@ -18047,7 +18047,7 @@
       <c r="R302"/>
       <c r="S302"/>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>726</v>
       </c>
@@ -18089,7 +18089,7 @@
       <c r="R303"/>
       <c r="S303"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>150</v>
       </c>
@@ -18102,7 +18102,7 @@
       <c r="R304"/>
       <c r="S304"/>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>726</v>
       </c>
@@ -18144,7 +18144,7 @@
       <c r="R305"/>
       <c r="S305"/>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>726</v>
       </c>
@@ -18186,7 +18186,7 @@
       <c r="R306"/>
       <c r="S306"/>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>726</v>
       </c>
@@ -18228,7 +18228,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>100</v>
       </c>
@@ -18241,7 +18241,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>98</v>
       </c>
@@ -18254,7 +18254,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>108</v>
       </c>
@@ -18267,7 +18267,7 @@
       <c r="R310"/>
       <c r="S310"/>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>559</v>
       </c>
@@ -18309,7 +18309,7 @@
       <c r="R311"/>
       <c r="S311"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>104</v>
       </c>
@@ -18322,7 +18322,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>4636</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>218</v>
@@ -18365,11 +18365,11 @@
         <v>385</v>
       </c>
       <c r="R313" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S313"/>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>561</v>
       </c>
@@ -18414,7 +18414,7 @@
       <c r="R314"/>
       <c r="S314"/>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>564</v>
       </c>
@@ -18456,7 +18456,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>4631</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>218</v>
@@ -18499,11 +18499,11 @@
         <v>385</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S316"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>124</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>226</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G317" s="9" t="s">
         <v>218</v>
@@ -18540,7 +18540,7 @@
       <c r="R317" s="2"/>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -18551,13 +18551,13 @@
         <v>226</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E318" s="10">
         <v>42</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>218</v>
@@ -18566,10 +18566,10 @@
         <v>735</v>
       </c>
       <c r="I318" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J318" s="9" t="s">
         <v>1323</v>
-      </c>
-      <c r="J318" s="9" t="s">
-        <v>1324</v>
       </c>
       <c r="K318" s="13" t="s">
         <v>736</v>
@@ -18587,10 +18587,10 @@
         <v>324</v>
       </c>
       <c r="R318" s="15" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>566</v>
       </c>
@@ -18632,7 +18632,7 @@
       <c r="R319"/>
       <c r="S319"/>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>568</v>
       </c>
@@ -18674,7 +18674,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>94</v>
       </c>
@@ -18687,7 +18687,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>134</v>
       </c>
@@ -18700,7 +18700,7 @@
       <c r="R322"/>
       <c r="S322"/>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>316</v>
       </c>
@@ -18737,7 +18737,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>192</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="R324"/>
       <c r="S324"/>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>568</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="R325"/>
       <c r="S325"/>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>570</v>
       </c>
@@ -18834,7 +18834,7 @@
       <c r="R326"/>
       <c r="S326"/>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>572</v>
       </c>
@@ -18876,7 +18876,7 @@
       <c r="R327"/>
       <c r="S327"/>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>572</v>
       </c>
@@ -18918,7 +18918,7 @@
       <c r="R328"/>
       <c r="S328"/>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>574</v>
       </c>
@@ -18960,7 +18960,7 @@
       <c r="R329"/>
       <c r="S329"/>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>576</v>
       </c>
@@ -19002,9 +19002,9 @@
       <c r="R330"/>
       <c r="S330"/>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>293</v>
@@ -19031,10 +19031,10 @@
         <v>0</v>
       </c>
       <c r="N331" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="O331" s="6" t="s">
         <v>1446</v>
-      </c>
-      <c r="O331" s="6" t="s">
-        <v>1447</v>
       </c>
       <c r="P331" s="9" t="s">
         <v>323</v>
@@ -19043,11 +19043,11 @@
         <v>334</v>
       </c>
       <c r="R331" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S331"/>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>578</v>
       </c>
@@ -19089,7 +19089,7 @@
       <c r="R332"/>
       <c r="S332"/>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>316</v>
       </c>
@@ -19131,7 +19131,7 @@
       <c r="R333"/>
       <c r="S333"/>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>316</v>
       </c>
@@ -19173,7 +19173,7 @@
       <c r="R334"/>
       <c r="S334"/>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>316</v>
       </c>
@@ -19215,7 +19215,7 @@
       <c r="R335"/>
       <c r="S335"/>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>580</v>
       </c>
@@ -19257,7 +19257,7 @@
       <c r="R336"/>
       <c r="S336"/>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>582</v>
       </c>
@@ -19299,7 +19299,7 @@
       <c r="R337"/>
       <c r="S337"/>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>582</v>
       </c>
@@ -19341,7 +19341,7 @@
       <c r="R338"/>
       <c r="S338"/>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>584</v>
       </c>
@@ -19383,7 +19383,7 @@
       <c r="R339"/>
       <c r="S339"/>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6" t="s">
         <v>584</v>
       </c>
@@ -19425,7 +19425,7 @@
       <c r="R340"/>
       <c r="S340"/>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>584</v>
       </c>
@@ -19467,7 +19467,7 @@
       <c r="R341"/>
       <c r="S341"/>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>586</v>
       </c>
@@ -19509,7 +19509,7 @@
       <c r="R342"/>
       <c r="S342"/>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>588</v>
       </c>
@@ -19551,7 +19551,7 @@
       <c r="R343"/>
       <c r="S343"/>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>589</v>
       </c>
@@ -19593,7 +19593,7 @@
       <c r="R344"/>
       <c r="S344"/>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>591</v>
       </c>
@@ -19635,7 +19635,7 @@
       <c r="R345"/>
       <c r="S345"/>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>593</v>
       </c>
@@ -19677,7 +19677,7 @@
       <c r="R346"/>
       <c r="S346"/>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>593</v>
       </c>
@@ -19719,7 +19719,7 @@
       <c r="R347"/>
       <c r="S347"/>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>595</v>
       </c>
@@ -19761,7 +19761,7 @@
       <c r="R348"/>
       <c r="S348"/>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>597</v>
       </c>
@@ -19803,7 +19803,7 @@
       <c r="R349"/>
       <c r="S349"/>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>599</v>
       </c>
@@ -19845,7 +19845,7 @@
       <c r="R350"/>
       <c r="S350"/>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>601</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="R351"/>
       <c r="S351"/>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>603</v>
       </c>
@@ -19929,7 +19929,7 @@
       <c r="R352"/>
       <c r="S352"/>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>605</v>
       </c>
@@ -19971,7 +19971,7 @@
       <c r="R353"/>
       <c r="S353"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>114</v>
       </c>
@@ -19984,7 +19984,7 @@
       <c r="R354"/>
       <c r="S354"/>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>607</v>
       </c>
@@ -20026,7 +20026,7 @@
       <c r="R355"/>
       <c r="S355"/>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>609</v>
       </c>
@@ -20068,7 +20068,7 @@
       <c r="R356"/>
       <c r="S356"/>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>611</v>
       </c>
@@ -20110,7 +20110,7 @@
       <c r="R357"/>
       <c r="S357"/>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>613</v>
       </c>
@@ -20152,7 +20152,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>128</v>
       </c>
@@ -20165,7 +20165,7 @@
       <c r="R359"/>
       <c r="S359"/>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>616</v>
       </c>
@@ -20207,7 +20207,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>110</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="R361"/>
       <c r="S361"/>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>618</v>
       </c>
@@ -20262,7 +20262,7 @@
       <c r="R362"/>
       <c r="S362"/>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>620</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="R363"/>
       <c r="S363"/>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>622</v>
       </c>
@@ -20346,7 +20346,7 @@
       <c r="R364"/>
       <c r="S364"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>182</v>
       </c>
@@ -20359,7 +20359,7 @@
       <c r="R365"/>
       <c r="S365"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A366" s="6" t="s">
         <v>184</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>226</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G366" s="9" t="s">
         <v>218</v>
@@ -20399,7 +20399,7 @@
       <c r="R366"/>
       <c r="S366"/>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>623</v>
       </c>
@@ -20444,7 +20444,7 @@
       <c r="R367"/>
       <c r="S367"/>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>313</v>
       </c>
@@ -20481,7 +20481,7 @@
       <c r="R368"/>
       <c r="S368"/>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>623</v>
       </c>
@@ -20526,7 +20526,7 @@
       <c r="R369"/>
       <c r="S369"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>184</v>
       </c>
@@ -20537,13 +20537,13 @@
         <v>226</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E370" s="10">
         <v>91</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>218</v>
@@ -20552,10 +20552,10 @@
         <v>761</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J370" s="9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K370" s="9" t="s">
         <v>760</v>
@@ -20575,7 +20575,7 @@
       <c r="R370"/>
       <c r="S370"/>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>623</v>
       </c>
@@ -20620,7 +20620,7 @@
       <c r="R371"/>
       <c r="S371"/>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>623</v>
       </c>
@@ -20665,7 +20665,7 @@
       <c r="R372"/>
       <c r="S372"/>
     </row>
-    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>623</v>
       </c>
@@ -20710,7 +20710,7 @@
       <c r="R373"/>
       <c r="S373"/>
     </row>
-    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>623</v>
       </c>
@@ -20755,7 +20755,7 @@
       <c r="R374"/>
       <c r="S374"/>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>627</v>
       </c>
@@ -20797,7 +20797,7 @@
       <c r="R375"/>
       <c r="S375"/>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>629</v>
       </c>
@@ -20839,7 +20839,7 @@
       <c r="R376"/>
       <c r="S376"/>
     </row>
-    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>631</v>
       </c>
@@ -20881,9 +20881,9 @@
       <c r="R377"/>
       <c r="S377"/>
     </row>
-    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>293</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="O378" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="P378" s="9" t="s">
         <v>323</v>
@@ -20919,11 +20919,11 @@
         <v>334</v>
       </c>
       <c r="R378" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S378"/>
     </row>
-    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>313</v>
       </c>
@@ -20965,7 +20965,7 @@
       <c r="R379"/>
       <c r="S379"/>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>313</v>
       </c>
@@ -21007,7 +21007,7 @@
       <c r="R380"/>
       <c r="S380"/>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>313</v>
       </c>
@@ -21049,7 +21049,7 @@
       <c r="R381"/>
       <c r="S381"/>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>634</v>
       </c>
@@ -21091,7 +21091,7 @@
       <c r="R382"/>
       <c r="S382"/>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>311</v>
       </c>
@@ -21128,7 +21128,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>138</v>
       </c>
@@ -21141,7 +21141,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>130</v>
       </c>
@@ -21155,7 +21155,7 @@
       <c r="R385"/>
       <c r="S385"/>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>56</v>
       </c>
@@ -21163,20 +21163,20 @@
         <v>226</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E386" s="10">
         <v>87</v>
       </c>
       <c r="F386" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G386" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H386" s="8"/>
       <c r="J386" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="L386" s="12">
         <v>44490</v>
@@ -21191,11 +21191,11 @@
         <v>324</v>
       </c>
       <c r="R386" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>22</v>
       </c>
@@ -21209,7 +21209,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>144</v>
       </c>
@@ -21223,7 +21223,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>142</v>
       </c>
@@ -21237,7 +21237,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>146</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>402586</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>218</v>
@@ -21279,11 +21279,11 @@
         <v>341</v>
       </c>
       <c r="R390" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S390"/>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>636</v>
       </c>
@@ -21325,7 +21325,7 @@
       <c r="R391"/>
       <c r="S391"/>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>638</v>
       </c>
@@ -21367,7 +21367,7 @@
       <c r="R392"/>
       <c r="S392"/>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>638</v>
       </c>
@@ -21409,7 +21409,7 @@
       <c r="R393"/>
       <c r="S393"/>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>640</v>
       </c>
@@ -21451,7 +21451,7 @@
       <c r="R394"/>
       <c r="S394"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>146</v>
       </c>
@@ -21462,20 +21462,20 @@
         <v>226</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E395" s="10">
         <v>93</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>218</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="9" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="K395" s="6"/>
       <c r="L395" s="12"/>
@@ -21490,11 +21490,11 @@
         <v>341</v>
       </c>
       <c r="R395" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S395"/>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>642</v>
       </c>
@@ -21536,7 +21536,7 @@
       <c r="R396"/>
       <c r="S396"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>146</v>
       </c>
@@ -21573,7 +21573,7 @@
       <c r="R397"/>
       <c r="S397"/>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>642</v>
       </c>
@@ -21615,7 +21615,7 @@
       <c r="R398"/>
       <c r="S398"/>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>644</v>
       </c>
@@ -21657,7 +21657,7 @@
       <c r="R399"/>
       <c r="S399"/>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6" t="s">
         <v>644</v>
       </c>
@@ -21699,7 +21699,7 @@
       <c r="R400"/>
       <c r="S400"/>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>646</v>
       </c>
@@ -21741,7 +21741,7 @@
       <c r="R401"/>
       <c r="S401"/>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="6" t="s">
         <v>311</v>
       </c>
@@ -21782,7 +21782,7 @@
       <c r="R402"/>
       <c r="S402"/>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>648</v>
       </c>
@@ -21823,7 +21823,7 @@
       <c r="R403"/>
       <c r="S403"/>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="6" t="s">
         <v>724</v>
       </c>
@@ -21864,7 +21864,7 @@
       <c r="R404"/>
       <c r="S404"/>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>724</v>
       </c>
@@ -21905,7 +21905,7 @@
       <c r="R405"/>
       <c r="S405"/>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="6" t="s">
         <v>303</v>
       </c>
@@ -21940,7 +21940,7 @@
       <c r="R406"/>
       <c r="S406"/>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>303</v>
       </c>
@@ -21981,7 +21981,7 @@
       <c r="R407"/>
       <c r="S407"/>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6" t="s">
         <v>303</v>
       </c>
@@ -22022,7 +22022,7 @@
       <c r="R408"/>
       <c r="S408"/>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>651</v>
       </c>
@@ -22063,7 +22063,7 @@
       <c r="R409"/>
       <c r="S409"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A410" s="6" t="s">
         <v>148</v>
       </c>
@@ -22077,7 +22077,7 @@
       <c r="R410"/>
       <c r="S410"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>116</v>
       </c>
@@ -22091,7 +22091,7 @@
       <c r="R411"/>
       <c r="S411"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A412" s="6" t="s">
         <v>74</v>
       </c>
@@ -22105,7 +22105,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>60805</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>218</v>
@@ -22151,11 +22151,11 @@
         <v>334</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>60677</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>218</v>
@@ -22201,11 +22201,11 @@
         <v>334</v>
       </c>
       <c r="R414" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -22222,7 +22222,7 @@
         <v>52190</v>
       </c>
       <c r="F415" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G415" s="6" t="s">
         <v>218</v>
@@ -22251,11 +22251,11 @@
         <v>334</v>
       </c>
       <c r="R415" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>48718</v>
       </c>
       <c r="F416" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G416" s="6" t="s">
         <v>218</v>
@@ -22301,11 +22301,11 @@
         <v>334</v>
       </c>
       <c r="R416" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>48649</v>
       </c>
       <c r="F417" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G417" s="6" t="s">
         <v>218</v>
@@ -22351,11 +22351,11 @@
         <v>334</v>
       </c>
       <c r="R417" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S417"/>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>721</v>
       </c>
@@ -22396,7 +22396,7 @@
       <c r="R418"/>
       <c r="S418"/>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>721</v>
       </c>
@@ -22437,7 +22437,7 @@
       <c r="R419"/>
       <c r="S419"/>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="6" t="s">
         <v>655</v>
       </c>
@@ -22478,7 +22478,7 @@
       <c r="R420"/>
       <c r="S420"/>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="6" t="s">
         <v>657</v>
       </c>
@@ -22519,7 +22519,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>41854</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G422" s="6" t="s">
         <v>218</v>
@@ -22565,11 +22565,11 @@
         <v>334</v>
       </c>
       <c r="R422" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S422"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -22609,7 +22609,7 @@
       <c r="R423"/>
       <c r="S423"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>97</v>
       </c>
       <c r="F424" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G424" s="9" t="s">
         <v>218</v>
@@ -22635,10 +22635,10 @@
         <v>757</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J424" s="9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K424" s="13" t="s">
         <v>756</v>
@@ -22661,7 +22661,7 @@
       <c r="R424"/>
       <c r="S424"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A425" s="6" t="s">
         <v>154</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>97</v>
       </c>
       <c r="F425" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G425" s="9" t="s">
         <v>218</v>
@@ -22687,10 +22687,10 @@
         <v>757</v>
       </c>
       <c r="I425" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J425" s="9" t="s">
         <v>1327</v>
-      </c>
-      <c r="J425" s="9" t="s">
-        <v>1328</v>
       </c>
       <c r="K425" s="13" t="s">
         <v>756</v>
@@ -22713,7 +22713,7 @@
       <c r="R425"/>
       <c r="S425"/>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="6" t="s">
         <v>659</v>
       </c>
@@ -22754,7 +22754,7 @@
       <c r="R426"/>
       <c r="S426"/>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="6" t="s">
         <v>661</v>
       </c>
@@ -22795,7 +22795,7 @@
       <c r="R427"/>
       <c r="S427"/>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="6" t="s">
         <v>661</v>
       </c>
@@ -22836,7 +22836,7 @@
       <c r="R428"/>
       <c r="S428"/>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6" t="s">
         <v>662</v>
       </c>
@@ -22877,7 +22877,7 @@
       <c r="R429"/>
       <c r="S429"/>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="6" t="s">
         <v>665</v>
       </c>
@@ -22918,7 +22918,7 @@
       <c r="R430"/>
       <c r="S430"/>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="6" t="s">
         <v>668</v>
       </c>
@@ -22960,7 +22960,7 @@
       <c r="R431"/>
       <c r="S431"/>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="6" t="s">
         <v>668</v>
       </c>
@@ -23002,7 +23002,7 @@
       <c r="R432"/>
       <c r="S432"/>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="6" t="s">
         <v>669</v>
       </c>
@@ -23044,7 +23044,7 @@
       <c r="R433"/>
       <c r="S433"/>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="6" t="s">
         <v>669</v>
       </c>
@@ -23086,7 +23086,7 @@
       <c r="R434"/>
       <c r="S434"/>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="6" t="s">
         <v>671</v>
       </c>
@@ -23128,7 +23128,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A436" s="6" t="s">
         <v>162</v>
       </c>
@@ -23141,7 +23141,7 @@
       <c r="R436"/>
       <c r="S436"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A437" s="6" t="s">
         <v>164</v>
       </c>
@@ -23152,7 +23152,7 @@
         <v>226</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G437" s="9" t="s">
         <v>218</v>
@@ -23181,7 +23181,7 @@
       <c r="R437"/>
       <c r="S437"/>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="6" t="s">
         <v>176</v>
       </c>
@@ -23218,7 +23218,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A439" s="6" t="s">
         <v>166</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>3321</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G439" s="6" t="s">
         <v>218</v>
@@ -23261,11 +23261,11 @@
         <v>334</v>
       </c>
       <c r="R439" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A440" s="6" t="s">
         <v>166</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>1915</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G440" s="6" t="s">
         <v>218</v>
@@ -23308,11 +23308,11 @@
         <v>334</v>
       </c>
       <c r="R440" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S440"/>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="6" t="s">
         <v>673</v>
       </c>
@@ -23354,7 +23354,7 @@
       <c r="R441"/>
       <c r="S441"/>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="6" t="s">
         <v>674</v>
       </c>
@@ -23396,7 +23396,7 @@
       <c r="R442"/>
       <c r="S442"/>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="6" t="s">
         <v>676</v>
       </c>
@@ -23438,7 +23438,7 @@
       <c r="R443"/>
       <c r="S443"/>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="6" t="s">
         <v>678</v>
       </c>
@@ -23480,7 +23480,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>15050</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G445" s="6" t="s">
         <v>218</v>
@@ -23523,11 +23523,11 @@
         <v>171</v>
       </c>
       <c r="R445" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S445"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A446" s="6" t="s">
         <v>170</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>226</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G446" s="9" t="s">
         <v>218</v>
@@ -23567,7 +23567,7 @@
       <c r="R446"/>
       <c r="S446"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A447" s="6" t="s">
         <v>170</v>
       </c>
@@ -23578,13 +23578,13 @@
         <v>226</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E447" s="10">
         <v>21</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G447" s="9" t="s">
         <v>218</v>
@@ -23593,10 +23593,10 @@
         <v>749</v>
       </c>
       <c r="I447" s="9" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J447" s="9" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K447" s="9" t="s">
         <v>746</v>
@@ -23616,7 +23616,7 @@
       <c r="R447"/>
       <c r="S447"/>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="6" t="s">
         <v>680</v>
       </c>
@@ -23658,7 +23658,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A449" s="6" t="s">
         <v>172</v>
       </c>
@@ -23671,7 +23671,7 @@
       <c r="R449"/>
       <c r="S449"/>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="6" t="s">
         <v>682</v>
       </c>
@@ -23713,7 +23713,7 @@
       <c r="R450"/>
       <c r="S450"/>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6" t="s">
         <v>24</v>
       </c>
@@ -23755,7 +23755,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A452" s="6" t="s">
         <v>168</v>
       </c>
@@ -23768,7 +23768,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>1789</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G453" s="6" t="s">
         <v>218</v>
@@ -23811,11 +23811,11 @@
         <v>334</v>
       </c>
       <c r="R453" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S453"/>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="6" t="s">
         <v>24</v>
       </c>
@@ -23857,7 +23857,7 @@
       <c r="R454"/>
       <c r="S454"/>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="6" t="s">
         <v>686</v>
       </c>
@@ -23899,7 +23899,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>2043</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G456" s="6" t="s">
         <v>218</v>
@@ -23942,11 +23942,11 @@
         <v>334</v>
       </c>
       <c r="R456" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S456"/>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="6" t="s">
         <v>688</v>
       </c>
@@ -23988,7 +23988,7 @@
       <c r="R457"/>
       <c r="S457"/>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="6" t="s">
         <v>690</v>
       </c>
@@ -24030,7 +24030,7 @@
       <c r="R458"/>
       <c r="S458"/>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="6" t="s">
         <v>310</v>
       </c>
@@ -24064,9 +24064,9 @@
       <c r="R459"/>
       <c r="S459"/>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>293</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="O460" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="P460" s="9" t="s">
         <v>323</v>
@@ -24102,11 +24102,11 @@
         <v>171</v>
       </c>
       <c r="R460" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A461" s="6" t="s">
         <v>118</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>1812</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G461" s="6" t="s">
         <v>218</v>
@@ -24149,13 +24149,13 @@
         <v>334</v>
       </c>
       <c r="R461" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S461"/>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>293</v>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="O462" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="P462" s="9" t="s">
         <v>323</v>
@@ -24191,11 +24191,11 @@
         <v>171</v>
       </c>
       <c r="R462" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S462"/>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B463" s="9" t="s">
         <v>207</v>
       </c>
@@ -24229,7 +24229,7 @@
       <c r="R463"/>
       <c r="S463"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A464" s="6" t="s">
         <v>118</v>
       </c>
@@ -24269,7 +24269,7 @@
       <c r="R464"/>
       <c r="S464"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A465" s="6" t="s">
         <v>118</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>65</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G465" s="9" t="s">
         <v>218</v>
@@ -24295,10 +24295,10 @@
         <v>759</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J465" s="9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K465" s="13" t="s">
         <v>758</v>
@@ -24321,7 +24321,7 @@
       <c r="R465"/>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A466" s="6" t="s">
         <v>24</v>
       </c>
@@ -24335,7 +24335,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>15240</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G467" s="6" t="s">
         <v>218</v>
@@ -24380,11 +24380,11 @@
         <v>334</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S467"/>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B468" s="9" t="s">
         <v>207</v>
       </c>
@@ -24415,7 +24415,7 @@
       <c r="R468"/>
       <c r="S468"/>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B469" s="9" t="s">
         <v>207</v>
       </c>
@@ -24452,7 +24452,7 @@
       <c r="R469"/>
       <c r="S469"/>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B470" s="9" t="s">
         <v>207</v>
       </c>
@@ -24483,7 +24483,7 @@
       <c r="R470"/>
       <c r="S470"/>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B471" s="9" t="s">
         <v>207</v>
       </c>
@@ -24514,7 +24514,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>15240</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G472" s="6" t="s">
         <v>218</v>
@@ -24559,11 +24559,11 @@
         <v>334</v>
       </c>
       <c r="R472" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S472"/>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B473" s="9" t="s">
         <v>207</v>
       </c>
@@ -24597,7 +24597,7 @@
       <c r="R473"/>
       <c r="S473"/>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B474" s="9" t="s">
         <v>207</v>
       </c>
@@ -24631,7 +24631,7 @@
       <c r="R474"/>
       <c r="S474"/>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B475" s="9" t="s">
         <v>207</v>
       </c>
@@ -24662,7 +24662,7 @@
       <c r="R475"/>
       <c r="S475"/>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="6" t="s">
         <v>317</v>
       </c>
@@ -24699,7 +24699,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>15237</v>
       </c>
       <c r="F477" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G477" s="6" t="s">
         <v>218</v>
@@ -24744,11 +24744,11 @@
         <v>334</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>14537</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G478" s="6" t="s">
         <v>218</v>
@@ -24793,11 +24793,11 @@
         <v>334</v>
       </c>
       <c r="R478" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>15239</v>
       </c>
       <c r="F479" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G479" s="6" t="s">
         <v>218</v>
@@ -24842,11 +24842,11 @@
         <v>334</v>
       </c>
       <c r="R479" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>15236</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G480" s="6" t="s">
         <v>218</v>
@@ -24891,11 +24891,11 @@
         <v>334</v>
       </c>
       <c r="R480" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S480"/>
     </row>
-    <row r="481" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A481" s="6" t="s">
         <v>176</v>
       </c>
@@ -24906,25 +24906,25 @@
         <v>226</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E481" s="10">
         <v>117</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G481" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I481" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J481" s="9" t="s">
         <v>1467</v>
-      </c>
-      <c r="J481" s="9" t="s">
-        <v>1468</v>
       </c>
       <c r="K481" s="6"/>
       <c r="L481" s="12"/>
@@ -24941,10 +24941,10 @@
         <v>334</v>
       </c>
       <c r="R481" s="15" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B482" s="9" t="s">
         <v>207</v>
       </c>
@@ -24978,7 +24978,7 @@
       <c r="R482"/>
       <c r="S482"/>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="6" t="s">
         <v>694</v>
       </c>
@@ -25019,7 +25019,7 @@
       <c r="R483"/>
       <c r="S483"/>
     </row>
-    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6" t="s">
         <v>694</v>
       </c>
@@ -25061,7 +25061,7 @@
       <c r="R484"/>
       <c r="S484"/>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="6" t="s">
         <v>696</v>
       </c>
@@ -25103,7 +25103,7 @@
       <c r="R485"/>
       <c r="S485"/>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B486" s="9" t="s">
         <v>207</v>
       </c>
@@ -25137,7 +25137,7 @@
       <c r="R486"/>
       <c r="S486"/>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B487" s="9" t="s">
         <v>207</v>
       </c>
@@ -25171,7 +25171,7 @@
       <c r="R487"/>
       <c r="S487"/>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B488" s="9" t="s">
         <v>207</v>
       </c>
@@ -25205,7 +25205,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A489" s="6" t="s">
         <v>106</v>
       </c>
@@ -25219,7 +25219,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A490" s="6" t="s">
         <v>180</v>
       </c>
@@ -25233,7 +25233,7 @@
       <c r="R490"/>
       <c r="S490"/>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B491" s="9" t="s">
         <v>207</v>
       </c>
@@ -25267,7 +25267,7 @@
       <c r="R491"/>
       <c r="S491"/>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B492" s="9" t="s">
         <v>207</v>
       </c>
@@ -25304,7 +25304,7 @@
       <c r="R492"/>
       <c r="S492"/>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B493" s="9" t="s">
         <v>207</v>
       </c>
@@ -25341,7 +25341,7 @@
       <c r="R493"/>
       <c r="S493"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A494" s="6" t="s">
         <v>190</v>
       </c>
@@ -25355,7 +25355,7 @@
       <c r="R494"/>
       <c r="S494"/>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B495" s="9" t="s">
         <v>207</v>
       </c>
@@ -25389,7 +25389,7 @@
       <c r="R495"/>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A496" s="6" t="s">
         <v>178</v>
       </c>
@@ -25403,7 +25403,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A497" s="6" t="s">
         <v>152</v>
       </c>
@@ -25416,7 +25416,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A498" s="6" t="s">
         <v>194</v>
       </c>
@@ -25429,7 +25429,7 @@
       <c r="R498"/>
       <c r="S498"/>
     </row>
-    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B499" s="9" t="s">
         <v>207</v>
       </c>
@@ -25463,7 +25463,7 @@
       <c r="R499"/>
       <c r="S499"/>
     </row>
-    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B500" s="9" t="s">
         <v>207</v>
       </c>
@@ -25497,7 +25497,7 @@
       <c r="R500"/>
       <c r="S500"/>
     </row>
-    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B501" s="9" t="s">
         <v>207</v>
       </c>
@@ -25531,7 +25531,7 @@
       <c r="R501"/>
       <c r="S501"/>
     </row>
-    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B502" s="9" t="s">
         <v>207</v>
       </c>
@@ -25565,7 +25565,7 @@
       <c r="R502"/>
       <c r="S502"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A503" s="6" t="s">
         <v>196</v>
       </c>
@@ -25578,7 +25578,7 @@
       <c r="R503"/>
       <c r="S503"/>
     </row>
-    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B504" s="9" t="s">
         <v>207</v>
       </c>
@@ -25612,7 +25612,7 @@
       <c r="R504"/>
       <c r="S504"/>
     </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B505" s="9" t="s">
         <v>207</v>
       </c>
@@ -25646,7 +25646,7 @@
       <c r="R505"/>
       <c r="S505"/>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A506" s="6" t="s">
         <v>198</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>226</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G506" s="9" t="s">
         <v>218</v>
@@ -25692,7 +25692,7 @@
       <c r="X506" s="2"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="B507" s="9" t="s">
         <v>207</v>
       </c>
@@ -25735,7 +25735,7 @@
       <c r="X507" s="2"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A508" s="6" t="s">
         <v>30</v>
       </c>
@@ -25755,7 +25755,7 @@
       <c r="X508" s="2"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="6" t="s">
         <v>704</v>
       </c>
@@ -25795,7 +25795,7 @@
       <c r="X509" s="2"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="6" t="s">
         <v>700</v>
       </c>
@@ -25837,7 +25837,7 @@
       <c r="R510"/>
       <c r="S510"/>
     </row>
-    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="6" t="s">
         <v>702</v>
       </c>
@@ -25879,7 +25879,7 @@
       <c r="R511"/>
       <c r="S511"/>
     </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="6" t="s">
         <v>704</v>
       </c>
@@ -25921,7 +25921,7 @@
       <c r="R512"/>
       <c r="S512"/>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="6" t="s">
         <v>705</v>
       </c>
@@ -25963,7 +25963,7 @@
       <c r="R513"/>
       <c r="S513"/>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="6" t="s">
         <v>707</v>
       </c>
@@ -26005,7 +26005,7 @@
       <c r="R514"/>
       <c r="S514"/>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="6" t="s">
         <v>709</v>
       </c>
@@ -26047,7 +26047,7 @@
       <c r="R515"/>
       <c r="S515"/>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="6" t="s">
         <v>709</v>
       </c>
@@ -26089,7 +26089,7 @@
       <c r="R516"/>
       <c r="S516"/>
     </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6" t="s">
         <v>711</v>
       </c>
@@ -26131,9 +26131,9 @@
       <c r="R517"/>
       <c r="S517"/>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B518" s="9" t="s">
         <v>293</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="O518" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="P518" s="9" t="s">
         <v>323</v>
@@ -26169,11 +26169,11 @@
         <v>341</v>
       </c>
       <c r="R518" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S518"/>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="6" t="s">
         <v>713</v>
       </c>
@@ -26215,7 +26215,7 @@
       <c r="R519"/>
       <c r="S519"/>
     </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="6" t="s">
         <v>715</v>
       </c>
@@ -26256,7 +26256,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A521" s="6" t="s">
         <v>200</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>1677</v>
       </c>
       <c r="F521" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G521" s="6" t="s">
         <v>218</v>
@@ -26298,11 +26298,11 @@
         <v>334</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="S521"/>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="6" t="s">
         <v>717</v>
       </c>
@@ -26379,45 +26379,45 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.453125" customWidth="1"/>
+    <col min="3" max="3" width="70.1796875" customWidth="1"/>
+    <col min="4" max="4" width="70.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
@@ -26426,21 +26426,21 @@
         <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -26449,21 +26449,21 @@
         <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
@@ -26472,21 +26472,21 @@
         <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E5" t="s">
         <v>219</v>
@@ -26495,21 +26495,21 @@
         <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>243</v>
@@ -26518,38 +26518,38 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C7" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
@@ -26558,21 +26558,21 @@
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E9" t="s">
         <v>243</v>
@@ -26581,21 +26581,21 @@
         <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
@@ -26604,21 +26604,21 @@
         <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C11" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E11" t="s">
         <v>243</v>
@@ -26627,21 +26627,21 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C12" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E12" t="s">
         <v>219</v>
@@ -26650,21 +26650,21 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C13" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E13" t="s">
         <v>243</v>
@@ -26676,18 +26676,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C14" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -26699,18 +26699,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C15" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E15" t="s">
         <v>243</v>
@@ -26719,41 +26719,41 @@
         <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C17" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>243</v>
@@ -26762,58 +26762,58 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C18" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E20" t="s">
         <v>219</v>
@@ -26822,21 +26822,21 @@
         <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C21" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E21" t="s">
         <v>219</v>
@@ -26845,21 +26845,21 @@
         <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C22" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
@@ -26868,21 +26868,21 @@
         <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C23" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
@@ -26891,21 +26891,21 @@
         <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C24" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E24" t="s">
         <v>219</v>
@@ -26914,21 +26914,21 @@
         <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C25" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
@@ -26937,184 +26937,184 @@
         <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C26" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C29" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C30" t="s">
         <v>1384</v>
       </c>
-      <c r="C30" t="s">
-        <v>1385</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C31" t="s">
         <v>1386</v>
       </c>
-      <c r="C31" t="s">
-        <v>1387</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C32" t="s">
         <v>1388</v>
       </c>
-      <c r="C32" t="s">
-        <v>1389</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C33" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -27134,30 +27134,30 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>766</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -27393,7 +27393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -27452,7 +27452,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -27570,7 +27570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -28337,7 +28337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
@@ -28455,7 +28455,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>158</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -28573,7 +28573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -28632,7 +28632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -28927,7 +28927,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -29104,7 +29104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -29281,7 +29281,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
@@ -29399,7 +29399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -29458,7 +29458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>126</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
@@ -29694,7 +29694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -29753,7 +29753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -29871,7 +29871,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
@@ -30048,7 +30048,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -30225,7 +30225,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -30284,7 +30284,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
@@ -30343,7 +30343,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
@@ -30402,7 +30402,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>84</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>150</v>
       </c>
@@ -30579,7 +30579,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>108</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -30874,7 +30874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
@@ -30933,7 +30933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>192</v>
       </c>
@@ -31051,7 +31051,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>114</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -31169,7 +31169,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>182</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>184</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -31405,7 +31405,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
@@ -31523,7 +31523,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -31641,7 +31641,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -31700,7 +31700,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -31759,7 +31759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>116</v>
       </c>
@@ -31877,7 +31877,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>74</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>154</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>162</v>
       </c>
@@ -32054,7 +32054,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>164</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>166</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>172</v>
       </c>
@@ -32290,7 +32290,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
@@ -32349,7 +32349,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>24</v>
       </c>
@@ -32467,7 +32467,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
@@ -32526,7 +32526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>180</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -32703,7 +32703,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -32762,7 +32762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>152</v>
       </c>
@@ -32821,7 +32821,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>196</v>
       </c>
@@ -32939,7 +32939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>198</v>
       </c>
@@ -32998,7 +32998,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>30</v>
       </c>
@@ -33057,7 +33057,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
@@ -33132,45 +33132,45 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14"/>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -33178,19 +33178,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>124</v>
       </c>
@@ -33198,31 +33198,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>96</v>
       </c>
@@ -33230,91 +33230,91 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14" t="s">
         <v>158</v>
       </c>
@@ -33322,49 +33322,49 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
         <v>156</v>
       </c>
@@ -33372,25 +33372,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>120</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
         <v>160</v>
       </c>
@@ -33406,13 +33406,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
@@ -33420,13 +33420,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
@@ -33434,7 +33434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>48</v>
       </c>
@@ -33442,7 +33442,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
         <v>50</v>
       </c>
@@ -33450,25 +33450,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
@@ -33476,37 +33476,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
         <v>126</v>
       </c>
@@ -33514,25 +33514,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
         <v>72</v>
       </c>
@@ -33540,37 +33540,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -33578,49 +33578,49 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
         <v>184</v>
       </c>
@@ -33628,123 +33628,123 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B84" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B85" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B86" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B90" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B92" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B93" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B94" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B95" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="5" t="s">
         <v>200</v>
       </c>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A9FB2-8070-4B27-9D2A-71052F58363C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318362F2-1ECC-4393-A008-B8146948961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4132,15 +4132,6 @@
     <t>alamblak.pdf</t>
   </si>
   <si>
-    <t>theNorthWindAndTheSun\pes-orthographic.txt</t>
-  </si>
-  <si>
-    <t>theNorthWindAndTheSun\kor-orthographic.txt</t>
-  </si>
-  <si>
-    <t>theNorthWindAndTheSun\hin-orthographic.txt</t>
-  </si>
-  <si>
     <t>C:/Users/debor/masterThesis/data/theNorthWindAndTheSun/cmn.txt</t>
   </si>
   <si>
@@ -4390,12 +4381,6 @@
     <t>Nahuatl</t>
   </si>
   <si>
-    <t>theNorthWindandTheSun/fra.txt</t>
-  </si>
-  <si>
-    <t>theNorthWindandTheSun/fra-orthographic.txt</t>
-  </si>
-  <si>
     <t>theNorthWindAndTheSun/eus-goizueta-broad.txt</t>
   </si>
   <si>
@@ -4463,6 +4448,21 @@
   </si>
   <si>
     <t>theNorthWindAndTheSun/kat-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/fra.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/fra-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/hin-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/kor-orthographic.txt</t>
+  </si>
+  <si>
+    <t>theNorthWindAndTheSun/pes-orthographic.txt</t>
   </si>
 </sst>
 </file>
@@ -4974,8 +4974,8 @@
   <dimension ref="A1:AA522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I481" sqref="I481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5017,7 +5017,7 @@
         <v>290</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>217</v>
@@ -5053,10 +5053,10 @@
         <v>719</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -5125,13 +5125,13 @@
         <v>325</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E3" s="10">
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" s="9" t="s">
@@ -5169,13 +5169,13 @@
         <v>331</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E4" s="10">
         <v>300000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>326</v>
@@ -5412,25 +5412,25 @@
         <v>325</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E9" s="10">
         <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>328</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>293</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>323</v>
@@ -5873,7 +5873,7 @@
         <v>334</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -5894,7 +5894,7 @@
         <v>325</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>218</v>
@@ -6367,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>218</v>
@@ -6422,7 +6422,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>218</v>
@@ -6477,7 +6477,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>218</v>
@@ -6504,7 +6504,7 @@
         <v>338</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -6525,7 +6525,7 @@
         <v>226</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>218</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>293</v>
@@ -7360,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -8051,7 +8051,7 @@
         <v>226</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>218</v>
@@ -8103,7 +8103,7 @@
         <v>133686</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>218</v>
@@ -8130,7 +8130,7 @@
         <v>396</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -8151,13 +8151,13 @@
         <v>226</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E71" s="10">
         <v>552</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>218</v>
@@ -8461,7 +8461,7 @@
         <v>152</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>218</v>
@@ -8488,7 +8488,7 @@
         <v>405</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
@@ -8515,7 +8515,7 @@
         <v>193</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>218</v>
@@ -8542,7 +8542,7 @@
         <v>334</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -9038,7 +9038,7 @@
         <v>35486</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>218</v>
@@ -9063,7 +9063,7 @@
         <v>334</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -9090,7 +9090,7 @@
         <v>34145</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>218</v>
@@ -9115,7 +9115,7 @@
         <v>334</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -9142,7 +9142,7 @@
         <v>10984</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>218</v>
@@ -9167,7 +9167,7 @@
         <v>334</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>293</v>
@@ -9207,16 +9207,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="P91" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q91" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -9335,7 +9335,7 @@
         <v>108</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>218</v>
@@ -9391,7 +9391,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>218</v>
@@ -9917,7 +9917,7 @@
         <v>10626</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>218</v>
@@ -9944,7 +9944,7 @@
         <v>455</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -9972,7 +9972,7 @@
         <v>10547</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>218</v>
@@ -9999,7 +9999,7 @@
         <v>455</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -10071,13 +10071,13 @@
         <v>226</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E110" s="10">
         <v>114</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>218</v>
@@ -10110,10 +10110,10 @@
         <v>455</v>
       </c>
       <c r="R110" s="15" t="s">
+        <v>1447</v>
+      </c>
+      <c r="S110" s="15" t="s">
         <v>1452</v>
-      </c>
-      <c r="S110" s="15" t="s">
-        <v>1457</v>
       </c>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -10140,7 +10140,7 @@
         <v>408</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>218</v>
@@ -10167,7 +10167,7 @@
         <v>455</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -10189,13 +10189,13 @@
         <v>291</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E112" s="10">
         <v>217664</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>218</v>
@@ -10242,13 +10242,13 @@
         <v>291</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E113" s="10">
         <v>41000</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>218</v>
@@ -10273,7 +10273,7 @@
         <v>324</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -10301,7 +10301,7 @@
         <v>61173</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>218</v>
@@ -10329,7 +10329,7 @@
         <v>334</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -10357,7 +10357,7 @@
         <v>60422</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>218</v>
@@ -10385,7 +10385,7 @@
         <v>334</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -10663,7 +10663,7 @@
         <v>1284</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>218</v>
@@ -10691,7 +10691,7 @@
         <v>334</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -10719,7 +10719,7 @@
         <v>58072</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>218</v>
@@ -10747,7 +10747,7 @@
         <v>334</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -10775,7 +10775,7 @@
         <v>57230</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>218</v>
@@ -10803,7 +10803,7 @@
         <v>334</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -10831,7 +10831,7 @@
         <v>1633</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>218</v>
@@ -10859,7 +10859,7 @@
         <v>334</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -10972,7 +10972,7 @@
     </row>
     <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>293</v>
@@ -10999,16 +10999,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="P127" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q127" s="6" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -11136,17 +11136,17 @@
         <v>113</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>765</v>
@@ -11196,17 +11196,17 @@
         <v>113</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>765</v>
@@ -11256,7 +11256,7 @@
         <v>1742</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>218</v>
@@ -11281,7 +11281,7 @@
         <v>334</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -11409,7 +11409,7 @@
         <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>218</v>
@@ -11434,7 +11434,7 @@
         <v>334</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -11462,7 +11462,7 @@
         <v>99</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>218</v>
@@ -11471,10 +11471,10 @@
         <v>732</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>733</v>
@@ -11495,7 +11495,7 @@
         <v>324</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="S136" s="15"/>
       <c r="T136" s="2"/>
@@ -11523,7 +11523,7 @@
         <v>99</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>218</v>
@@ -11532,10 +11532,10 @@
         <v>732</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>733</v>
@@ -11556,7 +11556,7 @@
         <v>324</v>
       </c>
       <c r="R137" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="S137" s="15"/>
       <c r="T137" s="2"/>
@@ -11752,7 +11752,7 @@
         <v>69015</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>218</v>
@@ -11778,7 +11778,7 @@
         <v>334</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S142" s="2"/>
     </row>
@@ -11799,7 +11799,7 @@
         <v>69008</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>218</v>
@@ -11825,7 +11825,7 @@
         <v>334</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S143"/>
     </row>
@@ -11846,7 +11846,7 @@
         <v>57029</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>218</v>
@@ -11872,7 +11872,7 @@
         <v>334</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S144"/>
     </row>
@@ -11893,7 +11893,7 @@
         <v>56911</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>218</v>
@@ -11919,7 +11919,7 @@
         <v>334</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S145"/>
     </row>
@@ -11940,7 +11940,7 @@
         <v>194</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>218</v>
@@ -11966,7 +11966,7 @@
         <v>334</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S146"/>
     </row>
@@ -12076,10 +12076,10 @@
         <v>206</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>1448</v>
+        <v>1468</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>1447</v>
+        <v>1467</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>208</v>
@@ -12100,7 +12100,7 @@
         <v>324</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -12739,7 +12739,7 @@
     </row>
     <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>293</v>
@@ -12766,16 +12766,16 @@
         <v>0</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="P165" s="9" t="s">
         <v>323</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="R165" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S165"/>
     </row>
@@ -13232,7 +13232,7 @@
         <v>169</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>218</v>
@@ -13275,13 +13275,13 @@
         <v>226</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E181" s="10">
         <v>90</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>218</v>
@@ -13330,7 +13330,7 @@
         <v>11296</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>218</v>
@@ -13356,7 +13356,7 @@
         <v>460</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S182"/>
     </row>
@@ -13503,7 +13503,7 @@
         <v>10812</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>218</v>
@@ -13529,7 +13529,7 @@
         <v>460</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S186"/>
     </row>
@@ -13634,7 +13634,7 @@
         <v>9563</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>218</v>
@@ -13660,7 +13660,7 @@
         <v>460</v>
       </c>
       <c r="R189" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S189"/>
     </row>
@@ -13681,7 +13681,7 @@
         <v>129</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>218</v>
@@ -13690,7 +13690,7 @@
         <v>745</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>1363</v>
+        <v>1469</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>1317</v>
@@ -13711,7 +13711,7 @@
         <v>324</v>
       </c>
       <c r="R190" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -14234,7 +14234,7 @@
         <v>1555</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>218</v>
@@ -14260,7 +14260,7 @@
         <v>334</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S205"/>
     </row>
@@ -14323,7 +14323,7 @@
         <v>2637</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>218</v>
@@ -14349,7 +14349,7 @@
         <v>334</v>
       </c>
       <c r="R207" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S207"/>
     </row>
@@ -14364,13 +14364,13 @@
         <v>226</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E208" s="10">
         <v>139</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>218</v>
@@ -14681,7 +14681,7 @@
         <v>19930</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>218</v>
@@ -14707,7 +14707,7 @@
         <v>480</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S216"/>
     </row>
@@ -14728,7 +14728,7 @@
         <v>19689</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>218</v>
@@ -14754,7 +14754,7 @@
         <v>480</v>
       </c>
       <c r="R217" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S217"/>
     </row>
@@ -14775,7 +14775,7 @@
         <v>5268</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>218</v>
@@ -14801,7 +14801,7 @@
         <v>481</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S218"/>
     </row>
@@ -14822,7 +14822,7 @@
         <v>4765</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>218</v>
@@ -14848,7 +14848,7 @@
         <v>481</v>
       </c>
       <c r="R219" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S219"/>
     </row>
@@ -14863,7 +14863,7 @@
         <v>226</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>218</v>
@@ -14872,10 +14872,10 @@
         <v>206</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="K220" s="13" t="s">
         <v>208</v>
@@ -14896,7 +14896,7 @@
         <v>324</v>
       </c>
       <c r="R220" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.35">
@@ -14916,7 +14916,7 @@
         <v>173</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>218</v>
@@ -14942,7 +14942,7 @@
         <v>334</v>
       </c>
       <c r="R221" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S221"/>
     </row>
@@ -14963,7 +14963,7 @@
         <v>100</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G222" s="9" t="s">
         <v>218</v>
@@ -14987,7 +14987,7 @@
         <v>123</v>
       </c>
       <c r="R222" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S222"/>
     </row>
@@ -15092,7 +15092,7 @@
         <v>15124</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>218</v>
@@ -15118,7 +15118,7 @@
         <v>121</v>
       </c>
       <c r="R225" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S225"/>
     </row>
@@ -15139,7 +15139,7 @@
         <v>15123</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>218</v>
@@ -15165,7 +15165,7 @@
         <v>121</v>
       </c>
       <c r="R226" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S226"/>
     </row>
@@ -15270,7 +15270,7 @@
         <v>107</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>218</v>
@@ -15279,7 +15279,7 @@
         <v>737</v>
       </c>
       <c r="I229" s="9" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="J229" s="9" t="s">
         <v>1320</v>
@@ -15319,7 +15319,7 @@
         <v>107</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>218</v>
@@ -15328,7 +15328,7 @@
         <v>737</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="J230" s="9" t="s">
         <v>1321</v>
@@ -15763,13 +15763,13 @@
         <v>291</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E244" s="10">
         <v>10000</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>218</v>
@@ -15790,7 +15790,7 @@
         <v>324</v>
       </c>
       <c r="R244" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S244"/>
     </row>
@@ -15811,7 +15811,7 @@
         <v>16402</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>218</v>
@@ -15837,7 +15837,7 @@
         <v>479</v>
       </c>
       <c r="R245" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S245"/>
     </row>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>293</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="P247" s="9" t="s">
         <v>323</v>
@@ -15921,7 +15921,7 @@
         <v>334</v>
       </c>
       <c r="R247" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S247"/>
     </row>
@@ -15942,7 +15942,7 @@
         <v>14141</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>218</v>
@@ -15968,7 +15968,7 @@
         <v>479</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S248"/>
     </row>
@@ -15983,7 +15983,7 @@
         <v>226</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>218</v>
@@ -16023,13 +16023,13 @@
         <v>226</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E250" s="10">
         <v>64</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>218</v>
@@ -16038,7 +16038,7 @@
         <v>748</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>1362</v>
+        <v>1470</v>
       </c>
       <c r="J250" s="9" t="s">
         <v>1318</v>
@@ -18339,7 +18339,7 @@
         <v>4636</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>218</v>
@@ -18365,7 +18365,7 @@
         <v>385</v>
       </c>
       <c r="R313" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S313"/>
     </row>
@@ -18473,7 +18473,7 @@
         <v>4631</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>218</v>
@@ -18499,7 +18499,7 @@
         <v>385</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S316"/>
     </row>
@@ -18514,7 +18514,7 @@
         <v>226</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G317" s="9" t="s">
         <v>218</v>
@@ -18551,13 +18551,13 @@
         <v>226</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E318" s="10">
         <v>42</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>218</v>
@@ -18587,7 +18587,7 @@
         <v>324</v>
       </c>
       <c r="R318" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -19004,7 +19004,7 @@
     </row>
     <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>293</v>
@@ -19031,10 +19031,10 @@
         <v>0</v>
       </c>
       <c r="N331" s="6" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="O331" s="6" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="P331" s="9" t="s">
         <v>323</v>
@@ -19043,7 +19043,7 @@
         <v>334</v>
       </c>
       <c r="R331" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S331"/>
     </row>
@@ -20370,7 +20370,7 @@
         <v>226</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G366" s="9" t="s">
         <v>218</v>
@@ -20537,13 +20537,13 @@
         <v>226</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E370" s="10">
         <v>91</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>218</v>
@@ -20552,7 +20552,7 @@
         <v>761</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>1361</v>
+        <v>1471</v>
       </c>
       <c r="J370" s="9" t="s">
         <v>1324</v>
@@ -20883,7 +20883,7 @@
     </row>
     <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>293</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="O378" s="6" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="P378" s="9" t="s">
         <v>323</v>
@@ -20919,7 +20919,7 @@
         <v>334</v>
       </c>
       <c r="R378" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S378"/>
     </row>
@@ -21163,20 +21163,20 @@
         <v>226</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E386" s="10">
         <v>87</v>
       </c>
       <c r="F386" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G386" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H386" s="8"/>
       <c r="J386" s="9" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="L386" s="12">
         <v>44490</v>
@@ -21191,7 +21191,7 @@
         <v>324</v>
       </c>
       <c r="R386" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="S386"/>
     </row>
@@ -21254,7 +21254,7 @@
         <v>402586</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>218</v>
@@ -21279,7 +21279,7 @@
         <v>341</v>
       </c>
       <c r="R390" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S390"/>
     </row>
@@ -21462,20 +21462,20 @@
         <v>226</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E395" s="10">
         <v>93</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>218</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="9" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="K395" s="6"/>
       <c r="L395" s="12"/>
@@ -21490,7 +21490,7 @@
         <v>341</v>
       </c>
       <c r="R395" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S395"/>
     </row>
@@ -22122,7 +22122,7 @@
         <v>60805</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G413" s="6" t="s">
         <v>218</v>
@@ -22151,7 +22151,7 @@
         <v>334</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S413"/>
     </row>
@@ -22172,7 +22172,7 @@
         <v>60677</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G414" s="6" t="s">
         <v>218</v>
@@ -22201,7 +22201,7 @@
         <v>334</v>
       </c>
       <c r="R414" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S414"/>
     </row>
@@ -22222,7 +22222,7 @@
         <v>52190</v>
       </c>
       <c r="F415" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G415" s="6" t="s">
         <v>218</v>
@@ -22251,7 +22251,7 @@
         <v>334</v>
       </c>
       <c r="R415" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S415"/>
     </row>
@@ -22272,7 +22272,7 @@
         <v>48718</v>
       </c>
       <c r="F416" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G416" s="6" t="s">
         <v>218</v>
@@ -22301,7 +22301,7 @@
         <v>334</v>
       </c>
       <c r="R416" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S416"/>
     </row>
@@ -22322,7 +22322,7 @@
         <v>48649</v>
       </c>
       <c r="F417" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G417" s="6" t="s">
         <v>218</v>
@@ -22351,7 +22351,7 @@
         <v>334</v>
       </c>
       <c r="R417" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S417"/>
     </row>
@@ -22536,7 +22536,7 @@
         <v>41854</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G422" s="6" t="s">
         <v>218</v>
@@ -22565,7 +22565,7 @@
         <v>334</v>
       </c>
       <c r="R422" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S422"/>
     </row>
@@ -22626,7 +22626,7 @@
         <v>97</v>
       </c>
       <c r="F424" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G424" s="9" t="s">
         <v>218</v>
@@ -22678,7 +22678,7 @@
         <v>97</v>
       </c>
       <c r="F425" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G425" s="9" t="s">
         <v>218</v>
@@ -23152,7 +23152,7 @@
         <v>226</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G437" s="9" t="s">
         <v>218</v>
@@ -23235,7 +23235,7 @@
         <v>3321</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G439" s="6" t="s">
         <v>218</v>
@@ -23261,7 +23261,7 @@
         <v>334</v>
       </c>
       <c r="R439" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S439"/>
     </row>
@@ -23282,7 +23282,7 @@
         <v>1915</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G440" s="6" t="s">
         <v>218</v>
@@ -23308,7 +23308,7 @@
         <v>334</v>
       </c>
       <c r="R440" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S440"/>
     </row>
@@ -23497,7 +23497,7 @@
         <v>15050</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G445" s="6" t="s">
         <v>218</v>
@@ -23523,7 +23523,7 @@
         <v>171</v>
       </c>
       <c r="R445" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S445"/>
     </row>
@@ -23538,7 +23538,7 @@
         <v>226</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G446" s="9" t="s">
         <v>218</v>
@@ -23578,13 +23578,13 @@
         <v>226</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E447" s="10">
         <v>21</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G447" s="9" t="s">
         <v>218</v>
@@ -23785,7 +23785,7 @@
         <v>1789</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G453" s="6" t="s">
         <v>218</v>
@@ -23811,7 +23811,7 @@
         <v>334</v>
       </c>
       <c r="R453" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S453"/>
     </row>
@@ -23916,7 +23916,7 @@
         <v>2043</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G456" s="6" t="s">
         <v>218</v>
@@ -23942,7 +23942,7 @@
         <v>334</v>
       </c>
       <c r="R456" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S456"/>
     </row>
@@ -24066,7 +24066,7 @@
     </row>
     <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>293</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="O460" s="6" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="P460" s="9" t="s">
         <v>323</v>
@@ -24102,7 +24102,7 @@
         <v>171</v>
       </c>
       <c r="R460" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S460"/>
     </row>
@@ -24123,7 +24123,7 @@
         <v>1812</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G461" s="6" t="s">
         <v>218</v>
@@ -24149,13 +24149,13 @@
         <v>334</v>
       </c>
       <c r="R461" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S461"/>
     </row>
     <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>293</v>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="O462" s="6" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="P462" s="9" t="s">
         <v>323</v>
@@ -24191,7 +24191,7 @@
         <v>171</v>
       </c>
       <c r="R462" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S462"/>
     </row>
@@ -24286,7 +24286,7 @@
         <v>65</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G465" s="9" t="s">
         <v>218</v>
@@ -24352,7 +24352,7 @@
         <v>15240</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G467" s="6" t="s">
         <v>218</v>
@@ -24380,7 +24380,7 @@
         <v>334</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S467"/>
     </row>
@@ -24531,7 +24531,7 @@
         <v>15240</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G472" s="6" t="s">
         <v>218</v>
@@ -24559,7 +24559,7 @@
         <v>334</v>
       </c>
       <c r="R472" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S472"/>
     </row>
@@ -24716,7 +24716,7 @@
         <v>15237</v>
       </c>
       <c r="F477" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G477" s="6" t="s">
         <v>218</v>
@@ -24744,7 +24744,7 @@
         <v>334</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S477"/>
     </row>
@@ -24765,7 +24765,7 @@
         <v>14537</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G478" s="6" t="s">
         <v>218</v>
@@ -24793,7 +24793,7 @@
         <v>334</v>
       </c>
       <c r="R478" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S478"/>
     </row>
@@ -24814,7 +24814,7 @@
         <v>15239</v>
       </c>
       <c r="F479" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G479" s="6" t="s">
         <v>218</v>
@@ -24842,7 +24842,7 @@
         <v>334</v>
       </c>
       <c r="R479" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S479"/>
     </row>
@@ -24863,7 +24863,7 @@
         <v>15236</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G480" s="6" t="s">
         <v>218</v>
@@ -24891,7 +24891,7 @@
         <v>334</v>
       </c>
       <c r="R480" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S480"/>
     </row>
@@ -24906,25 +24906,25 @@
         <v>226</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E481" s="10">
         <v>117</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G481" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="I481" s="9" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="J481" s="9" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="K481" s="6"/>
       <c r="L481" s="12"/>
@@ -24941,7 +24941,7 @@
         <v>334</v>
       </c>
       <c r="R481" s="15" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -25657,7 +25657,7 @@
         <v>226</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G506" s="9" t="s">
         <v>218</v>
@@ -26133,7 +26133,7 @@
     </row>
     <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="6" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B518" s="9" t="s">
         <v>293</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="O518" s="6" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="P518" s="9" t="s">
         <v>323</v>
@@ -26169,7 +26169,7 @@
         <v>341</v>
       </c>
       <c r="R518" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S518"/>
     </row>
@@ -26273,7 +26273,7 @@
         <v>1677</v>
       </c>
       <c r="F521" s="10" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G521" s="6" t="s">
         <v>218</v>
@@ -26298,7 +26298,7 @@
         <v>334</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S521"/>
     </row>
@@ -26397,13 +26397,13 @@
         <v>1334</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -26417,7 +26417,7 @@
         <v>1335</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
@@ -26426,7 +26426,7 @@
         <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -26440,7 +26440,7 @@
         <v>1336</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -26449,7 +26449,7 @@
         <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -26463,7 +26463,7 @@
         <v>1335</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
@@ -26472,7 +26472,7 @@
         <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -26486,7 +26486,7 @@
         <v>1336</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E5" t="s">
         <v>219</v>
@@ -26495,7 +26495,7 @@
         <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -26506,10 +26506,10 @@
         <v>1350</v>
       </c>
       <c r="C6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>243</v>
@@ -26529,13 +26529,13 @@
         <v>1337</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -26546,10 +26546,10 @@
         <v>1351</v>
       </c>
       <c r="C8" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
@@ -26558,7 +26558,7 @@
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -26569,10 +26569,10 @@
         <v>1351</v>
       </c>
       <c r="C9" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E9" t="s">
         <v>243</v>
@@ -26581,7 +26581,7 @@
         <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -26592,10 +26592,10 @@
         <v>1351</v>
       </c>
       <c r="C10" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
@@ -26604,7 +26604,7 @@
         <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -26615,10 +26615,10 @@
         <v>1351</v>
       </c>
       <c r="C11" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E11" t="s">
         <v>243</v>
@@ -26627,7 +26627,7 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -26641,7 +26641,7 @@
         <v>1338</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E12" t="s">
         <v>219</v>
@@ -26650,7 +26650,7 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -26664,7 +26664,7 @@
         <v>1339</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E13" t="s">
         <v>243</v>
@@ -26687,7 +26687,7 @@
         <v>1339</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -26710,7 +26710,7 @@
         <v>1338</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E15" t="s">
         <v>243</v>
@@ -26719,7 +26719,7 @@
         <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -26733,13 +26733,13 @@
         <v>1341</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -26750,10 +26750,10 @@
         <v>1353</v>
       </c>
       <c r="C17" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>243</v>
@@ -26773,13 +26773,13 @@
         <v>1342</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -26790,16 +26790,16 @@
         <v>1354</v>
       </c>
       <c r="C19" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -26813,7 +26813,7 @@
         <v>1343</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E20" t="s">
         <v>219</v>
@@ -26822,7 +26822,7 @@
         <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -26836,7 +26836,7 @@
         <v>1344</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E21" t="s">
         <v>219</v>
@@ -26845,7 +26845,7 @@
         <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -26859,7 +26859,7 @@
         <v>1345</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
@@ -26868,7 +26868,7 @@
         <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -26882,7 +26882,7 @@
         <v>1346</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
@@ -26891,7 +26891,7 @@
         <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -26905,7 +26905,7 @@
         <v>1346</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E24" t="s">
         <v>219</v>
@@ -26914,7 +26914,7 @@
         <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -26928,7 +26928,7 @@
         <v>1345</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
@@ -26937,7 +26937,7 @@
         <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -26951,13 +26951,13 @@
         <v>1340</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -26971,13 +26971,13 @@
         <v>1347</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -26988,16 +26988,16 @@
         <v>1359</v>
       </c>
       <c r="C28" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -27005,20 +27005,20 @@
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C29" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
@@ -27029,20 +27029,20 @@
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C30" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
@@ -27053,20 +27053,20 @@
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C31" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
@@ -27077,20 +27077,20 @@
         <v>184</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C32" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -27101,20 +27101,20 @@
         <v>184</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C33" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6BDAAD-4A3E-4D25-BA9A-BDCFCEA9499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB92EB-F5E8-491B-9A03-1477A8421A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4972,7 +4972,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,7 +6347,7 @@
       <c r="X29" s="2"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="X30" s="2"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -8083,7 +8083,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="X70" s="2"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -9018,7 +9018,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9070,7 +9070,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9315,7 +9315,7 @@
       <c r="X93" s="2"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="X94" s="2"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>160</v>
       </c>
@@ -9897,7 +9897,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10228,7 +10228,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10281,7 +10281,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10643,7 +10643,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10699,7 +10699,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10755,7 +10755,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10811,7 +10811,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -11116,7 +11116,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11442,7 +11442,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>16</v>
       </c>
@@ -11503,7 +11503,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>16</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -12053,7 +12053,7 @@
       <c r="R148" s="2"/>
       <c r="S148"/>
     </row>
-    <row r="149" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>156</v>
       </c>
@@ -13212,7 +13212,7 @@
       <c r="R179"/>
       <c r="S179"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -13261,7 +13261,7 @@
       <c r="R180" s="2"/>
       <c r="S180"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>48</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="R181"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>50</v>
       </c>
@@ -13483,7 +13483,7 @@
       <c r="R185"/>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>50</v>
       </c>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="S189"/>
     </row>
-    <row r="190" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>50</v>
       </c>
@@ -14214,7 +14214,7 @@
       <c r="R204"/>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14303,7 +14303,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>60</v>
       </c>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="S207"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>60</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>126</v>
       </c>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>126</v>
       </c>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>126</v>
       </c>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>126</v>
       </c>
@@ -15072,7 +15072,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>120</v>
       </c>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>120</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="R228"/>
       <c r="S228"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>120</v>
       </c>
@@ -15299,7 +15299,7 @@
       <c r="R229" s="2"/>
       <c r="S229"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -15749,7 +15749,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>72</v>
       </c>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>72</v>
       </c>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="R249"/>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -18319,7 +18319,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>124</v>
       </c>
@@ -18453,7 +18453,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18537,7 +18537,7 @@
       <c r="R317" s="2"/>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -20523,7 +20523,7 @@
       <c r="R369"/>
       <c r="S369"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>184</v>
       </c>
@@ -21234,7 +21234,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>146</v>
       </c>
@@ -22102,7 +22102,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>154</v>
       </c>
@@ -22152,7 +22152,7 @@
       </c>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>154</v>
       </c>
@@ -22202,7 +22202,7 @@
       </c>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>154</v>
       </c>
@@ -22252,7 +22252,7 @@
       </c>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22516,7 +22516,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -22606,7 +22606,7 @@
       <c r="R423"/>
       <c r="S423"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -22658,7 +22658,7 @@
       <c r="R424"/>
       <c r="S424"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>154</v>
       </c>
@@ -23215,7 +23215,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>166</v>
       </c>
@@ -23262,7 +23262,7 @@
       </c>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>166</v>
       </c>
@@ -23477,7 +23477,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23564,7 +23564,7 @@
       <c r="R446"/>
       <c r="S446"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>170</v>
       </c>
@@ -23765,7 +23765,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23896,7 +23896,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -24103,7 +24103,7 @@
       </c>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>118</v>
       </c>
@@ -24266,7 +24266,7 @@
       <c r="R464"/>
       <c r="S464"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>118</v>
       </c>
@@ -24332,7 +24332,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24511,7 +24511,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24696,7 +24696,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>176</v>
       </c>
@@ -24745,7 +24745,7 @@
       </c>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>176</v>
       </c>
@@ -24794,7 +24794,7 @@
       </c>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>176</v>
       </c>
@@ -24843,7 +24843,7 @@
       </c>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>176</v>
       </c>
@@ -24892,7 +24892,7 @@
       </c>
       <c r="S480"/>
     </row>
-    <row r="481" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>176</v>
       </c>
@@ -26253,7 +26253,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>200</v>
       </c>
@@ -26344,13 +26344,13 @@
   <autoFilter ref="A1:S522" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="full text (the north wind and the sun)"/>
+        <filter val="word list"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="high"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="15">
       <filters>

--- a/data/phoneticData.xlsx
+++ b/data/phoneticData.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\MA_fork\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21C10A-B115-480A-B4BE-D86DE499BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79B3638-1E33-4617-890F-96B23F1F645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
     <sheet name="langInfo_100LC" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$524</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabelle2!$A$1:$B$101</definedName>
     <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">langInfo_100LC!$A$1:$S$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6435" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6319" uniqueCount="1471">
   <si>
     <t>iso639_3</t>
   </si>
@@ -4466,7 +4464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4488,12 +4486,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4503,7 +4495,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4511,27 +4503,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4550,9 +4527,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4975,29 +4949,29 @@
       <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="49" style="9" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="9.140625" style="6"/>
-    <col min="18" max="18" width="46" style="16" customWidth="1"/>
-    <col min="19" max="19" width="53.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="9"/>
+    <col min="17" max="17" width="9.109375" style="6"/>
+    <col min="18" max="18" width="46" style="15" customWidth="1"/>
+    <col min="19" max="19" width="53.6640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5049,10 +5023,10 @@
       <c r="Q1" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>1450</v>
       </c>
       <c r="T1" s="2"/>
@@ -5062,7 +5036,7 @@
       <c r="X1" s="2"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>331</v>
       </c>
@@ -5111,7 +5085,7 @@
       <c r="X2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5155,7 +5129,7 @@
       <c r="X3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5202,7 +5176,7 @@
       <c r="X4" s="2"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>335</v>
       </c>
@@ -5251,7 +5225,7 @@
       <c r="X5" s="2"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>335</v>
       </c>
@@ -5300,7 +5274,7 @@
       <c r="X6" s="2"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>298</v>
       </c>
@@ -5349,7 +5323,7 @@
       <c r="X7" s="2"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>298</v>
       </c>
@@ -5398,7 +5372,7 @@
       <c r="X8" s="2"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -5453,7 +5427,7 @@
       <c r="X9" s="2"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>341</v>
       </c>
@@ -5502,7 +5476,7 @@
       <c r="X10" s="2"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>343</v>
       </c>
@@ -5551,7 +5525,7 @@
       <c r="X11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>343</v>
       </c>
@@ -5591,7 +5565,7 @@
       <c r="X12" s="2"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>343</v>
       </c>
@@ -5640,7 +5614,7 @@
       <c r="X13" s="2"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>343</v>
       </c>
@@ -5687,7 +5661,7 @@
       <c r="X14" s="2"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>343</v>
       </c>
@@ -5734,7 +5708,7 @@
       <c r="X15" s="2"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>343</v>
       </c>
@@ -5783,7 +5757,7 @@
       <c r="X16" s="2"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>344</v>
       </c>
@@ -5832,7 +5806,7 @@
       <c r="X17" s="2"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1418</v>
       </c>
@@ -5880,7 +5854,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>347</v>
       </c>
@@ -5929,7 +5903,7 @@
       <c r="X19" s="2"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -5963,7 +5937,7 @@
       <c r="X20" s="2"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>349</v>
       </c>
@@ -6013,7 +5987,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>349</v>
       </c>
@@ -6062,7 +6036,7 @@
       <c r="X22" s="2"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>351</v>
       </c>
@@ -6111,7 +6085,7 @@
       <c r="X23" s="2"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6131,7 +6105,7 @@
       <c r="X24" s="2"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -6151,7 +6125,7 @@
       <c r="X25" s="2"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>353</v>
       </c>
@@ -6200,7 +6174,7 @@
       <c r="X26" s="2"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>355</v>
       </c>
@@ -6249,7 +6223,7 @@
       <c r="X27" s="2"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>356</v>
       </c>
@@ -6298,7 +6272,7 @@
       <c r="X28" s="2"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
@@ -6353,7 +6327,7 @@
       <c r="X29" s="2"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
@@ -6408,7 +6382,7 @@
       <c r="X30" s="2"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>361</v>
       </c>
@@ -6457,7 +6431,7 @@
       <c r="X31" s="2"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6511,7 +6485,7 @@
       <c r="X32" s="2"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6557,7 +6531,7 @@
       <c r="X33" s="2"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>363</v>
       </c>
@@ -6606,7 +6580,7 @@
       <c r="X34" s="2"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>365</v>
       </c>
@@ -6655,7 +6629,7 @@
       <c r="X35" s="2"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>367</v>
       </c>
@@ -6704,7 +6678,7 @@
       <c r="X36" s="2"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
@@ -6724,7 +6698,7 @@
       <c r="X37" s="2"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>369</v>
       </c>
@@ -6774,7 +6748,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>369</v>
       </c>
@@ -6823,7 +6797,7 @@
       <c r="X39" s="2"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>369</v>
       </c>
@@ -6872,7 +6846,7 @@
       <c r="X40" s="2"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>371</v>
       </c>
@@ -6921,7 +6895,7 @@
       <c r="X41" s="2"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>371</v>
       </c>
@@ -6970,7 +6944,7 @@
       <c r="X42" s="2"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>373</v>
       </c>
@@ -7019,7 +6993,7 @@
       <c r="X43" s="2"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>375</v>
       </c>
@@ -7068,7 +7042,7 @@
       <c r="X44" s="2"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>377</v>
       </c>
@@ -7117,7 +7091,7 @@
       <c r="X45" s="2"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>379</v>
       </c>
@@ -7166,7 +7140,7 @@
       <c r="X46" s="2"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>381</v>
       </c>
@@ -7209,7 +7183,7 @@
       <c r="X47" s="2"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>381</v>
       </c>
@@ -7258,7 +7232,7 @@
       <c r="X48" s="2"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>381</v>
       </c>
@@ -7307,7 +7281,7 @@
       <c r="X49" s="2"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>174</v>
       </c>
@@ -7328,7 +7302,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1420</v>
       </c>
@@ -7376,7 +7350,7 @@
       <c r="X51" s="2"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -7396,7 +7370,7 @@
       <c r="X52" s="2"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>382</v>
       </c>
@@ -7445,7 +7419,7 @@
       <c r="X53" s="2"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -7465,7 +7439,7 @@
       <c r="X54" s="2"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
@@ -7485,7 +7459,7 @@
       <c r="X55" s="2"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>294</v>
       </c>
@@ -7534,7 +7508,7 @@
       <c r="X56" s="2"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>294</v>
       </c>
@@ -7583,7 +7557,7 @@
       <c r="X57" s="2"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>294</v>
       </c>
@@ -7632,7 +7606,7 @@
       <c r="X58" s="2"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>385</v>
       </c>
@@ -7681,7 +7655,7 @@
       <c r="X59" s="2"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>387</v>
       </c>
@@ -7730,7 +7704,7 @@
       <c r="X60" s="2"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>389</v>
       </c>
@@ -7779,7 +7753,7 @@
       <c r="X61" s="2"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>721</v>
       </c>
@@ -7829,7 +7803,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>721</v>
       </c>
@@ -7878,7 +7852,7 @@
       <c r="X63" s="2"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -7898,7 +7872,7 @@
       <c r="X64" s="2"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>391</v>
       </c>
@@ -7948,7 +7922,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>393</v>
       </c>
@@ -7997,7 +7971,7 @@
       <c r="X66" s="2"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>28</v>
       </c>
@@ -8017,7 +7991,7 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -8037,7 +8011,7 @@
       <c r="X68" s="2"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
@@ -8083,7 +8057,7 @@
       <c r="X69" s="2"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
@@ -8137,7 +8111,7 @@
       <c r="X70" s="2"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>96</v>
       </c>
@@ -8195,7 +8169,7 @@
       <c r="X71" s="2"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>396</v>
       </c>
@@ -8244,7 +8218,7 @@
       <c r="X72" s="2"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>398</v>
       </c>
@@ -8293,7 +8267,7 @@
       <c r="X73" s="2"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>400</v>
       </c>
@@ -8342,7 +8316,7 @@
       <c r="X74" s="2"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>400</v>
       </c>
@@ -8392,7 +8366,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>402</v>
       </c>
@@ -8441,7 +8415,7 @@
       <c r="X76" s="2"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>136</v>
       </c>
@@ -8495,7 +8469,7 @@
       <c r="X77" s="2"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -8550,7 +8524,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>405</v>
       </c>
@@ -8601,7 +8575,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
@@ -8654,7 +8628,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>320</v>
       </c>
@@ -8707,7 +8681,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>320</v>
       </c>
@@ -8760,7 +8734,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>320</v>
       </c>
@@ -8813,7 +8787,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>320</v>
       </c>
@@ -8866,7 +8840,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>320</v>
       </c>
@@ -8919,7 +8893,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>407</v>
       </c>
@@ -8968,7 +8942,7 @@
       <c r="X86" s="2"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>407</v>
       </c>
@@ -9018,7 +8992,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>160</v>
       </c>
@@ -9070,7 +9044,7 @@
       <c r="X88" s="2"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
@@ -9122,7 +9096,7 @@
       <c r="X89" s="2"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -9175,7 +9149,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>160</v>
       </c>
@@ -9221,7 +9195,7 @@
       <c r="X91" s="2"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>160</v>
       </c>
@@ -9267,7 +9241,7 @@
       <c r="X92" s="2"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>160</v>
       </c>
@@ -9323,7 +9297,7 @@
       <c r="X93" s="2"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>160</v>
       </c>
@@ -9379,7 +9353,7 @@
       <c r="X94" s="2"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>32</v>
       </c>
@@ -9399,7 +9373,7 @@
       <c r="X95" s="2"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>1423</v>
       </c>
@@ -9447,7 +9421,7 @@
       <c r="X96" s="2"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>408</v>
       </c>
@@ -9496,7 +9470,7 @@
       <c r="X97" s="2"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>410</v>
       </c>
@@ -9545,7 +9519,7 @@
       <c r="X98" s="2"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>88</v>
       </c>
@@ -9566,7 +9540,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>412</v>
       </c>
@@ -9615,7 +9589,7 @@
       <c r="X100" s="2"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>412</v>
       </c>
@@ -9664,7 +9638,7 @@
       <c r="X101" s="2"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>414</v>
       </c>
@@ -9713,7 +9687,7 @@
       <c r="X102" s="2"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>417</v>
       </c>
@@ -9762,7 +9736,7 @@
       <c r="X103" s="2"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>420</v>
       </c>
@@ -9809,7 +9783,7 @@
       <c r="X104" s="2"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>722</v>
       </c>
@@ -9850,7 +9824,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>722</v>
       </c>
@@ -9897,7 +9871,7 @@
       <c r="X106" s="2"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -9952,7 +9926,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -10007,7 +9981,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -10057,7 +10031,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -10106,10 +10080,10 @@
       <c r="Q110" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="R110" s="15" t="s">
+      <c r="R110" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="S110" s="15" t="s">
+      <c r="S110" s="14" t="s">
         <v>1451</v>
       </c>
       <c r="T110" s="2"/>
@@ -10120,7 +10094,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -10175,7 +10149,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -10228,7 +10202,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
@@ -10281,7 +10255,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -10337,7 +10311,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>158</v>
       </c>
@@ -10393,7 +10367,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>158</v>
       </c>
@@ -10443,7 +10417,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>158</v>
       </c>
@@ -10493,7 +10467,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
@@ -10543,7 +10517,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
@@ -10593,7 +10567,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -10643,7 +10617,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>158</v>
       </c>
@@ -10699,7 +10673,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>158</v>
       </c>
@@ -10755,7 +10729,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>158</v>
       </c>
@@ -10811,7 +10785,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
@@ -10867,7 +10841,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>158</v>
       </c>
@@ -10917,7 +10891,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>158</v>
       </c>
@@ -10967,7 +10941,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>158</v>
       </c>
@@ -11027,7 +11001,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>158</v>
       </c>
@@ -11087,7 +11061,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>424</v>
       </c>
@@ -11137,7 +11111,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>426</v>
       </c>
@@ -11187,7 +11161,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>1426</v>
       </c>
@@ -11236,7 +11210,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>16</v>
       </c>
@@ -11289,7 +11263,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>16</v>
       </c>
@@ -11342,7 +11316,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>16</v>
       </c>
@@ -11391,10 +11365,10 @@
       <c r="P134" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R134" s="15" t="s">
+      <c r="R134" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="S134" s="15"/>
+      <c r="S134" s="14"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
@@ -11403,7 +11377,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -11452,10 +11426,10 @@
       <c r="P135" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R135" s="15" t="s">
+      <c r="R135" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="S135" s="15"/>
+      <c r="S135" s="14"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
@@ -11464,7 +11438,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>428</v>
       </c>
@@ -11514,7 +11488,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>430</v>
       </c>
@@ -11564,7 +11538,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>430</v>
       </c>
@@ -11614,7 +11588,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>724</v>
       </c>
@@ -11664,7 +11638,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>724</v>
       </c>
@@ -11712,7 +11686,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>38</v>
       </c>
@@ -11732,7 +11706,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>40</v>
       </c>
@@ -11779,7 +11753,7 @@
       </c>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>40</v>
       </c>
@@ -11826,7 +11800,7 @@
       </c>
       <c r="S143"/>
     </row>
-    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
@@ -11873,7 +11847,7 @@
       </c>
       <c r="S144"/>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>156</v>
       </c>
@@ -11920,7 +11894,7 @@
       </c>
       <c r="S145"/>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
@@ -11967,7 +11941,7 @@
       </c>
       <c r="S146"/>
     </row>
-    <row r="147" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>156</v>
       </c>
@@ -12010,11 +11984,11 @@
       <c r="P147" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R147" s="15" t="s">
+      <c r="R147" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>432</v>
       </c>
@@ -12057,7 +12031,7 @@
       <c r="R148" s="2"/>
       <c r="S148"/>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>434</v>
       </c>
@@ -12100,7 +12074,7 @@
       <c r="R149" s="2"/>
       <c r="S149"/>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>436</v>
       </c>
@@ -12143,7 +12117,7 @@
       <c r="R150" s="2"/>
       <c r="S150"/>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>438</v>
       </c>
@@ -12186,7 +12160,7 @@
       <c r="R151" s="2"/>
       <c r="S151"/>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>438</v>
       </c>
@@ -12229,7 +12203,7 @@
       <c r="R152" s="2"/>
       <c r="S152"/>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>440</v>
       </c>
@@ -12272,7 +12246,7 @@
       <c r="R153" s="2"/>
       <c r="S153"/>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>440</v>
       </c>
@@ -12314,7 +12288,7 @@
       <c r="R154"/>
       <c r="S154"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>442</v>
       </c>
@@ -12356,7 +12330,7 @@
       <c r="R155"/>
       <c r="S155"/>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>442</v>
       </c>
@@ -12398,7 +12372,7 @@
       <c r="R156"/>
       <c r="S156"/>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>444</v>
       </c>
@@ -12440,7 +12414,7 @@
       <c r="R157"/>
       <c r="S157"/>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>444</v>
       </c>
@@ -12482,7 +12456,7 @@
       <c r="R158"/>
       <c r="S158"/>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>446</v>
       </c>
@@ -12524,7 +12498,7 @@
       <c r="R159"/>
       <c r="S159"/>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>42</v>
       </c>
@@ -12537,7 +12511,7 @@
       <c r="R160"/>
       <c r="S160"/>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>448</v>
       </c>
@@ -12579,7 +12553,7 @@
       <c r="R161"/>
       <c r="S161"/>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>450</v>
       </c>
@@ -12621,7 +12595,7 @@
       <c r="R162"/>
       <c r="S162"/>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>450</v>
       </c>
@@ -12663,7 +12637,7 @@
       <c r="R163"/>
       <c r="S163"/>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>452</v>
       </c>
@@ -12705,7 +12679,7 @@
       <c r="R164"/>
       <c r="S164"/>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>14</v>
       </c>
@@ -12718,7 +12692,7 @@
       <c r="R165"/>
       <c r="S165"/>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>455</v>
       </c>
@@ -12760,7 +12734,7 @@
       <c r="R166"/>
       <c r="S166"/>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>132</v>
       </c>
@@ -12773,7 +12747,7 @@
       <c r="R167"/>
       <c r="S167"/>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>1427</v>
       </c>
@@ -12815,7 +12789,7 @@
       </c>
       <c r="S168"/>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>66</v>
       </c>
@@ -12828,7 +12802,7 @@
       <c r="R169"/>
       <c r="S169"/>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>34</v>
       </c>
@@ -12841,7 +12815,7 @@
       <c r="R170"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>46</v>
       </c>
@@ -12890,7 +12864,7 @@
       <c r="R171" s="2"/>
       <c r="S171"/>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>457</v>
       </c>
@@ -12932,7 +12906,7 @@
       <c r="R172"/>
       <c r="S172"/>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>457</v>
       </c>
@@ -12974,7 +12948,7 @@
       <c r="R173"/>
       <c r="S173"/>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>317</v>
       </c>
@@ -13016,7 +12990,7 @@
       <c r="R174"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -13058,7 +13032,7 @@
       <c r="R175"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>317</v>
       </c>
@@ -13100,7 +13074,7 @@
       <c r="R176"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>317</v>
       </c>
@@ -13142,7 +13116,7 @@
       <c r="R177"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>48</v>
       </c>
@@ -13186,7 +13160,7 @@
       </c>
       <c r="S178"/>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>48</v>
       </c>
@@ -13230,7 +13204,7 @@
       </c>
       <c r="S179"/>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>48</v>
       </c>
@@ -13279,15 +13253,15 @@
       <c r="R180"/>
       <c r="S180"/>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="L181" s="12"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="L182" s="12"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>50</v>
       </c>
@@ -13334,7 +13308,7 @@
       </c>
       <c r="S183"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>50</v>
       </c>
@@ -13381,7 +13355,7 @@
       </c>
       <c r="S184"/>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>50</v>
       </c>
@@ -13428,7 +13402,7 @@
       </c>
       <c r="S185"/>
     </row>
-    <row r="186" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>50</v>
       </c>
@@ -13474,11 +13448,11 @@
       <c r="P186" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R186" s="15" t="s">
+      <c r="R186" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>52</v>
       </c>
@@ -13491,7 +13465,7 @@
       <c r="R187"/>
       <c r="S187"/>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>54</v>
       </c>
@@ -13504,7 +13478,7 @@
       <c r="R188"/>
       <c r="S188"/>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>460</v>
       </c>
@@ -13546,7 +13520,7 @@
       <c r="R189"/>
       <c r="S189"/>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>462</v>
       </c>
@@ -13588,7 +13562,7 @@
       <c r="R190"/>
       <c r="S190"/>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>296</v>
       </c>
@@ -13630,7 +13604,7 @@
       <c r="R191"/>
       <c r="S191"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>296</v>
       </c>
@@ -13672,7 +13646,7 @@
       <c r="R192"/>
       <c r="S192"/>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>464</v>
       </c>
@@ -13714,7 +13688,7 @@
       <c r="R193"/>
       <c r="S193"/>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>314</v>
       </c>
@@ -13749,7 +13723,7 @@
       <c r="R194"/>
       <c r="S194"/>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>314</v>
       </c>
@@ -13793,7 +13767,7 @@
       <c r="R195"/>
       <c r="S195"/>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>314</v>
       </c>
@@ -13837,7 +13811,7 @@
       <c r="R196"/>
       <c r="S196"/>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>314</v>
       </c>
@@ -13881,7 +13855,7 @@
       <c r="R197"/>
       <c r="S197"/>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>314</v>
       </c>
@@ -13925,7 +13899,7 @@
       <c r="R198"/>
       <c r="S198"/>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>466</v>
       </c>
@@ -13966,7 +13940,7 @@
       <c r="R199"/>
       <c r="S199"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>468</v>
       </c>
@@ -14007,7 +13981,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>468</v>
       </c>
@@ -14048,7 +14022,7 @@
       <c r="R201"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
@@ -14061,7 +14035,7 @@
       <c r="R202"/>
       <c r="S202"/>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>470</v>
       </c>
@@ -14102,7 +14076,7 @@
       <c r="R203"/>
       <c r="S203"/>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>60</v>
       </c>
@@ -14149,7 +14123,7 @@
       </c>
       <c r="S204"/>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
@@ -14196,7 +14170,7 @@
       </c>
       <c r="S205"/>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>60</v>
       </c>
@@ -14242,7 +14216,7 @@
       <c r="R206"/>
       <c r="S206"/>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>316</v>
       </c>
@@ -14284,7 +14258,7 @@
       <c r="R207"/>
       <c r="S207"/>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>316</v>
       </c>
@@ -14326,7 +14300,7 @@
       <c r="R208"/>
       <c r="S208"/>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>316</v>
       </c>
@@ -14368,7 +14342,7 @@
       <c r="R209"/>
       <c r="S209"/>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>316</v>
       </c>
@@ -14405,7 +14379,7 @@
       <c r="R210"/>
       <c r="S210"/>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>299</v>
       </c>
@@ -14445,7 +14419,7 @@
       <c r="R211"/>
       <c r="S211"/>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>299</v>
       </c>
@@ -14487,7 +14461,7 @@
       <c r="R212"/>
       <c r="S212"/>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>299</v>
       </c>
@@ -14529,7 +14503,7 @@
       <c r="R213"/>
       <c r="S213"/>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>299</v>
       </c>
@@ -14571,7 +14545,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>472</v>
       </c>
@@ -14613,7 +14587,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>140</v>
       </c>
@@ -14626,7 +14600,7 @@
       <c r="R216"/>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>474</v>
       </c>
@@ -14668,7 +14642,7 @@
       <c r="R217"/>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>476</v>
       </c>
@@ -14710,7 +14684,7 @@
       <c r="R218"/>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>126</v>
       </c>
@@ -14757,7 +14731,7 @@
       </c>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>126</v>
       </c>
@@ -14804,7 +14778,7 @@
       </c>
       <c r="S220"/>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>126</v>
       </c>
@@ -14851,7 +14825,7 @@
       </c>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>126</v>
       </c>
@@ -14898,7 +14872,7 @@
       </c>
       <c r="S222"/>
     </row>
-    <row r="223" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>126</v>
       </c>
@@ -14941,11 +14915,11 @@
       <c r="P223" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R223" s="15" t="s">
+      <c r="R223" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>62</v>
       </c>
@@ -14992,7 +14966,7 @@
       </c>
       <c r="S224"/>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>122</v>
       </c>
@@ -15037,7 +15011,7 @@
       </c>
       <c r="S225"/>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>481</v>
       </c>
@@ -15079,7 +15053,7 @@
       <c r="R226"/>
       <c r="S226"/>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>481</v>
       </c>
@@ -15121,7 +15095,7 @@
       <c r="R227"/>
       <c r="S227"/>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>120</v>
       </c>
@@ -15168,7 +15142,7 @@
       </c>
       <c r="S228"/>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>120</v>
       </c>
@@ -15215,7 +15189,7 @@
       </c>
       <c r="S229"/>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>120</v>
       </c>
@@ -15264,7 +15238,7 @@
       <c r="R230" s="2"/>
       <c r="S230"/>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>120</v>
       </c>
@@ -15313,7 +15287,7 @@
       <c r="R231" s="2"/>
       <c r="S231"/>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>483</v>
       </c>
@@ -15355,7 +15329,7 @@
       <c r="R232"/>
       <c r="S232"/>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>483</v>
       </c>
@@ -15397,7 +15371,7 @@
       <c r="R233"/>
       <c r="S233"/>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>485</v>
       </c>
@@ -15439,7 +15413,7 @@
       <c r="R234"/>
       <c r="S234"/>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>186</v>
       </c>
@@ -15452,7 +15426,7 @@
       <c r="R235"/>
       <c r="S235"/>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>76</v>
       </c>
@@ -15465,7 +15439,7 @@
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>487</v>
       </c>
@@ -15507,7 +15481,7 @@
       <c r="R237"/>
       <c r="S237"/>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>44</v>
       </c>
@@ -15520,7 +15494,7 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>300</v>
       </c>
@@ -15562,7 +15536,7 @@
       <c r="R239"/>
       <c r="S239"/>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>300</v>
       </c>
@@ -15604,7 +15578,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>490</v>
       </c>
@@ -15646,7 +15620,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -15659,7 +15633,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>492</v>
       </c>
@@ -15701,7 +15675,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>188</v>
       </c>
@@ -15714,7 +15688,7 @@
       <c r="R244"/>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>494</v>
       </c>
@@ -15756,7 +15730,7 @@
       <c r="R245"/>
       <c r="S245"/>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>496</v>
       </c>
@@ -15798,7 +15772,7 @@
       <c r="R246"/>
       <c r="S246"/>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>72</v>
       </c>
@@ -15840,7 +15814,7 @@
       </c>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>72</v>
       </c>
@@ -15887,7 +15861,7 @@
       </c>
       <c r="S248"/>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>72</v>
       </c>
@@ -15934,7 +15908,7 @@
       </c>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>72</v>
       </c>
@@ -15974,7 +15948,7 @@
       <c r="R250"/>
       <c r="S250"/>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>72</v>
       </c>
@@ -16023,7 +15997,7 @@
       <c r="R251"/>
       <c r="S251"/>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>498</v>
       </c>
@@ -16065,7 +16039,7 @@
       <c r="R252"/>
       <c r="S252"/>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>1428</v>
       </c>
@@ -16107,7 +16081,7 @@
       </c>
       <c r="S253"/>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>78</v>
       </c>
@@ -16120,7 +16094,7 @@
       <c r="R254"/>
       <c r="S254"/>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>500</v>
       </c>
@@ -16162,7 +16136,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>64</v>
       </c>
@@ -16175,7 +16149,7 @@
       <c r="R256"/>
       <c r="S256"/>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>502</v>
       </c>
@@ -16217,7 +16191,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>82</v>
       </c>
@@ -16230,7 +16204,7 @@
       <c r="R258"/>
       <c r="S258"/>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>504</v>
       </c>
@@ -16272,7 +16246,7 @@
       <c r="R259"/>
       <c r="S259"/>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>506</v>
       </c>
@@ -16317,7 +16291,7 @@
       <c r="R260"/>
       <c r="S260"/>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>506</v>
       </c>
@@ -16362,7 +16336,7 @@
       <c r="R261"/>
       <c r="S261"/>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>506</v>
       </c>
@@ -16407,7 +16381,7 @@
       <c r="R262"/>
       <c r="S262"/>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>506</v>
       </c>
@@ -16452,7 +16426,7 @@
       <c r="R263"/>
       <c r="S263"/>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>506</v>
       </c>
@@ -16497,7 +16471,7 @@
       <c r="R264"/>
       <c r="S264"/>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>506</v>
       </c>
@@ -16542,7 +16516,7 @@
       <c r="R265"/>
       <c r="S265"/>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>301</v>
       </c>
@@ -16576,7 +16550,7 @@
       <c r="R266"/>
       <c r="S266"/>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>301</v>
       </c>
@@ -16618,7 +16592,7 @@
       <c r="R267"/>
       <c r="S267"/>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>301</v>
       </c>
@@ -16660,7 +16634,7 @@
       <c r="R268"/>
       <c r="S268"/>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>86</v>
       </c>
@@ -16673,7 +16647,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>510</v>
       </c>
@@ -16715,7 +16689,7 @@
       <c r="R270"/>
       <c r="S270"/>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>512</v>
       </c>
@@ -16757,7 +16731,7 @@
       <c r="R271"/>
       <c r="S271"/>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>514</v>
       </c>
@@ -16799,7 +16773,7 @@
       <c r="R272"/>
       <c r="S272"/>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>516</v>
       </c>
@@ -16841,7 +16815,7 @@
       <c r="R273"/>
       <c r="S273"/>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>516</v>
       </c>
@@ -16883,7 +16857,7 @@
       <c r="R274"/>
       <c r="S274"/>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>518</v>
       </c>
@@ -16925,7 +16899,7 @@
       <c r="R275"/>
       <c r="S275"/>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>80</v>
       </c>
@@ -16938,7 +16912,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>520</v>
       </c>
@@ -16980,7 +16954,7 @@
       <c r="R277"/>
       <c r="S277"/>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>522</v>
       </c>
@@ -17022,7 +16996,7 @@
       <c r="R278"/>
       <c r="S278"/>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>524</v>
       </c>
@@ -17064,7 +17038,7 @@
       <c r="R279"/>
       <c r="S279"/>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>526</v>
       </c>
@@ -17106,7 +17080,7 @@
       <c r="R280"/>
       <c r="S280"/>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>528</v>
       </c>
@@ -17148,7 +17122,7 @@
       <c r="R281"/>
       <c r="S281"/>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>528</v>
       </c>
@@ -17190,7 +17164,7 @@
       <c r="R282"/>
       <c r="S282"/>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>90</v>
       </c>
@@ -17203,7 +17177,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>84</v>
       </c>
@@ -17216,7 +17190,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>530</v>
       </c>
@@ -17258,7 +17232,7 @@
       <c r="R285"/>
       <c r="S285"/>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>533</v>
       </c>
@@ -17300,7 +17274,7 @@
       <c r="R286"/>
       <c r="S286"/>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>533</v>
       </c>
@@ -17342,7 +17316,7 @@
       <c r="R287"/>
       <c r="S287"/>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>535</v>
       </c>
@@ -17384,7 +17358,7 @@
       <c r="R288"/>
       <c r="S288"/>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>537</v>
       </c>
@@ -17426,7 +17400,7 @@
       <c r="R289"/>
       <c r="S289"/>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>539</v>
       </c>
@@ -17468,7 +17442,7 @@
       <c r="R290"/>
       <c r="S290"/>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>539</v>
       </c>
@@ -17510,7 +17484,7 @@
       <c r="R291"/>
       <c r="S291"/>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>542</v>
       </c>
@@ -17552,7 +17526,7 @@
       <c r="R292"/>
       <c r="S292"/>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>544</v>
       </c>
@@ -17594,7 +17568,7 @@
       <c r="R293"/>
       <c r="S293"/>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>546</v>
       </c>
@@ -17636,7 +17610,7 @@
       <c r="R294"/>
       <c r="S294"/>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>548</v>
       </c>
@@ -17678,7 +17652,7 @@
       <c r="R295"/>
       <c r="S295"/>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>548</v>
       </c>
@@ -17720,7 +17694,7 @@
       <c r="R296"/>
       <c r="S296"/>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>150</v>
       </c>
@@ -17733,7 +17707,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>726</v>
       </c>
@@ -17775,7 +17749,7 @@
       <c r="R298"/>
       <c r="S298"/>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>550</v>
       </c>
@@ -17817,7 +17791,7 @@
       <c r="R299"/>
       <c r="S299"/>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>318</v>
       </c>
@@ -17854,7 +17828,7 @@
       <c r="R300"/>
       <c r="S300"/>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>318</v>
       </c>
@@ -17896,7 +17870,7 @@
       <c r="R301"/>
       <c r="S301"/>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>318</v>
       </c>
@@ -17938,7 +17912,7 @@
       <c r="R302"/>
       <c r="S302"/>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>552</v>
       </c>
@@ -17980,7 +17954,7 @@
       <c r="R303"/>
       <c r="S303"/>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>100</v>
       </c>
@@ -17993,7 +17967,7 @@
       <c r="R304"/>
       <c r="S304"/>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>555</v>
       </c>
@@ -18035,7 +18009,7 @@
       <c r="R305"/>
       <c r="S305"/>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>557</v>
       </c>
@@ -18077,7 +18051,7 @@
       <c r="R306"/>
       <c r="S306"/>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>557</v>
       </c>
@@ -18119,7 +18093,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>98</v>
       </c>
@@ -18132,7 +18106,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>108</v>
       </c>
@@ -18145,7 +18119,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>104</v>
       </c>
@@ -18158,7 +18132,7 @@
       <c r="R310"/>
       <c r="S310"/>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>725</v>
       </c>
@@ -18200,7 +18174,7 @@
       <c r="R311"/>
       <c r="S311"/>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>725</v>
       </c>
@@ -18242,7 +18216,7 @@
       <c r="R312"/>
       <c r="S312"/>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>725</v>
       </c>
@@ -18284,7 +18258,7 @@
       <c r="R313"/>
       <c r="S313"/>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>725</v>
       </c>
@@ -18326,7 +18300,7 @@
       <c r="R314"/>
       <c r="S314"/>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>558</v>
       </c>
@@ -18368,7 +18342,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>124</v>
       </c>
@@ -18415,7 +18389,7 @@
       </c>
       <c r="S316"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>124</v>
       </c>
@@ -18462,7 +18436,7 @@
       </c>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>124</v>
       </c>
@@ -18499,7 +18473,7 @@
       <c r="R318" s="2"/>
       <c r="S318"/>
     </row>
-    <row r="319" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>124</v>
       </c>
@@ -18545,11 +18519,11 @@
       <c r="P319" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R319" s="15" t="s">
+      <c r="R319" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>94</v>
       </c>
@@ -18562,7 +18536,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>134</v>
       </c>
@@ -18575,7 +18549,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>192</v>
       </c>
@@ -18588,7 +18562,7 @@
       <c r="R322"/>
       <c r="S322"/>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>560</v>
       </c>
@@ -18633,7 +18607,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>563</v>
       </c>
@@ -18675,7 +18649,7 @@
       <c r="R324"/>
       <c r="S324"/>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>114</v>
       </c>
@@ -18688,7 +18662,7 @@
       <c r="R325"/>
       <c r="S325"/>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>565</v>
       </c>
@@ -18730,7 +18704,7 @@
       <c r="R326"/>
       <c r="S326"/>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>567</v>
       </c>
@@ -18772,7 +18746,7 @@
       <c r="R327"/>
       <c r="S327"/>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>567</v>
       </c>
@@ -18814,7 +18788,7 @@
       <c r="R328"/>
       <c r="S328"/>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>569</v>
       </c>
@@ -18856,7 +18830,7 @@
       <c r="R329"/>
       <c r="S329"/>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>571</v>
       </c>
@@ -18898,7 +18872,7 @@
       <c r="R330"/>
       <c r="S330"/>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>571</v>
       </c>
@@ -18940,7 +18914,7 @@
       <c r="R331"/>
       <c r="S331"/>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>573</v>
       </c>
@@ -18982,7 +18956,7 @@
       <c r="R332"/>
       <c r="S332"/>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>575</v>
       </c>
@@ -19024,7 +18998,7 @@
       <c r="R333"/>
       <c r="S333"/>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>1429</v>
       </c>
@@ -19069,7 +19043,7 @@
       </c>
       <c r="S334"/>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>577</v>
       </c>
@@ -19111,7 +19085,7 @@
       <c r="R335"/>
       <c r="S335"/>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>315</v>
       </c>
@@ -19148,7 +19122,7 @@
       <c r="R336"/>
       <c r="S336"/>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>315</v>
       </c>
@@ -19190,7 +19164,7 @@
       <c r="R337"/>
       <c r="S337"/>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>315</v>
       </c>
@@ -19232,7 +19206,7 @@
       <c r="R338"/>
       <c r="S338"/>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>315</v>
       </c>
@@ -19274,7 +19248,7 @@
       <c r="R339"/>
       <c r="S339"/>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>579</v>
       </c>
@@ -19316,7 +19290,7 @@
       <c r="R340"/>
       <c r="S340"/>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>581</v>
       </c>
@@ -19358,7 +19332,7 @@
       <c r="R341"/>
       <c r="S341"/>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>581</v>
       </c>
@@ -19400,7 +19374,7 @@
       <c r="R342"/>
       <c r="S342"/>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>583</v>
       </c>
@@ -19442,7 +19416,7 @@
       <c r="R343"/>
       <c r="S343"/>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>583</v>
       </c>
@@ -19484,7 +19458,7 @@
       <c r="R344"/>
       <c r="S344"/>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>583</v>
       </c>
@@ -19526,7 +19500,7 @@
       <c r="R345"/>
       <c r="S345"/>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>585</v>
       </c>
@@ -19568,7 +19542,7 @@
       <c r="R346"/>
       <c r="S346"/>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>587</v>
       </c>
@@ -19610,7 +19584,7 @@
       <c r="R347"/>
       <c r="S347"/>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>588</v>
       </c>
@@ -19652,7 +19626,7 @@
       <c r="R348"/>
       <c r="S348"/>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>590</v>
       </c>
@@ -19694,7 +19668,7 @@
       <c r="R349"/>
       <c r="S349"/>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>592</v>
       </c>
@@ -19736,7 +19710,7 @@
       <c r="R350"/>
       <c r="S350"/>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>592</v>
       </c>
@@ -19778,7 +19752,7 @@
       <c r="R351"/>
       <c r="S351"/>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>594</v>
       </c>
@@ -19820,7 +19794,7 @@
       <c r="R352"/>
       <c r="S352"/>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>596</v>
       </c>
@@ -19862,7 +19836,7 @@
       <c r="R353"/>
       <c r="S353"/>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>128</v>
       </c>
@@ -19875,7 +19849,7 @@
       <c r="R354"/>
       <c r="S354"/>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>598</v>
       </c>
@@ -19917,7 +19891,7 @@
       <c r="R355"/>
       <c r="S355"/>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>600</v>
       </c>
@@ -19959,7 +19933,7 @@
       <c r="R356"/>
       <c r="S356"/>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>602</v>
       </c>
@@ -20001,7 +19975,7 @@
       <c r="R357"/>
       <c r="S357"/>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>604</v>
       </c>
@@ -20043,7 +20017,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>110</v>
       </c>
@@ -20056,7 +20030,7 @@
       <c r="R359"/>
       <c r="S359"/>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>606</v>
       </c>
@@ -20098,7 +20072,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>182</v>
       </c>
@@ -20111,7 +20085,7 @@
       <c r="R361"/>
       <c r="S361"/>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>608</v>
       </c>
@@ -20153,7 +20127,7 @@
       <c r="R362"/>
       <c r="S362"/>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>610</v>
       </c>
@@ -20195,7 +20169,7 @@
       <c r="R363"/>
       <c r="S363"/>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>612</v>
       </c>
@@ -20237,7 +20211,7 @@
       <c r="R364"/>
       <c r="S364"/>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>184</v>
       </c>
@@ -20277,7 +20251,7 @@
       <c r="R365"/>
       <c r="S365"/>
     </row>
-    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>184</v>
       </c>
@@ -20326,7 +20300,7 @@
       <c r="R366"/>
       <c r="S366"/>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>615</v>
       </c>
@@ -20368,7 +20342,7 @@
       <c r="R367"/>
       <c r="S367"/>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>617</v>
       </c>
@@ -20410,7 +20384,7 @@
       <c r="R368"/>
       <c r="S368"/>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>138</v>
       </c>
@@ -20423,7 +20397,7 @@
       <c r="R369"/>
       <c r="S369"/>
     </row>
-    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>619</v>
       </c>
@@ -20465,7 +20439,7 @@
       <c r="R370"/>
       <c r="S370"/>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>621</v>
       </c>
@@ -20507,7 +20481,7 @@
       <c r="R371"/>
       <c r="S371"/>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>622</v>
       </c>
@@ -20552,7 +20526,7 @@
       <c r="R372"/>
       <c r="S372"/>
     </row>
-    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>622</v>
       </c>
@@ -20597,7 +20571,7 @@
       <c r="R373"/>
       <c r="S373"/>
     </row>
-    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>622</v>
       </c>
@@ -20642,7 +20616,7 @@
       <c r="R374"/>
       <c r="S374"/>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>622</v>
       </c>
@@ -20687,7 +20661,7 @@
       <c r="R375"/>
       <c r="S375"/>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>622</v>
       </c>
@@ -20732,7 +20706,7 @@
       <c r="R376"/>
       <c r="S376"/>
     </row>
-    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>622</v>
       </c>
@@ -20777,7 +20751,7 @@
       <c r="R377"/>
       <c r="S377"/>
     </row>
-    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>626</v>
       </c>
@@ -20819,7 +20793,7 @@
       <c r="R378"/>
       <c r="S378"/>
     </row>
-    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>628</v>
       </c>
@@ -20861,7 +20835,7 @@
       <c r="R379"/>
       <c r="S379"/>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>630</v>
       </c>
@@ -20903,7 +20877,7 @@
       <c r="R380"/>
       <c r="S380"/>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>130</v>
       </c>
@@ -20917,7 +20891,7 @@
       <c r="R381"/>
       <c r="S381"/>
     </row>
-    <row r="382" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>56</v>
       </c>
@@ -20952,12 +20926,12 @@
       <c r="P382" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="R382" s="15" t="s">
+      <c r="R382" s="14" t="s">
         <v>1446</v>
       </c>
       <c r="S382"/>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>22</v>
       </c>
@@ -20971,7 +20945,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>144</v>
       </c>
@@ -20985,7 +20959,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>1430</v>
       </c>
@@ -21027,7 +21001,7 @@
       </c>
       <c r="S385"/>
     </row>
-    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>142</v>
       </c>
@@ -21041,7 +21015,7 @@
       <c r="R386"/>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>312</v>
       </c>
@@ -21078,7 +21052,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>312</v>
       </c>
@@ -21120,7 +21094,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>312</v>
       </c>
@@ -21162,7 +21136,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>312</v>
       </c>
@@ -21204,7 +21178,7 @@
       <c r="R390"/>
       <c r="S390"/>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>633</v>
       </c>
@@ -21246,7 +21220,7 @@
       <c r="R391"/>
       <c r="S391"/>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>146</v>
       </c>
@@ -21292,7 +21266,7 @@
       </c>
       <c r="S392"/>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>146</v>
       </c>
@@ -21335,7 +21309,7 @@
       </c>
       <c r="S393"/>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>146</v>
       </c>
@@ -21372,7 +21346,7 @@
       <c r="R394"/>
       <c r="S394"/>
     </row>
-    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>148</v>
       </c>
@@ -21386,7 +21360,7 @@
       <c r="R395"/>
       <c r="S395"/>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>635</v>
       </c>
@@ -21428,7 +21402,7 @@
       <c r="R396"/>
       <c r="S396"/>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>637</v>
       </c>
@@ -21470,7 +21444,7 @@
       <c r="R397"/>
       <c r="S397"/>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>637</v>
       </c>
@@ -21512,7 +21486,7 @@
       <c r="R398"/>
       <c r="S398"/>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>639</v>
       </c>
@@ -21554,7 +21528,7 @@
       <c r="R399"/>
       <c r="S399"/>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>641</v>
       </c>
@@ -21596,7 +21570,7 @@
       <c r="R400"/>
       <c r="S400"/>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>641</v>
       </c>
@@ -21638,7 +21612,7 @@
       <c r="R401"/>
       <c r="S401"/>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>643</v>
       </c>
@@ -21680,7 +21654,7 @@
       <c r="R402"/>
       <c r="S402"/>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>643</v>
       </c>
@@ -21722,7 +21696,7 @@
       <c r="R403"/>
       <c r="S403"/>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>116</v>
       </c>
@@ -21736,7 +21710,7 @@
       <c r="R404"/>
       <c r="S404"/>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>74</v>
       </c>
@@ -21750,7 +21724,7 @@
       <c r="R405"/>
       <c r="S405"/>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>645</v>
       </c>
@@ -21792,7 +21766,7 @@
       <c r="R406"/>
       <c r="S406"/>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>310</v>
       </c>
@@ -21829,7 +21803,7 @@
       <c r="R407"/>
       <c r="S407"/>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>310</v>
       </c>
@@ -21870,7 +21844,7 @@
       <c r="R408"/>
       <c r="S408"/>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>647</v>
       </c>
@@ -21911,7 +21885,7 @@
       <c r="R409"/>
       <c r="S409"/>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>723</v>
       </c>
@@ -21952,7 +21926,7 @@
       <c r="R410"/>
       <c r="S410"/>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>723</v>
       </c>
@@ -21993,7 +21967,7 @@
       <c r="R411"/>
       <c r="S411"/>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>302</v>
       </c>
@@ -22028,7 +22002,7 @@
       <c r="R412"/>
       <c r="S412"/>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>302</v>
       </c>
@@ -22069,7 +22043,7 @@
       <c r="R413"/>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>302</v>
       </c>
@@ -22110,7 +22084,7 @@
       <c r="R414"/>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>650</v>
       </c>
@@ -22151,7 +22125,7 @@
       <c r="R415"/>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>154</v>
       </c>
@@ -22201,7 +22175,7 @@
       </c>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>154</v>
       </c>
@@ -22251,7 +22225,7 @@
       </c>
       <c r="S417"/>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>154</v>
       </c>
@@ -22301,7 +22275,7 @@
       </c>
       <c r="S418"/>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>154</v>
       </c>
@@ -22351,7 +22325,7 @@
       </c>
       <c r="S419"/>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>154</v>
       </c>
@@ -22401,7 +22375,7 @@
       </c>
       <c r="S420"/>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>154</v>
       </c>
@@ -22451,7 +22425,7 @@
       </c>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>154</v>
       </c>
@@ -22491,7 +22465,7 @@
       <c r="R422"/>
       <c r="S422"/>
     </row>
-    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>154</v>
       </c>
@@ -22543,7 +22517,7 @@
       <c r="R423"/>
       <c r="S423"/>
     </row>
-    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>154</v>
       </c>
@@ -22595,7 +22569,7 @@
       <c r="R424"/>
       <c r="S424"/>
     </row>
-    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>162</v>
       </c>
@@ -22608,7 +22582,7 @@
       <c r="R425"/>
       <c r="S425"/>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>720</v>
       </c>
@@ -22649,7 +22623,7 @@
       <c r="R426"/>
       <c r="S426"/>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>720</v>
       </c>
@@ -22690,7 +22664,7 @@
       <c r="R427"/>
       <c r="S427"/>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>654</v>
       </c>
@@ -22731,7 +22705,7 @@
       <c r="R428"/>
       <c r="S428"/>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>656</v>
       </c>
@@ -22772,7 +22746,7 @@
       <c r="R429"/>
       <c r="S429"/>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>658</v>
       </c>
@@ -22813,7 +22787,7 @@
       <c r="R430"/>
       <c r="S430"/>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>660</v>
       </c>
@@ -22854,7 +22828,7 @@
       <c r="R431"/>
       <c r="S431"/>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>660</v>
       </c>
@@ -22895,7 +22869,7 @@
       <c r="R432"/>
       <c r="S432"/>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>164</v>
       </c>
@@ -22935,7 +22909,7 @@
       <c r="R433"/>
       <c r="S433"/>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>661</v>
       </c>
@@ -22976,7 +22950,7 @@
       <c r="R434"/>
       <c r="S434"/>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>664</v>
       </c>
@@ -23017,7 +22991,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>667</v>
       </c>
@@ -23059,7 +23033,7 @@
       <c r="R436"/>
       <c r="S436"/>
     </row>
-    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>667</v>
       </c>
@@ -23101,7 +23075,7 @@
       <c r="R437"/>
       <c r="S437"/>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>668</v>
       </c>
@@ -23143,7 +23117,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>668</v>
       </c>
@@ -23185,7 +23159,7 @@
       <c r="R439"/>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>670</v>
       </c>
@@ -23227,7 +23201,7 @@
       <c r="R440"/>
       <c r="S440"/>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>166</v>
       </c>
@@ -23274,7 +23248,7 @@
       </c>
       <c r="S441"/>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>166</v>
       </c>
@@ -23321,7 +23295,7 @@
       </c>
       <c r="S442"/>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>170</v>
       </c>
@@ -23368,7 +23342,7 @@
       </c>
       <c r="S443"/>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>170</v>
       </c>
@@ -23408,7 +23382,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>170</v>
       </c>
@@ -23457,7 +23431,7 @@
       <c r="R445"/>
       <c r="S445"/>
     </row>
-    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>672</v>
       </c>
@@ -23499,7 +23473,7 @@
       <c r="R446"/>
       <c r="S446"/>
     </row>
-    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>172</v>
       </c>
@@ -23512,7 +23486,7 @@
       <c r="R447"/>
       <c r="S447"/>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>168</v>
       </c>
@@ -23525,7 +23499,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>673</v>
       </c>
@@ -23567,7 +23541,7 @@
       <c r="R449"/>
       <c r="S449"/>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>675</v>
       </c>
@@ -23609,7 +23583,7 @@
       <c r="R450"/>
       <c r="S450"/>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>677</v>
       </c>
@@ -23651,7 +23625,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>118</v>
       </c>
@@ -23698,7 +23672,7 @@
       </c>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>118</v>
       </c>
@@ -23745,7 +23719,7 @@
       </c>
       <c r="S453"/>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>118</v>
       </c>
@@ -23792,7 +23766,7 @@
       </c>
       <c r="S454"/>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>118</v>
       </c>
@@ -23832,7 +23806,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>118</v>
       </c>
@@ -23884,7 +23858,7 @@
       <c r="R456"/>
       <c r="S456"/>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>679</v>
       </c>
@@ -23926,7 +23900,7 @@
       <c r="R457"/>
       <c r="S457"/>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>681</v>
       </c>
@@ -23968,7 +23942,7 @@
       <c r="R458"/>
       <c r="S458"/>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>24</v>
       </c>
@@ -24010,7 +23984,7 @@
       <c r="R459"/>
       <c r="S459"/>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>24</v>
       </c>
@@ -24052,7 +24026,7 @@
       <c r="R460"/>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>24</v>
       </c>
@@ -24066,7 +24040,7 @@
       <c r="R461"/>
       <c r="S461"/>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>685</v>
       </c>
@@ -24108,7 +24082,7 @@
       <c r="R462"/>
       <c r="S462"/>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>687</v>
       </c>
@@ -24150,7 +24124,7 @@
       <c r="R463"/>
       <c r="S463"/>
     </row>
-    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>689</v>
       </c>
@@ -24192,7 +24166,7 @@
       <c r="R464"/>
       <c r="S464"/>
     </row>
-    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>1431</v>
       </c>
@@ -24234,7 +24208,7 @@
       </c>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>1431</v>
       </c>
@@ -24276,7 +24250,7 @@
       </c>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>176</v>
       </c>
@@ -24313,7 +24287,7 @@
       <c r="R467"/>
       <c r="S467"/>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>176</v>
       </c>
@@ -24362,7 +24336,7 @@
       </c>
       <c r="S468"/>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>176</v>
       </c>
@@ -24411,7 +24385,7 @@
       </c>
       <c r="S469"/>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
         <v>176</v>
       </c>
@@ -24460,7 +24434,7 @@
       </c>
       <c r="S470"/>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
         <v>176</v>
       </c>
@@ -24509,7 +24483,7 @@
       </c>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>176</v>
       </c>
@@ -24558,7 +24532,7 @@
       </c>
       <c r="S472"/>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>176</v>
       </c>
@@ -24607,7 +24581,7 @@
       </c>
       <c r="S473"/>
     </row>
-    <row r="474" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>176</v>
       </c>
@@ -24652,11 +24626,11 @@
       <c r="Q474" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="R474" s="15" t="s">
+      <c r="R474" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>106</v>
       </c>
@@ -24670,7 +24644,7 @@
       <c r="R475"/>
       <c r="S475"/>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>693</v>
       </c>
@@ -24711,7 +24685,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>693</v>
       </c>
@@ -24753,7 +24727,7 @@
       <c r="R477"/>
       <c r="S477"/>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>695</v>
       </c>
@@ -24795,7 +24769,7 @@
       <c r="R478"/>
       <c r="S478"/>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>180</v>
       </c>
@@ -24809,7 +24783,7 @@
       <c r="R479"/>
       <c r="S479"/>
     </row>
-    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>190</v>
       </c>
@@ -24823,7 +24797,7 @@
       <c r="R480"/>
       <c r="S480"/>
     </row>
-    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>699</v>
       </c>
@@ -24865,7 +24839,7 @@
       <c r="R481"/>
       <c r="S481"/>
     </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
         <v>701</v>
       </c>
@@ -24907,7 +24881,7 @@
       <c r="R482"/>
       <c r="S482"/>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>178</v>
       </c>
@@ -24921,7 +24895,7 @@
       <c r="R483"/>
       <c r="S483"/>
     </row>
-    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
         <v>703</v>
       </c>
@@ -24955,7 +24929,7 @@
       <c r="R484" s="2"/>
       <c r="S484" s="2"/>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>703</v>
       </c>
@@ -24997,7 +24971,7 @@
       <c r="R485"/>
       <c r="S485"/>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
         <v>152</v>
       </c>
@@ -25010,7 +24984,7 @@
       <c r="R486"/>
       <c r="S486"/>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
         <v>194</v>
       </c>
@@ -25023,7 +24997,7 @@
       <c r="R487"/>
       <c r="S487"/>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
         <v>196</v>
       </c>
@@ -25036,7 +25010,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>704</v>
       </c>
@@ -25078,7 +25052,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
         <v>706</v>
       </c>
@@ -25120,7 +25094,7 @@
       <c r="R490"/>
       <c r="S490"/>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
         <v>708</v>
       </c>
@@ -25162,7 +25136,7 @@
       <c r="R491"/>
       <c r="S491"/>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
         <v>708</v>
       </c>
@@ -25204,7 +25178,7 @@
       <c r="R492"/>
       <c r="S492"/>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
         <v>198</v>
       </c>
@@ -25244,7 +25218,7 @@
       <c r="R493" s="2"/>
       <c r="S493" s="2"/>
     </row>
-    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
         <v>710</v>
       </c>
@@ -25286,7 +25260,7 @@
       <c r="R494"/>
       <c r="S494"/>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>1432</v>
       </c>
@@ -25328,7 +25302,7 @@
       </c>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>712</v>
       </c>
@@ -25370,7 +25344,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
         <v>309</v>
       </c>
@@ -25404,7 +25378,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
         <v>30</v>
       </c>
@@ -25418,7 +25392,7 @@
       <c r="R498" s="2"/>
       <c r="S498" s="2"/>
     </row>
-    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
         <v>714</v>
       </c>
@@ -25459,7 +25433,7 @@
       <c r="R499"/>
       <c r="S499"/>
     </row>
-    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
         <v>200</v>
       </c>
@@ -25505,7 +25479,7 @@
       </c>
       <c r="S500"/>
     </row>
-    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
         <v>716</v>
       </c>
@@ -25546,7 +25520,7 @@
       <c r="R501"/>
       <c r="S501"/>
     </row>
-    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B502" s="9" t="s">
         <v>207</v>
       </c>
@@ -25580,7 +25554,7 @@
       <c r="R502"/>
       <c r="S502"/>
     </row>
-    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B503" s="9" t="s">
         <v>207</v>
       </c>
@@ -25611,7 +25585,7 @@
       <c r="R503"/>
       <c r="S503"/>
     </row>
-    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B504" s="9" t="s">
         <v>207</v>
       </c>
@@ -25648,7 +25622,7 @@
       <c r="R504"/>
       <c r="S504"/>
     </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B505" s="9" t="s">
         <v>207</v>
       </c>
@@ -25679,7 +25653,7 @@
       <c r="R505"/>
       <c r="S505"/>
     </row>
-    <row r="506" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B506" s="9" t="s">
         <v>207</v>
       </c>
@@ -25716,7 +25690,7 @@
       <c r="X506" s="2"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B507" s="9" t="s">
         <v>207</v>
       </c>
@@ -25756,7 +25730,7 @@
       <c r="X507" s="2"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B508" s="9" t="s">
         <v>207</v>
       </c>
@@ -25796,7 +25770,7 @@
       <c r="X508" s="2"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B509" s="9" t="s">
         <v>207</v>
       </c>
@@ -25833,7 +25807,7 @@
       <c r="X509" s="2"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B510" s="9" t="s">
         <v>207</v>
       </c>
@@ -25867,7 +25841,7 @@
       <c r="R510"/>
       <c r="S510"/>
     </row>
-    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B511" s="9" t="s">
         <v>207</v>
       </c>
@@ -25901,7 +25875,7 @@
       <c r="R511"/>
       <c r="S511"/>
     </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B512" s="9" t="s">
         <v>207</v>
       </c>
@@ -25935,7 +25909,7 @@
       <c r="R512"/>
       <c r="S512"/>
     </row>
-    <row r="513" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B513" s="9" t="s">
         <v>207</v>
       </c>
@@ -25969,7 +25943,7 @@
       <c r="R513"/>
       <c r="S513"/>
     </row>
-    <row r="514" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B514" s="9" t="s">
         <v>207</v>
       </c>
@@ -26003,7 +25977,7 @@
       <c r="R514"/>
       <c r="S514"/>
     </row>
-    <row r="515" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B515" s="9" t="s">
         <v>207</v>
       </c>
@@ -26040,7 +26014,7 @@
       <c r="R515"/>
       <c r="S515"/>
     </row>
-    <row r="516" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B516" s="9" t="s">
         <v>207</v>
       </c>
@@ -26077,7 +26051,7 @@
       <c r="R516"/>
       <c r="S516"/>
     </row>
-    <row r="517" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B517" s="9" t="s">
         <v>207</v>
       </c>
@@ -26111,7 +26085,7 @@
       <c r="R517"/>
       <c r="S517"/>
     </row>
-    <row r="518" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B518" s="9" t="s">
         <v>207</v>
       </c>
@@ -26145,7 +26119,7 @@
       <c r="R518"/>
       <c r="S518"/>
     </row>
-    <row r="519" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B519" s="9" t="s">
         <v>207</v>
       </c>
@@ -26179,7 +26153,7 @@
       <c r="R519"/>
       <c r="S519"/>
     </row>
-    <row r="520" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B520" s="9" t="s">
         <v>207</v>
       </c>
@@ -26213,7 +26187,7 @@
       <c r="R520"/>
       <c r="S520"/>
     </row>
-    <row r="521" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B521" s="9" t="s">
         <v>207</v>
       </c>
@@ -26247,7 +26221,7 @@
       <c r="R521"/>
       <c r="S521"/>
     </row>
-    <row r="522" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B522" s="9" t="s">
         <v>207</v>
       </c>
@@ -26281,7 +26255,7 @@
       <c r="R522"/>
       <c r="S522"/>
     </row>
-    <row r="523" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B523" s="9" t="s">
         <v>207</v>
       </c>
@@ -26315,7 +26289,7 @@
       <c r="R523"/>
       <c r="S523"/>
     </row>
-    <row r="524" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B524" s="9" t="s">
         <v>207</v>
       </c>
@@ -26354,16 +26328,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S524" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="mya"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="word list"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="15">
       <filters>
         <filter val="true"/>
@@ -26398,14 +26362,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="70.109375" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -26425,7 +26389,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -26448,7 +26412,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
@@ -26471,7 +26435,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
@@ -26494,7 +26458,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -26517,7 +26481,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -26537,7 +26501,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -26557,7 +26521,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
@@ -26580,7 +26544,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -26603,7 +26567,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
@@ -26626,7 +26590,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
@@ -26649,7 +26613,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -26672,7 +26636,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -26695,7 +26659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -26718,7 +26682,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -26741,7 +26705,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -26761,7 +26725,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -26781,7 +26745,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -26801,7 +26765,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -26821,7 +26785,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
@@ -26844,7 +26808,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>124</v>
       </c>
@@ -26867,7 +26831,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
@@ -26890,7 +26854,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>154</v>
       </c>
@@ -26913,7 +26877,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
@@ -26936,7 +26900,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>
@@ -26959,7 +26923,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -26979,7 +26943,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
@@ -26999,7 +26963,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -27019,7 +26983,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -27043,7 +27007,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -27067,7 +27031,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
@@ -27091,7 +27055,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
@@ -27115,7 +27079,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
@@ -27153,30 +27117,30 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -27235,7 +27199,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -27294,7 +27258,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -27353,7 +27317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -27412,7 +27376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -27471,7 +27435,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -27530,7 +27494,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -27589,7 +27553,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -27648,7 +27612,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -27707,7 +27671,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -27766,7 +27730,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -27825,7 +27789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -27884,7 +27848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -27943,7 +27907,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -28002,7 +27966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -28061,7 +28025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -28120,7 +28084,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
@@ -28179,7 +28143,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -28238,7 +28202,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -28297,7 +28261,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -28356,7 +28320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -28415,7 +28379,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
@@ -28474,7 +28438,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>158</v>
       </c>
@@ -28533,7 +28497,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -28592,7 +28556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -28651,7 +28615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -28710,7 +28674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
@@ -28769,7 +28733,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -28828,7 +28792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -28887,7 +28851,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -28946,7 +28910,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -29005,7 +28969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -29064,7 +29028,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -29123,7 +29087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -29182,7 +29146,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
@@ -29241,7 +29205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -29300,7 +29264,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -29359,7 +29323,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
@@ -29418,7 +29382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -29477,7 +29441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -29536,7 +29500,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>126</v>
       </c>
@@ -29595,7 +29559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
@@ -29654,7 +29618,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
@@ -29713,7 +29677,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -29772,7 +29736,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
@@ -29831,7 +29795,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -29890,7 +29854,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -29949,7 +29913,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
@@ -30008,7 +29972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
@@ -30067,7 +30031,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -30126,7 +30090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
@@ -30185,7 +30149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -30244,7 +30208,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -30303,7 +30267,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
@@ -30362,7 +30326,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
@@ -30421,7 +30385,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
@@ -30480,7 +30444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>84</v>
       </c>
@@ -30539,7 +30503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>150</v>
       </c>
@@ -30598,7 +30562,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -30657,7 +30621,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -30716,7 +30680,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>108</v>
       </c>
@@ -30775,7 +30739,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
@@ -30834,7 +30798,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -30893,7 +30857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
@@ -30952,7 +30916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
@@ -31011,7 +30975,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>192</v>
       </c>
@@ -31070,7 +31034,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>114</v>
       </c>
@@ -31129,7 +31093,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -31188,7 +31152,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -31247,7 +31211,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>182</v>
       </c>
@@ -31306,7 +31270,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>184</v>
       </c>
@@ -31365,7 +31329,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -31424,7 +31388,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -31483,7 +31447,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
@@ -31542,7 +31506,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -31601,7 +31565,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -31660,7 +31624,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -31719,7 +31683,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -31778,7 +31742,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -31837,7 +31801,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>116</v>
       </c>
@@ -31896,7 +31860,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>74</v>
       </c>
@@ -31955,7 +31919,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>154</v>
       </c>
@@ -32014,7 +31978,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>162</v>
       </c>
@@ -32073,7 +32037,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>164</v>
       </c>
@@ -32132,7 +32096,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>166</v>
       </c>
@@ -32191,7 +32155,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -32250,7 +32214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>172</v>
       </c>
@@ -32309,7 +32273,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
@@ -32368,7 +32332,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
@@ -32427,7 +32391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>24</v>
       </c>
@@ -32486,7 +32450,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
@@ -32545,7 +32509,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
@@ -32604,7 +32568,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>180</v>
       </c>
@@ -32663,7 +32627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -32722,7 +32686,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -32781,7 +32745,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>152</v>
       </c>
@@ -32840,7 +32804,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -32899,7 +32863,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>196</v>
       </c>
@@ -32958,7 +32922,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>198</v>
       </c>
@@ -33017,7 +32981,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>30</v>
       </c>
@@ -33076,7 +33040,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>200</v>
       </c>
@@ -33140,642 +33104,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185A4B97-72D3-4508-AB08-662CEDF4EEC7}">
-  <dimension ref="A1:B100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B101" xr:uid="{185A4B97-72D3-4508-AB08-662CEDF4EEC7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
-      <sortCondition ref="B1:B101"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
